--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7580781044003323</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.0462242672626729</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.0462242672626729</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07395882762027665</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1108978086436868</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04992220864368676</v>
+        <v>0.03353821404256867</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01240914601671741</v>
+        <v>0.008336582184586253</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0001224489748627502</v>
+        <v>0.004024399999999997</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007343479699278615</v>
+        <v>0.0006002062238805966</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007268501496958152</v>
+        <v>0.008024400000000015</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007807861138690744</v>
+        <v>0.000503692453328146</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01351583942355405</v>
+        <v>0.02941761679967625</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007210409811591615</v>
+        <v>0.0007658038577586221</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0246073022863913</v>
+        <v>0.004024399999999997</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007627170901539885</v>
+        <v>0.0006002062238805966</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.007568873480737683</v>
+        <v>0.008520134020154113</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001468695939855723</v>
+        <v>0.001548616075958045</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01385170014489288</v>
+        <v>0.02020305097485325</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001561572227738149</v>
+        <v>0.001539863195579659</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0243700251228498</v>
+        <v>0.0530410657832554</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001442081962318323</v>
+        <v>0.001531607715517244</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.04826728358552274</v>
+        <v>0.008520134020154113</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001525434180307977</v>
+        <v>0.001548616075958045</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01488773879726447</v>
+        <v>0.01213293241549548</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002203043909783585</v>
+        <v>0.002322924113937068</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01996205825961951</v>
+        <v>0.02830874774581088</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002342358341607223</v>
+        <v>0.002309794793369489</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03102440000000001</v>
+        <v>0.07302440000000004</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.001864536638535755</v>
+        <v>0.0024234509280266</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06698769223924456</v>
+        <v>0.01213293241549548</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002288151270461966</v>
+        <v>0.002322924113937068</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0146479184051808</v>
+        <v>0.01635008329813371</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002937391879711446</v>
+        <v>0.00309723215191609</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02461203815695337</v>
+        <v>0.03722083532414586</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003123144455476298</v>
+        <v>0.003079726391159319</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04059157730635676</v>
+        <v>0.08031962802462905</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002884163924636646</v>
+        <v>0.003063215431034488</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.07702440000000005</v>
+        <v>0.01635008329813371</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002949459679978812</v>
+        <v>0.00309723215191609</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.00413638200557247</v>
+        <v>0.0006002062238805966</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02773456035760375</v>
+        <v>0.004024399999999997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01866318373494982</v>
+        <v>0.01934363154219387</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003671739849639308</v>
+        <v>0.003871540189895114</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02861410215270981</v>
+        <v>0.04540093826688882</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003903930569345372</v>
+        <v>0.003849657988949148</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04698248188964679</v>
+        <v>0.08666502808723231</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003605204905795807</v>
+        <v>0.003829019288793111</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.08306435081962538</v>
+        <v>0.01934363154219387</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003813585450769943</v>
+        <v>0.003871540189895114</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02773456035760375</v>
+        <v>0.02248562202180106</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00413638200557247</v>
+        <v>0.004645848227874136</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03002439999999999</v>
+        <v>0.05141068113107022</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004477892791044775</v>
+        <v>0.004619589586738977</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05123327041997391</v>
+        <v>0.09177311501777935</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004326245886954968</v>
+        <v>0.004594823146551733</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.088355184562041</v>
+        <v>0.02248562202180106</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004576302540923931</v>
+        <v>0.004645848227874136</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02643395562783158</v>
+        <v>0.02544809961108029</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005140435789495031</v>
+        <v>0.005420156265853159</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0311445820873972</v>
+        <v>0.05741168847372072</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00546550279708352</v>
+        <v>0.005389521184528808</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05654211447371829</v>
+        <v>0.09736327222467689</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00504728686811413</v>
+        <v>0.005385303004397607</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.09241480026346499</v>
+        <v>0.02544809961108029</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005339019631077919</v>
+        <v>0.005420156265853159</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02676263330068431</v>
+        <v>0.02820310918415664</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005874783759422892</v>
+        <v>0.006194464303832181</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03138139649042462</v>
+        <v>0.06216558485187071</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006246288910952595</v>
+        <v>0.006159452782318637</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06080718562726029</v>
+        <v>0.0991442375586658</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005768327849273292</v>
+        <v>0.006126430862068977</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09736327222467689</v>
+        <v>0.02820310918415664</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006213811158920317</v>
+        <v>0.006194464303832181</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02783704571018785</v>
+        <v>0.03052269561515519</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006609131729350754</v>
+        <v>0.006968772341811204</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03211351809046152</v>
+        <v>0.06545074313362279</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007027075024821669</v>
+        <v>0.006847250340861353</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06545074313362279</v>
+        <v>0.1037912450956772</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006555877985931082</v>
+        <v>0.0068922347198276</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1003261853887992</v>
+        <v>0.03052269561515519</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006864453811385897</v>
+        <v>0.006968772341811204</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03171442848196553</v>
+        <v>0.03237890377820098</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007343479699278615</v>
+        <v>0.007743080379790227</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03291075661713788</v>
+        <v>0.06783845357590126</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007807861138690744</v>
+        <v>0.007699315977898296</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06792317665954911</v>
+        <v>0.1059899876231305</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007210409811591613</v>
+        <v>0.007658038577586222</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1054632578250048</v>
+        <v>0.03237890377820098</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007627170901539885</v>
+        <v>0.007743080379790227</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03745201724164075</v>
+        <v>0.03353821404256867</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008077827669206478</v>
+        <v>0.008336582184586253</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
+        <v>0.06987922885261749</v>
+      </c>
+      <c r="K76" s="171" t="n">
+        <v>0.008469247575688127</v>
+      </c>
+      <c r="L76" s="172" t="n">
+        <v>0.1105394791454364</v>
+      </c>
+      <c r="M76" s="170" t="n">
+        <v>0.008423842435344844</v>
+      </c>
+      <c r="N76" s="171" t="n">
         <v>0.03353821404256867</v>
       </c>
-      <c r="K76" s="171" t="n">
+      <c r="O76" s="172" t="n">
         <v>0.008336582184586253</v>
-      </c>
-      <c r="L76" s="172" t="n">
-        <v>0.07090583638242468</v>
-      </c>
-      <c r="M76" s="170" t="n">
-        <v>0.007931450792750774</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.1100290930894395</v>
-      </c>
-      <c r="O76" s="172" t="n">
-        <v>0.008389887991693873</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.04010704761483683</v>
+        <v>0.03489545170277444</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008812175639134339</v>
+        <v>0.009291696455748273</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03449315446043125</v>
+        <v>0.07346398043629826</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009369433366428892</v>
+        <v>0.009239179173477954</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07526635202442408</v>
+        <v>0.1125387336670059</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008652491773909936</v>
+        <v>0.009189646293103466</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1133965527849787</v>
+        <v>0.03489545170277444</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009152605081847863</v>
+        <v>0.009291696455748273</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03573675522717718</v>
+        <v>0.03601419294528395</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009546523609062201</v>
+        <v>0.01006600449372729</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03564200431567187</v>
+        <v>0.07599264030839392</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01015021948029797</v>
+        <v>0.01000911077126778</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07779500268645875</v>
+        <v>0.1159867651922495</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009373532755069098</v>
+        <v>0.009955450150862088</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1191384985144979</v>
+        <v>0.03601419294528395</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009915322172001851</v>
+        <v>0.01006600449372729</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04339837570428515</v>
+        <v>0.03721035887706127</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01028087157899006</v>
+        <v>0.01084031253170632</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03725836215442437</v>
+        <v>0.07736514045035486</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01093100559416704</v>
+        <v>0.01077904236905762</v>
       </c>
       <c r="L79" t="n">
-        <v>0.08228206746944011</v>
+        <v>0.1201825877255781</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01009457373622826</v>
+        <v>0.01072125400862071</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1240277918808725</v>
+        <v>0.03721035887706127</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01067803926215584</v>
+        <v>0.01084031253170632</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04114914467178411</v>
+        <v>0.03878358801502554</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01101521954891792</v>
+        <v>0.01161462056968534</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03861888143863032</v>
+        <v>0.08038141284363137</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01171179170803612</v>
+        <v>0.01154897396684744</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08551782547427958</v>
+        <v>0.1234252152714025</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01081561471738742</v>
+        <v>0.01148705786637933</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1285372944869778</v>
+        <v>0.03878358801502554</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01144075635230983</v>
+        <v>0.01161462056968534</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0420462977552974</v>
+        <v>0.03993351887609591</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01174956751884578</v>
+        <v>0.01238892860766436</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04080021563023142</v>
+        <v>0.08214138946967386</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01249257782190519</v>
+        <v>0.01231890556463727</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08869255580188859</v>
+        <v>0.1266136618341335</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01153665569854658</v>
+        <v>0.01225286172413795</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1329398679356891</v>
+        <v>0.03993351887609591</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01220347344246382</v>
+        <v>0.01238892860766436</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04992220864368676</v>
+        <v>0.04095978997719152</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01240914601671741</v>
+        <v>0.01316323664564339</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0421790181911693</v>
+        <v>0.08504500230993262</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01327336393577427</v>
+        <v>0.0130888371624271</v>
       </c>
       <c r="L82" t="n">
-        <v>0.09129653755317857</v>
+        <v>0.1283469414181817</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01225769667970574</v>
+        <v>0.01301866558189658</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1368083738298819</v>
+        <v>0.04095978997719152</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0129661905326178</v>
+        <v>0.01316323664564339</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.05253841957102274</v>
+        <v>0.04276203983523151</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01321826345870151</v>
+        <v>0.01393754468362241</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04423194258338557</v>
+        <v>0.08699218334585807</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01405415004964334</v>
+        <v>0.01385876876021693</v>
       </c>
       <c r="L83" t="n">
-        <v>0.09452004982906087</v>
+        <v>0.131324068027958</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01297873766086491</v>
+        <v>0.0137844694396552</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1427156737724317</v>
+        <v>0.04276203983523151</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01372890762277179</v>
+        <v>0.01393754468362241</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.05121849759564204</v>
+        <v>0.04343990696713501</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01395261142862937</v>
+        <v>0.01471185272160143</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04583564226882195</v>
+        <v>0.08938286455890043</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01483493616351241</v>
+        <v>0.01462870035800676</v>
       </c>
       <c r="L84" t="n">
-        <v>0.09805337173044709</v>
+        <v>0.1355440556678732</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01369977864202407</v>
+        <v>0.01455027329741382</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1476346293662137</v>
+        <v>0.04343990696713501</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01449162471292578</v>
+        <v>0.01471185272160143</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.05613894116240695</v>
+        <v>0.04459302988982117</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01468695939855723</v>
+        <v>0.01548616075958045</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04806677070942</v>
+        <v>0.09141697793051023</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01561572227738149</v>
+        <v>0.01539863195579659</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09998678235824848</v>
+        <v>0.136905918342338</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01442081962318323</v>
+        <v>0.01531607715517244</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1511381022141036</v>
+        <v>0.04459302988982117</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01525434180307977</v>
+        <v>0.01548616075958045</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.06025094977345754</v>
+        <v>0.04602104712020913</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01542130736848509</v>
+        <v>0.01626046879755948</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04970198136712146</v>
+        <v>0.09429445544213771</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01639650839125056</v>
+        <v>0.01616856355358642</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1030105608133766</v>
+        <v>0.1408086700557631</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01514186060434239</v>
+        <v>0.01608188101293107</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1555989539189765</v>
+        <v>0.04602104712020913</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01601705889323376</v>
+        <v>0.01626046879755948</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06050572293093383</v>
+        <v>0.04702359717521805</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01615565533841296</v>
+        <v>0.0170347768355385</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05171792770386789</v>
+        <v>0.09531522907523327</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01717729450511964</v>
+        <v>0.01693849515137625</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1059149861967428</v>
+        <v>0.1426513248125596</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01586290158550155</v>
+        <v>0.01684768487068969</v>
       </c>
       <c r="N87" t="n">
-        <v>0.159090046083708</v>
+        <v>0.04702359717521805</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01677977598338775</v>
+        <v>0.0170347768355385</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.06285446013697601</v>
+        <v>0.04840031857176703</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01689000330834082</v>
+        <v>0.01780908487351752</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05359126318160098</v>
+        <v>0.09717923081124724</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01795808061898871</v>
+        <v>0.01770842674916608</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1093903376092585</v>
+        <v>0.1460328966171378</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01658394256666071</v>
+        <v>0.01761348872844831</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1637842403111733</v>
+        <v>0.04840031857176703</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01754249307354174</v>
+        <v>0.01780908487351752</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.06924836089372413</v>
+        <v>0.04945084982677525</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01762435127826868</v>
+        <v>0.01858339291149655</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05559864126226238</v>
+        <v>0.09958639263162994</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01873886673285778</v>
+        <v>0.01847835834695591</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1116268941518352</v>
+        <v>0.1476523994739088</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01730498354781987</v>
+        <v>0.01837929258620693</v>
       </c>
       <c r="N89" t="n">
-        <v>0.166854398204248</v>
+        <v>0.04945084982677525</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01830521016369573</v>
+        <v>0.01858339291149655</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0706386247033183</v>
+        <v>0.05007482945716182</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01835869924819654</v>
+        <v>0.01935770094947557</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05741671540779371</v>
+        <v>0.1016366465178317</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01951965284672686</v>
+        <v>0.01924828994474574</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1130149349253843</v>
+        <v>0.1515088473872834</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01802602452897904</v>
+        <v>0.01914509644396555</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1703733813658074</v>
+        <v>0.05007482945716182</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01906792725384971</v>
+        <v>0.01935770094947557</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0719764510678986</v>
+        <v>0.0510718959798459</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0190930472181244</v>
+        <v>0.02013200898745459</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05852213908013665</v>
+        <v>0.103329924451303</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02030043896059594</v>
+        <v>0.02001822154253557</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1161447390308172</v>
+        <v>0.1532012543616722</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0187470655101382</v>
+        <v>0.01991090030172418</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1753140513987269</v>
+        <v>0.0510718959798459</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0198306443440037</v>
+        <v>0.02013200898745459</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.08021303948960515</v>
+        <v>0.05184168791174663</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01982739518805226</v>
+        <v>0.02090631702543361</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0600915657412328</v>
+        <v>0.104566158413494</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02108122507446501</v>
+        <v>0.0207881531403254</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1176065855690452</v>
+        <v>0.1568286344014861</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01946810649129736</v>
+        <v>0.0206767041594828</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1783492699058819</v>
+        <v>0.05184168791174663</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02059336143415769</v>
+        <v>0.02090631702543361</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.08129958947057797</v>
+        <v>0.05288384376978314</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02056174315798012</v>
+        <v>0.02168062506341263</v>
       </c>
       <c r="J93" t="n">
-        <v>0.06160164885302381</v>
+        <v>0.1066452803858552</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02186201118833408</v>
+        <v>0.02155808473811523</v>
       </c>
       <c r="L93" t="n">
-        <v>0.11889075364098</v>
+        <v>0.1584900015111357</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02018914747245652</v>
+        <v>0.02144250801724142</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1798518984901478</v>
+        <v>0.05288384376978314</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02135607852431168</v>
+        <v>0.02168062506341263</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.08618730051295723</v>
+        <v>0.05379800207087458</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02129609112790799</v>
+        <v>0.02245493310139166</v>
       </c>
       <c r="J94" t="n">
-        <v>0.06302904187745138</v>
+        <v>0.107967222349837</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02264279730220316</v>
+        <v>0.02232801633590506</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1213875223475328</v>
+        <v>0.1602843696950318</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02091018845361568</v>
+        <v>0.02220831187500004</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1817947987544</v>
+        <v>0.05379800207087458</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02211879561446567</v>
+        <v>0.02245493310139166</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.084827372118883</v>
+        <v>0.05468380133194009</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02203043909783585</v>
+        <v>0.02322924113937068</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06375039827645708</v>
+        <v>0.1100319162868895</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02342358341607223</v>
+        <v>0.02309794793369489</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1225871707896151</v>
+        <v>0.1630107529575854</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02163122943477484</v>
+        <v>0.02297411573275866</v>
       </c>
       <c r="N95" t="n">
-        <v>0.183750832301514</v>
+        <v>0.05468380133194009</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02288151270461966</v>
+        <v>0.02322924113937068</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.09117100379049539</v>
+        <v>0.05554088006989881</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02276478706776371</v>
+        <v>0.0240035491773497</v>
       </c>
       <c r="J96" t="n">
-        <v>0.06404237151198268</v>
+        <v>0.1117392941784633</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02420436952994131</v>
+        <v>0.02386787953148472</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1228799780681383</v>
+        <v>0.1660681653032072</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02235227041593401</v>
+        <v>0.02373991959051729</v>
       </c>
       <c r="N96" t="n">
-        <v>0.186192860734365</v>
+        <v>0.05554088006989881</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02364422979477365</v>
+        <v>0.0240035491773497</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.08616939502993443</v>
+        <v>0.05676887680166988</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02349913503769157</v>
+        <v>0.02477785721532872</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06478161504596967</v>
+        <v>0.1134892880060087</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02498515564381038</v>
+        <v>0.02463781112927455</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1246562232840139</v>
+        <v>0.1680556207363078</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02307331139709317</v>
+        <v>0.02450572344827591</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1869937456558285</v>
+        <v>0.05676887680166988</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02440694688492763</v>
+        <v>0.02477785721532872</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.08677374533934026</v>
+        <v>0.05766743004417245</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02423348300761943</v>
+        <v>0.02555216525330775</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06514478234035977</v>
+        <v>0.114881829750976</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02576594175767945</v>
+        <v>0.02540774272706438</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1248061855381533</v>
+        <v>0.1693721332612981</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02379435237825233</v>
+        <v>0.02527152730603453</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1873263486687801</v>
+        <v>0.05766743004417245</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02516966397508162</v>
+        <v>0.02555216525330775</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.095935254220853</v>
+        <v>0.05833617831432564</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02496783097754729</v>
+        <v>0.02632647329128677</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06467602120360146</v>
+        <v>0.1159168513948154</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02654672787154853</v>
+        <v>0.02617767432485421</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1260201439314678</v>
+        <v>0.1713167168825888</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02451539335941149</v>
+        <v>0.02603733116379315</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1873872130672631</v>
+        <v>0.05833617831432564</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02593238106523561</v>
+        <v>0.02632647329128677</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.08960512117661271</v>
+        <v>0.05897476012904861</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02570217894747516</v>
+        <v>0.02710078132926579</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06476348523902391</v>
+        <v>0.1161942849189776</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0273275139854176</v>
+        <v>0.02694760592264404</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1255883775648692</v>
+        <v>0.1722883856045908</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02523643434057065</v>
+        <v>0.02680313502155177</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1875607301167926</v>
+        <v>0.05897476012904861</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0266950981553896</v>
+        <v>0.02710078132926579</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09174925486277274</v>
+        <v>0.05968281400526047</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02643652691740302</v>
+        <v>0.02787508936724482</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06442730417645647</v>
+        <v>0.1176140623049127</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02810830009928668</v>
+        <v>0.02771753752043387</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1264001497927805</v>
+        <v>0.1739861534317147</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02595747532172981</v>
+        <v>0.0275689388793104</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1858084780309666</v>
+        <v>0.05968281400526047</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02745781524554359</v>
+        <v>0.02787508936724482</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.09561983677740321</v>
+        <v>0.05995997845988044</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02717087488733088</v>
+        <v>0.02864939740522384</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06408737778529618</v>
+        <v>0.119076115534071</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02888908621315575</v>
+        <v>0.02848746911822369</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1255518973108298</v>
+        <v>0.1763090343683715</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02667851630288897</v>
+        <v>0.02833474273706902</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1856512875958963</v>
+        <v>0.05995997845988044</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02822053233569757</v>
+        <v>0.02864939740522384</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09733995310444857</v>
+        <v>0.06060589200982755</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02790522285725874</v>
+        <v>0.02942370544320286</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06336360583493998</v>
+        <v>0.1206803765879031</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02966987232702483</v>
+        <v>0.02925740071601353</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1254694652024907</v>
+        <v>0.1777560424189716</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02739955728404813</v>
+        <v>0.02910054659482764</v>
       </c>
       <c r="N103" t="n">
-        <v>0.185209989597693</v>
+        <v>0.06060589200982755</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02898324942585157</v>
+        <v>0.02942370544320286</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.08793091987741133</v>
+        <v>0.06122019317202101</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0286395708271866</v>
+        <v>0.03019801348118189</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06247588809478498</v>
+        <v>0.1218267774478592</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0304506584408939</v>
+        <v>0.03002733231380336</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1243821977930973</v>
+        <v>0.1800261915879263</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0281205982652073</v>
+        <v>0.02986635045258626</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1846054148224681</v>
+        <v>0.06122019317202101</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02974596651600556</v>
+        <v>0.03019801348118189</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.09041405312979423</v>
+        <v>0.06180252046337996</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02937391879711446</v>
+        <v>0.03097232151916091</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06244412433422819</v>
+        <v>0.1230152500953897</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03123144455476298</v>
+        <v>0.03079726391159318</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1237194394079835</v>
+        <v>0.1812184958796459</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02884163924636645</v>
+        <v>0.03063215431034489</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1824583940563327</v>
+        <v>0.06180252046337996</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03050868360615954</v>
+        <v>0.03097232151916091</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.09381066889509981</v>
+        <v>0.06285251240082354</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03010826676704232</v>
+        <v>0.03174662955713993</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06118821432266662</v>
+        <v>0.1234457265119449</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03201223066863205</v>
+        <v>0.03156719550938301</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1232105343724834</v>
+        <v>0.1831319692985414</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02956268022752562</v>
+        <v>0.03139795816810351</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1812897580853982</v>
+        <v>0.06285251240082354</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03127140069631353</v>
+        <v>0.03174662955713993</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.09414208320683073</v>
+        <v>0.06326980750127086</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03084261473697019</v>
+        <v>0.03252093759511895</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0605280578294973</v>
+        <v>0.124818138678975</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03279301678250113</v>
+        <v>0.03233712710717284</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1214848270119308</v>
+        <v>0.1837656258490236</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03028372120868478</v>
+        <v>0.03216376202586213</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1799203376957759</v>
+        <v>0.06326980750127086</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03203411778646752</v>
+        <v>0.03252093759511895</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.09042961209848965</v>
+        <v>0.06375404428164108</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03157696270689805</v>
+        <v>0.03329524563309798</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06028355462411727</v>
+        <v>0.1246324185779307</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0335738028963702</v>
+        <v>0.03310705870496267</v>
       </c>
       <c r="L108" t="n">
-        <v>0.12017166165166</v>
+        <v>0.1852184795355031</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03100476218984394</v>
+        <v>0.03292956588362075</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1783709636735771</v>
+        <v>0.06375404428164108</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03279683487662151</v>
+        <v>0.03329524563309798</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.08469457160357913</v>
+        <v>0.06410486125885338</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03231131067682591</v>
+        <v>0.034069553671077</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05967460447592357</v>
+        <v>0.1252884981902621</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03435458901023927</v>
+        <v>0.03387699030275251</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1193003826170048</v>
+        <v>0.1872895443623909</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0317258031710031</v>
+        <v>0.03369536974137938</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1775624668049131</v>
+        <v>0.06410486125885338</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03355955196677549</v>
+        <v>0.034069553671077</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0859582777556018</v>
+        <v>0.06452189694982681</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03304565864675377</v>
+        <v>0.03484386170905602</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05902110715431319</v>
+        <v>0.1267863094974195</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03513537512410835</v>
+        <v>0.03464692190054233</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1176003342332992</v>
+        <v>0.1884778343340976</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03244684415216226</v>
+        <v>0.03446117359913799</v>
       </c>
       <c r="N110" t="n">
-        <v>0.175615677875895</v>
+        <v>0.06452189694982681</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03432226905692948</v>
+        <v>0.03484386170905602</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.08924204658806031</v>
+        <v>0.06490478987148059</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03378000661668163</v>
+        <v>0.03561816974703504</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05844296242868317</v>
+        <v>0.1277257844808536</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03591616123797742</v>
+        <v>0.03541685349833217</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1172008608258773</v>
+        <v>0.188282363455034</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03316788513332142</v>
+        <v>0.03522697745689662</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1737514276726343</v>
+        <v>0.06490478987148059</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03508498614708348</v>
+        <v>0.03561816974703504</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0895671941344573</v>
+        <v>0.06535317854073379</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03451435458660949</v>
+        <v>0.03639247778501407</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05836007006843054</v>
+        <v>0.1272068551220144</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0366969473518465</v>
+        <v>0.03618678509612199</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1150313067200731</v>
+        <v>0.1892021457296109</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03388892611448059</v>
+        <v>0.03599278131465524</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1721905469812422</v>
+        <v>0.06535317854073379</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03584770323723746</v>
+        <v>0.03639247778501407</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.08495503642829536</v>
+        <v>0.06526670147450568</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03524870255653736</v>
+        <v>0.03716678582299309</v>
       </c>
       <c r="J113" t="n">
-        <v>0.05809232984295233</v>
+        <v>0.1276294534023523</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03747773346571557</v>
+        <v>0.03695671669391182</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1146210162412206</v>
+        <v>0.1912361951622391</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03460996709563974</v>
+        <v>0.03675858517241386</v>
       </c>
       <c r="N113" t="n">
-        <v>0.17065386658783</v>
+        <v>0.06526670147450568</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03661042032739145</v>
+        <v>0.03716678582299309</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.08942688950307714</v>
+        <v>0.06584499718971525</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03598305052646521</v>
+        <v>0.03794109386097211</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05795964152164557</v>
+        <v>0.1289935113033178</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03825851957958465</v>
+        <v>0.03772664829170165</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1127993337146537</v>
+        <v>0.1914835257573292</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03533100807679891</v>
+        <v>0.03752438903017248</v>
       </c>
       <c r="N114" t="n">
-        <v>0.169862217278509</v>
+        <v>0.06584499718971525</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03737313741754544</v>
+        <v>0.03794109386097211</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.08800406939230523</v>
+        <v>0.06608770420328171</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03671739849639308</v>
+        <v>0.03871540189895113</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05765918762520661</v>
+        <v>0.1289989608063612</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03903930569345372</v>
+        <v>0.03849657988949148</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1120956034657065</v>
+        <v>0.1924431515192924</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03605204905795807</v>
+        <v>0.0382901928879311</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1683364298393904</v>
+        <v>0.06608770420328171</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03813585450769943</v>
+        <v>0.03871540189895113</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.08770789212948224</v>
+        <v>0.0660944610321242</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03745174646632094</v>
+        <v>0.03948970993693016</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05771697294451306</v>
+        <v>0.1291457338929328</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03982009180732279</v>
+        <v>0.03926651148728131</v>
       </c>
       <c r="L116" t="n">
-        <v>0.110439169819713</v>
+        <v>0.191414086452539</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03677309003911723</v>
+        <v>0.03905599674568973</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1672973350565856</v>
+        <v>0.0660944610321242</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03889857159785342</v>
+        <v>0.03948970993693016</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.08355967374811088</v>
+        <v>0.06616490619316188</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0381860944362488</v>
+        <v>0.04026401797490917</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05792248022318604</v>
+        <v>0.1297337625444829</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04060087792119187</v>
+        <v>0.04003644308507114</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1107593771020071</v>
+        <v>0.19259534456148</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03749413102027639</v>
+        <v>0.03982180060344835</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1660657637162058</v>
+        <v>0.06616490619316188</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0396612886880074</v>
+        <v>0.04026401797490917</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.08755838989261633</v>
+        <v>0.06649867820331386</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03892044240617667</v>
+        <v>0.0410383260128882</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05807243388186127</v>
+        <v>0.1299629787424619</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04138166403506095</v>
+        <v>0.04080637468286097</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1105855696379229</v>
+        <v>0.1938859398505261</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03821517200143556</v>
+        <v>0.04058760446120697</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1639625466043624</v>
+        <v>0.06649867820331386</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04042400577816139</v>
+        <v>0.0410383260128882</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08562662981819524</v>
+        <v>0.0666954155794993</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03965479037610452</v>
+        <v>0.04181263405086723</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0582635583411745</v>
+        <v>0.1297333144683203</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04216245014893002</v>
+        <v>0.0415763062806508</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1094470917527945</v>
+        <v>0.1942848863240881</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03893621298259472</v>
+        <v>0.04135340831896559</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1639085145071665</v>
+        <v>0.0666954155794993</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04118672286831539</v>
+        <v>0.04181263405086723</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.08975201668411686</v>
+        <v>0.06707642808513732</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04038913834603239</v>
+        <v>0.04258694208884625</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05819257802176143</v>
+        <v>0.1309014862672456</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04294323626279909</v>
+        <v>0.04234623787844063</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1094466326452899</v>
+        <v>0.1931911979865769</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03965725396375388</v>
+        <v>0.04211921217672421</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1631244982107296</v>
+        <v>0.06707642808513732</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04194943995846937</v>
+        <v>0.04258694208884625</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08193045478398972</v>
+        <v>0.06657634049764706</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04112348631596024</v>
+        <v>0.04336125012682527</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05845621734425784</v>
+        <v>0.1298970724294761</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04372402237666816</v>
+        <v>0.04311616947623046</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1100838911007075</v>
+        <v>0.1947265444493538</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04037829494491304</v>
+        <v>0.04288501603448284</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1623313285011628</v>
+        <v>0.06657634049764706</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04271215704862336</v>
+        <v>0.04336125012682527</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08415784841142243</v>
+        <v>0.0669670460367502</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04185783428588811</v>
+        <v>0.04413555816480429</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05895120072929939</v>
+        <v>0.1300826569059162</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04450480849053724</v>
+        <v>0.04388610107402029</v>
       </c>
       <c r="L122" t="n">
-        <v>0.10963851206306</v>
+        <v>0.1946240093663833</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0410993359260722</v>
+        <v>0.04365081989224145</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1609498361645775</v>
+        <v>0.0669670460367502</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04347487413877735</v>
+        <v>0.04413555816480429</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0834301018600235</v>
+        <v>0.06643669841542922</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04259218225581597</v>
+        <v>0.04490986620278331</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05907425259752183</v>
+        <v>0.1296740483392672</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04528559460440632</v>
+        <v>0.04465603267181012</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1108019693517703</v>
+        <v>0.1932816611834161</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04182037690723137</v>
+        <v>0.04441662375000009</v>
       </c>
       <c r="N123" t="n">
-        <v>0.160700851987085</v>
+        <v>0.06643669841542922</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04423759122893133</v>
+        <v>0.04490986620278331</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.08374311942340157</v>
+        <v>0.06658626143136569</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04332653022574383</v>
+        <v>0.04568417424076234</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05952209736956088</v>
+        <v>0.1305744713812397</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04606638071827539</v>
+        <v>0.04542596426959995</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1109657367862613</v>
+        <v>0.192888428643135</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04254141788839052</v>
+        <v>0.0451824276077587</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1627219300708937</v>
+        <v>0.06658626143136569</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04500030831908532</v>
+        <v>0.04568417424076234</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09109280539516515</v>
+        <v>0.0665166615947549</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0440608781956717</v>
+        <v>0.04645848227874136</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05999145946605228</v>
+        <v>0.1293903688649664</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04684716683214446</v>
+        <v>0.04619589586738978</v>
       </c>
       <c r="L125" t="n">
-        <v>0.111421288185956</v>
+        <v>0.1940459797455586</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04326245886954969</v>
+        <v>0.04594823146551733</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1620312186670273</v>
+        <v>0.0665166615947549</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04576302540923931</v>
+        <v>0.04645848227874136</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08747506406892286</v>
+        <v>0.06672882541579216</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04479522616559956</v>
+        <v>0.04723279031672038</v>
       </c>
       <c r="J126" t="n">
-        <v>0.06037906330763174</v>
+        <v>0.1298281836235796</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04762795294601354</v>
+        <v>0.04696582746517961</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1116600973702774</v>
+        <v>0.1929559824907051</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04398349985070885</v>
+        <v>0.04671403532327595</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1623046258716946</v>
+        <v>0.06672882541579216</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0465257424993933</v>
+        <v>0.04723279031672038</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0858857997382832</v>
+        <v>0.06612367940467266</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04552957413552742</v>
+        <v>0.04800709835469941</v>
       </c>
       <c r="J127" t="n">
-        <v>0.060881633314935</v>
+        <v>0.1293943584902118</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04840873905988261</v>
+        <v>0.04773575906296943</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1127736381586484</v>
+        <v>0.1925201048785932</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04470454083186801</v>
+        <v>0.04747983918103457</v>
       </c>
       <c r="N127" t="n">
-        <v>0.163417769579827</v>
+        <v>0.06612367940467266</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04728845958954729</v>
+        <v>0.04800709835469941</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0923209166968548</v>
+        <v>0.06610215007159169</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04626392210545528</v>
+        <v>0.04878140639267842</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06129589390859776</v>
+        <v>0.1289953362979957</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04918952517375169</v>
+        <v>0.04850569066075926</v>
       </c>
       <c r="L128" t="n">
-        <v>0.114053384370492</v>
+        <v>0.1920400149092414</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04542558181302717</v>
+        <v>0.04824564303879319</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1646462676863558</v>
+        <v>0.06610215007159169</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04805117667970128</v>
+        <v>0.04878140639267842</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09177631923824614</v>
+        <v>0.06606516392674446</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04699827007538314</v>
+        <v>0.04955571443065745</v>
       </c>
       <c r="J129" t="n">
-        <v>0.06201856950925576</v>
+        <v>0.1271375598800635</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04997031128762076</v>
+        <v>0.0492756222585491</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1148908098252313</v>
+        <v>0.1921173805826681</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04614662279418633</v>
+        <v>0.04901144689655181</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1654657380862121</v>
+        <v>0.06606516392674446</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04881389376985527</v>
+        <v>0.04955571443065745</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.08624791165606588</v>
+        <v>0.06591364748032631</v>
       </c>
       <c r="G130" t="n">
-        <v>0.047732618045311</v>
+        <v>0.05033002246863647</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06244638453754472</v>
+        <v>0.127327472069548</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05075109740148984</v>
+        <v>0.05004555385633893</v>
       </c>
       <c r="L130" t="n">
-        <v>0.115077388342289</v>
+        <v>0.1930538698988919</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04686766377534549</v>
+        <v>0.04977725075431044</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1680517986743273</v>
+        <v>0.06591364748032631</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04957661086000925</v>
+        <v>0.05033002246863647</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.09173159824392257</v>
+        <v>0.0660485272425325</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04846696601523887</v>
+        <v>0.0511043305066155</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06227606341410039</v>
+        <v>0.1270715156995815</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05153188351535891</v>
+        <v>0.05081548545412876</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1169045937410882</v>
+        <v>0.1920511508579312</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04758870475650465</v>
+        <v>0.05054305461206906</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1687800673456329</v>
+        <v>0.0660485272425325</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05033932795016324</v>
+        <v>0.0511043305066155</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08922328329542473</v>
+        <v>0.06587072972355822</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04920131398516672</v>
+        <v>0.05187863854459452</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06270433055955847</v>
+        <v>0.1257761336032966</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05231266962922799</v>
+        <v>0.05158541705191858</v>
       </c>
       <c r="L132" t="n">
-        <v>0.116563899841052</v>
+        <v>0.1917108914598045</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04830974573766381</v>
+        <v>0.05130885846982768</v>
       </c>
       <c r="N132" t="n">
-        <v>0.17052616199506</v>
+        <v>0.06587072972355822</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05110204504031723</v>
+        <v>0.05187863854459452</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.08571887110418097</v>
+        <v>0.06558118143359877</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04993566195509459</v>
+        <v>0.05265294658257354</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06312791039455469</v>
+        <v>0.1247477686138257</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05309345574309706</v>
+        <v>0.05235534864970842</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1179467804616032</v>
+        <v>0.1911347597045304</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04903078671882297</v>
+        <v>0.05207466232758631</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1723657005175399</v>
+        <v>0.06558118143359877</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05186476213047122</v>
+        <v>0.05265294658257354</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.09121426596379986</v>
+        <v>0.0651808088828494</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05067000992502245</v>
+        <v>0.05342725462055257</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06364352733972477</v>
+        <v>0.1239928635643014</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05387424185696614</v>
+        <v>0.05312528024749824</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1188447094221647</v>
+        <v>0.1911244235921273</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04975182769998214</v>
+        <v>0.05284046618534492</v>
       </c>
       <c r="N134" t="n">
-        <v>0.175774300808004</v>
+        <v>0.0651808088828494</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05262747922062521</v>
+        <v>0.05342725462055257</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.08870537216788996</v>
+        <v>0.06497053858150541</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05140435789495031</v>
+        <v>0.05420156265853158</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06404790581570445</v>
+        <v>0.1237178612878561</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05465502797083521</v>
+        <v>0.05389521184528807</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1195491605421596</v>
+        <v>0.1898815511226137</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05047286868114129</v>
+        <v>0.05360627004310355</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1769275807613835</v>
+        <v>0.06497053858150541</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0533901963107792</v>
+        <v>0.05420156265853158</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.09518809401005981</v>
+        <v>0.06495129703976203</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05213870586487818</v>
+        <v>0.05497587069651061</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06483777024312944</v>
+        <v>0.1225292046176223</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05543581408470429</v>
+        <v>0.05466514344307791</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1207516076410109</v>
+        <v>0.1895078102960081</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05119390966230046</v>
+        <v>0.05437207390086217</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1778011582726098</v>
+        <v>0.06495129703976203</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05415291340093318</v>
+        <v>0.05497587069651061</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.08865833578391796</v>
+        <v>0.06452401076781451</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05287305383480603</v>
+        <v>0.05575017873448963</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06470984504263548</v>
+        <v>0.1216333363867326</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05621660019857335</v>
+        <v>0.05543507504086773</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1227435245381416</v>
+        <v>0.188404869112329</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05191495064345962</v>
+        <v>0.0551378777586208</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1807706512366142</v>
+        <v>0.06452401076781451</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05491563049108718</v>
+        <v>0.05575017873448963</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09711200178307305</v>
+        <v>0.06458960627585818</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05360740180473389</v>
+        <v>0.05652448677246866</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06546085463485825</v>
+        <v>0.1209366994283194</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05699738631244243</v>
+        <v>0.05620500663865757</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1231163850529744</v>
+        <v>0.1880743955715948</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05263599162461878</v>
+        <v>0.05590368161637941</v>
       </c>
       <c r="N138" t="n">
-        <v>0.183211677548328</v>
+        <v>0.06458960627585818</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05567834758124117</v>
+        <v>0.05652448677246866</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09554499630113361</v>
+        <v>0.06434901007408821</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05434174977466175</v>
+        <v>0.05729879481044768</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06548752344043356</v>
+        <v>0.1201457365755152</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05777817242631151</v>
+        <v>0.05697493823644739</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1247616630049325</v>
+        <v>0.1879180576738242</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05335703260577794</v>
+        <v>0.05666948547413803</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1836998551026824</v>
+        <v>0.06434901007408821</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05644106467139515</v>
+        <v>0.05729879481044768</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.09695322363170822</v>
+        <v>0.06380314867269987</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05507609774458962</v>
+        <v>0.05807310284842671</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06628657587999702</v>
+        <v>0.1198668906614526</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05855895854018058</v>
+        <v>0.05774486983423722</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1249708322134388</v>
+        <v>0.1860375234190356</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05407807358693711</v>
+        <v>0.05743528933189666</v>
       </c>
       <c r="N140" t="n">
-        <v>0.186110801794609</v>
+        <v>0.06380314867269987</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05720378176154915</v>
+        <v>0.05807310284842671</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.09633258806840542</v>
+        <v>0.06335294858188849</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05581044571451748</v>
+        <v>0.05884741088640572</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06625473637418448</v>
+        <v>0.118906604519264</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05933974465404965</v>
+        <v>0.05851480143202705</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1255353664979162</v>
+        <v>0.1854344608072474</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05479911456809627</v>
+        <v>0.05820109318965529</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1889201355190387</v>
+        <v>0.06335294858188849</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05796649885170314</v>
+        <v>0.05884741088640572</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0906789939048338</v>
+        <v>0.06319933631184928</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05654479368444534</v>
+        <v>0.05962171892438475</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06618872934363158</v>
+        <v>0.1180713209820819</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06012053076791873</v>
+        <v>0.05928473302981688</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1265467396777877</v>
+        <v>0.1845105378384782</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05552015554925543</v>
+        <v>0.0589668970474139</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1906034741709031</v>
+        <v>0.06319933631184928</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05872921594185711</v>
+        <v>0.05962171892438475</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.09198834543460191</v>
+        <v>0.06304323837277752</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0572791416543732</v>
+        <v>0.06039602696236377</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06688527920897409</v>
+        <v>0.1180674828830388</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06090131688178781</v>
+        <v>0.06005466462760671</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1271964255724764</v>
+        <v>0.1838674225127465</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05624119653041459</v>
+        <v>0.05973270090517252</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1909364356451334</v>
+        <v>0.06304323837277752</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05949193303201111</v>
+        <v>0.06039602696236377</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09625654695131836</v>
+        <v>0.06288558127486846</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05801348962430106</v>
+        <v>0.06117033500034279</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06707642808513732</v>
+        <v>0.1169015330552672</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06168210299565689</v>
+        <v>0.06082459622539654</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1275758980014052</v>
+        <v>0.1840067828300707</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05696223751157375</v>
+        <v>0.06049850476293115</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1918946378366607</v>
+        <v>0.06288558127486846</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06025465012216509</v>
+        <v>0.06117033500034279</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.09247950274859162</v>
+        <v>0.06232729152831736</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05874783759422892</v>
+        <v>0.06194464303832182</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06699875434300796</v>
+        <v>0.1155799143318996</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06246288910952595</v>
+        <v>0.06159452782318637</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1286766307839969</v>
+        <v>0.1828302867904694</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05768327849273291</v>
+        <v>0.06126430862068977</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1947265444493538</v>
+        <v>0.06232729152831736</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06101736721231908</v>
+        <v>0.06194464303832182</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.09465311712003038</v>
+        <v>0.0624692956433195</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05948218556415679</v>
+        <v>0.06271895107630084</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06725140828378427</v>
+        <v>0.1151090695460686</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06324367522339502</v>
+        <v>0.0623644594209762</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1289900977396746</v>
+        <v>0.1820396023939611</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05840431947389207</v>
+        <v>0.06203011247844838</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1951319177687244</v>
+        <v>0.0624692956433195</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06178008430247308</v>
+        <v>0.06271895107630084</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.09877329435924312</v>
+        <v>0.06191252013007012</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06021653353408465</v>
+        <v>0.06349325911427986</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06720311691201307</v>
+        <v>0.1155954415309065</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0640244613372641</v>
+        <v>0.06313439101876603</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1292077726878612</v>
+        <v>0.1810363976405641</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05912536045505123</v>
+        <v>0.06279591633620701</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1949968421957884</v>
+        <v>0.06191252013007012</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06254280139262706</v>
+        <v>0.06349325911427986</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.09283593875983845</v>
+        <v>0.0617578914987645</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06095088150401251</v>
+        <v>0.06426756715225888</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06775363166089189</v>
+        <v>0.1139454731195459</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06480524745113318</v>
+        <v>0.06390432261655586</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1297211294479799</v>
+        <v>0.1800223405302971</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05984640143621039</v>
+        <v>0.06356172019396564</v>
       </c>
       <c r="N148" t="n">
-        <v>0.19546486414725</v>
+        <v>0.0617578914987645</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06330551848278106</v>
+        <v>0.06426756715225888</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.09984441728737353</v>
+        <v>0.06170633625959787</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06168522947394037</v>
+        <v>0.06504187519023791</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06740270396361826</v>
+        <v>0.1137655706479717</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06558603356500226</v>
+        <v>0.06467425421434568</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1308216418394534</v>
+        <v>0.1795990990631785</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06056744241736956</v>
+        <v>0.06432752405172426</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1978319696127337</v>
+        <v>0.06170633625959787</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06406823557293503</v>
+        <v>0.06504187519023791</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.09483280545631884</v>
+        <v>0.06105878092276554</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06241957744386823</v>
+        <v>0.06581618322821693</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06765008525338985</v>
+        <v>0.1140280017233799</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06636681967887133</v>
+        <v>0.06544418581213551</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1309014862672456</v>
+        <v>0.1778683412392268</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06128848339852872</v>
+        <v>0.06509332790948287</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1979941445818642</v>
+        <v>0.06105878092276554</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06483095266308903</v>
+        <v>0.06581618322821693</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.09781239419765628</v>
+        <v>0.06111615199846274</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06315392541379609</v>
+        <v>0.06659049126619596</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06779552696340414</v>
+        <v>0.1135044905154318</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0671476057927404</v>
+        <v>0.06621411740992535</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1304087281717892</v>
+        <v>0.1780317350584606</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06200952437968789</v>
+        <v>0.06585913176724149</v>
       </c>
       <c r="N151" t="n">
-        <v>0.198447375044266</v>
+        <v>0.06111615199846274</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06559366975324302</v>
+        <v>0.06659049126619596</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.09578247936302636</v>
+        <v>0.06067937599688472</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06388827338372395</v>
+        <v>0.06736479930417497</v>
       </c>
       <c r="J152" t="n">
-        <v>0.06823878052685882</v>
+        <v>0.1133944558356696</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06792839190660947</v>
+        <v>0.06698404900771518</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1303162179285783</v>
+        <v>0.1780909485208984</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06273056536084703</v>
+        <v>0.06662493562500012</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1999876469895636</v>
+        <v>0.06067937599688472</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06635638684339699</v>
+        <v>0.06736479930417497</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.09474360391657488</v>
+        <v>0.06054937942822679</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06462262135365182</v>
+        <v>0.06813910734215399</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06807959737695131</v>
+        <v>0.1134973164956358</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06870917802047855</v>
+        <v>0.06775398060550501</v>
       </c>
       <c r="L153" t="n">
-        <v>0.12962348783973</v>
+        <v>0.1772476496265584</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06345160634200619</v>
+        <v>0.06739073948275875</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1998109464073816</v>
+        <v>0.06054937942822679</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06711910393355099</v>
+        <v>0.06813910734215399</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.09969631082244759</v>
+        <v>0.06022708880268415</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06535696932357968</v>
+        <v>0.06891341538013301</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0681177289468793</v>
+        <v>0.1121124913068724</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06948996413434763</v>
+        <v>0.06852391220329483</v>
       </c>
       <c r="L154" t="n">
-        <v>0.130830538928149</v>
+        <v>0.1751035063754594</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06417264732316537</v>
+        <v>0.06815654334051736</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2006132592873444</v>
+        <v>0.06022708880268415</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06788182102370499</v>
+        <v>0.06891341538013301</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.09364114304479035</v>
+        <v>0.0604134306304521</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06609131729350755</v>
+        <v>0.06968772341811204</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0687529266698403</v>
+        <v>0.1123393990809218</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07027075024821669</v>
+        <v>0.06929384380108466</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1296373722167397</v>
+        <v>0.1748601867676198</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06489368830432453</v>
+        <v>0.06892234719827599</v>
       </c>
       <c r="N155" t="n">
-        <v>0.2009905716190769</v>
+        <v>0.0604134306304521</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06864453811385897</v>
+        <v>0.06968772341811204</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.09757864354774887</v>
+        <v>0.0602093314217259</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0668256652634354</v>
+        <v>0.07046203145609106</v>
       </c>
       <c r="J156" t="n">
-        <v>0.06838494197903196</v>
+        <v>0.1125774586293264</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07105153636208578</v>
+        <v>0.0700637753988745</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1299439887284072</v>
+        <v>0.1728193588030581</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06561472928548369</v>
+        <v>0.06968815105603461</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2023388693922033</v>
+        <v>0.0602093314217259</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06940725520401296</v>
+        <v>0.07046203145609106</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.09150935529546894</v>
+        <v>0.05951571768670078</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06756001323336326</v>
+        <v>0.07123633949407009</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0687135263076518</v>
+        <v>0.1122260887636282</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07183232247595484</v>
+        <v>0.07083370699666433</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1309503894860559</v>
+        <v>0.1734826904817927</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06633577026664285</v>
+        <v>0.07045395491379323</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2024541385963483</v>
+        <v>0.05951571768670078</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07016997229416695</v>
+        <v>0.07123633949407009</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.09343382125209637</v>
+        <v>0.05983351593557203</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06829436120329113</v>
+        <v>0.07201064753204911</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06893843108889737</v>
+        <v>0.1118847082953697</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07261310858982392</v>
+        <v>0.07160363859445416</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1301565755125906</v>
+        <v>0.1719518498038423</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06705681124780201</v>
+        <v>0.07121975877155184</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2047323652211365</v>
+        <v>0.05983351593557203</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07093268938432093</v>
+        <v>0.07201064753204911</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.09435258438177696</v>
+        <v>0.05966365267853492</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06902870917321899</v>
+        <v>0.07278495557002813</v>
       </c>
       <c r="J159" t="n">
-        <v>0.06885940775596629</v>
+        <v>0.1111527360360933</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07339389470369299</v>
+        <v>0.07237357019224398</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1299625478309163</v>
+        <v>0.1706285047692251</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06777785222896118</v>
+        <v>0.07198556262931048</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2048695352561923</v>
+        <v>0.05966365267853492</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07169540647447492</v>
+        <v>0.07278495557002813</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.09026618764865649</v>
+        <v>0.05960705442578469</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06976305714314686</v>
+        <v>0.07355926360800716</v>
       </c>
       <c r="J160" t="n">
-        <v>0.06897620774205614</v>
+        <v>0.110929590797341</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07417468081756207</v>
+        <v>0.07314350179003382</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1305683074639372</v>
+        <v>0.1696143233779599</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06849889321012033</v>
+        <v>0.07275136648706911</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2051616346911404</v>
+        <v>0.05960705442578469</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07245812356462891</v>
+        <v>0.07355926360800716</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.09317517401688069</v>
+        <v>0.05906464768751661</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07049740511307472</v>
+        <v>0.07433357164598618</v>
       </c>
       <c r="J161" t="n">
-        <v>0.06938858248036449</v>
+        <v>0.1114146913906552</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07495546693143114</v>
+        <v>0.07391343338782363</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1307738554345583</v>
+        <v>0.1694097110597789</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06921993419127949</v>
+        <v>0.07351717034482773</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2056046495156053</v>
+        <v>0.05906464768751661</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0732208406547829</v>
+        <v>0.07433357164598618</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.09208008645059543</v>
+        <v>0.05913645860705459</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07123175308300257</v>
+        <v>0.07510787968396521</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06929628340408887</v>
+        <v>0.1110074566275783</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07573625304530021</v>
+        <v>0.07468336498561347</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1307791927656844</v>
+        <v>0.1683677747585255</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06994097517243865</v>
+        <v>0.07428297420258635</v>
       </c>
       <c r="N162" t="n">
-        <v>0.2055945657192115</v>
+        <v>0.05913645860705459</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0739835577449369</v>
+        <v>0.07510787968396521</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.09198146791394643</v>
+        <v>0.05881642525852729</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07196610105293043</v>
+        <v>0.07588218772194422</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06909906194642688</v>
+        <v>0.1105073053196524</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0765170391591693</v>
+        <v>0.0754532965834033</v>
       </c>
       <c r="L163" t="n">
-        <v>0.12988432048022</v>
+        <v>0.1687675307009805</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07066201615359782</v>
+        <v>0.07504877806034496</v>
       </c>
       <c r="N163" t="n">
-        <v>0.2073273692915835</v>
+        <v>0.05881642525852729</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07474627483509087</v>
+        <v>0.07588218772194422</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.09287986137107948</v>
+        <v>0.05890290033321777</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0727004490228583</v>
+        <v>0.07665649575992324</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06939666954057609</v>
+        <v>0.1104136562784198</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07729782527303837</v>
+        <v>0.07622322818119313</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1300892396010699</v>
+        <v>0.1667137085489115</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07138305713475698</v>
+        <v>0.07581458191810359</v>
       </c>
       <c r="N164" t="n">
-        <v>0.2067990462223462</v>
+        <v>0.05890290033321777</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07550899192524486</v>
+        <v>0.07665649575992324</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.09777580978614042</v>
+        <v>0.0583954645246246</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07343479699278616</v>
+        <v>0.07743080379790226</v>
       </c>
       <c r="J165" t="n">
-        <v>0.06938885761973408</v>
+        <v>0.1102259283154229</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07807861138690744</v>
+        <v>0.07699315977898297</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1304939511511388</v>
+        <v>0.1667110379640862</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07210409811591614</v>
+        <v>0.07658038577586221</v>
       </c>
       <c r="N165" t="n">
-        <v>0.2080055825011237</v>
+        <v>0.0583954645246246</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07627170901539886</v>
+        <v>0.07743080379790226</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.09166985612327497</v>
+        <v>0.05829369852624636</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07416914496271403</v>
+        <v>0.07820511183588129</v>
       </c>
       <c r="J166" t="n">
-        <v>0.06947537761709845</v>
+        <v>0.109843540242204</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07885939750077652</v>
+        <v>0.0777630913767728</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1302984561533314</v>
+        <v>0.1646642486082722</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0728251390970753</v>
+        <v>0.07734618963362083</v>
       </c>
       <c r="N166" t="n">
-        <v>0.2069429641175409</v>
+        <v>0.05829369852624636</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07703442610555285</v>
+        <v>0.07820511183588129</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.09856254334662892</v>
+        <v>0.05879718303158159</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07490349293264188</v>
+        <v>0.07897941987386031</v>
       </c>
       <c r="J167" t="n">
-        <v>0.06965598096586671</v>
+        <v>0.1092659108703053</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07964018361464559</v>
+        <v>0.07853302297456262</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1306027556305525</v>
+        <v>0.1646780701432373</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07354618007823446</v>
+        <v>0.07811199349137946</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2073071770612221</v>
+        <v>0.05879718303158159</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07779714319570684</v>
+        <v>0.07897941987386031</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.09445441442034813</v>
+        <v>0.05840549873412888</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07563784090256974</v>
+        <v>0.07975372791183932</v>
       </c>
       <c r="J168" t="n">
-        <v>0.07003041909923653</v>
+        <v>0.110092459011269</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08042096972851466</v>
+        <v>0.07930295457235245</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1310068506057067</v>
+        <v>0.1625572322307491</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07426722105939362</v>
+        <v>0.07887779734913808</v>
       </c>
       <c r="N168" t="n">
-        <v>0.207394207321792</v>
+        <v>0.05840549873412888</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07855986028586082</v>
+        <v>0.07975372791183932</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.09834601230857828</v>
+        <v>0.05811822632738674</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07637218887249761</v>
+        <v>0.08052803594981835</v>
       </c>
       <c r="J169" t="n">
-        <v>0.07019844345040537</v>
+        <v>0.1090226034766376</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08120175584238375</v>
+        <v>0.08007288617014227</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1308107421016987</v>
+        <v>0.1606064645325755</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07498826204055278</v>
+        <v>0.0796436012068967</v>
       </c>
       <c r="N169" t="n">
-        <v>0.207799613945478</v>
+        <v>0.05811822632738674</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07932257737601481</v>
+        <v>0.08052803594981835</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.09023787997546523</v>
+        <v>0.05843494650485376</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07710653684242547</v>
+        <v>0.08130234398779738</v>
       </c>
       <c r="J170" t="n">
-        <v>0.06965980545257087</v>
+        <v>0.1090557630779532</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08198254195625281</v>
+        <v>0.0808428177679321</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1302144311414333</v>
+        <v>0.1599304967104841</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07570930302171194</v>
+        <v>0.08040940506465533</v>
       </c>
       <c r="N170" t="n">
-        <v>0.2073184489766631</v>
+        <v>0.05843494650485376</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0800852944661688</v>
+        <v>0.08130234398779738</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.09313056038515474</v>
+        <v>0.05795523996002849</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07784088481235334</v>
+        <v>0.08207665202577641</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0698142565389306</v>
+        <v>0.1095913566267582</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08276332807012189</v>
+        <v>0.08161274936572194</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1300179187478153</v>
+        <v>0.1587340584262426</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07643034400287112</v>
+        <v>0.08117520892241394</v>
       </c>
       <c r="N171" t="n">
-        <v>0.2076529959332266</v>
+        <v>0.05795523996002849</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08084801155632278</v>
+        <v>0.08207665202577641</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.08902459650179262</v>
+        <v>0.05817868738640952</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07857523278228118</v>
+        <v>0.08285096006375543</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07036154814268218</v>
+        <v>0.1087288029345947</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08354411418399095</v>
+        <v>0.08238268096351177</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1303212059437491</v>
+        <v>0.1585218793416186</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07715138498403028</v>
+        <v>0.08194101278017256</v>
       </c>
       <c r="N172" t="n">
-        <v>0.207506708065983</v>
+        <v>0.05817868738640952</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08161072864647678</v>
+        <v>0.08285096006375543</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0919205312895246</v>
+        <v>0.05770486947749537</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07930958075220905</v>
+        <v>0.08362526810173446</v>
       </c>
       <c r="J173" t="n">
-        <v>0.06980143169702309</v>
+        <v>0.1094675208130053</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08432490029786004</v>
+        <v>0.0831526125613016</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1305242937521397</v>
+        <v>0.1560986891183799</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07787242596518944</v>
+        <v>0.08270681663793118</v>
       </c>
       <c r="N173" t="n">
-        <v>0.206983038625747</v>
+        <v>0.05770486947749537</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08237344573663077</v>
+        <v>0.08362526810173446</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.09381890771249654</v>
+        <v>0.05793336692678464</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08004392872213691</v>
+        <v>0.08439957613971347</v>
       </c>
       <c r="J174" t="n">
-        <v>0.07033365863515094</v>
+        <v>0.1091069290735321</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08510568641172911</v>
+        <v>0.08392254415909144</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1298271831958916</v>
+        <v>0.1562692174182942</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0785934669463486</v>
+        <v>0.08347262049568982</v>
       </c>
       <c r="N174" t="n">
-        <v>0.207585440863333</v>
+        <v>0.05793336692678464</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08313616282678475</v>
+        <v>0.08439957613971347</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.09672026873485415</v>
+        <v>0.05816376042777582</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08077827669206478</v>
+        <v>0.08517388417769249</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07015798039026332</v>
+        <v>0.1090464465277173</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08588647252559818</v>
+        <v>0.08469247575688126</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1306298752979097</v>
+        <v>0.1539381939031291</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07931450792750776</v>
+        <v>0.08423842435344843</v>
       </c>
       <c r="N175" t="n">
-        <v>0.2057173680295555</v>
+        <v>0.05816376042777582</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08389887991693874</v>
+        <v>0.08517388417769249</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.08962515732074322</v>
+        <v>0.05759563067396756</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08151262466199265</v>
+        <v>0.08594819221567152</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07047414839555778</v>
+        <v>0.1084854919871033</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08666725863946727</v>
+        <v>0.08546240735467109</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1307323710810986</v>
+        <v>0.1528103482346523</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08003554890866692</v>
+        <v>0.08500422821120705</v>
       </c>
       <c r="N176" t="n">
-        <v>0.2048822733752291</v>
+        <v>0.05759563067396756</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08466159700709272</v>
+        <v>0.08594819221567152</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.08853411643430961</v>
+        <v>0.05772855835885835</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08224697263192049</v>
+        <v>0.08672250025365054</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07018191408423193</v>
+        <v>0.1080234842632323</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08744804475333633</v>
+        <v>0.08623233895246092</v>
       </c>
       <c r="L177" t="n">
-        <v>0.130734671568363</v>
+        <v>0.1511904100746317</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08075658988982608</v>
+        <v>0.08577003206896568</v>
       </c>
       <c r="N177" t="n">
-        <v>0.2047836101511682</v>
+        <v>0.05772855835885835</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08542431409724671</v>
+        <v>0.08672250025365054</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.09644371330020243</v>
+        <v>0.05796212417594679</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08298132060184836</v>
+        <v>0.08749680829162956</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07007453049981806</v>
+        <v>0.1084598421676467</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08822883086720541</v>
+        <v>0.08700227055025075</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1304367777826078</v>
+        <v>0.1502831090848347</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08147763087098524</v>
+        <v>0.0865358359267243</v>
       </c>
       <c r="N178" t="n">
-        <v>0.2047248316081875</v>
+        <v>0.05796212417594679</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08618703118740072</v>
+        <v>0.08749680829162956</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.09634780390207459</v>
+        <v>0.0577959088187314</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08371566857177622</v>
+        <v>0.08827111632960859</v>
       </c>
       <c r="J179" t="n">
-        <v>0.07042615283752986</v>
+        <v>0.1081939845118887</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08900961698107449</v>
+        <v>0.08777220214804057</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1301386907467375</v>
+        <v>0.1501931749270293</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0821986718521444</v>
+        <v>0.08730163978448291</v>
       </c>
       <c r="N179" t="n">
-        <v>0.2042093909971014</v>
+        <v>0.0577959088187314</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08694974827755469</v>
+        <v>0.08827111632960859</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.08824671028543285</v>
+        <v>0.05742949298071079</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08445001654170409</v>
+        <v>0.0890454243675876</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07013623048304075</v>
+        <v>0.1076253301075007</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08979040309494356</v>
+        <v>0.08854213374583041</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1301404114836567</v>
+        <v>0.147825337262983</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08291971283330357</v>
+        <v>0.08806744364224155</v>
       </c>
       <c r="N180" t="n">
-        <v>0.2019407415687245</v>
+        <v>0.05742949298071079</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08771246536770869</v>
+        <v>0.0890454243675876</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.09614085557926427</v>
+        <v>0.05716245735538349</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08518436451163194</v>
+        <v>0.08981973240556662</v>
       </c>
       <c r="J181" t="n">
-        <v>0.06990717596842784</v>
+        <v>0.1078532977660248</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09057118920881263</v>
+        <v>0.08931206534362024</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1305419410162705</v>
+        <v>0.1461843257544635</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08364075381446273</v>
+        <v>0.08883324750000017</v>
       </c>
       <c r="N181" t="n">
-        <v>0.2018223365738713</v>
+        <v>0.05716245735538349</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08847518245786266</v>
+        <v>0.08981973240556662</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.09303066291255604</v>
+        <v>0.05749438263624805</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0859187124815598</v>
+        <v>0.09059404044354565</v>
       </c>
       <c r="J182" t="n">
-        <v>0.06974140182576814</v>
+        <v>0.1074773062990034</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0913519753226817</v>
+        <v>0.09008199694141006</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1298432803674833</v>
+        <v>0.1454748700632386</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08436179479562188</v>
+        <v>0.08959905135775879</v>
       </c>
       <c r="N182" t="n">
-        <v>0.2016576292633563</v>
+        <v>0.05749438263624805</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08923789954801666</v>
+        <v>0.09059404044354565</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.09691655541429534</v>
+        <v>0.05712484951680306</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08665306045148766</v>
+        <v>0.09136834848152468</v>
       </c>
       <c r="J183" t="n">
-        <v>0.06974132058713865</v>
+        <v>0.1077967745179788</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09213276143655078</v>
+        <v>0.09085192853919989</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1304444305601999</v>
+        <v>0.1445016998510759</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08508283577678104</v>
+        <v>0.0903648552155174</v>
       </c>
       <c r="N183" t="n">
-        <v>0.2011500728879942</v>
+        <v>0.05712484951680306</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09000061663817065</v>
+        <v>0.09136834848152468</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.09279895621346912</v>
+        <v>0.05705343869054706</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08738740842141553</v>
+        <v>0.09214265651950371</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06960934478461649</v>
+        <v>0.1065111212344932</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09291354755041986</v>
+        <v>0.09162186013698972</v>
       </c>
       <c r="L184" t="n">
-        <v>0.130545392617325</v>
+        <v>0.1429695447797431</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08580387675794021</v>
+        <v>0.09113065907327603</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1990031206985992</v>
+        <v>0.05705343869054706</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09076333372832464</v>
+        <v>0.09214265651950371</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.09067828843906459</v>
+        <v>0.05727973085097861</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0881217563913434</v>
+        <v>0.09291696455748272</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06874788695027863</v>
+        <v>0.106119765260089</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09369433366428892</v>
+        <v>0.09239179173477956</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1307461675617633</v>
+        <v>0.1419831345110079</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08652491773909937</v>
+        <v>0.09189646293103465</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1985202259459862</v>
+        <v>0.05727973085097861</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09152605081847863</v>
+        <v>0.09291696455748272</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.09055497522006895</v>
+        <v>0.05730330669159628</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08885610436127125</v>
+        <v>0.09369127259546174</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06895935961620213</v>
+        <v>0.1069221254063083</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09447511977815801</v>
+        <v>0.09316172333256939</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1310467564164196</v>
+        <v>0.1420471987066381</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08724595872025853</v>
+        <v>0.09266226678879327</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1965048418809694</v>
+        <v>0.05730330669159628</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09228876790863262</v>
+        <v>0.09369127259546174</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.08742943968546921</v>
+        <v>0.05712374690589862</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08959045233119911</v>
+        <v>0.09446558063344077</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06844617531446405</v>
+        <v>0.1063176204846936</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09525590589202708</v>
+        <v>0.09393165493035922</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1304471602041986</v>
+        <v>0.1411664670284013</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08796699970141769</v>
+        <v>0.0934280706465519</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1953604217543635</v>
+        <v>0.05712374690589862</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0930514849987866</v>
+        <v>0.09446558063344077</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.08730210496425247</v>
+        <v>0.05684063218738422</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09032480030112697</v>
+        <v>0.09523988867141979</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0681107465771414</v>
+        <v>0.105905669306787</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09603669200589615</v>
+        <v>0.09470158652814904</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1310473799480048</v>
+        <v>0.1409342574816235</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08868804068257685</v>
+        <v>0.09419387450431052</v>
       </c>
       <c r="N188" t="n">
-        <v>0.195390418816983</v>
+        <v>0.05684063218738422</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09381420208894059</v>
+        <v>0.09523988867141979</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.09517339418540596</v>
+        <v>0.05685354322955158</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09105914827105484</v>
+        <v>0.09601419670939881</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06765548593631125</v>
+        <v>0.105385690684131</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09681747811976522</v>
+        <v>0.09547151812593886</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1309440790239458</v>
+        <v>0.1390204358563344</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08940908166373603</v>
+        <v>0.09495967836206914</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1938982863196425</v>
+        <v>0.05685354322955158</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09457691917909458</v>
+        <v>0.09601419670939881</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.09204373047791675</v>
+        <v>0.05646206072589929</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09179349624098269</v>
+        <v>0.09678850474737784</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06748280592405066</v>
+        <v>0.1054571034282676</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0975982642336343</v>
+        <v>0.09624144972372869</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1303855277427915</v>
+        <v>0.1395225522557777</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09013012264489517</v>
+        <v>0.09572548221982777</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1938874775131564</v>
+        <v>0.05646206072589929</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09533963626924857</v>
+        <v>0.09678850474737784</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.08691353697077192</v>
+        <v>0.05646576536992592</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09252784421091056</v>
+        <v>0.09756281278535685</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06689511907243657</v>
+        <v>0.1054193263507394</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09837905034750338</v>
+        <v>0.09701138132151853</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1297575511384172</v>
+        <v>0.137640041615207</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09085116362605433</v>
+        <v>0.09649128607758638</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1917614456483394</v>
+        <v>0.05646576536992592</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09610235335940256</v>
+        <v>0.09756281278535685</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.09078323679295863</v>
+        <v>0.05666423785513004</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09326219218083842</v>
+        <v>0.09833712082333587</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06629483791354616</v>
+        <v>0.1051717782630884</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09915983646137244</v>
+        <v>0.09778131291930836</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1293647091079454</v>
+        <v>0.1370723388698756</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09157220460721349</v>
+        <v>0.097257089935345</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1905236439760057</v>
+        <v>0.05666423785513004</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09686507044955654</v>
+        <v>0.09833712082333587</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.08765325307346403</v>
+        <v>0.05665705887501019</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09399654015076628</v>
+        <v>0.0991114288613149</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06608437497945636</v>
+        <v>0.105613877976857</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09994062257524153</v>
+        <v>0.09855124451709819</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1297115615484982</v>
+        <v>0.1370188789550371</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09229324558837267</v>
+        <v>0.09802289379310362</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1900775257469702</v>
+        <v>0.05665705887501019</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09762778753971053</v>
+        <v>0.0991114288613149</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.09452400894127519</v>
+        <v>0.05664380912306494</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09473088812069415</v>
+        <v>0.09988573689929392</v>
       </c>
       <c r="J194" t="n">
-        <v>0.06576614280224428</v>
+        <v>0.1052450443035876</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1007214086891106</v>
+        <v>0.09932117611488803</v>
       </c>
       <c r="L194" t="n">
-        <v>0.129602668357198</v>
+        <v>0.1354790968059449</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09301428656953183</v>
+        <v>0.09878869765086225</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1884265442120472</v>
+        <v>0.05664380912306494</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09839050462986453</v>
+        <v>0.09988573689929392</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.09239592752537923</v>
+        <v>0.05622406929279282</v>
       </c>
       <c r="G195" t="n">
-        <v>0.095465236090622</v>
+        <v>0.1006600449372729</v>
       </c>
       <c r="J195" t="n">
-        <v>0.06564255391398689</v>
+        <v>0.1040646960548222</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1015021948029797</v>
+        <v>0.1000911077126779</v>
       </c>
       <c r="L195" t="n">
-        <v>0.128742589431167</v>
+        <v>0.1356524273578527</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09373532755069099</v>
+        <v>0.09955450150862089</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1882741526220513</v>
+        <v>0.05622406929279282</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0991532217200185</v>
+        <v>0.1006600449372729</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.09226943195476328</v>
+        <v>0.05599742007769243</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09619958406054988</v>
+        <v>0.101434352975252</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0647160208467613</v>
+        <v>0.1034722520421034</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1022829809168487</v>
+        <v>0.1008610393104677</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1283358846675276</v>
+        <v>0.1343383055460138</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09445636853185015</v>
+        <v>0.1003203053663795</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1866238042277971</v>
+        <v>0.05599742007769243</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09991593881017251</v>
+        <v>0.101434352975252</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.08914494535841447</v>
+        <v>0.05596344217126228</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09693393203047773</v>
+        <v>0.102208661013231</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06418895613264451</v>
+        <v>0.1034671310769732</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1030637670307178</v>
+        <v>0.1016309709082575</v>
       </c>
       <c r="L197" t="n">
-        <v>0.127987113963402</v>
+        <v>0.1327361663056817</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09517740951300931</v>
+        <v>0.1010861092241381</v>
       </c>
       <c r="N197" t="n">
-        <v>0.185278952280099</v>
+        <v>0.05596344217126228</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1006786559003265</v>
+        <v>0.102208661013231</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.09002289086531992</v>
+        <v>0.05612171626700099</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09766828000040559</v>
+        <v>0.10298296905121</v>
       </c>
       <c r="J198" t="n">
-        <v>0.06436377230371355</v>
+        <v>0.1038487519709742</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1038445531445869</v>
+        <v>0.1024009025060473</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1283008372159126</v>
+        <v>0.1331454445721099</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09589845049416847</v>
+        <v>0.1018519130818967</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1838430500297715</v>
+        <v>0.05612171626700099</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1014413729904805</v>
+        <v>0.10298296905121</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09490369160446677</v>
+        <v>0.05557182305840709</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09840262797033344</v>
+        <v>0.103757277089189</v>
       </c>
       <c r="J199" t="n">
-        <v>0.06384288189204551</v>
+        <v>0.1034165335356484</v>
       </c>
       <c r="K199" t="n">
-        <v>0.104625339258456</v>
+        <v>0.1031708341038372</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1266816143221817</v>
+        <v>0.1315655752805518</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09661949147532763</v>
+        <v>0.1026177169396554</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1823195507276293</v>
+        <v>0.05557182305840709</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1022040900806345</v>
+        <v>0.103757277089189</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.08578777070484211</v>
+        <v>0.05581334323897914</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09913697594026132</v>
+        <v>0.1045315851271681</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0631286974297174</v>
+        <v>0.1021698945825382</v>
       </c>
       <c r="K200" t="n">
-        <v>0.105406125372325</v>
+        <v>0.103940765701627</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1273340051793314</v>
+        <v>0.1308959933662612</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09734053245648679</v>
+        <v>0.103383520797414</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1814119076244869</v>
+        <v>0.05581334323897914</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1029668071707884</v>
+        <v>0.1045315851271681</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.09367555129543306</v>
+        <v>0.05524585750221571</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09987132391018917</v>
+        <v>0.1053058931651471</v>
       </c>
       <c r="J201" t="n">
-        <v>0.06272363144880626</v>
+        <v>0.1025082539231859</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1061869114861941</v>
+        <v>0.1047106972994168</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1261625696844842</v>
+        <v>0.1313361337644912</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09806157343764595</v>
+        <v>0.1041493246551726</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1812235739711586</v>
+        <v>0.05524585750221571</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1037295242609424</v>
+        <v>0.1053058931651471</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.08756745650522674</v>
+        <v>0.05523746820298252</v>
       </c>
       <c r="G202" t="n">
-        <v>0.100605671880117</v>
+        <v>0.1060802012031261</v>
       </c>
       <c r="J202" t="n">
-        <v>0.06243009648138913</v>
+        <v>0.1016310303691338</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1069676976000632</v>
+        <v>0.1054806288972067</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1250718677347624</v>
+        <v>0.1301854314104954</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09878261441880512</v>
+        <v>0.1049151285129312</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1786580030184591</v>
+        <v>0.05523746820298252</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1044922413510964</v>
+        <v>0.1060802012031261</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.09246390946321029</v>
+        <v>0.05514641103569108</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1013400198500449</v>
+        <v>0.1068545092411051</v>
       </c>
       <c r="J203" t="n">
-        <v>0.06235050505954304</v>
+        <v>0.101213041874765</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1077484837139323</v>
+        <v>0.1062505604949965</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1246664592272881</v>
+        <v>0.1303433212395274</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09950365539996428</v>
+        <v>0.1056809323706898</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1791186480172031</v>
+        <v>0.05514641103569108</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1052549584412504</v>
+        <v>0.1068545092411051</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.08636533329837082</v>
+        <v>0.05437939772539384</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1020743678199728</v>
+        <v>0.1076288172790842</v>
       </c>
       <c r="J204" t="n">
-        <v>0.06188726971534506</v>
+        <v>0.1011899834947392</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1085292698278013</v>
+        <v>0.1070204920927863</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1241509040591837</v>
+        <v>0.1285092381868405</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1002246963811234</v>
+        <v>0.1064467362284485</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1784089622182048</v>
+        <v>0.05437939772539384</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1060176755314044</v>
+        <v>0.1076288172790842</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.09327215113969545</v>
+        <v>0.05374354223707654</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1028087157899006</v>
+        <v>0.1084031253170632</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0615423580544194</v>
+        <v>0.1006676853474031</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1093100559416704</v>
+        <v>0.1077904236905761</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1243297621275716</v>
+        <v>0.1281826171876884</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1009457373622826</v>
+        <v>0.1072125400862071</v>
       </c>
       <c r="N205" t="n">
-        <v>0.176732398872279</v>
+        <v>0.05374354223707654</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1067803926215584</v>
+        <v>0.1084031253170632</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.09018478611617126</v>
+        <v>0.05344595853572491</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1035430637598285</v>
+        <v>0.1091774333550422</v>
       </c>
       <c r="J206" t="n">
-        <v>0.06070329110253221</v>
+        <v>0.09985623562956358</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1100908420555395</v>
+        <v>0.108560355288366</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1235075933295741</v>
+        <v>0.1266628931773245</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1016667783434418</v>
+        <v>0.1079783439439657</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1750924112302399</v>
+        <v>0.05344595853572491</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1075431097117124</v>
+        <v>0.1091774333550422</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09110366135678544</v>
+        <v>0.05329376058632468</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1042774117297564</v>
+        <v>0.1099517413930212</v>
       </c>
       <c r="J207" t="n">
-        <v>0.06076344824113886</v>
+        <v>0.09866572253802752</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1108716281694086</v>
+        <v>0.1093302868861558</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1227889575623132</v>
+        <v>0.1270495010910021</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1023878193246009</v>
+        <v>0.1087441478017243</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1738924066824652</v>
+        <v>0.05329376058632468</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1083058268018664</v>
+        <v>0.1099517413930212</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.08702919999052508</v>
+        <v>0.05239406235386158</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1050117596996842</v>
+        <v>0.1107260494310002</v>
       </c>
       <c r="J208" t="n">
-        <v>0.06052282249475062</v>
+        <v>0.09770623426960162</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1116524142832777</v>
+        <v>0.1101002184839456</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1222784147229115</v>
+        <v>0.1264418758639749</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1031088603057601</v>
+        <v>0.109509951659483</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1728112955507239</v>
+        <v>0.05239406235386158</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1090685438920204</v>
+        <v>0.1107260494310002</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0939618251463773</v>
+        <v>0.05195397780332132</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1057461076696121</v>
+        <v>0.1115003574689793</v>
       </c>
       <c r="J209" t="n">
-        <v>0.06008140688787876</v>
+        <v>0.09698785902109269</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1124332003971467</v>
+        <v>0.1108701500817355</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1215805247084911</v>
+        <v>0.1257394524314964</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1038299012869192</v>
+        <v>0.1102757555172416</v>
       </c>
       <c r="N209" t="n">
-        <v>0.172329565827649</v>
+        <v>0.05195397780332132</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1098312609821744</v>
+        <v>0.1115003574689793</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.09190195995332925</v>
+        <v>0.05118062089968967</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1064804556395399</v>
+        <v>0.1122746655069583</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05933919444503453</v>
+        <v>0.09652068498930766</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1132139865110158</v>
+        <v>0.1116400816795253</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1199998474161745</v>
+        <v>0.12464166572882</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1045509422680784</v>
+        <v>0.1110415593750002</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1719472138629501</v>
+        <v>0.05118062089968967</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1105939780723283</v>
+        <v>0.1122746655069583</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.08485002754036794</v>
+        <v>0.0500811056079523</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1072148036094678</v>
+        <v>0.1130489735449373</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0592961781907292</v>
+        <v>0.09571480037105307</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1139947726248849</v>
+        <v>0.1124100132773151</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1198409427430838</v>
+        <v>0.1244479506911991</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1052719832492376</v>
+        <v>0.1118073632327588</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1712642360063373</v>
+        <v>0.0500811056079523</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1113566951624823</v>
+        <v>0.1130489735449373</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.08580645103648063</v>
+        <v>0.049562545893095</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1079491515793957</v>
+        <v>0.1138232815829163</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05905235114947403</v>
+        <v>0.094580293363136</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1147755587387539</v>
+        <v>0.113179944875105</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1191083705863415</v>
+        <v>0.1232577422538873</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1059930242303967</v>
+        <v>0.1125731670905174</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1708806286075206</v>
+        <v>0.049562545893095</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1121194122526363</v>
+        <v>0.1138232815829163</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.08677165357065436</v>
+        <v>0.04913205572010346</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1086834995493235</v>
+        <v>0.1145975896208954</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05850770634578031</v>
+        <v>0.09352725216236324</v>
       </c>
       <c r="K213" t="n">
-        <v>0.115556344852623</v>
+        <v>0.1139498764728948</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1189066908430697</v>
+        <v>0.123170475352138</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1067140652115559</v>
+        <v>0.1133389709482761</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1691963880162098</v>
+        <v>0.04913205572010346</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1128821293427903</v>
+        <v>0.1145975896208954</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.08974605827187632</v>
+        <v>0.04849674905396344</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1094178475192514</v>
+        <v>0.1153718976588744</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05826223680415929</v>
+        <v>0.09256576496554147</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1163371309664921</v>
+        <v>0.1147198080706846</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1181404634103908</v>
+        <v>0.1236855849212048</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1074351061927151</v>
+        <v>0.1141047748060347</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1683115105821148</v>
+        <v>0.04849674905396344</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1136448464329443</v>
+        <v>0.1153718976588744</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.09273008826913351</v>
+        <v>0.04726373985966066</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1101521954891792</v>
+        <v>0.1161462056968534</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05801593554912222</v>
+        <v>0.09060591996947742</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1171179170803612</v>
+        <v>0.1154897396684744</v>
       </c>
       <c r="L215" t="n">
-        <v>0.117514248185427</v>
+        <v>0.1218025066635997</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1081561471738742</v>
+        <v>0.1148705786637933</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1677259926549458</v>
+        <v>0.04726373985966066</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1144075635230983</v>
+        <v>0.1161462056968534</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.08672416669141314</v>
+        <v>0.04664014210218084</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1108865434591071</v>
+        <v>0.1169205137348324</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05756879560518041</v>
+        <v>0.08945780537097808</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1178987031942302</v>
+        <v>0.1162596712662643</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1177232394487564</v>
+        <v>0.1214212637219735</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1088771881550334</v>
+        <v>0.115636382521552</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1663398305844125</v>
+        <v>0.04664014210218084</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1151702806132523</v>
+        <v>0.1169205137348324</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0897279515253388</v>
+        <v>0.0462330697465097</v>
       </c>
       <c r="G217" t="n">
-        <v>0.111620891429035</v>
+        <v>0.1176948217728114</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05692080999684508</v>
+        <v>0.08873150936685015</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1186794893080993</v>
+        <v>0.1170296028640541</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1180366851954115</v>
+        <v>0.1203422314946813</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1095982291361925</v>
+        <v>0.1164021863793106</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1657530207202251</v>
+        <v>0.0462330697465097</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1159329977034063</v>
+        <v>0.1176948217728114</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.08874054971833001</v>
+        <v>0.04544963675763299</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1123552393989628</v>
+        <v>0.1184691298107905</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05697197174862752</v>
+        <v>0.08773712015390051</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1194602754219684</v>
+        <v>0.1177995344618439</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1170518083961893</v>
+        <v>0.120565480409405</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1103192701173517</v>
+        <v>0.1171679902370692</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1639655594120933</v>
+        <v>0.04544963675763299</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1166957147935602</v>
+        <v>0.1184691298107905</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.09376188214376813</v>
+        <v>0.0448969571005364</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1130895873688907</v>
+        <v>0.1192434378487695</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05662227388503903</v>
+        <v>0.08748472592893591</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1202410615358375</v>
+        <v>0.1185694660596338</v>
       </c>
       <c r="L219" t="n">
-        <v>0.116268675521381</v>
+        <v>0.1206910808938258</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1110403110985109</v>
+        <v>0.1179337940948278</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1636774430097271</v>
+        <v>0.0448969571005364</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1174584318837142</v>
+        <v>0.1192434378487695</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.09079187386585791</v>
+        <v>0.04378214474020573</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1138239353388185</v>
+        <v>0.1200177458867485</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0560717094305908</v>
+        <v>0.08648441488876318</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1210218476497065</v>
+        <v>0.1193393976574236</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1159873530412776</v>
+        <v>0.1202191033756253</v>
       </c>
       <c r="M220" t="n">
-        <v>0.11176135207967</v>
+        <v>0.1186995979525864</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1640886678628366</v>
+        <v>0.04378214474020573</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1182211489738682</v>
+        <v>0.1200177458867485</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.08783044994880407</v>
+        <v>0.04331231364162663</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1145582833087464</v>
+        <v>0.1207920539247275</v>
       </c>
       <c r="J221" t="n">
-        <v>0.05562027140979414</v>
+        <v>0.08584627523018909</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1218026337635756</v>
+        <v>0.1201093292552134</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1152079074261703</v>
+        <v>0.1187496182824851</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1124823930608292</v>
+        <v>0.119465401810345</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1618992303211316</v>
+        <v>0.04331231364162663</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1189838660640222</v>
+        <v>0.1207920539247275</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.09287753545681146</v>
+        <v>0.04299457776978491</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1152926312786743</v>
+        <v>0.1215663619627066</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05536795284716031</v>
+        <v>0.08518039515002046</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1225834198774447</v>
+        <v>0.1208792608530033</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1160304051463503</v>
+        <v>0.1179826960420866</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1132034340419883</v>
+        <v>0.1202312056681037</v>
       </c>
       <c r="N222" t="n">
-        <v>0.161209126734322</v>
+        <v>0.04299457776978491</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1197465831541762</v>
+        <v>0.1215663619627066</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0939330554540849</v>
+        <v>0.04273605108966623</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1160269792486021</v>
+        <v>0.1223406700006856</v>
       </c>
       <c r="J223" t="n">
-        <v>0.05481474676720061</v>
+        <v>0.08389686284506417</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1233642059913138</v>
+        <v>0.1216491924507931</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1157549126721087</v>
+        <v>0.1182184070821113</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1139244750231475</v>
+        <v>0.1209970095258623</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1596183534521179</v>
+        <v>0.04273605108966623</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1205093002443302</v>
+        <v>0.1223406700006856</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.08699693500482908</v>
+        <v>0.04234384756625634</v>
       </c>
       <c r="G224" t="n">
-        <v>0.11676132721853</v>
+        <v>0.1231149780386646</v>
       </c>
       <c r="J224" t="n">
-        <v>0.05456064619442626</v>
+        <v>0.08370576651212688</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1241449921051828</v>
+        <v>0.1224191240485829</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1151814964737368</v>
+        <v>0.1178568218302409</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1146455160043067</v>
+        <v>0.1217628133836209</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1588269068242292</v>
+        <v>0.04234384756625634</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1212720173344842</v>
+        <v>0.1231149780386646</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.09406909917324885</v>
+        <v>0.04212505795103094</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1174956751884578</v>
+        <v>0.1238892860766436</v>
       </c>
       <c r="J225" t="n">
-        <v>0.05450564415334852</v>
+        <v>0.08241719434801553</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1249257782190519</v>
+        <v>0.1231890556463727</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1137102230215254</v>
+        <v>0.1161980107141565</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1153665569854658</v>
+        <v>0.1225286172413795</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1584347832003659</v>
+        <v>0.04212505795103094</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1220347344246382</v>
+        <v>0.1238892860766436</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.09014947302354898</v>
+        <v>0.04174433102522004</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1182300231583857</v>
+        <v>0.1246635941146227</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05414973366847869</v>
+        <v>0.0824230199801152</v>
       </c>
       <c r="K226" t="n">
-        <v>0.125706564332921</v>
+        <v>0.1239589872441626</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1135411587857659</v>
+        <v>0.1150420441615401</v>
       </c>
       <c r="M226" t="n">
-        <v>0.116087597966625</v>
+        <v>0.1232944210991382</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1581419789302377</v>
+        <v>0.04174433102522004</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1227974515147922</v>
+        <v>0.1246635941146227</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.09323798161993421</v>
+        <v>0.04156552138183552</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1189643711283136</v>
+        <v>0.1254379021526017</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05369290776432804</v>
+        <v>0.0818432154682979</v>
       </c>
       <c r="K227" t="n">
-        <v>0.12648735044679</v>
+        <v>0.1247289188419524</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1137743702367494</v>
+        <v>0.1152889926000728</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1168086389477841</v>
+        <v>0.1240602249568968</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1577484903635549</v>
+        <v>0.04156552138183552</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1235601686049462</v>
+        <v>0.1254379021526017</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09033455002660937</v>
+        <v>0.04088891566814452</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1196987190982414</v>
+        <v>0.1262122101905807</v>
       </c>
       <c r="J228" t="n">
-        <v>0.05343515946540781</v>
+        <v>0.0811673429639572</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1272681365606591</v>
+        <v>0.1254988504397422</v>
       </c>
       <c r="L228" t="n">
-        <v>0.112909923844767</v>
+        <v>0.1156389264574363</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1175296799289433</v>
+        <v>0.1248260288146554</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1569543138500271</v>
+        <v>0.04088891566814452</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1243228856951001</v>
+        <v>0.1262122101905807</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09443910330777922</v>
+        <v>0.04071480053141435</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1204330670681693</v>
+        <v>0.1269865182285597</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05317648179622929</v>
+        <v>0.08059574200079708</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1280489226745282</v>
+        <v>0.1262687820375321</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1127478860801099</v>
+        <v>0.1147919161613121</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1182507209101025</v>
+        <v>0.125591832672414</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1550594457393645</v>
+        <v>0.04071480053141435</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1250856027852541</v>
+        <v>0.1269865182285597</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.08955156652764856</v>
+        <v>0.04014346261891219</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1211674150380972</v>
+        <v>0.1277608262665387</v>
       </c>
       <c r="J230" t="n">
-        <v>0.05231686778130372</v>
+        <v>0.08052875211252164</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1288297087883973</v>
+        <v>0.1270387136353219</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1119883234130692</v>
+        <v>0.1146480321393816</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1189717618912616</v>
+        <v>0.1263576365301727</v>
       </c>
       <c r="N230" t="n">
-        <v>0.154063882381277</v>
+        <v>0.04014346261891219</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1258483198754081</v>
+        <v>0.1277608262665387</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.08767186475042218</v>
+        <v>0.04017518857790532</v>
       </c>
       <c r="G231" t="n">
-        <v>0.121901763008025</v>
+        <v>0.1285351343045178</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0522563104451424</v>
+        <v>0.08006671283283487</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1296104949022664</v>
+        <v>0.1278086452331117</v>
       </c>
       <c r="L231" t="n">
-        <v>0.112031302313936</v>
+        <v>0.1123073448193264</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1196928028724208</v>
+        <v>0.1271234403879313</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1530676201254745</v>
+        <v>0.04017518857790532</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1266110369655621</v>
+        <v>0.1285351343045178</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.09479992304030485</v>
+        <v>0.03991026505566095</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1226361109779529</v>
+        <v>0.1293094423424968</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05219480281225654</v>
+        <v>0.08080996369544072</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1303912810161354</v>
+        <v>0.1285785768309016</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1123768892530017</v>
+        <v>0.1125699246288281</v>
       </c>
       <c r="M232" t="n">
-        <v>0.12041384385358</v>
+        <v>0.1278892442456899</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1525706553216669</v>
+        <v>0.03991026505566095</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1273737540557161</v>
+        <v>0.1293094423424968</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09393566646150134</v>
+        <v>0.0397489786994463</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1233704589478807</v>
+        <v>0.1300837503804758</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05163233790715746</v>
+        <v>0.07935884423404324</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1311720671300045</v>
+        <v>0.1293485084286914</v>
       </c>
       <c r="L233" t="n">
-        <v>0.111125150700557</v>
+        <v>0.1117358419955679</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1211348848347391</v>
+        <v>0.1286550481034485</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1513729843195643</v>
+        <v>0.0397489786994463</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1281364711458701</v>
+        <v>0.1300837503804758</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.09007902007821647</v>
+        <v>0.03919161615652859</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1241048069178086</v>
+        <v>0.1308580584184548</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05086890875435642</v>
+        <v>0.07941369398234643</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1319528532438736</v>
+        <v>0.1301184400264812</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1117761531268934</v>
+        <v>0.1124051673472276</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1218559258158983</v>
+        <v>0.1294208519612071</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1512746034688763</v>
+        <v>0.03919161615652859</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1288991882360241</v>
+        <v>0.1308580584184548</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.08622990895465493</v>
+        <v>0.0394384640741751</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1248391548877365</v>
+        <v>0.1316323664564339</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05050450837836466</v>
+        <v>0.07887485247405432</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1327336393577427</v>
+        <v>0.130888371624271</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1112299630023019</v>
+        <v>0.1114779711114886</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1225769667970574</v>
+        <v>0.1301866558189657</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1487755091193133</v>
+        <v>0.0394384640741751</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1296619053261781</v>
+        <v>0.1316323664564339</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09338825815502164</v>
+        <v>0.03898980909965304</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1255735028576643</v>
+        <v>0.1324066744944129</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0503391298036935</v>
+        <v>0.07914265924287092</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1335144254716117</v>
+        <v>0.1316583032220608</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1097866467970737</v>
+        <v>0.1099543237160323</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1232980077782166</v>
+        <v>0.1309524596767244</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1486756976205851</v>
+        <v>0.03898980909965304</v>
       </c>
       <c r="O236" t="n">
-        <v>0.130424622416332</v>
+        <v>0.1324066744944129</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09555399274352128</v>
+        <v>0.03864593788022964</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1263078508275922</v>
+        <v>0.1331809825323919</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05017276605485414</v>
+        <v>0.07871745382250017</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1342952115854808</v>
+        <v>0.1324282348198507</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1095462709814999</v>
+        <v>0.1107342955885404</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1240190487593758</v>
+        <v>0.131718263534483</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1471751653224015</v>
+        <v>0.03864593788022964</v>
       </c>
       <c r="O237" t="n">
-        <v>0.131187339506486</v>
+        <v>0.1331809825323919</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.08872703778435867</v>
+        <v>0.0385071370631721</v>
       </c>
       <c r="G238" t="n">
-        <v>0.12704219879752</v>
+        <v>0.1339552905703709</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05000541015635787</v>
+        <v>0.0779995757466462</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1350759976993499</v>
+        <v>0.1331981664176405</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1103089020258716</v>
+        <v>0.1096179571566943</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1247400897405349</v>
+        <v>0.1324840673922416</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1472739085744725</v>
+        <v>0.0385071370631721</v>
       </c>
       <c r="O238" t="n">
-        <v>0.13195005659664</v>
+        <v>0.1339552905703709</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.09090731834173862</v>
+        <v>0.0382736932957477</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1277765467674479</v>
+        <v>0.1347295986083499</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04933705513271598</v>
+        <v>0.0776893645490129</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1358567838132189</v>
+        <v>0.1339680980154304</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1090746064004802</v>
+        <v>0.1082053788481755</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1254611307216941</v>
+        <v>0.1332498712500002</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1459719237265081</v>
+        <v>0.0382736932957477</v>
       </c>
       <c r="O239" t="n">
-        <v>0.132712773686794</v>
+        <v>0.1347295986083499</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.09609475947986587</v>
+        <v>0.03804589322522367</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1285108947373758</v>
+        <v>0.135503906646329</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04886769400843971</v>
+        <v>0.07688715976330435</v>
       </c>
       <c r="K240" t="n">
-        <v>0.136637569927088</v>
+        <v>0.1347380296132202</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1088434505756165</v>
+        <v>0.1081966310906655</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1261821717028532</v>
+        <v>0.1340156751077589</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1442692071282183</v>
+        <v>0.03804589322522367</v>
       </c>
       <c r="O240" t="n">
-        <v>0.133475490776948</v>
+        <v>0.135503906646329</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09228928626294519</v>
+        <v>0.03742402349886721</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1292452427073036</v>
+        <v>0.136278214684308</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04829731980804032</v>
+        <v>0.07719330092322452</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1374183560409571</v>
+        <v>0.13550796121101</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1094155010215718</v>
+        <v>0.1085917843118459</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1269032126840124</v>
+        <v>0.1347814789655175</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1438657551293129</v>
+        <v>0.03742402349886721</v>
       </c>
       <c r="O241" t="n">
-        <v>0.134238207867102</v>
+        <v>0.136278214684308</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09649082375518139</v>
+        <v>0.03770837076394558</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1299795906772315</v>
+        <v>0.137052522722287</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04822592555602911</v>
+        <v>0.0774081275624775</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1381991421548262</v>
+        <v>0.1362778928087998</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1085908242086372</v>
+        <v>0.1069909089393981</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1276242536651716</v>
+        <v>0.1355472828232761</v>
       </c>
       <c r="N242" t="n">
-        <v>0.143261564079502</v>
+        <v>0.03770837076394558</v>
       </c>
       <c r="O242" t="n">
-        <v>0.135000924957256</v>
+        <v>0.137052522722287</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.09169929702077931</v>
+        <v>0.03709922166772597</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1307139386471594</v>
+        <v>0.137826830760266</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04765350427691732</v>
+        <v>0.07673197921476724</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1389799282686953</v>
+        <v>0.1370478244065897</v>
       </c>
       <c r="L243" t="n">
-        <v>0.108569486607104</v>
+        <v>0.1067940754010036</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1283452946463307</v>
+        <v>0.1363130866810347</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1417566303284954</v>
+        <v>0.03709922166772597</v>
       </c>
       <c r="O243" t="n">
-        <v>0.13576364204741</v>
+        <v>0.137826830760266</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09691463112394361</v>
+        <v>0.03699686285747565</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1314482866170872</v>
+        <v>0.1386011387982451</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04748004899521624</v>
+        <v>0.07636519541379772</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1397607143825643</v>
+        <v>0.1378177560043795</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1074515546872631</v>
+        <v>0.1062013541243439</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1290663356274899</v>
+        <v>0.1370788905387934</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1414509502260032</v>
+        <v>0.03699686285747565</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1365263591375639</v>
+        <v>0.1386011387982451</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09713675112887918</v>
+        <v>0.03700158098046184</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1321826345870151</v>
+        <v>0.1393754468362241</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0473055527354371</v>
+        <v>0.07640811569327299</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1405415004964334</v>
+        <v>0.1385876876021693</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1078370949194058</v>
+        <v>0.1054128155371006</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1297873766086491</v>
+        <v>0.137844694396552</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1404445201217353</v>
+        <v>0.03700158098046184</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1372890762277179</v>
+        <v>0.1393754468362241</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.08936558209979073</v>
+        <v>0.03651366268395179</v>
       </c>
       <c r="G246" t="n">
-        <v>0.132916982556943</v>
+        <v>0.1401497548742031</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04643000852209118</v>
+        <v>0.07646107958689713</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1413222866103025</v>
+        <v>0.1393576191999592</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1070261737738233</v>
+        <v>0.1063285300669553</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1305084175898082</v>
+        <v>0.1386104982543106</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1392373363654015</v>
+        <v>0.03651366268395179</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1380517933178719</v>
+        <v>0.1401497548742031</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09460104910088307</v>
+        <v>0.03643339461521271</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1336513305268708</v>
+        <v>0.1409240629121821</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04615340937968979</v>
+        <v>0.075524426628374</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1421030727241716</v>
+        <v>0.140127550797749</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1075188577208066</v>
+        <v>0.1048485681415891</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1312294585709674</v>
+        <v>0.1393763021120692</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1385293953067118</v>
+        <v>0.03643339461521271</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1388145104080259</v>
+        <v>0.1409240629121821</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.088843077196361</v>
+        <v>0.03606106342151183</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1343856784967987</v>
+        <v>0.1416983709501612</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04597574833274412</v>
+        <v>0.07549849635140771</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1428838588380406</v>
+        <v>0.1408974823955388</v>
       </c>
       <c r="L248" t="n">
-        <v>0.106315213230647</v>
+        <v>0.1037730001886839</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1319504995521265</v>
+        <v>0.1401421059698278</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1376206932953764</v>
+        <v>0.03606106342151183</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1395772274981799</v>
+        <v>0.1416983709501612</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0900915914504293</v>
+        <v>0.0364969557501164</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1351200264667265</v>
+        <v>0.1424726789881402</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04549701840576552</v>
+        <v>0.07548362828970218</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1436646449519097</v>
+        <v>0.1416674139933287</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1069153067736354</v>
+        <v>0.104901896635921</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1326715405332857</v>
+        <v>0.1409079098275865</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1375112266811049</v>
+        <v>0.0364969557501164</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1403399445883339</v>
+        <v>0.1424726789881402</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08934651692729273</v>
+        <v>0.03624135824829364</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1358543744366544</v>
+        <v>0.1432469870261192</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04501721262326516</v>
+        <v>0.07478016197696158</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1444454310657788</v>
+        <v>0.1424373455911185</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1062192048200631</v>
+        <v>0.102935327910982</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1333925815144449</v>
+        <v>0.1416737136853451</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1367009918136075</v>
+        <v>0.03624135824829364</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1411026616784879</v>
+        <v>0.1432469870261192</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0896077786911561</v>
+        <v>0.03569455756331077</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1365887224065823</v>
+        <v>0.1440212950640982</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04453632400975438</v>
+        <v>0.0742884369468898</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1452262171796478</v>
+        <v>0.1432072771889083</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1057269738402213</v>
+        <v>0.1022733644415484</v>
       </c>
       <c r="M251" t="n">
-        <v>0.134113622495604</v>
+        <v>0.1424395175431037</v>
       </c>
       <c r="N251" t="n">
-        <v>0.135089985042594</v>
+        <v>0.03569455756331077</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1418653787686419</v>
+        <v>0.1440212950640982</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.09087530180622419</v>
+        <v>0.03595684034243504</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1373230703765101</v>
+        <v>0.1447956031020772</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04475434558974443</v>
+        <v>0.07450879273319089</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1460070032935169</v>
+        <v>0.1439772087866981</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1057386803044009</v>
+        <v>0.1028160766553017</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1348346634767632</v>
+        <v>0.1432053214008623</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1349782027177744</v>
+        <v>0.03595684034243504</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1426280958587959</v>
+        <v>0.1447956031020772</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.09414901133670175</v>
+        <v>0.03592849323293366</v>
       </c>
       <c r="G253" t="n">
-        <v>0.138057418346438</v>
+        <v>0.1455699111400563</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04387127038774657</v>
+        <v>0.07404156886956884</v>
       </c>
       <c r="K253" t="n">
-        <v>0.146787789407386</v>
+        <v>0.144747140384488</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1055543906828934</v>
+        <v>0.1024635349799233</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1355557044579224</v>
+        <v>0.143971125258621</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1326656411888587</v>
+        <v>0.03592849323293366</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1433908129489498</v>
+        <v>0.1455699111400563</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.09842883234679359</v>
+        <v>0.0358098028820739</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1387917663163658</v>
+        <v>0.1463442191780353</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04338709142827207</v>
+        <v>0.07428710488972765</v>
       </c>
       <c r="K254" t="n">
-        <v>0.147568575521255</v>
+        <v>0.1455170719822778</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1044741714459897</v>
+        <v>0.1020158098430948</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1362767454390815</v>
+        <v>0.1447369291163796</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1322522968055567</v>
+        <v>0.0358098028820739</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1441535300391038</v>
+        <v>0.1463442191780353</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.09371468990070447</v>
+        <v>0.03550105593712297</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1395261142862937</v>
+        <v>0.1471185272160143</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04310180173583221</v>
+        <v>0.07364574032737137</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1483493616351241</v>
+        <v>0.1462870035800676</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1044980890639811</v>
+        <v>0.1021729716724978</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1369977864202407</v>
+        <v>0.1455027329741382</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1321381659175784</v>
+        <v>0.03550105593712297</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1449162471292578</v>
+        <v>0.1471185272160143</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1000065090626392</v>
+        <v>0.03530253904534811</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1402604622562216</v>
+        <v>0.1478928352539933</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04321539433493821</v>
+        <v>0.07431781471620397</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1491301477489932</v>
+        <v>0.1470569351778575</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1049262100071585</v>
+        <v>0.1003350908958136</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1377188274013998</v>
+        <v>0.1462685368318968</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1299232448746339</v>
+        <v>0.03530253904534811</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1456789642194118</v>
+        <v>0.1478928352539933</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.09930421489680258</v>
+        <v>0.03491453885401652</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1409948102261494</v>
+        <v>0.1486671432919724</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04282786225010138</v>
+        <v>0.07370366758992949</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1499109338628623</v>
+        <v>0.1478268667756473</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1036586007458133</v>
+        <v>0.1006022379407238</v>
       </c>
       <c r="M257" t="n">
-        <v>0.138439868382559</v>
+        <v>0.1470343406896555</v>
       </c>
       <c r="N257" t="n">
-        <v>0.129307530026433</v>
+        <v>0.03491453885401652</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1464416813095658</v>
+        <v>0.1486671432919724</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.09860773246739934</v>
+        <v>0.03493734201039547</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1417291581960773</v>
+        <v>0.1494414513299514</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04193919850583298</v>
+        <v>0.07350363848225194</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1506917199767314</v>
+        <v>0.1485967983734371</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1040953277502364</v>
+        <v>0.10037448323491</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1391609093637181</v>
+        <v>0.1478001445474141</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1283910177226856</v>
+        <v>0.03493734201039547</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1472043983997198</v>
+        <v>0.1494414513299514</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1009169868386343</v>
+        <v>0.03537123516175215</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1424635061660051</v>
+        <v>0.1502157593679304</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04184939612664428</v>
+        <v>0.07341806692687533</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1514725060906004</v>
+        <v>0.1493667299712269</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1030364574907192</v>
+        <v>0.09895189720605352</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1398819503448773</v>
+        <v>0.1485659484051727</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1281737043131019</v>
+        <v>0.03537123516175215</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1479671154898738</v>
+        <v>0.1502157593679304</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1002319030747122</v>
+        <v>0.03491650495535385</v>
       </c>
       <c r="G260" t="n">
-        <v>0.143197854135933</v>
+        <v>0.1509900674059094</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0410584481370465</v>
+        <v>0.0743472924575036</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1522532922044695</v>
+        <v>0.1501366615690168</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1035820564375526</v>
+        <v>0.100034550281836</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1406029913260365</v>
+        <v>0.1493317522629313</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1273555861473916</v>
+        <v>0.03491650495535385</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1487298325800278</v>
+        <v>0.1509900674059094</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.09955240623983794</v>
+        <v>0.03487343803846778</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1439322021058609</v>
+        <v>0.1517643754438884</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04096634756155097</v>
+        <v>0.07419165460784088</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1530340783183386</v>
+        <v>0.1509065931668066</v>
       </c>
       <c r="L261" t="n">
-        <v>0.103332191061028</v>
+        <v>0.09982251288993887</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1413240323071956</v>
+        <v>0.1500975561206899</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1257366595752646</v>
+        <v>0.03487343803846778</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1494925496701817</v>
+        <v>0.1517643754438884</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.09787842139821618</v>
+        <v>0.03514232105836113</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1446665500757887</v>
+        <v>0.1525386834818675</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04057308742466893</v>
+        <v>0.07315149291159109</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1538148644322077</v>
+        <v>0.1516765247645964</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1029869278314364</v>
+        <v>0.09881585545804367</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1420450732883548</v>
+        <v>0.1508633599784485</v>
       </c>
       <c r="N262" t="n">
-        <v>0.126116920946431</v>
+        <v>0.03514232105836113</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1502552667603357</v>
+        <v>0.1525386834818675</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1022098736140517</v>
+        <v>0.03482344066230118</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1454008980457166</v>
+        <v>0.1533129915198465</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03997866075091162</v>
+        <v>0.07362714690245831</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1545956505460767</v>
+        <v>0.1524464563623863</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1031463332190689</v>
+        <v>0.0980146484138319</v>
       </c>
       <c r="M263" t="n">
-        <v>0.142766114269514</v>
+        <v>0.1516291638362072</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1238963666106007</v>
+        <v>0.03482344066230118</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1510179838504897</v>
+        <v>0.1533129915198465</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.09554668795154939</v>
+        <v>0.03471708349755515</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1461352460156445</v>
+        <v>0.1540872995578255</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04008306056479038</v>
+        <v>0.07331895611414646</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1553764366599458</v>
+        <v>0.1532163879601761</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1022104736942168</v>
+        <v>0.09681896218498509</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1434871552506731</v>
+        <v>0.1523949676939658</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1241749929174837</v>
+        <v>0.03471708349755515</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1517807009406437</v>
+        <v>0.1540872995578255</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7580781044003323</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.0462242672626729</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.0462242672626729</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07395882762027665</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1054759681072811</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03353821404256867</v>
+        <v>0.04450036810728112</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008336582184586253</v>
+        <v>0.01106144100278623</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004024399999999997</v>
+        <v>0.005082707636749159</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006002062238805966</v>
+        <v>0.0006164034444725884</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.008024400000000015</v>
+        <v>0.007282154372283217</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000503692453328146</v>
+        <v>0.0007743080379790226</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02941761679967625</v>
+        <v>0.01678197529117018</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007658038577586221</v>
+        <v>0.0007668672719928231</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.004024399999999997</v>
+        <v>0.02670835568507723</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006002062238805966</v>
+        <v>0.0007665540320311569</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.008520134020154113</v>
+        <v>0.01001326635796475</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001548616075958045</v>
+        <v>0.001232806888945177</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.02020305097485325</v>
+        <v>0.0140766860043518</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001539863195579659</v>
+        <v>0.001548616075958045</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0530410657832554</v>
+        <v>0.03215039608542919</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001531607715517244</v>
+        <v>0.001533734543985646</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.008520134020154113</v>
+        <v>0.05089610799647587</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001548616075958045</v>
+        <v>0.001533108064062314</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01213293241549548</v>
+        <v>0.01467674118176201</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002322924113937068</v>
+        <v>0.001849210333417765</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.02830874774581088</v>
+        <v>0.02040198048167775</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002309794793369489</v>
+        <v>0.002322924113937068</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.07302440000000004</v>
+        <v>0.04102440000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.0024234509280266</v>
+        <v>0.002165977019399668</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01213293241549548</v>
+        <v>0.07102440000000004</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002322924113937068</v>
+        <v>0.002474931057251537</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01635008329813371</v>
+        <v>0.0189581971262562</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00309723215191609</v>
+        <v>0.002465613777890353</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.03722083532414586</v>
+        <v>0.02537642338973298</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003079726391159319</v>
+        <v>0.00309723215191609</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.08031962802462905</v>
+        <v>0.04867125294842314</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003063215431034488</v>
+        <v>0.003067469087971292</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01635008329813371</v>
+        <v>0.07716059172794615</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00309723215191609</v>
+        <v>0.003066216128124628</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006002062238805966</v>
+        <v>0.00413638200557247</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004024399999999997</v>
+        <v>0.02773456035760375</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01934363154219387</v>
+        <v>0.02274269920956259</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003871540189895114</v>
+        <v>0.003082017222362941</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.04540093826688882</v>
+        <v>0.02921840031398944</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003849657988949148</v>
+        <v>0.003871540189895114</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.08666502808723231</v>
+        <v>0.05554293983921155</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003829019288793111</v>
+        <v>0.003834336359964116</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01934363154219387</v>
+        <v>0.08436367508946202</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003871540189895114</v>
+        <v>0.003832770160155785</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02248562202180106</v>
+        <v>0.02591531244979638</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004645848227874136</v>
+        <v>0.00369842066683553</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.05141068113107022</v>
+        <v>0.03102439999999999</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004619589586738977</v>
+        <v>0.004627034582089551</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.09177311501777935</v>
+        <v>0.05964798571420435</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004594823146551733</v>
+        <v>0.004601203631956939</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02248562202180106</v>
+        <v>0.09119049260630546</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004645848227874136</v>
+        <v>0.004599324192186942</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02544809961108029</v>
+        <v>0.02773456035760375</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005420156265853159</v>
+        <v>0.00413638200557247</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.05741168847372072</v>
+        <v>0.03170478852336499</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005389521184528808</v>
+        <v>0.005420156265853159</v>
       </c>
       <c r="L72" s="172" t="n">
+        <v>0.06331224830807863</v>
+      </c>
+      <c r="M72" s="170" t="n">
+        <v>0.005368070903949762</v>
+      </c>
+      <c r="N72" s="171" t="n">
         <v>0.09736327222467689</v>
       </c>
-      <c r="M72" s="170" t="n">
-        <v>0.005385303004397607</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.02544809961108029</v>
-      </c>
       <c r="O72" s="172" t="n">
-        <v>0.005420156265853159</v>
+        <v>0.005654568154617487</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02820310918415664</v>
+        <v>0.03054711041776335</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006194464303832181</v>
+        <v>0.004931227555780707</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.06216558485187071</v>
+        <v>0.0318262011804966</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006159452782318637</v>
+        <v>0.006194464303832181</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0991442375586658</v>
+        <v>0.06545074313362279</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006126430862068977</v>
+        <v>0.005759369445584315</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.02820310918415664</v>
+        <v>0.09945970574143975</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006194464303832181</v>
+        <v>0.006132432256249255</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03052269561515519</v>
+        <v>0.03255202611783662</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006968772341811204</v>
+        <v>0.005547631000253295</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.06545074313362279</v>
+        <v>0.03263208713011444</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006847250340861353</v>
+        <v>0.006968772341811204</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1037912450956772</v>
+        <v>0.06918139647549634</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.0068922347198276</v>
+        <v>0.006901805447935409</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03052269561515519</v>
+        <v>0.1021446651671864</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006968772341811204</v>
+        <v>0.006898986288280413</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03237890377820098</v>
+        <v>0.03440867370421537</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007743080379790227</v>
+        <v>0.006164034444725883</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.06783845357590126</v>
+        <v>0.03264351710208496</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007699315977898296</v>
+        <v>0.007743080379790227</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1059899876231305</v>
+        <v>0.07113058090737859</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007658038577586222</v>
+        <v>0.007668672719928232</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03237890377820098</v>
+        <v>0.1046814235403938</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007743080379790227</v>
+        <v>0.00766554032031157</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03353821404256867</v>
+        <v>0.03612222387408166</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008336582184586253</v>
+        <v>0.006780437889198471</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.06987922885261749</v>
+        <v>0.03353821404256867</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008469247575688127</v>
+        <v>0.008336582184586253</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1105394791454364</v>
+        <v>0.07293517872777594</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008423842435344844</v>
+        <v>0.008435539991921055</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03353821404256867</v>
+        <v>0.1079689540365186</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008336582184586253</v>
+        <v>0.008432094352342726</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03489545170277444</v>
+        <v>0.03769784732461749</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007396841333671061</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0340968338170224</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009291696455748273</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.07346398043629826</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009239179173477954</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.1125387336670059</v>
+        <v>0.0753948689633164</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009189646293103466</v>
+        <v>0.009202407263913878</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03489545170277444</v>
+        <v>0.1124062298310171</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009291696455748273</v>
+        <v>0.009198648384373884</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03601419294528395</v>
+        <v>0.03914071475300494</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008013244778143649</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0345600770387683</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01006600449372729</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.07599264030839392</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01000911077126778</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.1159867651922495</v>
+        <v>0.07770933064062818</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009955450150862088</v>
+        <v>0.009969274535906701</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03601419294528395</v>
+        <v>0.1148922240993459</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01006600449372729</v>
+        <v>0.00996520241640504</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03721035887706127</v>
+        <v>0.04045599685642606</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008629648222616236</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.03536369466563416</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01084031253170632</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.07736514045035486</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01077904236905762</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.1201825877255781</v>
+        <v>0.07997824278633928</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01072125400862071</v>
+        <v>0.01073614180789952</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03721035887706127</v>
+        <v>0.1179259100169614</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01084031253170632</v>
+        <v>0.0107317564484362</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03878358801502554</v>
+        <v>0.04164886433206289</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009246051667088825</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.03600507438560956</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01161462056968534</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.08038141284363137</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01154897396684744</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.1234252152714025</v>
+        <v>0.08290128442707789</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01148705786637933</v>
+        <v>0.01150300907989235</v>
       </c>
       <c r="N80" t="n">
-        <v>0.03878358801502554</v>
+        <v>0.1223062607593202</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01161462056968534</v>
+        <v>0.01149831048046735</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03993351887609591</v>
+        <v>0.04272448787709749</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009862455111561414</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.03708160388668409</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01238892860766436</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.08214138946967386</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01231890556463727</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.1266136618341335</v>
+        <v>0.08507813458947214</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01225286172413795</v>
+        <v>0.01226987635188517</v>
       </c>
       <c r="N81" t="n">
-        <v>0.03993351887609591</v>
+        <v>0.1258322495018788</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01238892860766436</v>
+        <v>0.01226486451249851</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04095978997719152</v>
+        <v>0.0436880381887119</v>
       </c>
       <c r="G82" t="n">
+        <v>0.010478858556034</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.03759067085684736</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01316323664564339</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.08504500230993262</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.0130888371624271</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.1283469414181817</v>
+        <v>0.0868084723001501</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01301866558189658</v>
+        <v>0.01303674362387799</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04095978997719152</v>
+        <v>0.1272028494200936</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01316323664564339</v>
+        <v>0.01303141854452967</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04276203983523151</v>
+        <v>0.04450036810728112</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01106144100278623</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03842966298408892</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01393754468362241</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.08699218334585807</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01385876876021693</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.131324068027958</v>
+        <v>0.08849197658573982</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0137844694396552</v>
+        <v>0.01380361089587082</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04276203983523151</v>
+        <v>0.1309170336894214</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01393754468362241</v>
+        <v>0.01379797257656083</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.04343990696713501</v>
+        <v>0.04533990068159447</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01171166544497918</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.03909596795639841</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01471185272160143</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.08938286455890043</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01462870035800676</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.1355440556678732</v>
+        <v>0.09082832647286954</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01455027329741382</v>
+        <v>0.01457047816786364</v>
       </c>
       <c r="N84" t="n">
-        <v>0.04343990696713501</v>
+        <v>0.1349737754853183</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01471185272160143</v>
+        <v>0.01456452660859198</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.04459302988982117</v>
+        <v>0.04610761257962911</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01232806888945177</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.04058697346176537</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01548616075958045</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.09141697793051023</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01539863195579659</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.136905918342338</v>
+        <v>0.09231720098816726</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01531607715517244</v>
+        <v>0.01533734543985646</v>
       </c>
       <c r="N85" t="n">
-        <v>0.04459302988982117</v>
+        <v>0.137872047983241</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01548616075958045</v>
+        <v>0.01533108064062314</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.04602104712020913</v>
+        <v>0.0468484659527122</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01294447233392436</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.04110006718817941</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01626046879755948</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.09429445544213771</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01616856355358642</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.1408086700557631</v>
+        <v>0.09495827915826127</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01608188101293107</v>
+        <v>0.01610421271184928</v>
       </c>
       <c r="N86" t="n">
-        <v>0.04602104712020913</v>
+        <v>0.139410824358646</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01626046879755948</v>
+        <v>0.0160976346726543</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.04702359717521805</v>
+        <v>0.0475629937403183</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01356087577839694</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0422326368236301</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.0170347768355385</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.09531522907523327</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01693849515137625</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1426513248125596</v>
+        <v>0.09705124000977944</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01684768487068969</v>
+        <v>0.01687107998384211</v>
       </c>
       <c r="N87" t="n">
-        <v>0.04702359717521805</v>
+        <v>0.1420890777869899</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0170347768355385</v>
+        <v>0.01686418870468545</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.04840031857176703</v>
+        <v>0.04825172888192195</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01417727922286953</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.04308207005610708</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01780908487351752</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.09717923081124724</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01770842674916608</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1460328966171378</v>
+        <v>0.09879576256935002</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01761348872844831</v>
+        <v>0.01763794725583493</v>
       </c>
       <c r="N88" t="n">
-        <v>0.04840031857176703</v>
+        <v>0.145105781443729</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01780908487351752</v>
+        <v>0.01763074273671661</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04945084982677525</v>
+        <v>0.0489152043169977</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01479368266734212</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.04434575457359984</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01858339291149655</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.09958639263162994</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01847835834695591</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1476523994739088</v>
+        <v>0.1003915258636011</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01837929258620693</v>
+        <v>0.01840481452782776</v>
       </c>
       <c r="N89" t="n">
-        <v>0.04945084982677525</v>
+        <v>0.1486599085043198</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01858339291149655</v>
+        <v>0.01839729676874777</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.05007482945716182</v>
+        <v>0.0495539529850201</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01541008611181471</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.04482107806409806</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01935770094947557</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.1016366465178317</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01924828994474574</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1515088473872834</v>
+        <v>0.1028382089191608</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01914509644396555</v>
+        <v>0.01917168179982058</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05007482945716182</v>
+        <v>0.1503504321442191</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01935770094947557</v>
+        <v>0.01916385080077892</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0510718959798459</v>
+        <v>0.05016850782546369</v>
       </c>
       <c r="G91" t="n">
+        <v>0.0160264895562873</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.04580542821559128</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02013200898745459</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.103329924451303</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02001822154253557</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1532012543616722</v>
+        <v>0.1036354907626572</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01991090030172418</v>
+        <v>0.0199385490718134</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0510718959798459</v>
+        <v>0.1532763255388832</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02013200898745459</v>
+        <v>0.01993040483281008</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05184168791174663</v>
+        <v>0.05075940177780305</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01664289300075988</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.04689619271606912</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02090631702543361</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.104566158413494</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.0207881531403254</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1568286344014861</v>
+        <v>0.1048830504207183</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0206767041594828</v>
+        <v>0.02070541634380622</v>
       </c>
       <c r="N92" t="n">
-        <v>0.05184168791174663</v>
+        <v>0.1554365618637685</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02090631702543361</v>
+        <v>0.02069695886484124</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05288384376978314</v>
+        <v>0.05132716778151269</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01725929644523247</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.04819075925352113</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02168062506341263</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.1066452803858552</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02155808473811523</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1584900015111357</v>
+        <v>0.1072805669199725</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02144250801724142</v>
+        <v>0.02147228361579905</v>
       </c>
       <c r="N93" t="n">
-        <v>0.05288384376978314</v>
+        <v>0.1587301142943316</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02168062506341263</v>
+        <v>0.0214635128968724</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05379800207087458</v>
+        <v>0.05187233877606714</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01787569988970506</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.04898651551593693</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02245493310139166</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.107967222349837</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02232801633590506</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1602843696950318</v>
+        <v>0.1084277192870477</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02220831187500004</v>
+        <v>0.02223915088779187</v>
       </c>
       <c r="N94" t="n">
-        <v>0.05379800207087458</v>
+        <v>0.1604559560060291</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02245493310139166</v>
+        <v>0.02223006692890355</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05468380133194009</v>
+        <v>0.052395447700941</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01849210333417765</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.05018084919130607</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02322924113937068</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.1100319162868895</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02309794793369489</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1630107529575854</v>
+        <v>0.1103241865485721</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02297411573275866</v>
+        <v>0.02300601815978469</v>
       </c>
       <c r="N95" t="n">
-        <v>0.05468380133194009</v>
+        <v>0.1623130601743173</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02322924113937068</v>
+        <v>0.02299662096093471</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05554088006989881</v>
+        <v>0.05289702749560881</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01910850677865024</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.05097114796761816</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.0240035491773497</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.1117392941784633</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02386787953148472</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1660681653032072</v>
+        <v>0.1109696477311738</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02373991959051729</v>
+        <v>0.02377288543177751</v>
       </c>
       <c r="N96" t="n">
-        <v>0.05554088006989881</v>
+        <v>0.1639003999746529</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0240035491773497</v>
+        <v>0.02376317499296586</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05676887680166988</v>
+        <v>0.05337761109954508</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01972491022312283</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0517547995328628</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02477785721532872</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.1134892880060087</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02463781112927455</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1680556207363078</v>
+        <v>0.1136637818614808</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02450572344827591</v>
+        <v>0.02453975270377034</v>
       </c>
       <c r="N97" t="n">
-        <v>0.05676887680166988</v>
+        <v>0.1661169485824923</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02477785721532872</v>
+        <v>0.02452972902499702</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05766743004417245</v>
+        <v>0.0538377314522244</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02034131366759542</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.05312919157502957</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02555216525330775</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.114881829750976</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02540774272706438</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1693721332612981</v>
+        <v>0.1147062679661214</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02527152730603453</v>
+        <v>0.02530661997576316</v>
       </c>
       <c r="N98" t="n">
-        <v>0.05766743004417245</v>
+        <v>0.169761679173292</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02555216525330775</v>
+        <v>0.02529628305702818</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05833617831432564</v>
+        <v>0.05427792149312128</v>
       </c>
       <c r="G99" t="n">
+        <v>0.020957717112068</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.05419171178210806</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02632647329128677</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.1159168513948154</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02617767432485421</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1713167168825888</v>
+        <v>0.1157967850717235</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02603733116379315</v>
+        <v>0.02607348724775599</v>
       </c>
       <c r="N99" t="n">
-        <v>0.05833617831432564</v>
+        <v>0.1709335649225086</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02632647329128677</v>
+        <v>0.02606283708905933</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.05897476012904861</v>
+        <v>0.0546987141617103</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02157412055654059</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.05513974784208782</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02710078132926579</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.1161942849189776</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02694760592264404</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1722883856045908</v>
+        <v>0.1175350122049154</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02680313502155177</v>
+        <v>0.02684035451974881</v>
       </c>
       <c r="N100" t="n">
-        <v>0.05897476012904861</v>
+        <v>0.1729315790055985</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02710078132926579</v>
+        <v>0.0268293911210905</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05968281400526047</v>
+        <v>0.05510064239746599</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02219052400101318</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.05587068744295848</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02787508936724482</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.1176140623049127</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02771753752043387</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1739861534317147</v>
+        <v>0.117920628392325</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0275689388793104</v>
+        <v>0.02760722179174164</v>
       </c>
       <c r="N101" t="n">
-        <v>0.05968281400526047</v>
+        <v>0.1755546945980183</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02787508936724482</v>
+        <v>0.02759594515312165</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05995997845988044</v>
+        <v>0.05548423913986288</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02280692744548577</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.05658191827270963</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02864939740522384</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.119076115534071</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02848746911822369</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1763090343683715</v>
+        <v>0.1192533126605806</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02833474273706902</v>
+        <v>0.02837408906373446</v>
       </c>
       <c r="N102" t="n">
-        <v>0.05995997845988044</v>
+        <v>0.1768018848752243</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02864939740522384</v>
+        <v>0.02836249918515281</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06060589200982755</v>
+        <v>0.05585003732837555</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02342333088995836</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.05777082801933082</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02942370544320286</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.1206803765879031</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02925740071601353</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1777560424189716</v>
+        <v>0.1201327440363104</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02910054659482764</v>
+        <v>0.02914095633572728</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06060589200982755</v>
+        <v>0.1777721230126731</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02942370544320286</v>
+        <v>0.02912905321718396</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06122019317202101</v>
+        <v>0.05619856990247855</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02403973433443094</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.05843480437081165</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03019801348118189</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.1218267774478592</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03002733231380336</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1800261915879263</v>
+        <v>0.1209586015461422</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02986635045258626</v>
+        <v>0.0299078236077201</v>
       </c>
       <c r="N104" t="n">
-        <v>0.06122019317202101</v>
+        <v>0.1802643821858214</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03019801348118189</v>
+        <v>0.02989560724921512</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06180252046337996</v>
+        <v>0.05653036980164641</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02465613777890353</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.05907123501514173</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03097232151916091</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.1230152500953897</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03079726391159318</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1812184958796459</v>
+        <v>0.1223305642167044</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03063215431034489</v>
+        <v>0.03067469087971293</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06180252046337996</v>
+        <v>0.1819776355701255</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03097232151916091</v>
+        <v>0.03066216128124628</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06285251240082354</v>
+        <v>0.05684596996535368</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02527254122337612</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.06027750764031066</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03174662955713993</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.1234457265119449</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03156719550938301</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1831319692985414</v>
+        <v>0.1229483110746249</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03139795816810351</v>
+        <v>0.03144155815170575</v>
       </c>
       <c r="N106" t="n">
-        <v>0.06285251240082354</v>
+        <v>0.1821108563410418</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03174662955713993</v>
+        <v>0.03142871531327743</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06326980750127086</v>
+        <v>0.05714590333307489</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02588894466784871</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.06055100993430797</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03252093759511895</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.124818138678975</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03233712710717284</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1837656258490236</v>
+        <v>0.1237115211465319</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03216376202586213</v>
+        <v>0.03220842542369857</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06326980750127086</v>
+        <v>0.1834630176740271</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03252093759511895</v>
+        <v>0.03219526934530859</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06375404428164108</v>
+        <v>0.05743070284428462</v>
       </c>
       <c r="G108" t="n">
+        <v>0.0265053481123213</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.06188912958512331</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03329524563309798</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.1246324185779307</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03310705870496267</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1852184795355031</v>
+        <v>0.1252198734590535</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03292956588362075</v>
+        <v>0.03297529269569139</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06375404428164108</v>
+        <v>0.1844330927445378</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03329524563309798</v>
+        <v>0.03296182337733975</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06410486125885338</v>
+        <v>0.05770103720902648</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02712175155679388</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0621892542807462</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.034069553671077</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1252884981902621</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03387699030275251</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1872895443623909</v>
+        <v>0.1261730470388179</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03369536974137938</v>
+        <v>0.03374215996768422</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06410486125885338</v>
+        <v>0.1867200547280302</v>
       </c>
       <c r="O109" t="n">
-        <v>0.034069553671077</v>
+        <v>0.0337283774093709</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06452189694982681</v>
+        <v>0.05796529534031695</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02773815500126648</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.06294877170916631</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03484386170905602</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1267863094974195</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03464692190054233</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1884778343340976</v>
+        <v>0.126070720912453</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03446117359913799</v>
+        <v>0.03450902723967704</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06452189694982681</v>
+        <v>0.188122876799961</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03484386170905602</v>
+        <v>0.03449493144140206</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06490478987148059</v>
+        <v>0.05822810744152859</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02835455844573906</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.06356506955837314</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03561816974703504</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.1277257844808536</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03541685349833217</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.188282363455034</v>
+        <v>0.1273125741065871</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03522697745689662</v>
+        <v>0.03527589451166986</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06490478987148059</v>
+        <v>0.1894405321357867</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03561816974703504</v>
+        <v>0.03526148547343322</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06535317854073379</v>
+        <v>0.05848934630368093</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02897096189021165</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.06403553551635631</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03639247778501407</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1272068551220144</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03618678509612199</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1892021457296109</v>
+        <v>0.1278982856478483</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03599278131465524</v>
+        <v>0.03604276178366268</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06535317854073379</v>
+        <v>0.1901719939109637</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03639247778501407</v>
+        <v>0.03602803950546438</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06526670147450568</v>
+        <v>0.05874888471779355</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02958736533468424</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.06495755727110543</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03716678582299309</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.1276294534023523</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03695671669391182</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1912361951622391</v>
+        <v>0.1274275345628647</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03675858517241386</v>
+        <v>0.03680962905565551</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06526670147450568</v>
+        <v>0.1905162353009488</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03716678582299309</v>
+        <v>0.03679459353749553</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06584499718971525</v>
+        <v>0.05900659547488598</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03020376877915683</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.06532852251061012</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03794109386097211</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1289935113033178</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03772664829170165</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1914835257573292</v>
+        <v>0.1287999998782642</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03752438903017248</v>
+        <v>0.03757649632764833</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06584499718971525</v>
+        <v>0.190572229481198</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03794109386097211</v>
+        <v>0.03756114756952669</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06608770420328171</v>
+        <v>0.05926235136597782</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03082017222362942</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.06534581892285991</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03871540189895113</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1289989608063612</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03849657988949148</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1924431515192924</v>
+        <v>0.1293153606206753</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0382901928879311</v>
+        <v>0.03834336359964115</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06608770420328171</v>
+        <v>0.1924389496271681</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03871540189895113</v>
+        <v>0.03832770160155784</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0660944610321242</v>
+        <v>0.05951602518208855</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03143657566810201</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.06570683419584435</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03948970993693016</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1291457338929328</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03926651148728131</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.191414086452539</v>
+        <v>0.1293732958167259</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03905599674568973</v>
+        <v>0.03911023087163398</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0660944610321242</v>
+        <v>0.1916153689143156</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03948970993693016</v>
+        <v>0.039094255633589</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06616490619316188</v>
+        <v>0.05976748971423778</v>
       </c>
       <c r="G117" t="n">
+        <v>0.0320529791125746</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.06630895601755306</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04026401797490917</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1297337625444829</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04003644308507114</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.19259534456148</v>
+        <v>0.129073484493044</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03982180060344835</v>
+        <v>0.0398770981436268</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06616490619316188</v>
+        <v>0.1928004605180969</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04026401797490917</v>
+        <v>0.03986080966562016</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06649867820331386</v>
+        <v>0.06001661775344504</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03266938255704718</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.06634957207597571</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.0410383260128882</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1299629787424619</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04080637468286097</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1938859398505261</v>
+        <v>0.1300156056762578</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04058760446120697</v>
+        <v>0.04064396541561963</v>
       </c>
       <c r="N118" t="n">
-        <v>0.06649867820331386</v>
+        <v>0.1927931976139688</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0410383260128882</v>
+        <v>0.04062736369765132</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0666954155794993</v>
+        <v>0.06026328209072992</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03328578600151977</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.06672607005910182</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04181263405086723</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.1297333144683203</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.0415763062806508</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1942848863240881</v>
+        <v>0.1294993383929955</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04135340831896559</v>
+        <v>0.04141083268761245</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0666954155794993</v>
+        <v>0.1929925533773874</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04181263405086723</v>
+        <v>0.04139391772968248</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.06050735551711191</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03390218944599235</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.06707642808513732</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04258694208884625</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1309014862672456</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04234623787844063</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1931911979865769</v>
+        <v>0.1305243616698851</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04211921217672421</v>
+        <v>0.04217769995960528</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06707642808513732</v>
+        <v>0.1935975009838094</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04258694208884625</v>
+        <v>0.04216047176171363</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06657634049764706</v>
+        <v>0.06074871082361063</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03451859289046495</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.06707626255142275</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04336125012682527</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.1298970724294761</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04311616947623046</v>
-      </c>
       <c r="L121" t="n">
+        <v>0.1309014862672456</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.0429445672315981</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.1947265444493538</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04288501603448284</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.06657634049764706</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.04336125012682527</v>
+        <v>0.04292702579374479</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0669670460367502</v>
+        <v>0.06098722080124557</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03513499633493753</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.06706924874477231</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04413555816480429</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1300826569059162</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04388610107402029</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1946240093663833</v>
+        <v>0.1304995659980178</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04365081989224145</v>
+        <v>0.04371143450359092</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0669670460367502</v>
+        <v>0.1932204052623601</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04413555816480429</v>
+        <v>0.04369357982577595</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06643669841542922</v>
+        <v>0.06122275824103635</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03575139977941012</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.06654601092655983</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04490986620278331</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1296740483392672</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04465603267181012</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1932816611834161</v>
+        <v>0.1301772028088694</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04441662375000009</v>
+        <v>0.04447830177558374</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06643669841542922</v>
+        <v>0.1936420108618437</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04490986620278331</v>
+        <v>0.0444601338578071</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06658626143136569</v>
+        <v>0.06145519593400247</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03636780322388272</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.06650736074605033</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04568417424076234</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1305744713812397</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04542596426959995</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.192888428643135</v>
+        <v>0.1297304202217749</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0451824276077587</v>
+        <v>0.04524516904757656</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06658626143136569</v>
+        <v>0.1939766970265684</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04568417424076234</v>
+        <v>0.04522668788983826</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0665166615947549</v>
+        <v>0.0616844066711635</v>
       </c>
       <c r="G125" t="n">
+        <v>0.0369842066683553</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.06695398279073479</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04645848227874136</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.1293903688649664</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04619589586738978</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1940459797455586</v>
+        <v>0.1306600635673703</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04594823146551733</v>
+        <v>0.04601203631956938</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0665166615947549</v>
+        <v>0.192528649703868</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04645848227874136</v>
+        <v>0.04599324192186942</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06672882541579216</v>
+        <v>0.06191026324353901</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03760061011282789</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.06638656164810412</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04723279031672038</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1298281836235796</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04696582746517961</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1929559824907051</v>
+        <v>0.1306669781762912</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04671403532327595</v>
+        <v>0.04677890359156221</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06672882541579216</v>
+        <v>0.1923020548410757</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04723279031672038</v>
+        <v>0.04675979595390058</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06612367940467266</v>
+        <v>0.06213263844214855</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03821701355730047</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.06650578190564936</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04800709835469941</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1293943584902118</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04773575906296943</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1925201048785932</v>
+        <v>0.1293520093791733</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04747983918103457</v>
+        <v>0.04754577086355503</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06612367940467266</v>
+        <v>0.1935010983855249</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04800709835469941</v>
+        <v>0.04752634998593173</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06610215007159169</v>
+        <v>0.06235140505801166</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03883341700177306</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.06611232815086139</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04878140639267842</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1289953362979957</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04850569066075926</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1920400149092414</v>
+        <v>0.1302160025066524</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04824564303879319</v>
+        <v>0.04831263813554786</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06610215007159169</v>
+        <v>0.1920299662845493</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04878140639267842</v>
+        <v>0.04829290401796289</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06606516392674446</v>
+        <v>0.06256643588214789</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03944982044624566</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0666068849712312</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04955571443065745</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1271375598800635</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.0492756222585491</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1921173805826681</v>
+        <v>0.129659802889364</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04901144689655181</v>
+        <v>0.04907950540754068</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06606516392674446</v>
+        <v>0.1911928444854822</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04955571443065745</v>
+        <v>0.04905945804999404</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06591364748032631</v>
+        <v>0.06277760370557681</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04006622389071824</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.06629013695424975</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05033002246863647</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.127327472069548</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05004555385633893</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1930538698988919</v>
+        <v>0.1293842558579441</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04977725075431044</v>
+        <v>0.0498463726795335</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06591364748032631</v>
+        <v>0.190093918935657</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05033002246863647</v>
+        <v>0.0498260120820252</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0660485272425325</v>
+        <v>0.06298478131931798</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04068262733519083</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.06616276868740802</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.0511043305066155</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1270715156995815</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05081548545412876</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1920511508579312</v>
+        <v>0.1287902067430282</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05054305461206906</v>
+        <v>0.05061323995152633</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0660485272425325</v>
+        <v>0.1893373755824073</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0511043305066155</v>
+        <v>0.05059256611405636</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06587072972355822</v>
+        <v>0.06318784151439091</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04129903077966342</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.06582546475819694</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05187863854459452</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1257761336032966</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05158541705191858</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1917108914598045</v>
+        <v>0.128478500875252</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05130885846982768</v>
+        <v>0.05138010722351915</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06587072972355822</v>
+        <v>0.1896274003730665</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05187863854459452</v>
+        <v>0.05135912014608751</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06558118143359877</v>
+        <v>0.06338665708181523</v>
       </c>
       <c r="G133" t="n">
+        <v>0.041915434224136</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.06567890975410746</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05265294658257354</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1247477686138257</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05235534864970842</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1911347597045304</v>
+        <v>0.1286499835852513</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05207466232758631</v>
+        <v>0.05214697449551197</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06558118143359877</v>
+        <v>0.1879681792549679</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05265294658257354</v>
+        <v>0.05212567417811867</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0651808088828494</v>
+        <v>0.06358110081261042</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04253183766860859</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.06592378826263061</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05342725462055257</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1239928635643014</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05312528024749824</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1911244235921273</v>
+        <v>0.1280055002036618</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05284046618534492</v>
+        <v>0.0529138417675048</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0651808088828494</v>
+        <v>0.1878638981754451</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05342725462055257</v>
+        <v>0.05289222821014983</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06497053858150541</v>
+        <v>0.06377104549779605</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04314824111308119</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.06526078487125729</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05420156265853158</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.1237178612878561</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05389521184528807</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1898815511226137</v>
+        <v>0.1287458960611192</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05360627004310355</v>
+        <v>0.05368070903949761</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06497053858150541</v>
+        <v>0.1871187430818316</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05420156265853158</v>
+        <v>0.05365878224218099</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06495129703976203</v>
+        <v>0.06395636392839171</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04376464455755377</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0651905841674784</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05497587069651061</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.1225292046176223</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05466514344307791</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1895078102960081</v>
+        <v>0.1283720164882592</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05437207390086217</v>
+        <v>0.05444757631149044</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06495129703976203</v>
+        <v>0.1862368999214606</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05497587069651061</v>
+        <v>0.05442533627421214</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06452401076781451</v>
+        <v>0.06413692889541692</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04438104800202636</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.06531387073878507</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05575017873448963</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1216333363867326</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05543507504086773</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.188404869112329</v>
+        <v>0.1276847068157177</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0551378777586208</v>
+        <v>0.05521444358348327</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06452401076781451</v>
+        <v>0.1857225546416659</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05575017873448963</v>
+        <v>0.0551918903062433</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06458960627585818</v>
+        <v>0.06431261318989126</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04499745144649895</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0646313291726681</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05652448677246866</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1209366994283194</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05620500663865757</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1880743955715948</v>
+        <v>0.1273848123741301</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05590368161637941</v>
+        <v>0.05598131085547609</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06458960627585818</v>
+        <v>0.1841798931897807</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05652448677246866</v>
+        <v>0.05595844433827445</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06434901007408821</v>
+        <v>0.06448328960283428</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04561385489097153</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0646436440566185</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05729879481044768</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.1201457365755152</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05697493823644739</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1879180576738242</v>
+        <v>0.1269731784941323</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05666948547413803</v>
+        <v>0.05674817812746891</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06434901007408821</v>
+        <v>0.1829131015131384</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05729879481044768</v>
+        <v>0.05672499837030562</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06380314867269987</v>
+        <v>0.06464883092526549</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04623025833544412</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.06465149997812726</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05807310284842671</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.1198668906614526</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05774486983423722</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1860375234190356</v>
+        <v>0.12635065050636</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05743528933189666</v>
+        <v>0.05751504539946173</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06380314867269987</v>
+        <v>0.1834263655590727</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05807310284842671</v>
+        <v>0.05749155240233677</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06335294858188849</v>
+        <v>0.06480910994820449</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04684666177991671</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.06425558152468532</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05884741088640572</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.118906604519264</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05851480143202705</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1854344608072474</v>
+        <v>0.1263180737414487</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05820109318965529</v>
+        <v>0.05828191267145456</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06335294858188849</v>
+        <v>0.1821238712749169</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05884741088640572</v>
+        <v>0.05825810643436793</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06319933631184928</v>
+        <v>0.06496399946267081</v>
       </c>
       <c r="G142" t="n">
+        <v>0.0474630652243893</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.06425657328378363</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05962171892438475</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1180713209820819</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05928473302981688</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1845105378384782</v>
+        <v>0.1261762935300345</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0589668970474139</v>
+        <v>0.05904877994344739</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06319933631184928</v>
+        <v>0.1802098046080045</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05962171892438475</v>
+        <v>0.05902466046639908</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06304323837277752</v>
+        <v>0.06511337225968403</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04807946866886189</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.06415515984291319</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06039602696236377</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1180674828830388</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06005466462760671</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1838674225127465</v>
+        <v>0.1257261552027528</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05973270090517252</v>
+        <v>0.0598156472154402</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06304323837277752</v>
+        <v>0.1784883515056688</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06039602696236377</v>
+        <v>0.05979121449843024</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06288558127486846</v>
+        <v>0.0652571011302637</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04869587211333447</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.06405202578956486</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06117033500034279</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1169015330552672</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06082459622539654</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1840067828300707</v>
+        <v>0.1251685040902393</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06049850476293115</v>
+        <v>0.06058251448743303</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06288558127486846</v>
+        <v>0.1778636979152435</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06117033500034279</v>
+        <v>0.06055776853046139</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06232729152831736</v>
+        <v>0.06539505886542935</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04931227555780706</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.06344785571122971</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06194464303832182</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1155799143318996</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06159452782318637</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1828302867904694</v>
+        <v>0.12560418552313</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06126430862068977</v>
+        <v>0.06134938175942586</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06232729152831736</v>
+        <v>0.1767400297840618</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06194464303832182</v>
+        <v>0.06132432256249256</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0624692956433195</v>
+        <v>0.06552711825620053</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04992867900227965</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.06324333419539865</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06271895107630084</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.1151090695460686</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.0623644594209762</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1820396023939611</v>
+        <v>0.1245340448320603</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06203011247844838</v>
+        <v>0.06211624903141867</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0624692956433195</v>
+        <v>0.1765215330594573</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06271895107630084</v>
+        <v>0.0620908765945237</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06191252013007012</v>
+        <v>0.06565315209359682</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05054508244675224</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.06333914582956263</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06349325911427986</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.1155954415309065</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06313439101876603</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1810363976405641</v>
+        <v>0.1243589273476662</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06279591633620701</v>
+        <v>0.06288311630341149</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06191252013007012</v>
+        <v>0.1747123936887635</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06349325911427986</v>
+        <v>0.06285743062655487</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0617578914987645</v>
+        <v>0.06577303316863775</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05116148589122483</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.06303597520121264</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06426756715225888</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.1139454731195459</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06390432261655586</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1800223405302971</v>
+        <v>0.1245796784005832</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06356172019396564</v>
+        <v>0.06364998357540433</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0617578914987645</v>
+        <v>0.1738167976193136</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06426756715225888</v>
+        <v>0.06362398465858603</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06170633625959787</v>
+        <v>0.0658866342723429</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05177788933569742</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.06253450689783961</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06504187519023791</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.1137655706479717</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06467425421434568</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1795990990631785</v>
+        <v>0.1229971433214471</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06432752405172426</v>
+        <v>0.06441685084739714</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06170633625959787</v>
+        <v>0.1732389307984413</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06504187519023791</v>
+        <v>0.06439053869061719</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06105878092276554</v>
+        <v>0.06599382819573182</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05239429278017001</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.06233542550693452</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06581618322821693</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.1140280017233799</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06544418581213551</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1778683412392268</v>
+        <v>0.1229121674408935</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06509332790948287</v>
+        <v>0.06518371811938997</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06105878092276554</v>
+        <v>0.1715829791734799</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06581618322821693</v>
+        <v>0.06515709272264833</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06111615199846274</v>
+        <v>0.06609448772982404</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05301069622464259</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.06263941561598835</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06659049126619596</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.1135044905154318</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06621411740992535</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1780317350584606</v>
+        <v>0.1223255960895582</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06585913176724149</v>
+        <v>0.06595058539138278</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06111615199846274</v>
+        <v>0.171853128691763</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06659049126619596</v>
+        <v>0.0659236467546795</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06067937599688472</v>
+        <v>0.06618848566563915</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05362709966911518</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.062347161812492</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06736479930417497</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.1133944558356696</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06698404900771518</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1780909485208984</v>
+        <v>0.122038274598077</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06662493562500012</v>
+        <v>0.06671745266337561</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06067937599688472</v>
+        <v>0.171553565300624</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06736479930417497</v>
+        <v>0.06669020078671066</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06054937942822679</v>
+        <v>0.06627569479419668</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05424350311358777</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.06165934868393648</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06813910734215399</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.1134973164956358</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06775398060550501</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1772476496265584</v>
+        <v>0.1213510482970854</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06739073948275875</v>
+        <v>0.06748431993536844</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06054937942822679</v>
+        <v>0.1704884749473963</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06813910734215399</v>
+        <v>0.0674567548187418</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06022708880268415</v>
+        <v>0.06635598790651615</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05485990655806037</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.06197666081781272</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06891341538013301</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.1121124913068724</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06852391220329483</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1751035063754594</v>
+        <v>0.1214647625172193</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06815654334051736</v>
+        <v>0.06825118720736126</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06022708880268415</v>
+        <v>0.1692620435794133</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06891341538013301</v>
+        <v>0.06822330885077298</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0604134306304521</v>
+        <v>0.06642923779361717</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05547631000253295</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.06149978280161171</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06968772341811204</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.1123393990809218</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06929384380108466</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1748601867676198</v>
+        <v>0.1211802625891144</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06892234719827599</v>
+        <v>0.06901805447935408</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0604134306304521</v>
+        <v>0.1688784571440085</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06968772341811204</v>
+        <v>0.06898986288280412</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0602093314217259</v>
+        <v>0.0664953172465193</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05609271344700554</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.06122939922282437</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07046203145609106</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.1125774586293264</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.0700637753988745</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1728193588030581</v>
+        <v>0.1204983938434062</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06968815105603461</v>
+        <v>0.06978492175134691</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0602093314217259</v>
+        <v>0.1665419015885153</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07046203145609106</v>
+        <v>0.06975641691483529</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05951571768670078</v>
+        <v>0.06655409905624204</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05670911689147812</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.0615661946689417</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07123633949407009</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.1122260887636282</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07083370699666433</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1734826904817927</v>
+        <v>0.1208200016107306</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07045395491379323</v>
+        <v>0.07055178902333972</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05951571768670078</v>
+        <v>0.1664565628602673</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07123633949407009</v>
+        <v>0.07052297094686644</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05983351593557203</v>
+        <v>0.06660545601380499</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05732552033595071</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.06110904284759515</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07201064753204911</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.1118847082953697</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07160363859445416</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1719518498038423</v>
+        <v>0.1203368346879466</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07121975877155184</v>
+        <v>0.07131865629533256</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05983351593557203</v>
+        <v>0.1664134905417927</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07201064753204911</v>
+        <v>0.07128952497889759</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05966365267853492</v>
+        <v>0.06664926091022766</v>
       </c>
       <c r="G159" t="n">
+        <v>0.0579419237804233</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.0606550517245299</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07278495557002813</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.1111527360360933</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07237357019224398</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1706285047692251</v>
+        <v>0.1201341128026926</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07198556262931048</v>
+        <v>0.07208552356732537</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05966365267853492</v>
+        <v>0.1652917489809189</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07278495557002813</v>
+        <v>0.07205607901092875</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05960705442578469</v>
+        <v>0.06668538653652967</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05855832722489589</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.06070386242094934</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07355926360800716</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.110929590797341</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07314350179003382</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1696143233779599</v>
+        <v>0.1194123100576818</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07275136648706911</v>
+        <v>0.0728523908393182</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05960705442578469</v>
+        <v>0.1643895204118251</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07355926360800716</v>
+        <v>0.07282263304295991</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05906464768751661</v>
+        <v>0.0667137056837305</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05917473066936849</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.06095515788677142</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07433357164598618</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.1114146913906552</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07391343338782363</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1694097110597789</v>
+        <v>0.1191721645637336</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07351717034482773</v>
+        <v>0.07361925811131102</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05906464768751661</v>
+        <v>0.1648053019355191</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07433357164598618</v>
+        <v>0.07358918707499107</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05913645860705459</v>
+        <v>0.06673409114284976</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05979113411384107</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.06070862107191403</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07510787968396521</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.1110074566275783</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07468336498561347</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1683677747585255</v>
+        <v>0.1184144144316671</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07428297420258635</v>
+        <v>0.07438612538330384</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05913645860705459</v>
+        <v>0.1631375906530087</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07510787968396521</v>
+        <v>0.07435574110702223</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05881642525852729</v>
+        <v>0.06674641570490694</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06040753755831366</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.06066393492629514</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07588218772194422</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.1105073053196524</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.0754532965834033</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1687675307009805</v>
+        <v>0.1185397977723016</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07504877806034496</v>
+        <v>0.07515299265529667</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05881642525852729</v>
+        <v>0.1639848836653016</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07588218772194422</v>
+        <v>0.07512229513905337</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05890290033321777</v>
+        <v>0.06675055216092168</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06102394100278624</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.06022078239983267</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07665649575992324</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.1104136562784198</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07622322818119313</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1667137085489115</v>
+        <v>0.1167490526964565</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07581458191810359</v>
+        <v>0.07591985992728949</v>
       </c>
       <c r="N164" t="n">
-        <v>0.05890290033321777</v>
+        <v>0.1619456780734055</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07665649575992324</v>
+        <v>0.07588884917108454</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0583954645246246</v>
+        <v>0.06675055216092168</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06102394100278624</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.06007884644244453</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07743080379790226</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.1102259283154229</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07699315977898297</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1667110379640862</v>
+        <v>0.1173429173149511</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07658038577586221</v>
+        <v>0.07668672719928231</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0583954645246246</v>
+        <v>0.1626184709783283</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07743080379790226</v>
+        <v>0.07665540320311569</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05829369852624636</v>
+        <v>0.06565473120803828</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06102367247432223</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.06013781000404865</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07820511183588129</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.109843540242204</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0777630913767728</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1646642486082722</v>
+        <v>0.1163221297386046</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07734618963362083</v>
+        <v>0.07745359447127513</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05829369852624636</v>
+        <v>0.1623017594810777</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07820511183588129</v>
+        <v>0.07742195723514685</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05879718303158159</v>
+        <v>0.06457100028930199</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06102340394585822</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.05949735603456298</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07897941987386031</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.1092659108703053</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07853302297456262</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1646780701432373</v>
+        <v>0.1162874280782361</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07811199349137946</v>
+        <v>0.07822046174326797</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05879718303158159</v>
+        <v>0.1607940406826613</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07897941987386031</v>
+        <v>0.078188511267178</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05840549873412888</v>
+        <v>0.06349989329271111</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06102313541739419</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.05935716748390543</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07975372791183932</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.110092459011269</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07930295457235245</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1625572322307491</v>
+        <v>0.1148395504446651</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07887779734913808</v>
+        <v>0.07898732901526077</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05840549873412888</v>
+        <v>0.160593811684087</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07975372791183932</v>
+        <v>0.07895506529920916</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05811822632738674</v>
+        <v>0.06244194410640352</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06102286688893017</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.05961692730199393</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08052803594981835</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.1090226034766376</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08007288617014227</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1606064645325755</v>
+        <v>0.1145792349487109</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0796436012068967</v>
+        <v>0.07975419628725361</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05811822632738674</v>
+        <v>0.1600995695863626</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08052803594981835</v>
+        <v>0.07972161933124032</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05843494650485376</v>
+        <v>0.06139768661837692</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06102259836046616</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.05927631843874644</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08130234398779738</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.1090557630779532</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0808428177679321</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1599304967104841</v>
+        <v>0.1143072197011927</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08040940506465533</v>
+        <v>0.08052106355924642</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05843494650485376</v>
+        <v>0.1589098114904958</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08130234398779738</v>
+        <v>0.08048817336327148</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05795523996002849</v>
+        <v>0.06036765471667595</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06102232983200215</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.05933502384408083</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08207665202577641</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.1095913566267582</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08161274936572194</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1587340584262426</v>
+        <v>0.1139242428129296</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08117520892241394</v>
+        <v>0.08128793083123925</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05795523996002849</v>
+        <v>0.1596230344974943</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08207665202577641</v>
+        <v>0.08125472739530264</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05817868738640952</v>
+        <v>0.05935238228930132</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06102206130353812</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.05879272646791511</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08285096006375543</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.1087288029345947</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08238268096351177</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1585218793416186</v>
+        <v>0.1128310423947413</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08194101278017256</v>
+        <v>0.08205479810323207</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05817868738640952</v>
+        <v>0.1592377357083657</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08285096006375543</v>
+        <v>0.08202128142733379</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05770486947749537</v>
+        <v>0.05835240322438608</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06102179277507411</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.05894910926016715</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08362526810173446</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.1094675208130053</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.0831526125613016</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1560986891183799</v>
+        <v>0.1127283565574467</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08270681663793118</v>
+        <v>0.0828216653752249</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05770486947749537</v>
+        <v>0.1588524122241183</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08362526810173446</v>
+        <v>0.08278783545936495</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05793336692678464</v>
+        <v>0.05736825140993034</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06102152424661009</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.05850385517075486</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08439957613971347</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.1091069290735321</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08392254415909144</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1562692174182942</v>
+        <v>0.1117169234118653</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08347262049568982</v>
+        <v>0.08358853264721772</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05793336692678464</v>
+        <v>0.1572655611457592</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08439957613971347</v>
+        <v>0.08355438949139611</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05816376042777582</v>
+        <v>0.05640046073397866</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06102125571814607</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.05895664714959624</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08517388417769249</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.1090464465277173</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08469247575688126</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1539381939031291</v>
+        <v>0.1104974810688161</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08423842435344843</v>
+        <v>0.08435539991921055</v>
       </c>
       <c r="N175" t="n">
-        <v>0.05816376042777582</v>
+        <v>0.1580756795742966</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08517388417769249</v>
+        <v>0.08432094352342727</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05759563067396756</v>
+        <v>0.0554495650845347</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06102098718968205</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.05870716814660915</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08594819221567152</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.1084854919871033</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08546240735467109</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1528103482346523</v>
+        <v>0.1102707676391187</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08500422821120705</v>
+        <v>0.08512226719120336</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05759563067396756</v>
+        <v>0.155881264610738</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08594819221567152</v>
+        <v>0.08508749755545841</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05772855835885835</v>
+        <v>0.05451609834972584</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06102071866121803</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.05825510111171156</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08672250025365054</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.1080234842632323</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08623233895246092</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1511904100746317</v>
+        <v>0.1102375212335923</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08577003206896568</v>
+        <v>0.0858891344631962</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05772855835885835</v>
+        <v>0.1567808133560913</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08672250025365054</v>
+        <v>0.08585405158748959</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05796212417594679</v>
+        <v>0.05360059441755496</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06102045013275402</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.05820012899482138</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08749680829162956</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.1084598421676467</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08700227055025075</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1502831090848347</v>
+        <v>0.109498479963056</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0865358359267243</v>
+        <v>0.08665600173518902</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05796212417594679</v>
+        <v>0.1547728229113642</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08749680829162956</v>
+        <v>0.08662060561952073</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0577959088187314</v>
+        <v>0.05270358717606662</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06102018160429001</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.05794193474585656</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08827111632960859</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.1081939845118887</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08777220214804057</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1501931749270293</v>
+        <v>0.1091543819383292</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08730163978448291</v>
+        <v>0.08742286900718184</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0577959088187314</v>
+        <v>0.1555557903775645</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08827111632960859</v>
+        <v>0.0873871596515519</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05742949298071079</v>
+        <v>0.05182561051326771</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06101991307582598</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.05818020131473502</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.0890454243675876</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.1076253301075007</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08854213374583041</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.147825337262983</v>
+        <v>0.1080059652702313</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08806744364224155</v>
+        <v>0.08818973627917466</v>
       </c>
       <c r="N180" t="n">
-        <v>0.05742949298071079</v>
+        <v>0.1550282128556999</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0890454243675876</v>
+        <v>0.08815371368358305</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05716245735538349</v>
+        <v>0.05096719831727926</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06101964454736197</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.05761461165137467</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08981973240556662</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.1078532977660248</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08931206534362024</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1461843257544635</v>
+        <v>0.1071539680695813</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08883324750000017</v>
+        <v>0.08895660355116748</v>
       </c>
       <c r="N181" t="n">
-        <v>0.05716245735538349</v>
+        <v>0.1535885874467781</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08981973240556662</v>
+        <v>0.0889202677156142</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.05749438263624805</v>
+        <v>0.05012888447610723</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06101937601889795</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.05744484870569347</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09059404044354565</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.1074773062990034</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09008199694141006</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1454748700632386</v>
+        <v>0.1072991284471987</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08959905135775879</v>
+        <v>0.0897234708231603</v>
       </c>
       <c r="N182" t="n">
-        <v>0.05749438263624805</v>
+        <v>0.1525354112518069</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09059404044354565</v>
+        <v>0.08968682174764536</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.05712484951680306</v>
+        <v>0.04931120287779627</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06101910749043394</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.05757059542760933</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09136834848152468</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.1077967745179788</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09085192853919989</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1445016998510759</v>
+        <v>0.1060421845139026</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0903648552155174</v>
+        <v>0.09049033809515312</v>
       </c>
       <c r="N183" t="n">
-        <v>0.05712484951680306</v>
+        <v>0.1526671813717942</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09136834848152468</v>
+        <v>0.09045337577967652</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.05705343869054706</v>
+        <v>0.04851468741035681</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06101883896196991</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.05749153476704016</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09214265651950371</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.1065111212344932</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09162186013698972</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1429695447797431</v>
+        <v>0.1058838743805125</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09113065907327603</v>
+        <v>0.09125720536714595</v>
       </c>
       <c r="N184" t="n">
-        <v>0.05705343869054706</v>
+        <v>0.1515823949077476</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09214265651950371</v>
+        <v>0.09121992981170768</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.05727973085097861</v>
+        <v>0.04773987196190279</v>
       </c>
       <c r="G185" t="n">
+        <v>0.0610185704335059</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.05690734967390393</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09291696455748272</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.106119765260089</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09239179173477956</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1419831345110079</v>
+        <v>0.1051249361578475</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09189646293103465</v>
+        <v>0.09202407263913877</v>
       </c>
       <c r="N185" t="n">
-        <v>0.05727973085097861</v>
+        <v>0.1526795489606748</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09291696455748272</v>
+        <v>0.09198648384373884</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.05730330669159628</v>
+        <v>0.04698729042044369</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06101830190504189</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.05661772309811854</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09369127259546174</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.1069221254063083</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09316172333256939</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1420471987066381</v>
+        <v>0.104066107956727</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09266226678879327</v>
+        <v>0.0927909399111316</v>
       </c>
       <c r="N186" t="n">
-        <v>0.05730330669159628</v>
+        <v>0.1503571406315836</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09369127259546174</v>
+        <v>0.09275303787576998</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.05712374690589862</v>
+        <v>0.04625747667402413</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06101803337657787</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.05672233798960194</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09446558063344077</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.1063176204846936</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09393165493035922</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1411664670284013</v>
+        <v>0.1039081278879701</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0934280706465519</v>
+        <v>0.09355780718312441</v>
       </c>
       <c r="N187" t="n">
-        <v>0.05712374690589862</v>
+        <v>0.1514136670214818</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09446558063344077</v>
+        <v>0.09351959190780115</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.05684063218738422</v>
+        <v>0.0455509646106585</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06101776484811385</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.05642087729827207</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09523988867141979</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.105905669306787</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09470158652814904</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1409342574816235</v>
+        <v>0.1028517340623962</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09419387450431052</v>
+        <v>0.09432467445511725</v>
       </c>
       <c r="N188" t="n">
-        <v>0.05684063218738422</v>
+        <v>0.1506476252313772</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09523988867141979</v>
+        <v>0.0942861459398323</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.05685354322955158</v>
+        <v>0.04486828811845291</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06101749631964983</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0561130239740468</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09601419670939881</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.105385690684131</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09547151812593886</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1390204358563344</v>
+        <v>0.1019976645908247</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09495967836206914</v>
+        <v>0.09509154172711005</v>
       </c>
       <c r="N189" t="n">
-        <v>0.05685354322955158</v>
+        <v>0.1485575123622774</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09601419670939881</v>
+        <v>0.09505269997186346</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.05646206072589929</v>
+        <v>0.04420780104257207</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06101722779118581</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.05619846096684411</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09678850474737784</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.1054571034282676</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09624144972372869</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1395225522557777</v>
+        <v>0.1019466575840746</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09572548221982777</v>
+        <v>0.09585840899910289</v>
       </c>
       <c r="N190" t="n">
-        <v>0.05646206072589929</v>
+        <v>0.1477418255151903</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09678850474737784</v>
+        <v>0.09581925400389461</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.05646576536992592</v>
+        <v>0.04355695701396734</v>
       </c>
       <c r="G191" t="n">
+        <v>0.0610169592627218</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.05567687122658192</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09756281278535685</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.1054193263507394</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09701138132151853</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.137640041615207</v>
+        <v>0.1002994511529653</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09649128607758638</v>
+        <v>0.09662527627109571</v>
       </c>
       <c r="N191" t="n">
-        <v>0.05646576536992592</v>
+        <v>0.1478990617911236</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09756281278535685</v>
+        <v>0.09658580803592577</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.05666423785513004</v>
+        <v>0.04291410987780651</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06101669073425777</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.05574793770317814</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09833712082333587</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.1051717782630884</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09778131291930836</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1370723388698756</v>
+        <v>0.1000567834083162</v>
       </c>
       <c r="M192" t="n">
-        <v>0.097257089935345</v>
+        <v>0.09739214354308853</v>
       </c>
       <c r="N192" t="n">
-        <v>0.05666423785513004</v>
+        <v>0.1477277182910851</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09833712082333587</v>
+        <v>0.09735236206795693</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.05665705887501019</v>
+        <v>0.04227979352219011</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06101642220579376</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.05540230850537729</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.0991114288613149</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.105613877976857</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09855124451709819</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1370188789550371</v>
+        <v>0.0998972116919804</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09802289379310362</v>
+        <v>0.09815901081508135</v>
       </c>
       <c r="N193" t="n">
-        <v>0.05665705887501019</v>
+        <v>0.145299324540297</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0991114288613149</v>
+        <v>0.09811891609998809</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.05664380912306494</v>
+        <v>0.04165454183513467</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06101615367732974</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.05512934895582562</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09988573689929392</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.1052450443035876</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09932117611488803</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1354790968059449</v>
+        <v>0.09859562910977032</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09878869765086225</v>
+        <v>0.09892587808707419</v>
       </c>
       <c r="N194" t="n">
-        <v>0.05664380912306494</v>
+        <v>0.1457839626616402</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09988573689929392</v>
+        <v>0.09888547013201925</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.05622406929279282</v>
+        <v>0.04103888870468476</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06101588514886573</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.05503054139832937</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1006600449372729</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.1040646960548222</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1000911077126779</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1356524273578527</v>
+        <v>0.09835524227614684</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09955450150862089</v>
+        <v>0.099692745359067</v>
       </c>
       <c r="N195" t="n">
-        <v>0.05622406929279282</v>
+        <v>0.1450866324021427</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1006600449372729</v>
+        <v>0.0996520241640504</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.05599742007769243</v>
+        <v>0.04043336801885889</v>
       </c>
       <c r="G196" t="n">
+        <v>0.0610156166204017</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.05410740903742603</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.101434352975252</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.1034722520421034</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1008610393104677</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1343383055460138</v>
+        <v>0.09787933508688412</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1003203053663795</v>
+        <v>0.1004596126310598</v>
       </c>
       <c r="N196" t="n">
-        <v>0.05599742007769243</v>
+        <v>0.1424124074838464</v>
       </c>
       <c r="O196" t="n">
-        <v>0.101434352975252</v>
+        <v>0.1004185781960816</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.05596344217126228</v>
+        <v>0.03983851366575441</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06101534809193769</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.05396147507765305</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.102208661013231</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.1034671310769732</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1016309709082575</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1327361663056817</v>
+        <v>0.09637119143775669</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1010861092241381</v>
+        <v>0.1012264799030527</v>
       </c>
       <c r="N197" t="n">
-        <v>0.05596344217126228</v>
+        <v>0.1416663616287936</v>
       </c>
       <c r="O197" t="n">
-        <v>0.102208661013231</v>
+        <v>0.1011851322281127</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.05612171626700099</v>
+        <v>0.03925485953338934</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06101507956347368</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.05369426272354785</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.10298296905121</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.1038487519709742</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1024009025060473</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1331454445721099</v>
+        <v>0.09603409522453854</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1018519130818967</v>
+        <v>0.1019933471750455</v>
       </c>
       <c r="N198" t="n">
-        <v>0.05612171626700099</v>
+        <v>0.1400535685590264</v>
       </c>
       <c r="O198" t="n">
-        <v>0.10298296905121</v>
+        <v>0.1019516862601439</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.05557182305840709</v>
+        <v>0.03868293950980831</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06101481103500966</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.05360729517964793</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.103757277089189</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.1034165335356484</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1031708341038372</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1315655752805518</v>
+        <v>0.09457133034300413</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1026177169396554</v>
+        <v>0.1027602144470383</v>
       </c>
       <c r="N199" t="n">
-        <v>0.05557182305840709</v>
+        <v>0.1396791019965873</v>
       </c>
       <c r="O199" t="n">
-        <v>0.103757277089189</v>
+        <v>0.102718240292175</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.05581334323897914</v>
+        <v>0.03812328748303186</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06101454250654564</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.05320209565049068</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1045315851271681</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.1021698945825382</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.103940765701627</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1308959933662612</v>
+        <v>0.09378618068892763</v>
       </c>
       <c r="M200" t="n">
-        <v>0.103383520797414</v>
+        <v>0.1035270817190311</v>
       </c>
       <c r="N200" t="n">
-        <v>0.05581334323897914</v>
+        <v>0.1384480356635183</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1045315851271681</v>
+        <v>0.1034847943242062</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.05524585750221571</v>
+        <v>0.03757643734115334</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06101427397808162</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.0523801873406136</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1053058931651471</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.1025082539231859</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1047106972994168</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1313361337644912</v>
+        <v>0.0925819301580833</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1041493246551726</v>
+        <v>0.1042939489910239</v>
       </c>
       <c r="N201" t="n">
-        <v>0.05524585750221571</v>
+        <v>0.1362654432818619</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1053058931651471</v>
+        <v>0.1042513483562373</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.05523746820298252</v>
+        <v>0.03704292297219271</v>
       </c>
       <c r="G202" t="n">
+        <v>0.0610140054496176</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.05204309345455412</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1060802012031261</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.1016310303691338</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1054806288972067</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1301854314104954</v>
+        <v>0.09186186264624552</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1049151285129312</v>
+        <v>0.1050608162630168</v>
       </c>
       <c r="N202" t="n">
-        <v>0.05523746820298252</v>
+        <v>0.1343363985736601</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1060802012031261</v>
+        <v>0.1050179023882685</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.05514641103569108</v>
+        <v>0.03652327826419461</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06101373692115359</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.05129233719684967</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1068545092411051</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.101213041874765</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1062505604949965</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1303433212395274</v>
+        <v>0.09112926204918848</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1056809323706898</v>
+        <v>0.1058276835350096</v>
       </c>
       <c r="N203" t="n">
-        <v>0.05514641103569108</v>
+        <v>0.1346659752609553</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1068545092411051</v>
+        <v>0.1057844564202997</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.05437939772539384</v>
+        <v>0.03601803710518201</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06101346839268956</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.05132944177203771</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1076288172790842</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.1011899834947392</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1070204920927863</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1285092381868405</v>
+        <v>0.09018741226268656</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1064467362284485</v>
+        <v>0.1065945508070024</v>
       </c>
       <c r="N204" t="n">
-        <v>0.05437939772539384</v>
+        <v>0.1326592470657896</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1076288172790842</v>
+        <v>0.1065510104523308</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05374354223707654</v>
+        <v>0.03552773338324346</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06101319986422555</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.05045593038465573</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1084031253170632</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.1006676853474031</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1077904236905761</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1281826171876884</v>
+        <v>0.08983959718251383</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1072125400862071</v>
+        <v>0.1073614180789952</v>
       </c>
       <c r="N205" t="n">
-        <v>0.05374354223707654</v>
+        <v>0.1311212877102053</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1084031253170632</v>
+        <v>0.107317564484362</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.05344595853572491</v>
+        <v>0.03505290098640135</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06101293133576154</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.05007332623924113</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1091774333550422</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.09985623562956358</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.108560355288366</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1266628931773245</v>
+        <v>0.08808910070444473</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1079783439439657</v>
+        <v>0.1081282853509881</v>
       </c>
       <c r="N206" t="n">
-        <v>0.05344595853572491</v>
+        <v>0.1293571709162447</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1091774333550422</v>
+        <v>0.1080841185163931</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.05329376058632468</v>
+        <v>0.03459407380270025</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06101266280729752</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.04978315254033136</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1099517413930212</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.09866572253802752</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1093302868861558</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1270495010910021</v>
+        <v>0.08743920672425348</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1087441478017243</v>
+        <v>0.1088951526229809</v>
       </c>
       <c r="N207" t="n">
-        <v>0.05329376058632468</v>
+        <v>0.1277719704059499</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1099517413930212</v>
+        <v>0.1088506725484243</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.05239406235386158</v>
+        <v>0.0341517857201659</v>
       </c>
       <c r="G208" t="n">
+        <v>0.0610123942788335</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.04928693249246389</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1107260494310002</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.09770623426960162</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1101002184839456</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.1264418758639749</v>
+        <v>0.08599319913771439</v>
       </c>
       <c r="M208" t="n">
-        <v>0.109509951659483</v>
+        <v>0.1096620198949737</v>
       </c>
       <c r="N208" t="n">
-        <v>0.05239406235386158</v>
+        <v>0.1260707599013634</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1107260494310002</v>
+        <v>0.1096172265804554</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.05195397780332132</v>
+        <v>0.03372657062688143</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06101212575036948</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.04888618930017617</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1115003574689793</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.09698785902109269</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1108701500817355</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.1257394524314964</v>
+        <v>0.08495436184060162</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1102757555172416</v>
+        <v>0.1104288871669665</v>
       </c>
       <c r="N209" t="n">
-        <v>0.05195397780332132</v>
+        <v>0.1236586131245271</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1115003574689793</v>
+        <v>0.1103837806124866</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.05118062089968967</v>
+        <v>0.03331896241087186</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06101185722190547</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.04838244616800565</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1122746655069583</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.09652068498930766</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1116400816795253</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.12464166572882</v>
+        <v>0.08382597872868963</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1110415593750002</v>
+        <v>0.1111957544389593</v>
       </c>
       <c r="N210" t="n">
-        <v>0.05118062089968967</v>
+        <v>0.1220406037974835</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1122746655069583</v>
+        <v>0.1111503346445178</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0500811056079523</v>
+        <v>0.03292949496018179</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06101158869344146</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.04797722630048976</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1130489735449373</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.09571480037105307</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1124100132773151</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.1244479506911991</v>
+        <v>0.08321133369775252</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1118073632327588</v>
+        <v>0.1119626217109522</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0500811056079523</v>
+        <v>0.1205218056422747</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1130489735449373</v>
+        <v>0.1119168886765489</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.049562545893095</v>
+        <v>0.03255870216284015</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06101132016497743</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.04697205290216594</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1138232815829163</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.094580293363136</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.113179944875105</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.1232577422538873</v>
+        <v>0.08261371064356463</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1125731670905174</v>
+        <v>0.112729488982945</v>
       </c>
       <c r="N212" t="n">
-        <v>0.049562545893095</v>
+        <v>0.119707292380943</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1138232815829163</v>
+        <v>0.1126834427085801</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.04913205572010346</v>
+        <v>0.03220711790692379</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06101105163651342</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.04656844917757168</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1145975896208954</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.09352725216236324</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1139498764728948</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.123170475352138</v>
+        <v>0.08123639346190026</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1133389709482761</v>
+        <v>0.1134963562549378</v>
       </c>
       <c r="N213" t="n">
-        <v>0.04913205572010346</v>
+        <v>0.1173021377355306</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1145975896208954</v>
+        <v>0.1134499967406112</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.04849674905396344</v>
+        <v>0.03187527608046083</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06101078310804939</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.04646793833124441</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1153718976588744</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.09256576496554147</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1147198080706846</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.1236855849212048</v>
+        <v>0.08138266604853364</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1141047748060347</v>
+        <v>0.1142632235269306</v>
       </c>
       <c r="N214" t="n">
-        <v>0.04849674905396344</v>
+        <v>0.1171114154280798</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1153718976588744</v>
+        <v>0.1142165507726424</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.04726373985966066</v>
+        <v>0.03187527608046083</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06101078310804939</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.04597204356772157</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1161462056968534</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.09060591996947742</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1154897396684744</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.1218025066635997</v>
+        <v>0.07995581229923909</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1148705786637933</v>
+        <v>0.1150300907989235</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04726373985966066</v>
+        <v>0.1147401991806328</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1161462056968534</v>
+        <v>0.1149831048046735</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04664014210218084</v>
+        <v>0.03106701812625009</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06097616351115247</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.04528228809154063</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1169205137348324</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.08945780537097808</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1162596712662643</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.1214212637219735</v>
+        <v>0.07955911610979077</v>
       </c>
       <c r="M216" t="n">
-        <v>0.115636382521552</v>
+        <v>0.1157969580709163</v>
       </c>
       <c r="N216" t="n">
-        <v>0.04664014210218084</v>
+        <v>0.1126935627152318</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1169205137348324</v>
+        <v>0.1157496588367047</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0462330697465097</v>
+        <v>0.03026725817648484</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06094154391425553</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.04460019510723903</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1176948217728114</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.08873150936685015</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1170296028640541</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.1203422314946813</v>
+        <v>0.07829586137596312</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1164021863793106</v>
+        <v>0.1165638253429091</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0462330697465097</v>
+        <v>0.1111765797539191</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1176948217728114</v>
+        <v>0.1165162128687359</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.04544963675763299</v>
+        <v>0.02947631360203439</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06090692431735859</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0441272878193542</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1184691298107905</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.08773712015390051</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1177995344618439</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.120565480409405</v>
+        <v>0.07766933199353029</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1171679902370692</v>
+        <v>0.1173306926149019</v>
       </c>
       <c r="N218" t="n">
-        <v>0.04544963675763299</v>
+        <v>0.1105943240187369</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1184691298107905</v>
+        <v>0.117282766900767</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0448969571005364</v>
+        <v>0.02869450177376878</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06087230472046166</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.04386508943242359</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1192434378487695</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.08748472592893591</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1185694660596338</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.1206910808938258</v>
+        <v>0.07718281185826659</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1179337940948278</v>
+        <v>0.1180975598868948</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0448969571005364</v>
+        <v>0.1086518692317275</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1192434378487695</v>
+        <v>0.1180493209327982</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04378214474020573</v>
+        <v>0.02792214006255734</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06083768512356473</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.04311512315098469</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1200177458867485</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.08648441488876318</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1193393976574236</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.1202191033756253</v>
+        <v>0.07703958486594631</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1186995979525864</v>
+        <v>0.1188644271588876</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04378214474020573</v>
+        <v>0.1064542891149331</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1200177458867485</v>
+        <v>0.1188158749648293</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04331231364162663</v>
+        <v>0.0271595458392696</v>
       </c>
       <c r="G221" t="n">
+        <v>0.0608030655266678</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.0429789121795749</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1207920539247275</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.08584627523018909</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1201093292552134</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.1187496182824851</v>
+        <v>0.07654293491234368</v>
       </c>
       <c r="M221" t="n">
-        <v>0.119465401810345</v>
+        <v>0.1196312944308804</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04331231364162663</v>
+        <v>0.1070066573903959</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1207920539247275</v>
+        <v>0.1195824289968605</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.04299457776978491</v>
+        <v>0.02640703647477483</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06076844592977085</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.04245797972273171</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1215663619627066</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.08518039515002046</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1208792608530033</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.1179826960420866</v>
+        <v>0.07489614589323301</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1202312056681037</v>
+        <v>0.1203981617028732</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04299457776978491</v>
+        <v>0.1048140477801582</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1215663619627066</v>
+        <v>0.1203489830288916</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.04273605108966623</v>
+        <v>0.02566492933994315</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06073382633287392</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.04205384898499256</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1223406700006856</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.08389686284506417</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1216491924507931</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.1182184070821113</v>
+        <v>0.07510250170438851</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1209970095258623</v>
+        <v>0.1211650289748661</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04273605108966623</v>
+        <v>0.1034815340062622</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1223406700006856</v>
+        <v>0.1211155370609228</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.04234384756625634</v>
+        <v>0.02493354180564384</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06069920673597699</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.04176804317089487</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1231149780386646</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.08370576651212688</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1224191240485829</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.1178568218302409</v>
+        <v>0.07506528624158459</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1217628133836209</v>
+        <v>0.1219318962468589</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04234384756625634</v>
+        <v>0.1020141897907501</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1231149780386646</v>
+        <v>0.121882091092954</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.04212505795103094</v>
+        <v>0.02421319124274641</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06066458713908006</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.04130208548497612</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1238892860766436</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.08241719434801553</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1231890556463727</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.1161980107141565</v>
+        <v>0.07378778340059533</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1225286172413795</v>
+        <v>0.1226987635188517</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04212505795103094</v>
+        <v>0.1011170888556643</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1238892860766436</v>
+        <v>0.1226486451249851</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.04174433102522004</v>
+        <v>0.02350419502212044</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06062996754218313</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.04065749913177376</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1246635941146227</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.0824230199801152</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1239589872441626</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.1150420441615401</v>
+        <v>0.07427327707719522</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1232944210991382</v>
+        <v>0.1234656307908445</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04174433102522004</v>
+        <v>0.1005953049230469</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1246635941146227</v>
+        <v>0.1234151991570163</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.04156552138183552</v>
+        <v>0.02280687051463528</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06059534794528618</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.04093580731582522</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1254379021526017</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.0818432154682979</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1247289188419524</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.1152889926000728</v>
+        <v>0.07322505116715836</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1240602249568968</v>
+        <v>0.1242324980628373</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04156552138183552</v>
+        <v>0.09845391171494011</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1254379021526017</v>
+        <v>0.1241817531890474</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.04088891566814452</v>
+        <v>0.0221215350911609</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06056072834838926</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.04053853324166794</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1262122101905807</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.0811673429639572</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1254988504397422</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.1156389264574363</v>
+        <v>0.07274638956625909</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1248260288146554</v>
+        <v>0.1249993653348302</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04088891566814452</v>
+        <v>0.09939798295338625</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1262122101905807</v>
+        <v>0.1249483072210786</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.04071480053141435</v>
+        <v>0.02144850612256665</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06052610875149232</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0397672001138394</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1269865182285597</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.08059574200079708</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1262687820375321</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.1147919161613121</v>
+        <v>0.07334057617027168</v>
       </c>
       <c r="M229" t="n">
-        <v>0.125591832672414</v>
+        <v>0.125766232606823</v>
       </c>
       <c r="N229" t="n">
-        <v>0.04071480053141435</v>
+        <v>0.09673259236042764</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1269865182285597</v>
+        <v>0.1257148612531097</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.04014346261891219</v>
+        <v>0.02078810097972208</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06049148915459539</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.03992318462477462</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1277608262665387</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.08052875211252164</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1270387136353219</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.1146480321393816</v>
+        <v>0.07261032819337232</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1263576365301727</v>
+        <v>0.1265330998788158</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04014346261891219</v>
+        <v>0.0966622934637219</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1277608262665387</v>
+        <v>0.1264814152851409</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.04017518857790532</v>
+        <v>0.02014063703349649</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06045686955769845</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.03979132774772205</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1285351343045178</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.08006671283283487</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1278086452331117</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.1123073448193264</v>
+        <v>0.07321032819337234</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1271234403879313</v>
+        <v>0.1272999671508087</v>
       </c>
       <c r="N231" t="n">
-        <v>0.04017518857790532</v>
+        <v>0.09693209633150957</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1285351343045178</v>
+        <v>0.1272479693171721</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03991026505566095</v>
+        <v>0.0195064316547599</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06042224996080152</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.03956089301355152</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1293094423424968</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.08080996369544072</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1285785768309016</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.1125699246288281</v>
+        <v>0.07281032819337233</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1278892442456899</v>
+        <v>0.1280668344228015</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03991026505566095</v>
+        <v>0.0958032170709911</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1293094423424968</v>
+        <v>0.1280145233492032</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0397489786994463</v>
+        <v>0.01888580221438165</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06038763036390458</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.03913213759980243</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1300837503804758</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.07935884423404324</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1293485084286914</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.1117358419955679</v>
+        <v>0.07291032819337231</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1286550481034485</v>
+        <v>0.1288337016947943</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0397489786994463</v>
+        <v>0.09587673231737254</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1300837503804758</v>
+        <v>0.1287810773812344</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03919161615652859</v>
+        <v>0.01827906608323126</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06035301076700766</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.03880531868401403</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1308580584184548</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.07941369398234643</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1301184400264812</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.1124051673472276</v>
+        <v>0.07301032819337233</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1294208519612071</v>
+        <v>0.1296005689667871</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03919161615652859</v>
+        <v>0.09545371870585989</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1308580584184548</v>
+        <v>0.1295476314132655</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0394384640741751</v>
+        <v>0.01768654063217832</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06031839117011072</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.03888069344372568</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1316323664564339</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.07887485247405432</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.130888371624271</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.1114779711114886</v>
+        <v>0.07311032819337232</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1301866558189657</v>
+        <v>0.1303674362387799</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0394384640741751</v>
+        <v>0.0939352528716591</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1316323664564339</v>
+        <v>0.1303141854452967</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03898980909965304</v>
+        <v>0.01710854323209216</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06028377157321378</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.03835851905647669</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1324066744944129</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.07914265924287092</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1316583032220608</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.1099543237160323</v>
+        <v>0.07371032819337234</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1309524596767244</v>
+        <v>0.1311343035107727</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03898980909965304</v>
+        <v>0.09392241144997621</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1324066744944129</v>
+        <v>0.1310807394773278</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03864593788022964</v>
+        <v>0.01654539125384272</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06024915197631685</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.03803905269980638</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1331809825323919</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.07871745382250017</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1324282348198507</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.1107342955885404</v>
+        <v>0.07271032819337234</v>
       </c>
       <c r="M237" t="n">
-        <v>0.131718263534483</v>
+        <v>0.1319011707827656</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03864593788022964</v>
+        <v>0.09321627107601727</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1331809825323919</v>
+        <v>0.131847293509359</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0385071370631721</v>
+        <v>0.01599740206829938</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06021453237941992</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.03812255155125409</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1339552905703709</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.0779995757466462</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1331981664176405</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.1096179571566943</v>
+        <v>0.07301032819337233</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1324840673922416</v>
+        <v>0.1326680380547584</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0385071370631721</v>
+        <v>0.09211790838498829</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1339552905703709</v>
+        <v>0.1326138475413901</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0382736932957477</v>
+        <v>0.01546489304633167</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06017991278252299</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.03790927278835912</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1347295986083499</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.0776893645490129</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1339680980154304</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.1082053788481755</v>
+        <v>0.07351032819337233</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1332498712500002</v>
+        <v>0.1334349053267512</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0382736932957477</v>
+        <v>0.09092840001209512</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1347295986083499</v>
+        <v>0.1333804015734213</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03804589322522367</v>
+        <v>0.01494688562775832</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06014529318562604</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.03749947358866078</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.135503906646329</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.07688715976330435</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1347380296132202</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.1081966310906655</v>
+        <v>0.07271032819337234</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1340156751077589</v>
+        <v>0.134201772598744</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03804589322522367</v>
+        <v>0.09054882259254393</v>
       </c>
       <c r="O240" t="n">
-        <v>0.135503906646329</v>
+        <v>0.1341469556054525</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03742402349886721</v>
+        <v>0.01443592159714518</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06011067358872911</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.03729341112969842</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.136278214684308</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.07719330092322452</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.13550796121101</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.1085917843118459</v>
+        <v>0.07291032819337231</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1347814789655175</v>
+        <v>0.1349686398707369</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03742402349886721</v>
+        <v>0.09088025276154066</v>
       </c>
       <c r="O241" t="n">
-        <v>0.136278214684308</v>
+        <v>0.1349135096374836</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03770837076394558</v>
+        <v>0.01393102239431097</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06007605399183218</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.03749134258901135</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.137052522722287</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.0774081275624775</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1362778928087998</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.1069909089393981</v>
+        <v>0.07281032819337233</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1355472828232761</v>
+        <v>0.1357355071427297</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03770837076394558</v>
+        <v>0.08962376715429127</v>
       </c>
       <c r="O242" t="n">
-        <v>0.137052522722287</v>
+        <v>0.1356800636695148</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03709922166772597</v>
+        <v>0.01343250539012525</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06004143439493525</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.03689352514413889</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.137826830760266</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.07673197921476724</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1370478244065897</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.1067940754010036</v>
+        <v>0.07271032819337234</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1363130866810347</v>
+        <v>0.1365023744147225</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03709922166772597</v>
+        <v>0.09018044240600176</v>
       </c>
       <c r="O243" t="n">
-        <v>0.137826830760266</v>
+        <v>0.136446617701546</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03699686285747565</v>
+        <v>0.01294068795545739</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06000681479803831</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.03710021597262034</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1386011387982451</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.07636519541379772</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1378177560043795</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.1062013541243439</v>
+        <v>0.07341032819337232</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1370788905387934</v>
+        <v>0.1372692416867153</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03699686285747565</v>
+        <v>0.08915135515187816</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1386011387982451</v>
+        <v>0.1372131717335771</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03700158098046184</v>
+        <v>0.01245588746117728</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05997219520114137</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.03681167225199507</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1393754468362241</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.07640811569327299</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1385876876021693</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.1054128155371006</v>
+        <v>0.07311032819337232</v>
       </c>
       <c r="M245" t="n">
-        <v>0.137844694396552</v>
+        <v>0.1380361089587082</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03700158098046184</v>
+        <v>0.08903758202712658</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1393754468362241</v>
+        <v>0.1379797257656082</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03651366268395179</v>
+        <v>0.01197842127815432</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05993757560424445</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.03662815115980235</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1401497548742031</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.07646107958689713</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1393576191999592</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.1063285300669553</v>
+        <v>0.07351032819337233</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1386104982543106</v>
+        <v>0.138802976230701</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03651366268395179</v>
+        <v>0.08784019966695283</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1401497548742031</v>
+        <v>0.1387462797976394</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03643339461521271</v>
+        <v>0.01150860677725803</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05990295600734751</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.03604990987358155</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1409240629121821</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.075524426628374</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.140127550797749</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.1048485681415891</v>
+        <v>0.07331032819337233</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1393763021120692</v>
+        <v>0.1395698435026938</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03643339461521271</v>
+        <v>0.08666028470656306</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1409240629121821</v>
+        <v>0.1395128338296706</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03606106342151183</v>
+        <v>0.01104676132935799</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05986833641045058</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.03577720557087194</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1416983709501612</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.07549849635140771</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1408974823955388</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.1037730001886839</v>
+        <v>0.07331032819337233</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1401421059698278</v>
+        <v>0.1403367107746866</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03606106342151183</v>
+        <v>0.0868989137811631</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1416983709501612</v>
+        <v>0.1402793878617017</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0364969557501164</v>
+        <v>0.01059320230532359</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05983371681355364</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.03601029542921287</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1424726789881402</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.07548362828970218</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1416674139933287</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.104901896635921</v>
+        <v>0.07351032819337233</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1409079098275865</v>
+        <v>0.1411035780466794</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0364969557501164</v>
+        <v>0.08615716352595915</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1424726789881402</v>
+        <v>0.1410459418937329</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03624135824829364</v>
+        <v>0.01014824707602468</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05979909721665671</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.03604943662614367</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1432469870261192</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.07478016197696158</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1424373455911185</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.102935327910982</v>
+        <v>0.07251032819337233</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1416737136853451</v>
+        <v>0.1418704453186723</v>
       </c>
       <c r="N250" t="n">
-        <v>0.03624135824829364</v>
+        <v>0.0852361105761571</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1432469870261192</v>
+        <v>0.141812495925764</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03569455756331077</v>
+        <v>0.009712213012330669</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05976447761975977</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.03569488633920363</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1440212950640982</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.0742884369468898</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1432072771889083</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.1022733644415484</v>
+        <v>0.07341032819337232</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1424395175431037</v>
+        <v>0.1426373125906651</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03569455756331077</v>
+        <v>0.08623683156696305</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1440212950640982</v>
+        <v>0.1425790499577952</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03595684034243504</v>
+        <v>0.009285417485111108</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05972985802286285</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.03574690174593209</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1447956031020772</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.07450879273319089</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1439772087866981</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.1028160766553017</v>
+        <v>0.07371032819337234</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1432053214008623</v>
+        <v>0.1434041798626579</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03595684034243504</v>
+        <v>0.08416040313358281</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1447956031020772</v>
+        <v>0.1433456039898263</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03592849323293366</v>
+        <v>0.008868177865235409</v>
       </c>
       <c r="G253" t="n">
+        <v>0.0596952384259659</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.03500574002386839</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1455699111400563</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.07404156886956884</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.144747140384488</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.1024635349799233</v>
+        <v>0.07351032819337233</v>
       </c>
       <c r="M253" t="n">
-        <v>0.143971125258621</v>
+        <v>0.1441710471346507</v>
       </c>
       <c r="N253" t="n">
-        <v>0.03592849323293366</v>
+        <v>0.08500790191122259</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1455699111400563</v>
+        <v>0.1441121580218575</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0358098028820739</v>
+        <v>0.008460811523573405</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05966061882906897</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.03507165835055182</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1463442191780353</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.07428710488972765</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1455170719822778</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.1020158098430948</v>
+        <v>0.07321032819337234</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1447369291163796</v>
+        <v>0.1449379144066436</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0358098028820739</v>
+        <v>0.08368040453508824</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1463442191780353</v>
+        <v>0.1448787120538887</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03550105593712297</v>
+        <v>0.008063635830994509</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05962599923217204</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.03484491390352172</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1471185272160143</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.07364574032737137</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1462870035800676</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.1021729716724978</v>
+        <v>0.07331032819337233</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1455027329741382</v>
+        <v>0.1457047816786364</v>
       </c>
       <c r="N255" t="n">
-        <v>0.03550105593712297</v>
+        <v>0.08377898764038577</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1471185272160143</v>
+        <v>0.1456452660859198</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03530253904534811</v>
+        <v>0.007676968158368262</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05959137963527511</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.03512576386031738</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1478928352539933</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.07431781471620397</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1470569351778575</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.1003350908958136</v>
+        <v>0.07291032819337231</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1462685368318968</v>
+        <v>0.1464716489506292</v>
       </c>
       <c r="N256" t="n">
-        <v>0.03530253904534811</v>
+        <v>0.08320472786232136</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1478928352539933</v>
+        <v>0.146411820117951</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03491453885401652</v>
+        <v>0.00730112587656423</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05955676003837818</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.03491446539847816</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1486671432919724</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.07370366758992949</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1478268667756473</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.1006022379407238</v>
+        <v>0.07371032819337234</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1470343406896555</v>
+        <v>0.147238516222622</v>
       </c>
       <c r="N257" t="n">
-        <v>0.03491453885401652</v>
+        <v>0.08435870183610084</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1486671432919724</v>
+        <v>0.1471783741499821</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03493734201039547</v>
+        <v>0.006936426356451829</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05952214044148123</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.03471127569554336</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1494414513299514</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.07350363848225194</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1485967983734371</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.10037448323491</v>
+        <v>0.07331032819337233</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1478001445474141</v>
+        <v>0.1480053834946149</v>
       </c>
       <c r="N258" t="n">
-        <v>0.03493734201039547</v>
+        <v>0.08434198619693023</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1494414513299514</v>
+        <v>0.1479449281820133</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03537123516175215</v>
+        <v>0.006583186968900874</v>
       </c>
       <c r="G259" t="n">
+        <v>0.0594875208445843</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.03491645192905229</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1502157593679304</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.07341806692687533</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1493667299712269</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.09895189720605352</v>
+        <v>0.07351032819337233</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1485659484051727</v>
+        <v>0.1487722507666077</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03537123516175215</v>
+        <v>0.08345565758001555</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1502157593679304</v>
+        <v>0.1487114822140445</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03491650495535385</v>
+        <v>0.006241725084780783</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05945290124768737</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.03463025127654432</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1509900674059094</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.0743472924575036</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1501366615690168</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.100034550281836</v>
+        <v>0.07291032819337231</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1493317522629313</v>
+        <v>0.1495391180386005</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03491650495535385</v>
+        <v>0.08400079262056281</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1509900674059094</v>
+        <v>0.1494780362460756</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03487343803846778</v>
+        <v>0.005912358074961106</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05941828165079044</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.03445293091555875</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1517643754438884</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.07419165460784088</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1509065931668066</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.09982251288993887</v>
+        <v>0.07381032819337233</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1500975561206899</v>
+        <v>0.1503059853105933</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03487343803846778</v>
+        <v>0.08387846795377801</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1517643754438884</v>
+        <v>0.1502445902781067</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03514232105836113</v>
+        <v>0.005595403310311289</v>
       </c>
       <c r="G262" t="n">
+        <v>0.0593836620538935</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.03458474802363483</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1525386834818675</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.07315149291159109</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1516765247645964</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.09881585545804367</v>
+        <v>0.07331032819337233</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1508633599784485</v>
+        <v>0.1510728525825862</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03514232105836113</v>
+        <v>0.08318976021486718</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1525386834818675</v>
+        <v>0.1510111443101379</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03482344066230118</v>
+        <v>0.005291178161701111</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05934904245699656</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.03422595977831198</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1533129915198465</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.07362714690245831</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1524464563623863</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.0980146484138319</v>
+        <v>0.07301032819337233</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1516291638362072</v>
+        <v>0.151839719854579</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03482344066230118</v>
+        <v>0.08363574603903623</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1533129915198465</v>
+        <v>0.1517776983421691</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03471708349755515</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05931442286009964</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.03407682335712946</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1540872995578255</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.07331895611414646</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1532163879601761</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.09681896218498509</v>
+        <v>0.07251032819337233</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1523949676939658</v>
+        <v>0.1526065871265718</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03471708349755515</v>
+        <v>0.08291750206149123</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1540872995578255</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1525442523742002</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05930126496536279</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005821726433010224</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0593015334938268</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00663919352115467</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05930180202229082</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007452357142281631</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05930207055075484</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008261173174133295</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05930233907921886</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.009065597494558146</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05930260760768287</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009865585981369163</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05930287613614688</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01066109451241388</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05930314466461091</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01145207896543601</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05930341319307492</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01223849521828327</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05930368172153894</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01302029914876867</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05930395025000296</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01379744663473888</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05930421877846698</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01456989355393928</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.059304487306931</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01533759578421676</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05930475583539501</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01610050920338432</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05930502436385902</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01685858968928781</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05930529289232305</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01761179311967426</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05930556142078706</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01836007537238974</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05930582994925108</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01910339232524724</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05930609847771509</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01984169985609178</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05930636700617912</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02057495384267206</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05930663553464313</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02130311016283335</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05930690406310715</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0220261246943886</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05930717259157117</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02274395331518193</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05930744112003519</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02345655190296387</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05930770964849921</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02416405650117572</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05930797817696322</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02486750398121227</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05930824670542723</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02556703038651385</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05930851523389126</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02626259159483251</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05930878376235527</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02695414348401181</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05930905229081929</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02764164193186471</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0593093208192833</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02832504281623387</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05930958934774733</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02900430201487279</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05930985787621134</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02967937540562426</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05931012640467535</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.03035021886630133</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05931039493313937</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.03101678827474582</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05931066346160339</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03167903950871279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05931093199006741</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03233692844604424</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05931120051853143</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03299041096455325</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05931146904699544</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03363944294208087</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05931173757545947</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03428398025638365</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05931200610392348</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03492397878530291</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05931227463238749</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03555939440665163</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05931254316085151</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03619018299827016</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05931281168931554</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03681630043791654</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05931308021777955</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03743770260343138</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05931334874624356</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03805434537262763</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05931361727470758</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03866618462334481</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0593138858031716</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03927317623334264</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05931415433163562</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03987527608046084</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05931442286009964</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03987527608046084</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05930126496536279</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.04056222101848791</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05933642161918776</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04124345291750025</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05937157827301272</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04191884805333223</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05940673492683769</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04258828270181744</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05944189158066266</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04325163313878971</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05947704823448764</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04390877564008271</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0595122048883126</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04455958648153072</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05954736154213756</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04520394193896738</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05958251819596254</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04584171828822631</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0596176748497875</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04647279180514181</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05965283150361247</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04709703876554752</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05968798815743744</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04771433544527728</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05972314481126242</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04832455812016472</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05975830146508737</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04892758306604416</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05979345811891235</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04952328655874919</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05982861477273732</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05011154487411348</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05986377142656227</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05069223428797131</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05989892808038725</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05126523107615629</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05993408473421222</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05183041151450232</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05996924138803719</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05238765187884303</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06000439804186215</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05293682844501265</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06003955469568713</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05347781748884486</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0600747113495121</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05401049528617331</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06010986800333706</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05453473811283224</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06014502465716203</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05505092745166706</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.060180181310987</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05556197082058228</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06021533796481197</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05606824970242328</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06025049461863694</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05656964037302433</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0602856512724619</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.05706601910821905</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06032080792628688</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05755726218384116</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06035596458011184</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05804324587572483</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06039112123393681</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05852384645970374</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06042627788776178</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05899894021161178</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06046143454158676</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05946840340728261</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06049659119541171</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05993211232255041</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06053174784923668</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06038994323324887</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06056690450306166</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06084177241521169</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06060206115688662</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06128747614427304</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06063721781071159</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06172693069626659</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06067237446453656</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.06216001234702625</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06070753111836153</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06258659737238567</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06074268777218649</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.063006562048179</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06077784442601147</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.06341978265024001</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06081300107983643</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.06382613545440233</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0608481577336614</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.06422549673650013</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06088331438748637</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.06461774277236715</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06091847104131134</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.06500274983783719</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06095362769513631</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.065380394208744</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06098878434896127</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.06575055216092165</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06102394100278624</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.06575055216092168</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06102394100278624</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.06744574780102083</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06270662499791742</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06907945630505666</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06438930899304859</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07065135217655399</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06607199298817977</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07216110991903768</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06775467698331095</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07360840403603258</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06943736097844211</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07499290903106362</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07112004497357328</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07631429940765561</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07280272896870446</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0775722496693334</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07448541296383564</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07876643431962188</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07616809695896681</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07989652786204593</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07785078095409799</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08096220480013039</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07953346494922915</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08196313963740007</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08121614894436033</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08289900687737994</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0828988329394915</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08376948102359477</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08458151693462268</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08457423657956947</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08626420092975386</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08531294804882888</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08794688492488503</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0859852899348979</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08962956892001621</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08659093674130131</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09131225291514737</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08712956297156407</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09299493691027855</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.08760084312921099</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09467762090540972</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08800445171776691</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0963603049005409</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08834006324075677</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09804298889567208</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0886073522017054</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09972567289080325</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.08880599310413759</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1014083568859344</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.08900073621456225</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1030910408810656</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0889960287475523</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1047737248761968</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.08897453312986428</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1064564088713279</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.08883022020057507</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1081390928664591</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.08856785713133472</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1098217768615903</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08819655612496033</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1115044608567215</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.08772542938426925</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1131871448518526</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08716358911207861</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1148698288469838</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08652014751120579</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.116552512842115</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.08580421678446792</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1182351968372462</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.08502490913468233</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1199178808323773</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.08419133676466617</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1216005648275085</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.08331261187723676</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1232832488226397</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.08239784667521133</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1249659328177709</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.08145615336140713</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.126648616812902</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.08049664413864135</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1283313008080332</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07952843120973133</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1300139848031644</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0785606267774942</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1316966687982956</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.07760234304474731</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1333793527934267</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.07666269221430783</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1350620367885579</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.07575078648899303</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1367447207836891</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.07487573807162015</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1384274047788203</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.07404665916500647</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1401100887739514</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.07327266197196916</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1417927727690826</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07256285869532555</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1434754567642138</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.07192636153789284</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.145158140759345</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07132809738008514</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1468408247544761</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07070975883212505</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1485235087496073</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07007445843049473</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.06942583231796406</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1518888767398697</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.06876751663730288</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1535715607350008</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.06810314753128097</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.155254244730132</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.06743636114266818</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1569369287252632</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.06677079361423435</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1586196127203943</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.06611008108874936</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1603022967155255</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.06545785970898296</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1619849807106567</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.06481776561770503</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1636676647057879</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.06419343495768537</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1653503487009191</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.06358850387169382</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1670330326960502</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.06300660850250023</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1687157166911814</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.06245138499287444</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1703984006863126</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.06192646948558626</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1720810846814438</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.06143549812340552</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1737637686765749</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.06098210704910207</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1754464526717061</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.06056993240544572</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1771291366668373</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.06020261033520632</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1788118206619684</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.05988377698115369</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1804945046570996</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.05961706848605764</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1821771886522308</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.05940612099268807</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.183859872647362</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.05925457064381475</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1855425566424931</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.05916605358220755</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1872252406376243</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.05914305694553147</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1889079246327555</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.05914346899289082</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1905906086278867</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.05914565859473177</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1922732926230178</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.05915113026698231</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.193955976618149</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.05916138852557042</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1956386606132802</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.05917793788642411</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1973213446084114</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.05920228286547135</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1990040286035425</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.05923592797864016</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2006867125986737</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.05928037774185849</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2023693965938049</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.05933713667105437</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2040520805889361</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.05940770928215577</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2057347645840672</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.05949360009109069</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2074174485791984</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.05959631361378711</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2091001325743296</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.05971735436617304</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2107828165694608</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.05985822686417646</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2124655005645919</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.06002043562372535</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2141481845597231</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.06020548516074773</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2158308685548543</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.06041487999117157</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2175135525499855</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.06065012463092486</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2191962365451166</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.06091272359593559</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2208789205402478</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.06120418140213178</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.222561604535379</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.06152600256544139</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2242442885305102</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.06187969160179242</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2259269725256414</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.06226675302711285</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2276096565207725</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.1054759681072811</v>
+        <v>0.1108978086436868</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04450036810728112</v>
+        <v>0.04992220864368676</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01106144100278623</v>
+        <v>0.01240914601671741</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.005082707636749159</v>
+        <v>0.01188372335650858</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006164034444725884</v>
+        <v>0.001644579671024964</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007282154372283217</v>
+        <v>0.01193761183640102</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007743080379790226</v>
+        <v>0.001623350842672751</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01678197529117018</v>
+        <v>0.02618029725344911</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007668672719928231</v>
+        <v>0.00143592822682141</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02670835568507723</v>
+        <v>0.03914633999999995</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007665540320311569</v>
+        <v>0.00148271905337443</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01001326635796475</v>
+        <v>0.02367571797016289</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001232806888945177</v>
+        <v>0.003289159342049929</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.0140766860043518</v>
+        <v>0.01829268000000001</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001548616075958045</v>
+        <v>0.002728203058208956</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03215039608542919</v>
+        <v>0.04050004002727536</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001533734543985646</v>
+        <v>0.00324430583936571</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05089610799647587</v>
+        <v>0.07905512744703602</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001533108064062314</v>
+        <v>0.003209149403792701</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01467674118176201</v>
+        <v>0.02773456035760375</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001849210333417765</v>
+        <v>0.00413638200557247</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.02040198048167775</v>
+        <v>0.0257087507015298</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002322924113937068</v>
+        <v>0.004870052528018251</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04102440000000002</v>
+        <v>0.0513823618298074</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002165977019399668</v>
+        <v>0.004866458759048566</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.07102440000000004</v>
+        <v>0.09736327222467689</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002474931057251537</v>
+        <v>0.004448157160123291</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0189581971262562</v>
+        <v>0.03012635257643927</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002465613777890353</v>
+        <v>0.006578318684099857</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02537642338973298</v>
+        <v>0.02954311783337076</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00309723215191609</v>
+        <v>0.006493403370691002</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04867125294842314</v>
+        <v>0.05940010914363442</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003067469087971292</v>
+        <v>0.006488611678731421</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.07716059172794615</v>
+        <v>0.1090983642569743</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003066216128124628</v>
+        <v>0.006418298807585402</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02773456035760375</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02274269920956259</v>
+        <v>0.04053163432766049</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003082017222362941</v>
+        <v>0.008222898355124819</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02921840031398944</v>
+        <v>0.03353821404256867</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003871540189895114</v>
+        <v>0.008184609174626867</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05554293983921155</v>
+        <v>0.06545074313362279</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003834336359964116</v>
+        <v>0.007946222499637737</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.08436367508946202</v>
+        <v>0.1197556774937798</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003832770160155785</v>
+        <v>0.008022873509481753</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02591531244979638</v>
+        <v>0.04434883661601754</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00369842066683553</v>
+        <v>0.009867478026149784</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03102439999999999</v>
+        <v>0.03588779511485024</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004627034582089551</v>
+        <v>0.009740105056036502</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05964798571420435</v>
+        <v>0.07098437964450174</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004601203631956939</v>
+        <v>0.009732917518097132</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.09119049260630546</v>
+        <v>0.1283984670755505</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004599324192186942</v>
+        <v>0.009627448211378103</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02773456035760375</v>
+        <v>0.04593530601628546</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00413638200557247</v>
+        <v>0.01151205769717475</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03170478852336499</v>
+        <v>0.03903678305136787</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005420156265853159</v>
+        <v>0.01136345589870925</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.06331224830807863</v>
+        <v>0.07700266445912266</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005368070903949762</v>
+        <v>0.01135507043777999</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.09736327222467689</v>
+        <v>0.1370153886207519</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005654568154617487</v>
+        <v>0.01123202291327445</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.03054711041776335</v>
+        <v>0.04992220864368676</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004931227555780707</v>
+        <v>0.01240914601671741</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0318262011804966</v>
+        <v>0.04165024329008343</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006194464303832181</v>
+        <v>0.012986806741382</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06545074313362279</v>
+        <v>0.08241279509783372</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005759369445584315</v>
+        <v>0.01297722335746284</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09945970574143975</v>
+        <v>0.1418950977478502</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006132432256249255</v>
+        <v>0.0128365976151708</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03255202611783662</v>
+        <v>0.04739067297961593</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005547631000253295</v>
+        <v>0.01480121703922468</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03263208713011444</v>
+        <v>0.043920101322746</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006968772341811204</v>
+        <v>0.01461015758405476</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06918139647549634</v>
+        <v>0.08670544274739111</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006901805447935409</v>
+        <v>0.0145993762771457</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1021446651671864</v>
+        <v>0.1492262500753112</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006898986288280413</v>
+        <v>0.01444117231706716</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03440867370421537</v>
+        <v>0.05918570179763535</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006164034444725883</v>
+        <v>0.01644579671024964</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03264351710208496</v>
+        <v>0.04633828264110468</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007743080379790227</v>
+        <v>0.0162335084267275</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.07113058090737859</v>
+        <v>0.09187127859455096</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007668672719928232</v>
+        <v>0.01622152919682856</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1046814235403938</v>
+        <v>0.1542975012216007</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00766554032031157</v>
+        <v>0.01604574701896351</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03612222387408166</v>
+        <v>0.06295882415636767</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006780437889198471</v>
+        <v>0.01809037638127461</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03353821404256867</v>
+        <v>0.04889671273690861</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008336582184586253</v>
+        <v>0.01785685926940025</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07293517872777594</v>
+        <v>0.09580097382606934</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008435539991921055</v>
+        <v>0.01784368211651141</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1079689540365186</v>
+        <v>0.1589975068051847</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008432094352342726</v>
+        <v>0.01765032172085985</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03769784732461749</v>
+        <v>0.05766597400515069</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007396841333671061</v>
+        <v>0.01973495605229957</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0340968338170224</v>
+        <v>0.05098731710190683</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009291696455748273</v>
+        <v>0.019480210112073</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0753948689633164</v>
+        <v>0.09988519962870235</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009202407263913878</v>
+        <v>0.01946583503619426</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1124062298310171</v>
+        <v>0.1620149224445289</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009198648384373884</v>
+        <v>0.01925489642275621</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03914071475300494</v>
+        <v>0.0662630852933222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008013244778143649</v>
+        <v>0.02137953572332453</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0345600770387683</v>
+        <v>0.05310202122784845</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01006600449372729</v>
+        <v>0.02110356095474576</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07770933064062818</v>
+        <v>0.1033146271892061</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009969274535906701</v>
+        <v>0.02108798795587712</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1148922240993459</v>
+        <v>0.1652384037580995</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00996520241640504</v>
+        <v>0.02085947112465256</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04045599685642606</v>
+        <v>0.06970609197022001</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008629648222616236</v>
+        <v>0.0230241153943495</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03536369466563416</v>
+        <v>0.05453275060648259</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01084031253170632</v>
+        <v>0.02272691179741851</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07997824278633928</v>
+        <v>0.1076799276943367</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01073614180789952</v>
+        <v>0.02271014087555998</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1179259100169614</v>
+        <v>0.168056606364362</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0107317564484362</v>
+        <v>0.02246404582654891</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04164886433206289</v>
+        <v>0.06795092798518196</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009246051667088825</v>
+        <v>0.02466869506537446</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03600507438560956</v>
+        <v>0.05597143072955833</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01161462056968534</v>
+        <v>0.02435026264009126</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08290128442707789</v>
+        <v>0.1099717723308504</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01150300907989235</v>
+        <v>0.02433229379524283</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1223062607593202</v>
+        <v>0.1713581858817825</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01149831048046735</v>
+        <v>0.02406862052844526</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.04272448787709749</v>
+        <v>0.07495352728754584</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009862455111561414</v>
+        <v>0.02631327473639943</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03708160388668409</v>
+        <v>0.0577099870888248</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01238892860766436</v>
+        <v>0.02597361348276401</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08507813458947214</v>
+        <v>0.112580832285503</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01226987635188517</v>
+        <v>0.02595444671492568</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1258322495018788</v>
+        <v>0.173332500038259</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01226486451249851</v>
+        <v>0.02567319523034161</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0436880381887119</v>
+        <v>0.07766982382664941</v>
       </c>
       <c r="G82" t="n">
-        <v>0.010478858556034</v>
+        <v>0.02795785440742439</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03759067085684736</v>
+        <v>0.05854034517603106</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01316323664564339</v>
+        <v>0.02759696432543676</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0868084723001501</v>
+        <v>0.1151977787450509</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01303674362387799</v>
+        <v>0.02757659963460854</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1272028494200936</v>
+        <v>0.1753050842496543</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01303141854452967</v>
+        <v>0.02727776993223796</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04450036810728112</v>
+        <v>0.07705575155183053</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01106144100278623</v>
+        <v>0.02960243407844936</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03842966298408892</v>
+        <v>0.05925443121230482</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01393754468362241</v>
+        <v>0.02922031516810951</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08849197658573982</v>
+        <v>0.1158167719281519</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01380361089587082</v>
+        <v>0.0291987525542914</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1309170336894214</v>
+        <v>0.1783121419954679</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01379797257656083</v>
+        <v>0.02888234463413431</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.04533990068159447</v>
+        <v>0.08006724441242696</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01171166544497918</v>
+        <v>0.03124701374947432</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03909596795639841</v>
+        <v>0.06014866091535431</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01471185272160143</v>
+        <v>0.03084366601078226</v>
       </c>
       <c r="L84" t="n">
-        <v>0.09082832647286954</v>
+        <v>0.118060304565024</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01457047816786364</v>
+        <v>0.03082090547397425</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1349737754853183</v>
+        <v>0.1799393286526113</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01456452660859198</v>
+        <v>0.03048691933603066</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.04610761257962911</v>
+        <v>0.08166023635777653</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01232806888945177</v>
+        <v>0.03289159342049928</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04058697346176537</v>
+        <v>0.06082032530611227</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01548616075958045</v>
+        <v>0.03246701685345501</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09231720098816726</v>
+        <v>0.1187585409620237</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01533734543985646</v>
+        <v>0.03244305839365711</v>
       </c>
       <c r="N85" t="n">
-        <v>0.137872047983241</v>
+        <v>0.1820722995979964</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01533108064062314</v>
+        <v>0.03209149403792701</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0468484659527122</v>
+        <v>0.0878924471482283</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01294447233392436</v>
+        <v>0.03453617309152425</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04110006718817941</v>
+        <v>0.06176430766916921</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01626046879755948</v>
+        <v>0.03409036769612776</v>
       </c>
       <c r="L86" t="n">
-        <v>0.09495827915826127</v>
+        <v>0.1206015177982714</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01610421271184928</v>
+        <v>0.03406521131333996</v>
       </c>
       <c r="N86" t="n">
-        <v>0.139410824358646</v>
+        <v>0.1834967102085347</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0160976346726543</v>
+        <v>0.03369606873982336</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0475629937403183</v>
+        <v>0.08206786617896239</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01356087577839694</v>
+        <v>0.03618075276254921</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0422326368236301</v>
+        <v>0.06287549128911564</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0170347768355385</v>
+        <v>0.03571371853880051</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09705124000977944</v>
+        <v>0.1221792717528876</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01687107998384211</v>
+        <v>0.03568736423302282</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1420890777869899</v>
+        <v>0.1850982158611379</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01686418870468545</v>
+        <v>0.03530064344171971</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.04825172888192195</v>
+        <v>0.08520345492299303</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01417727922286953</v>
+        <v>0.03782533243357417</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04308207005610708</v>
+        <v>0.06304875945054209</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01780908487351752</v>
+        <v>0.03733706938147326</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09879576256935002</v>
+        <v>0.124081839504993</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01763794725583493</v>
+        <v>0.03730951715270567</v>
       </c>
       <c r="N88" t="n">
-        <v>0.145105781443729</v>
+        <v>0.1867624719327178</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01763074273671661</v>
+        <v>0.03690521814361606</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0489152043169977</v>
+        <v>0.08529129433731353</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01479368266734212</v>
+        <v>0.03946991210459914</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04434575457359984</v>
+        <v>0.06367899543803905</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01858339291149655</v>
+        <v>0.03896042022414601</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1003915258636011</v>
+        <v>0.1252992577337079</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01840481452782776</v>
+        <v>0.03893167007238853</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1486599085043198</v>
+        <v>0.1883751338001862</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01839729676874777</v>
+        <v>0.03850979284551241</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0495539529850201</v>
+        <v>0.09132346537891736</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01541008611181471</v>
+        <v>0.04111449177562411</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04482107806409806</v>
+        <v>0.06426108253619704</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01935770094947557</v>
+        <v>0.04058377106681876</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1028382089191608</v>
+        <v>0.125521563118153</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01917168179982058</v>
+        <v>0.04055382299207139</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1503504321442191</v>
+        <v>0.1906218568404544</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01916385080077892</v>
+        <v>0.04011436754740876</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05016850782546369</v>
+        <v>0.09029204900479784</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0160264895562873</v>
+        <v>0.04275907144664907</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04580542821559128</v>
+        <v>0.06528990402960662</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02013200898745459</v>
+        <v>0.04220712190949152</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1036354907626572</v>
+        <v>0.1263387923374489</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0199385490718134</v>
+        <v>0.04217597591175424</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1532763255388832</v>
+        <v>0.1905882964304344</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01993040483281008</v>
+        <v>0.04171894224930511</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05075940177780305</v>
+        <v>0.09518912617194841</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01664289300075988</v>
+        <v>0.04440365111767403</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04689619271606912</v>
+        <v>0.06526034320285824</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02090631702543361</v>
+        <v>0.04383047275216426</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1048830504207183</v>
+        <v>0.1274409820707159</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02070541634380622</v>
+        <v>0.0437981288314371</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1554365618637685</v>
+        <v>0.1917601079470378</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02069695886484124</v>
+        <v>0.04332351695120146</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05132716778151269</v>
+        <v>0.08900677783736247</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01725929644523247</v>
+        <v>0.046048230788699</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04819075925352113</v>
+        <v>0.06616728334054249</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02168062506341263</v>
+        <v>0.04545382359483702</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1072805669199725</v>
+        <v>0.1283181689970746</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02147228361579905</v>
+        <v>0.04542028175111995</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1587301142943316</v>
+        <v>0.1936229467671762</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0214635128968724</v>
+        <v>0.04492809165309782</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05187233877606714</v>
+        <v>0.0977370849580334</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01787569988970506</v>
+        <v>0.04769281045972396</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04898651551593693</v>
+        <v>0.06590560772724983</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02245493310139166</v>
+        <v>0.04707717443750976</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1084277192870477</v>
+        <v>0.1294603897956457</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02223915088779187</v>
+        <v>0.0470424346708028</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1604559560060291</v>
+        <v>0.1932624682677613</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02223006692890355</v>
+        <v>0.04653266635499417</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.052395447700941</v>
+        <v>0.08937212849095461</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01849210333417765</v>
+        <v>0.04933739013074893</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05018084919130607</v>
+        <v>0.06627019964757076</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02322924113937068</v>
+        <v>0.04870052528018252</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1103241865485721</v>
+        <v>0.1294576811455494</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02300601815978469</v>
+        <v>0.04866458759048566</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1623130601743173</v>
+        <v>0.1947265444493538</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02299662096093471</v>
+        <v>0.04813724105689052</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05289702749560881</v>
+        <v>0.09090398939311947</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01910850677865024</v>
+        <v>0.05098196980177389</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05097114796761816</v>
+        <v>0.06665594238609589</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0240035491773497</v>
+        <v>0.05032387612285526</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1109696477311738</v>
+        <v>0.1301000797259066</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02377288543177751</v>
+        <v>0.05028674051016851</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1639003999746529</v>
+        <v>0.1940205545726232</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02376317499296586</v>
+        <v>0.04974181575878687</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05337761109954508</v>
+        <v>0.0923247486215214</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01972491022312283</v>
+        <v>0.05262654947279886</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0517547995328628</v>
+        <v>0.06707642808513732</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02477785721532872</v>
+        <v>0.05194722696552802</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1136637818614808</v>
+        <v>0.1309014862672456</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02453975270377034</v>
+        <v>0.05190889342985137</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1661169485824923</v>
+        <v>0.1932197936039681</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02452972902499702</v>
+        <v>0.05134639046068321</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0538377314522244</v>
+        <v>0.09062648713315383</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02034131366759542</v>
+        <v>0.05427112914382382</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05312919157502957</v>
+        <v>0.06687352049106395</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02555216525330775</v>
+        <v>0.05357057780820077</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1147062679661214</v>
+        <v>0.1297913141874387</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02530661997576316</v>
+        <v>0.05353104634953423</v>
       </c>
       <c r="N98" t="n">
-        <v>0.169761679173292</v>
+        <v>0.1929005156947295</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02529628305702818</v>
+        <v>0.05295096516257957</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05427792149312128</v>
+        <v>0.09984441728737353</v>
       </c>
       <c r="G99" t="n">
-        <v>0.020957717112068</v>
+        <v>0.05591570881484879</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05419171178210806</v>
+        <v>0.06693571236278777</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02632647329128677</v>
+        <v>0.05519392865087352</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1157967850717235</v>
+        <v>0.1298073950300206</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02607348724775599</v>
+        <v>0.05515319926921708</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1709335649225086</v>
+        <v>0.1930702808749506</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02606283708905933</v>
+        <v>0.05455553986447592</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0546987141617103</v>
+        <v>0.09584286589350585</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02157412055654059</v>
+        <v>0.05756028848587375</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05513974784208782</v>
+        <v>0.06695630283425801</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02710078132926579</v>
+        <v>0.05681727949354627</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1175350122049154</v>
+        <v>0.1306430491990628</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02684035451974881</v>
+        <v>0.05677535218889993</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1729315790055985</v>
+        <v>0.1920366491746752</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0268293911210905</v>
+        <v>0.05616011456637227</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05510064239746599</v>
+        <v>0.09279484059622981</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02219052400101318</v>
+        <v>0.05920486815689871</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05587068744295848</v>
+        <v>0.06643798856205331</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02787508936724482</v>
+        <v>0.05844063033621903</v>
       </c>
       <c r="L101" t="n">
-        <v>0.117920628392325</v>
+        <v>0.1296035276519949</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02760722179174164</v>
+        <v>0.05839750510858279</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1755546945980183</v>
+        <v>0.1929071806239466</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02759594515312165</v>
+        <v>0.05776468926826862</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05548423913986288</v>
+        <v>0.09268271865696834</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02280692744548577</v>
+        <v>0.06084944782792368</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05658191827270963</v>
+        <v>0.06648346620275243</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02864939740522384</v>
+        <v>0.06006398117889177</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1192533126605806</v>
+        <v>0.1287940813462466</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02837408906373446</v>
+        <v>0.06001965802826565</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1768018848752243</v>
+        <v>0.1915894352528085</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02836249918515281</v>
+        <v>0.05936926397016497</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05585003732837555</v>
+        <v>0.09651067363975852</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02342333088995836</v>
+        <v>0.06249402749894864</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05777082801933082</v>
+        <v>0.06609543241293404</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02942370544320286</v>
+        <v>0.06168733202156453</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1201327440363104</v>
+        <v>0.1289199612392476</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02914095633572728</v>
+        <v>0.0616418109479485</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1777721230126731</v>
+        <v>0.1906909730913045</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02912905321718396</v>
+        <v>0.06097383867206132</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05619856990247855</v>
+        <v>0.09628287910863731</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02403973433443094</v>
+        <v>0.0641386071699736</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05843480437081165</v>
+        <v>0.0659765838491768</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03019801348118189</v>
+        <v>0.06331068286423727</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1209586015461422</v>
+        <v>0.1287864182884277</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0299078236077201</v>
+        <v>0.06326396386763136</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1802643821858214</v>
+        <v>0.1907193541694779</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02989560724921512</v>
+        <v>0.06257841337395767</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05653036980164641</v>
+        <v>0.09200350862764173</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02465613777890353</v>
+        <v>0.06578318684099856</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05907123501514173</v>
+        <v>0.06582961716805942</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03097232151916091</v>
+        <v>0.06493403370691002</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1223305642167044</v>
+        <v>0.1279987034512166</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03067469087971293</v>
+        <v>0.06488611678731422</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1819776355701255</v>
+        <v>0.1899821385173726</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03066216128124628</v>
+        <v>0.06418298807585403</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05684596996535368</v>
+        <v>0.08967673576080881</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02527254122337612</v>
+        <v>0.06742776651202353</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06027750764031066</v>
+        <v>0.06515722902616057</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03174662955713993</v>
+        <v>0.06655738454958278</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1229483110746249</v>
+        <v>0.1274620676850439</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03144155815170575</v>
+        <v>0.06650826970699707</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1821108563410418</v>
+        <v>0.1875868861650317</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03142871531327743</v>
+        <v>0.06578756277775037</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05714590333307489</v>
+        <v>0.09430673407217557</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02588894466784871</v>
+        <v>0.0690723461830485</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06055100993430797</v>
+        <v>0.06506211608005895</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03252093759511895</v>
+        <v>0.06818073539225553</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1237115211465319</v>
+        <v>0.1275817619473395</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03220842542369857</v>
+        <v>0.06813042262667993</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1834630176740271</v>
+        <v>0.186641157142499</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03219526934530859</v>
+        <v>0.06739213747964672</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05743070284428462</v>
+        <v>0.08989767712577906</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0265053481123213</v>
+        <v>0.07071692585407345</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06188912958512331</v>
+        <v>0.06514697498633328</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03329524563309798</v>
+        <v>0.06980408623492827</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1252198734590535</v>
+        <v>0.1262630371955331</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03297529269569139</v>
+        <v>0.06975257554636279</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1844330927445378</v>
+        <v>0.187252511479818</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03296182337733975</v>
+        <v>0.06899671218154307</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05770103720902648</v>
+        <v>0.08945373848565621</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02712175155679388</v>
+        <v>0.07236150552509843</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0621892542807462</v>
+        <v>0.06471450240156222</v>
       </c>
       <c r="K109" t="n">
-        <v>0.034069553671077</v>
+        <v>0.07142743707760102</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1261730470388179</v>
+        <v>0.1251111443870543</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03374215996768422</v>
+        <v>0.07137472846604564</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1867200547280302</v>
+        <v>0.1856285092070322</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0337283774093709</v>
+        <v>0.07060128688343942</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05796529534031695</v>
+        <v>0.08797909171584414</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02773815500126648</v>
+        <v>0.07400608519612339</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06294877170916631</v>
+        <v>0.0640673949823244</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03484386170905602</v>
+        <v>0.07305078792027378</v>
       </c>
       <c r="L110" t="n">
-        <v>0.126070720912453</v>
+        <v>0.124531334479333</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03450902723967704</v>
+        <v>0.07299688138572849</v>
       </c>
       <c r="N110" t="n">
-        <v>0.188122876799961</v>
+        <v>0.1852767103541852</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03449493144140206</v>
+        <v>0.07220586158533578</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05822810744152859</v>
+        <v>0.09347791038037984</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02835455844573906</v>
+        <v>0.07565066486714835</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06356506955837314</v>
+        <v>0.06380834938519862</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03561816974703504</v>
+        <v>0.07467413876294653</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1273125741065871</v>
+        <v>0.1248288584297987</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03527589451166986</v>
+        <v>0.07461903430541135</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1894405321357867</v>
+        <v>0.1829046749513205</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03526148547343322</v>
+        <v>0.07381043628723212</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05848934630368093</v>
+        <v>0.08695436804330026</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02897096189021165</v>
+        <v>0.07729524453817332</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06403553551635631</v>
+        <v>0.06334006226676353</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03639247778501407</v>
+        <v>0.07629748960561927</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1278982856478483</v>
+        <v>0.1236089671958814</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03604276178366268</v>
+        <v>0.07624118722509421</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1901719939109637</v>
+        <v>0.1812199630284815</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03602803950546438</v>
+        <v>0.07541501098912846</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05874888471779355</v>
+        <v>0.09041263826864251</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02958736533468424</v>
+        <v>0.07893982420919828</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06495755727110543</v>
+        <v>0.06286523028359779</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03716678582299309</v>
+        <v>0.07792084044829202</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1274275345628647</v>
+        <v>0.1225769117350106</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03680962905565551</v>
+        <v>0.07786334014477705</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1905162353009488</v>
+        <v>0.1814301346157121</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03679459353749553</v>
+        <v>0.07701958569102482</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05900659547488598</v>
+        <v>0.08985689462044355</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03020376877915683</v>
+        <v>0.08058440388022324</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06532852251061012</v>
+        <v>0.0625865500922801</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03794109386097211</v>
+        <v>0.07954419129096478</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1287999998782642</v>
+        <v>0.1217379430046161</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03757649632764833</v>
+        <v>0.07948549306445991</v>
       </c>
       <c r="N114" t="n">
-        <v>0.190572229481198</v>
+        <v>0.1797427497430555</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03756114756952669</v>
+        <v>0.07862416039292117</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05926235136597782</v>
+        <v>0.08829131066274043</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03082017222362942</v>
+        <v>0.08222898355124822</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06534581892285991</v>
+        <v>0.06250671834938916</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03871540189895113</v>
+        <v>0.08116754213363753</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1293153606206753</v>
+        <v>0.1219973119621276</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03834336359964115</v>
+        <v>0.08110764598414277</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1924389496271681</v>
+        <v>0.1798653684405553</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03832770160155784</v>
+        <v>0.08022873509481752</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05951602518208855</v>
+        <v>0.09272005995957014</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03143657566810201</v>
+        <v>0.08387356322227317</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06570683419584435</v>
+        <v>0.06212843171150367</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03948970993693016</v>
+        <v>0.08279089297631027</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1293732958167259</v>
+        <v>0.1209602695649749</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03911023087163398</v>
+        <v>0.08272979890382563</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1916153689143156</v>
+        <v>0.1787588857246581</v>
       </c>
       <c r="O116" t="n">
-        <v>0.039094255633589</v>
+        <v>0.08183330979671387</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05976748971423778</v>
+        <v>0.0881473160749697</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0320529791125746</v>
+        <v>0.08551814289329814</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06630895601755306</v>
+        <v>0.06165438683520227</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04026401797490917</v>
+        <v>0.08441424381898303</v>
       </c>
       <c r="L117" t="n">
-        <v>0.129073484493044</v>
+        <v>0.1201316122773569</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0398770981436268</v>
+        <v>0.08435195182350848</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1928004605180969</v>
+        <v>0.1775005432671689</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03986080966562016</v>
+        <v>0.08343788449861023</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06001661775344504</v>
+        <v>0.08557725257297619</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03266938255704718</v>
+        <v>0.08716272256432311</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06634957207597571</v>
+        <v>0.06145511412890192</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0410383260128882</v>
+        <v>0.08603759466165578</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1300156056762578</v>
+        <v>0.1197407634999208</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04064396541561963</v>
+        <v>0.08597410474319134</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1927931976139688</v>
+        <v>0.1755055536512141</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04062736369765132</v>
+        <v>0.08504245920050657</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06026328209072992</v>
+        <v>0.08801373475761182</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03328578600151977</v>
+        <v>0.08880730223534807</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06672607005910182</v>
+        <v>0.06040153590389388</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04181263405086723</v>
+        <v>0.08766094550432853</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1294993383929955</v>
+        <v>0.1184458881961029</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04141083268761245</v>
+        <v>0.0875962576628742</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1929925533773874</v>
+        <v>0.1730985483583655</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04139391772968248</v>
+        <v>0.08664703390240293</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06050735551711191</v>
+        <v>0.08940199940602603</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03390218944599235</v>
+        <v>0.09045188190637303</v>
       </c>
       <c r="J120" t="n">
-        <v>0.06707642808513732</v>
+        <v>0.06010241317569501</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04258694208884625</v>
+        <v>0.08928429634700127</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1305243616698851</v>
+        <v>0.1167640946128837</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04217769995960528</v>
+        <v>0.08921841058255704</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1935975009838094</v>
+        <v>0.1729041588701948</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04216047176171363</v>
+        <v>0.08825160860429929</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06074871082361063</v>
+        <v>0.08670883206423666</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03451859289046495</v>
+        <v>0.09209646157739799</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06707626255142275</v>
+        <v>0.05956653197378411</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04336125012682527</v>
+        <v>0.09090764718967403</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1309014862672456</v>
+        <v>0.1162124909972436</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0429445672315981</v>
+        <v>0.0908405635022399</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1947265444493538</v>
+        <v>0.1696470166682738</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04292702579374479</v>
+        <v>0.08985618330619563</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06098722080124557</v>
+        <v>0.08394783070276413</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03513499633493753</v>
+        <v>0.09374104124842296</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06706924874477231</v>
+        <v>0.05930267832764002</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04413555816480429</v>
+        <v>0.09253099803234678</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1304995659980178</v>
+        <v>0.1151081855961629</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04371143450359092</v>
+        <v>0.09246271642192276</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1932204052623601</v>
+        <v>0.1684517532341742</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04369357982577595</v>
+        <v>0.09146075800809199</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06122275824103635</v>
+        <v>0.08713259329212902</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03575139977941012</v>
+        <v>0.09538562091944792</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06654601092655983</v>
+        <v>0.05861963826674157</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04490986620278331</v>
+        <v>0.09415434887501953</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1301772028088694</v>
+        <v>0.114468286656622</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04447830177558374</v>
+        <v>0.09408486934160561</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1936420108618437</v>
+        <v>0.1662430000494676</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0444601338578071</v>
+        <v>0.09306533270998833</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06145519593400247</v>
+        <v>0.08427671780285187</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03636780322388272</v>
+        <v>0.09703020059047289</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06650736074605033</v>
+        <v>0.05782619782056755</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04568417424076234</v>
+        <v>0.09577769971769227</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1297304202217749</v>
+        <v>0.1127099024256015</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04524516904757656</v>
+        <v>0.09570702226128847</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1939766970265684</v>
+        <v>0.1644453885957259</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04522668788983826</v>
+        <v>0.09466990741188468</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0616844066711635</v>
+        <v>0.08639380220545315</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0369842066683553</v>
+        <v>0.09867478026149785</v>
       </c>
       <c r="J125" t="n">
-        <v>0.06695398279073479</v>
+        <v>0.0576311430185968</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04645848227874136</v>
+        <v>0.09740105056036504</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1306600635673703</v>
+        <v>0.1110501411500816</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04601203631956938</v>
+        <v>0.09732917518097133</v>
       </c>
       <c r="N125" t="n">
-        <v>0.192528649703868</v>
+        <v>0.1643835503545209</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04599324192186942</v>
+        <v>0.09627448211378103</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06191026324353901</v>
+        <v>0.08149744447045337</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03760061011282789</v>
+        <v>0.1003193599325228</v>
       </c>
       <c r="J126" t="n">
-        <v>0.06638656164810412</v>
+        <v>0.05664325989030812</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04723279031672038</v>
+        <v>0.09902440140303778</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1306669781762912</v>
+        <v>0.1102061110770429</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04677890359156221</v>
+        <v>0.09895132810065417</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1923020548410757</v>
+        <v>0.1614821168074242</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04675979595390058</v>
+        <v>0.09787905681567738</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06213263844214855</v>
+        <v>0.08360124256837315</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03821701355730047</v>
+        <v>0.1019639396035478</v>
       </c>
       <c r="J127" t="n">
-        <v>0.06650578190564936</v>
+        <v>0.05617133446518034</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04800709835469941</v>
+        <v>0.1006477522457105</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1293520093791733</v>
+        <v>0.1093949204534658</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04754577086355503</v>
+        <v>0.100573481020337</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1935010983855249</v>
+        <v>0.1603428788666018</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04752634998593173</v>
+        <v>0.09948363151757374</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06235140505801166</v>
+        <v>0.07671879446973284</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03883341700177306</v>
+        <v>0.1036085192745727</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06611232815086139</v>
+        <v>0.05562415277269228</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04878140639267842</v>
+        <v>0.1022711030883833</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1302160025066524</v>
+        <v>0.1084336775263305</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04831263813554786</v>
+        <v>0.1021956339400199</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1920299662845493</v>
+        <v>0.1586894365251281</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04829290401796289</v>
+        <v>0.1010882062194701</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06256643588214789</v>
+        <v>0.08386369814505309</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03944982044624566</v>
+        <v>0.1052530989455977</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0666068849712312</v>
+        <v>0.05487816191859006</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04955571443065745</v>
+        <v>0.103894453931056</v>
       </c>
       <c r="L129" t="n">
-        <v>0.129659802889364</v>
+        <v>0.1066601675064335</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04907950540754068</v>
+        <v>0.1038177868597027</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1911928444854822</v>
+        <v>0.1573078993866708</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04905945804999404</v>
+        <v>0.1026927809213664</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06277760370557681</v>
+        <v>0.07704924175602557</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04006622389071824</v>
+        <v>0.1068976786166227</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06629013695424975</v>
+        <v>0.05448143155650646</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05033002246863647</v>
+        <v>0.1055178047737288</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1293842558579441</v>
+        <v>0.105887691508803</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0498463726795335</v>
+        <v>0.1054399397793856</v>
       </c>
       <c r="N130" t="n">
-        <v>0.190093918935657</v>
+        <v>0.1555335274243155</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0498260120820252</v>
+        <v>0.1042973556232628</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.06298478131931798</v>
+        <v>0.07720650358561343</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04068262733519083</v>
+        <v>0.1085422582876476</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06616276868740802</v>
+        <v>0.05374490864108922</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0511043305066155</v>
+        <v>0.1071411556164015</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1287902067430282</v>
+        <v>0.1051400972982236</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05061323995152633</v>
+        <v>0.1070620926990685</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1893373755824073</v>
+        <v>0.1536015806111479</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05059256611405636</v>
+        <v>0.1059019303251591</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06318784151439091</v>
+        <v>0.07828876984328059</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04129903077966342</v>
+        <v>0.1101868379586726</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06582546475819694</v>
+        <v>0.05298117037611115</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05187863854459452</v>
+        <v>0.1087645064590743</v>
       </c>
       <c r="L132" t="n">
-        <v>0.128478500875252</v>
+        <v>0.1032418753352595</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05138010722351915</v>
+        <v>0.1086842456187513</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1896274003730665</v>
+        <v>0.151647318920254</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05135912014608751</v>
+        <v>0.1075065050270555</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06338665708181523</v>
+        <v>0.07231550602781062</v>
       </c>
       <c r="G133" t="n">
-        <v>0.041915434224136</v>
+        <v>0.1118314176296976</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06567890975410746</v>
+        <v>0.05260279396534502</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05265294658257354</v>
+        <v>0.110387857301747</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1286499835852513</v>
+        <v>0.102717516080475</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05214697449551197</v>
+        <v>0.1103063985384342</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1879681792549679</v>
+        <v>0.1502060023247194</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05212567417811867</v>
+        <v>0.1091110797289518</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06358110081261042</v>
+        <v>0.0763061776379873</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04253183766860859</v>
+        <v>0.1134759973007225</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06592378826263061</v>
+        <v>0.05192235661256368</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05342725462055257</v>
+        <v>0.1120112081444198</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1280055002036618</v>
+        <v>0.1004915099944347</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0529138417675048</v>
+        <v>0.111928551458117</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1878638981754451</v>
+        <v>0.1484128907976298</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05289222821014983</v>
+        <v>0.1107156544308482</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06377104549779605</v>
+        <v>0.07528025017259421</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04314824111308119</v>
+        <v>0.1151205769717475</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06526078487125729</v>
+        <v>0.05095243552153991</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05420156265853158</v>
+        <v>0.1136345589870925</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1287458960611192</v>
+        <v>0.09968834753770267</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05368070903949761</v>
+        <v>0.1135507043777999</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1871187430818316</v>
+        <v>0.145503244312071</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05365878224218099</v>
+        <v>0.1123202291327445</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06395636392839171</v>
+        <v>0.06825718913041501</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04376464455755377</v>
+        <v>0.1167651566427725</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0651905841674784</v>
+        <v>0.05070560789604654</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05497587069651061</v>
+        <v>0.1152579098297653</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1283720164882592</v>
+        <v>0.09813251917084342</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05444757631149044</v>
+        <v>0.1151728572974827</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1862368999214606</v>
+        <v>0.1441123228411287</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05442533627421214</v>
+        <v>0.1139248038346409</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06413692889541692</v>
+        <v>0.07525646001023339</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04438104800202636</v>
+        <v>0.1184097363137974</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06531387073878507</v>
+        <v>0.04969445093985637</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05575017873448963</v>
+        <v>0.1168812606724381</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1276847068157177</v>
+        <v>0.09664851535442132</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05521444358348327</v>
+        <v>0.1167950102171656</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1857225546416659</v>
+        <v>0.1424753863578888</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0551918903062433</v>
+        <v>0.1155293785365372</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06431261318989126</v>
+        <v>0.07429752831083303</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04499745144649895</v>
+        <v>0.1200543159848224</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0646313291726681</v>
+        <v>0.04953154185674218</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05652448677246866</v>
+        <v>0.1185046115151108</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1273848123741301</v>
+        <v>0.09636082654900063</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05598131085547609</v>
+        <v>0.1184171631368484</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1841798931897807</v>
+        <v>0.141227694835437</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05595844433827445</v>
+        <v>0.1171339532384336</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06448328960283428</v>
+        <v>0.06539985953099756</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04561385489097153</v>
+        <v>0.1216988956558474</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0646436440566185</v>
+        <v>0.0486294578504768</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05729879481044768</v>
+        <v>0.1201279623577835</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1269731784941323</v>
+        <v>0.09499394321514565</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05674817812746891</v>
+        <v>0.1200393160565313</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1829131015131384</v>
+        <v>0.139604508246859</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05672499837030562</v>
+        <v>0.1187385279403299</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06464883092526549</v>
+        <v>0.06458291916951067</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04623025833544412</v>
+        <v>0.1233434753268723</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06465149997812726</v>
+        <v>0.04860077612483304</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05807310284842671</v>
+        <v>0.1217513132004563</v>
       </c>
       <c r="L140" t="n">
-        <v>0.12635065050636</v>
+        <v>0.09417235581342082</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05751504539946173</v>
+        <v>0.1216614689762141</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1834263655590727</v>
+        <v>0.1387410865652406</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05749155240233677</v>
+        <v>0.1203431026422263</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06480910994820449</v>
+        <v>0.06886617272515602</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04684666177991671</v>
+        <v>0.1249880549978973</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06425558152468532</v>
+        <v>0.04785807388358372</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05884741088640572</v>
+        <v>0.1233746640431291</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1263180737414487</v>
+        <v>0.09402055480439053</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05828191267145456</v>
+        <v>0.123283621895897</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1821238712749169</v>
+        <v>0.1380726897636676</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05825810643436793</v>
+        <v>0.1219476773441226</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06496399946267081</v>
+        <v>0.06826908569671727</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0474630652243893</v>
+        <v>0.1266326346689222</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06425657328378363</v>
+        <v>0.0476139283305016</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05962171892438475</v>
+        <v>0.1249980148858018</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1261762935300345</v>
+        <v>0.09366303064861908</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05904877994344739</v>
+        <v>0.1249057748155799</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1802098046080045</v>
+        <v>0.1389345778152256</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05902466046639908</v>
+        <v>0.123552252046019</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06511337225968403</v>
+        <v>0.06781112358297811</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04807946866886189</v>
+        <v>0.1282772143399472</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06415515984291319</v>
+        <v>0.04788091666935951</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06039602696236377</v>
+        <v>0.1266213657284745</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1257261552027528</v>
+        <v>0.09342427380667073</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0598156472154402</v>
+        <v>0.1265279277352627</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1784883515056688</v>
+        <v>0.137548057703087</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05979121449843024</v>
+        <v>0.1251568267479153</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0652571011302637</v>
+        <v>0.06351175188272218</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04869587211333447</v>
+        <v>0.1299217940109722</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06405202578956486</v>
+        <v>0.04776135632860581</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06117033500034279</v>
+        <v>0.1282447165711473</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1251685040902393</v>
+        <v>0.09329943017048786</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06058251448743303</v>
+        <v>0.1281500806549456</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1778636979152435</v>
+        <v>0.1391178840270504</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06055776853046139</v>
+        <v>0.1267614014498117</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06539505886542935</v>
+        <v>0.07039043609473314</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04931227555780706</v>
+        <v>0.1315663736819971</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06344785571122971</v>
+        <v>0.04797857946872529</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06194464303832182</v>
+        <v>0.12986806741382</v>
       </c>
       <c r="L145" t="n">
-        <v>0.12560418552313</v>
+        <v>0.09293614653115556</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06134938175942586</v>
+        <v>0.1297722335746284</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1767400297840618</v>
+        <v>0.1394371167379218</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06132432256249256</v>
+        <v>0.1283659761517081</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06552711825620053</v>
+        <v>0.06239964642071483</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04992867900227965</v>
+        <v>0.1332109533530221</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06324333419539865</v>
+        <v>0.04761358052690387</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06271895107630084</v>
+        <v>0.1314914182564928</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1245340448320603</v>
+        <v>0.0926073476585777</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06211624903141867</v>
+        <v>0.1313943864943113</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1765215330594573</v>
+        <v>0.1379031649457229</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0620908765945237</v>
+        <v>0.1299705508536044</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06565315209359682</v>
+        <v>0.0674382144430988</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05054508244675224</v>
+        <v>0.1348555330240471</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06333914582956263</v>
+        <v>0.04766543533478987</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06349325911427986</v>
+        <v>0.1331147690991656</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1243589273476662</v>
+        <v>0.09321123400263331</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06288311630341149</v>
+        <v>0.1330165394139941</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1747123936887635</v>
+        <v>0.1379134377604753</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06285743062655487</v>
+        <v>0.1315751255555007</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06577303316863775</v>
+        <v>0.06250327831145633</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05116148589122483</v>
+        <v>0.136500112695072</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06303597520121264</v>
+        <v>0.04813321972403149</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06426756715225888</v>
+        <v>0.1347381199418383</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1245796784005832</v>
+        <v>0.09394600601320113</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06364998357540433</v>
+        <v>0.134638692333677</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1738167976193136</v>
+        <v>0.139365344292201</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06362398465858603</v>
+        <v>0.1331797002573971</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0658866342723429</v>
+        <v>0.06959340770802738</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05177788933569742</v>
+        <v>0.138144692366097</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06253450689783961</v>
+        <v>0.04801600952627699</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06504187519023791</v>
+        <v>0.1363614707845111</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1229971433214471</v>
+        <v>0.09330986414015996</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06441685084739714</v>
+        <v>0.1362608452533599</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1732389307984413</v>
+        <v>0.1386562936509216</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06439053869061719</v>
+        <v>0.1347842749592934</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06599382819573182</v>
+        <v>0.07170717231505208</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05239429278017001</v>
+        <v>0.139789272037122</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06233542550693452</v>
+        <v>0.04791288057317465</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06581618322821693</v>
+        <v>0.1379848216271838</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1229121674408935</v>
+        <v>0.09310100883338868</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06518371811938997</v>
+        <v>0.1378829981730427</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1715829791734799</v>
+        <v>0.1388836949466588</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06515709272264833</v>
+        <v>0.1363888496611898</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06609448772982404</v>
+        <v>0.06284314181477044</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05301069622464259</v>
+        <v>0.1414338517081469</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06263941561598835</v>
+        <v>0.04782290869637268</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06659049126619596</v>
+        <v>0.1396081724698565</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1223255960895582</v>
+        <v>0.09321764054276604</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06595058539138278</v>
+        <v>0.1395051510927256</v>
       </c>
       <c r="N151" t="n">
-        <v>0.171853128691763</v>
+        <v>0.1401449572894344</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0659236467546795</v>
+        <v>0.1379934243630861</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06618848566563915</v>
+        <v>0.06599988588942246</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05362709966911518</v>
+        <v>0.1430784313791719</v>
       </c>
       <c r="J152" t="n">
-        <v>0.062347161812492</v>
+        <v>0.04824516972751934</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06736479930417497</v>
+        <v>0.1412315233125293</v>
       </c>
       <c r="L152" t="n">
-        <v>0.122038274598077</v>
+        <v>0.09395795971817095</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06671745266337561</v>
+        <v>0.1411273040124084</v>
       </c>
       <c r="N152" t="n">
-        <v>0.171553565300624</v>
+        <v>0.1396374897892702</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06669020078671066</v>
+        <v>0.1395979990649825</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06627569479419668</v>
+        <v>0.06917597422124819</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05424350311358777</v>
+        <v>0.1447230110501969</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06165934868393648</v>
+        <v>0.04807873949826288</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06813910734215399</v>
+        <v>0.142854874155202</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1213510482970854</v>
+        <v>0.09442016680948218</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06748431993536844</v>
+        <v>0.1427494569320913</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1704884749473963</v>
+        <v>0.141258701556188</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0674567548187418</v>
+        <v>0.1412025737668788</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06635598790651615</v>
+        <v>0.06636997649248769</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05485990655806037</v>
+        <v>0.1463675907212218</v>
       </c>
       <c r="J154" t="n">
-        <v>0.06197666081781272</v>
+        <v>0.04822269384025155</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06891341538013301</v>
+        <v>0.1444782249978748</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1214647625172193</v>
+        <v>0.09530246226657862</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06825118720736126</v>
+        <v>0.1443716098517741</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1692620435794133</v>
+        <v>0.1408060017002092</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06822330885077298</v>
+        <v>0.1428071484687752</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06642923779361717</v>
+        <v>0.07058046238538099</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05547631000253295</v>
+        <v>0.1480121703922468</v>
       </c>
       <c r="J155" t="n">
-        <v>0.06149978280161171</v>
+        <v>0.04867610858513359</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06968772341811204</v>
+        <v>0.1461015758405476</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1211802625891144</v>
+        <v>0.09520304653933892</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06901805447935408</v>
+        <v>0.145993762771457</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1688784571440085</v>
+        <v>0.1424537143603313</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06898986288280412</v>
+        <v>0.1444117231706716</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0664953172465193</v>
+        <v>0.0728060015821681</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05609271344700554</v>
+        <v>0.1496567500632718</v>
       </c>
       <c r="J156" t="n">
-        <v>0.06122939922282437</v>
+        <v>0.04914605670034755</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07046203145609106</v>
+        <v>0.1477249266832203</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1204983938434062</v>
+        <v>0.09554458285198925</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06978492175134691</v>
+        <v>0.1476159156911398</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1665419015885153</v>
+        <v>0.1438074404349466</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06975641691483529</v>
+        <v>0.1460162978725679</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06655409905624204</v>
+        <v>0.07104516376508907</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05670911689147812</v>
+        <v>0.1513013297342967</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0615661946689417</v>
+        <v>0.04944069680095325</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07123633949407009</v>
+        <v>0.1493482775258931</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1208200016107306</v>
+        <v>0.09654241648638223</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07055178902333972</v>
+        <v>0.1492380686108227</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1664565628602673</v>
+        <v>0.1435314218306682</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07052297094686644</v>
+        <v>0.1476208725744642</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06660545601380499</v>
+        <v>0.06839742723810102</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05732552033595071</v>
+        <v>0.1529459094053217</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06110904284759515</v>
+        <v>0.04987283025569697</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07201064753204911</v>
+        <v>0.1509716283685658</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1203368346879466</v>
+        <v>0.09740388377683085</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07131865629533256</v>
+        <v>0.1508602215305055</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1664134905417927</v>
+        <v>0.1467474458323885</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07128952497889759</v>
+        <v>0.1492254472763606</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06664926091022766</v>
+        <v>0.06997527111463792</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0579419237804233</v>
+        <v>0.1545904890763466</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0606550517245299</v>
+        <v>0.05011455865259916</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07278495557002813</v>
+        <v>0.1525949792112385</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1201341128026926</v>
+        <v>0.09737466064854583</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07208552356732537</v>
+        <v>0.1524823744501884</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1652917489809189</v>
+        <v>0.1477772997249998</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07205607901092875</v>
+        <v>0.1508300219782569</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06668538653652967</v>
+        <v>0.06773644531234063</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05855832722489589</v>
+        <v>0.1562350687473716</v>
       </c>
       <c r="J160" t="n">
-        <v>0.06070386242094934</v>
+        <v>0.05073798357968025</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07355926360800716</v>
+        <v>0.1542183300539113</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1194123100576818</v>
+        <v>0.09950042302673795</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0728523908393182</v>
+        <v>0.1541045273698713</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1643895204118251</v>
+        <v>0.1489427707933942</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07282263304295991</v>
+        <v>0.1524345966801533</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0667137056837305</v>
+        <v>0.07463777199023083</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05917473066936849</v>
+        <v>0.1578796484183966</v>
       </c>
       <c r="J161" t="n">
-        <v>0.06095515788677142</v>
+        <v>0.05171520662496075</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07433357164598618</v>
+        <v>0.155841680896584</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1191721645637336</v>
+        <v>0.1001268468366181</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07361925811131102</v>
+        <v>0.1557266802895541</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1648053019355191</v>
+        <v>0.1515656463224642</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07358918707499107</v>
+        <v>0.1540391713820496</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06673409114284976</v>
+        <v>0.06763607330733024</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05979113411384107</v>
+        <v>0.1595242280894215</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06070862107191403</v>
+        <v>0.05181832937646105</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07510787968396521</v>
+        <v>0.1574650317392568</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1184144144316671</v>
+        <v>0.101499608003397</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07438612538330384</v>
+        <v>0.157348833209237</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1631375906530087</v>
+        <v>0.154567713597102</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07435574110702223</v>
+        <v>0.155643746083946</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06674641570490694</v>
+        <v>0.06868817142266045</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06040753755831366</v>
+        <v>0.1611688077604465</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06066393492629514</v>
+        <v>0.05301945342220166</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07588218772194422</v>
+        <v>0.1590883825819296</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1185397977723016</v>
+        <v>0.1034643824522856</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07515299265529667</v>
+        <v>0.1589709861289198</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1639848836653016</v>
+        <v>0.1554707599021999</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07512229513905337</v>
+        <v>0.1572483207858423</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06675055216092168</v>
+        <v>0.07075088849524327</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06102394100278624</v>
+        <v>0.1628133874314714</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06022078239983267</v>
+        <v>0.05319068035020298</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07665649575992324</v>
+        <v>0.1607117334246023</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1167490526964565</v>
+        <v>0.1041668461084945</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07591985992728949</v>
+        <v>0.1605931390486027</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1619456780734055</v>
+        <v>0.1565965725226502</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07588884917108454</v>
+        <v>0.1588528954877387</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06675055216092168</v>
+        <v>0.07278104668410032</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06102394100278624</v>
+        <v>0.1644579671024964</v>
       </c>
       <c r="J165" t="n">
-        <v>0.06007884644244453</v>
+        <v>0.05380411174848548</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07743080379790226</v>
+        <v>0.1623350842672751</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1173429173149511</v>
+        <v>0.1051526748972345</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07668672719928231</v>
+        <v>0.1622152919682855</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1626184709783283</v>
+        <v>0.1579864638772113</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07665540320311569</v>
+        <v>0.160457470189635</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.06565473120803828</v>
+        <v>0.07373546814825327</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06102367247432223</v>
+        <v>0.1661025467735214</v>
       </c>
       <c r="J166" t="n">
-        <v>0.06013781000404865</v>
+        <v>0.05493430784228266</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07820511183588129</v>
+        <v>0.1639584351099478</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1163221297386046</v>
+        <v>0.1061759666747314</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07745359447127513</v>
+        <v>0.1638374448879684</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1623017594810777</v>
+        <v>0.1601912727622848</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07742195723514685</v>
+        <v>0.1620620448915314</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.06457100028930199</v>
+        <v>0.08057097504672389</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06102340394585822</v>
+        <v>0.1677471264445463</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05949735603456298</v>
+        <v>0.05542560548640277</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07897941987386031</v>
+        <v>0.1655817859526205</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1162874280782361</v>
+        <v>0.107332295781569</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07822046174326797</v>
+        <v>0.1654595978076513</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1607940406826613</v>
+        <v>0.1612623248766767</v>
       </c>
       <c r="O167" t="n">
-        <v>0.078188511267178</v>
+        <v>0.1636666195934277</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.06349989329271111</v>
+        <v>0.07831694000032538</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06102313541739419</v>
+        <v>0.1693917061155713</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05935716748390543</v>
+        <v>0.055604883240726</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07975372791183932</v>
+        <v>0.1672051367952933</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1148395504446651</v>
+        <v>0.1083653257966886</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07898732901526077</v>
+        <v>0.1670817507273341</v>
       </c>
       <c r="N168" t="n">
-        <v>0.160593811684087</v>
+        <v>0.1627021013631135</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07895506529920916</v>
+        <v>0.1652711942953241</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.06244194410640352</v>
+        <v>0.07604407028270621</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06102286688893017</v>
+        <v>0.1710362857865963</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05961692730199393</v>
+        <v>0.05597302612684853</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08052803594981835</v>
+        <v>0.1688284876379661</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1145792349487109</v>
+        <v>0.1098767800432461</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07975419628725361</v>
+        <v>0.168703903647017</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1600995695863626</v>
+        <v>0.1638130833643219</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07972161933124032</v>
+        <v>0.1668757689972205</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.06139768661837692</v>
+        <v>0.07875386215094446</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06102259836046616</v>
+        <v>0.1726808654576212</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05927631843874644</v>
+        <v>0.05673091916636654</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08130234398779738</v>
+        <v>0.1704518384806388</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1143072197011927</v>
+        <v>0.1103683818443978</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08052106355924642</v>
+        <v>0.1703260565666998</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1589098114904958</v>
+        <v>0.1651977520230283</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08048817336327148</v>
+        <v>0.1684803436991168</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06036765471667595</v>
+        <v>0.08044768533611191</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06102232983200215</v>
+        <v>0.1743254451286462</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05933502384408083</v>
+        <v>0.05687944738087621</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08207665202577641</v>
+        <v>0.1720751893233116</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1139242428129296</v>
+        <v>0.1106418545232994</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08128793083123925</v>
+        <v>0.1719482094863827</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1596230344974943</v>
+        <v>0.1658585884819593</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08125472739530264</v>
+        <v>0.1700849184010131</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05935238228930132</v>
+        <v>0.08412690956928029</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06102206130353812</v>
+        <v>0.1759700247996712</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05879272646791511</v>
+        <v>0.05711949579197369</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08285096006375543</v>
+        <v>0.1736985401659843</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1128310423947413</v>
+        <v>0.1125989214031072</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08205479810323207</v>
+        <v>0.1735703624060655</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1592377357083657</v>
+        <v>0.1675980738838417</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08202128142733379</v>
+        <v>0.1716894931029095</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05835240322438608</v>
+        <v>0.07979290458152147</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06102179277507411</v>
+        <v>0.1776146044706961</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05894910926016715</v>
+        <v>0.05755194942125516</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08362526810173446</v>
+        <v>0.1753218910086571</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1127283565574467</v>
+        <v>0.113541305806977</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0828216653752249</v>
+        <v>0.1751925153257484</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1588524122241183</v>
+        <v>0.1695186893714017</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08278783545936495</v>
+        <v>0.1732940678048059</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05736825140993034</v>
+        <v>0.08344704010390719</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06102152424661009</v>
+        <v>0.1792591841417211</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05850385517075486</v>
+        <v>0.05817769329031686</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08439957613971347</v>
+        <v>0.1769452418513298</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1117169234118653</v>
+        <v>0.1134707310580649</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08358853264721772</v>
+        <v>0.1768146682454312</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1572655611457592</v>
+        <v>0.1702229160873662</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08355438949139611</v>
+        <v>0.1748986425067022</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05640046073397866</v>
+        <v>0.08409068586750928</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06102125571814607</v>
+        <v>0.1809037638127461</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05895664714959624</v>
+        <v>0.05869761242075487</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08517388417769249</v>
+        <v>0.1785685926940025</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1104974810688161</v>
+        <v>0.113988920479527</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08435539991921055</v>
+        <v>0.1784368211651141</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1580756795742966</v>
+        <v>0.1723132351744615</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08432094352342727</v>
+        <v>0.1765032172085986</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0554495650845347</v>
+        <v>0.08772521160339949</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06102098718968205</v>
+        <v>0.182548343483771</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05870716814660915</v>
+        <v>0.05881259183416541</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08594819221567152</v>
+        <v>0.1801919435366753</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1102707676391187</v>
+        <v>0.1149975973945192</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08512226719120336</v>
+        <v>0.1800589740847969</v>
       </c>
       <c r="N176" t="n">
-        <v>0.155881264610738</v>
+        <v>0.1731921277754144</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08508749755545841</v>
+        <v>0.1781077919104949</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05451609834972584</v>
+        <v>0.08735198704264965</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06102071866121803</v>
+        <v>0.184192923154796</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05825510111171156</v>
+        <v>0.05952351655214468</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08672250025365054</v>
+        <v>0.1818152943793481</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1102375212335923</v>
+        <v>0.1158984851261977</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0858891344631962</v>
+        <v>0.1816811270044798</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1567808133560913</v>
+        <v>0.1734007699707848</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08585405158748959</v>
+        <v>0.1797123666123913</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05360059441755496</v>
+        <v>0.08597238191633153</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06102045013275402</v>
+        <v>0.185837502825821</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05820012899482138</v>
+        <v>0.0600444219107366</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08749680829162956</v>
+        <v>0.1834386452220208</v>
       </c>
       <c r="L178" t="n">
-        <v>0.109498479963056</v>
+        <v>0.1169225928720478</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08665600173518902</v>
+        <v>0.1833032799241626</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1547728229113642</v>
+        <v>0.174575480077353</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08662060561952073</v>
+        <v>0.1813169413142876</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05270358717606662</v>
+        <v>0.08560286411999252</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06102018160429001</v>
+        <v>0.1874820824968459</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05794193474585656</v>
+        <v>0.06018863034925918</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08827111632960859</v>
+        <v>0.1850619960646936</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1091543819383292</v>
+        <v>0.1174907589586944</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08742286900718184</v>
+        <v>0.1849254328438455</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1555557903775645</v>
+        <v>0.17597445689029</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0873871596515519</v>
+        <v>0.182921516016184</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05182561051326771</v>
+        <v>0.09027002515814114</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06101991307582598</v>
+        <v>0.1891266621678709</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05818020131473502</v>
+        <v>0.06104131401855867</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0890454243675876</v>
+        <v>0.1866853469073663</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1080059652702313</v>
+        <v>0.1181735820510604</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08818973627917466</v>
+        <v>0.1865475857635284</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1550282128556999</v>
+        <v>0.1776550787536151</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08815371368358305</v>
+        <v>0.1845260907180803</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05096719831727926</v>
+        <v>0.08595242115656213</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06101964454736197</v>
+        <v>0.1907712418388958</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05761461165137467</v>
+        <v>0.06148726980855036</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08981973240556662</v>
+        <v>0.1883086977500391</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1071539680695813</v>
+        <v>0.119041458496799</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08895660355116748</v>
+        <v>0.1881697386832112</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1535885874467781</v>
+        <v>0.1798747240113475</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0889202677156142</v>
+        <v>0.1861306654199767</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.05012888447610723</v>
+        <v>0.09062652255127551</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06101937601889795</v>
+        <v>0.1924158215099208</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05744484870569347</v>
+        <v>0.06201129460914963</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09059404044354565</v>
+        <v>0.1899320485927118</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1072991284471987</v>
+        <v>0.1200647846435637</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0897234708231603</v>
+        <v>0.1897918916028941</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1525354112518069</v>
+        <v>0.1800907710075063</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08968682174764536</v>
+        <v>0.187735240121873</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04931120287779627</v>
+        <v>0.08726879977830143</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06101910749043394</v>
+        <v>0.1940604011809458</v>
       </c>
       <c r="J183" t="n">
-        <v>0.05757059542760933</v>
+        <v>0.06199818531027179</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09136834848152468</v>
+        <v>0.1915553994353845</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1060421845139026</v>
+        <v>0.1211139568390076</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09049033809515312</v>
+        <v>0.1914140445225769</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1526671813717942</v>
+        <v>0.1819605980861108</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09045337577967652</v>
+        <v>0.1893398148237694</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04851468741035681</v>
+        <v>0.08785572327365992</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06101883896196991</v>
+        <v>0.1957049808519707</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05749153476704016</v>
+        <v>0.06243273880183221</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09214265651950371</v>
+        <v>0.1931787502780573</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1058838743805125</v>
+        <v>0.122159371430784</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09125720536714595</v>
+        <v>0.1930361974422598</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1515823949077476</v>
+        <v>0.1820415835911801</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09121992981170768</v>
+        <v>0.1909443895256657</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04773987196190279</v>
+        <v>0.08736376347337102</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0610185704335059</v>
+        <v>0.1973495605229957</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05690734967390393</v>
+        <v>0.06239975197374621</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09291696455748272</v>
+        <v>0.1948021011207301</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1051249361578475</v>
+        <v>0.1222714247665463</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09202407263913877</v>
+        <v>0.1946583503619427</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1526795489606748</v>
+        <v>0.1817969039427348</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09198648384373884</v>
+        <v>0.1925489642275621</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04698729042044369</v>
+        <v>0.08876939081345481</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06101830190504189</v>
+        <v>0.1989941401940206</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05661772309811854</v>
+        <v>0.06268802161329504</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09369127259546174</v>
+        <v>0.1964254519634028</v>
       </c>
       <c r="L186" t="n">
-        <v>0.104066107956727</v>
+        <v>0.1231316886300328</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0927909399111316</v>
+        <v>0.1962805032816255</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1503571406315836</v>
+        <v>0.1822665462422883</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09275303787576998</v>
+        <v>0.1941535389294584</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04625747667402413</v>
+        <v>0.0940547512446572</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06101803337657787</v>
+        <v>0.2006387198650456</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05672233798960194</v>
+        <v>0.06275136574080002</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09446558063344077</v>
+        <v>0.1980488028060756</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1039081278879701</v>
+        <v>0.1234498308366304</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09355780718312441</v>
+        <v>0.1979026562013083</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1514136670214818</v>
+        <v>0.1826261318193723</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09351959190780115</v>
+        <v>0.1957581136313548</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0455509646106585</v>
+        <v>0.08530107342771764</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06101776484811385</v>
+        <v>0.2022832995360706</v>
       </c>
       <c r="J188" t="n">
-        <v>0.05642087729827207</v>
+        <v>0.06321115866091288</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09523988867141979</v>
+        <v>0.1996721536487483</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1028517340623962</v>
+        <v>0.1233610467941951</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09432467445511725</v>
+        <v>0.1995248091209912</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1506476252313772</v>
+        <v>0.1840755038205253</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0942861459398323</v>
+        <v>0.1973626883332511</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04486828811845291</v>
+        <v>0.09054196989641122</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06101749631964983</v>
+        <v>0.2039278792070955</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0561130239740468</v>
+        <v>0.06316734442413123</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09601419670939881</v>
+        <v>0.2012955044914211</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1019976645908247</v>
+        <v>0.1239652275572805</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09509154172711005</v>
+        <v>0.2011469620406741</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1485575123622774</v>
+        <v>0.1845145053922858</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09505269997186346</v>
+        <v>0.1989672630351475</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04420780104257207</v>
+        <v>0.08577735405875847</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06101722779118581</v>
+        <v>0.2055724588781205</v>
       </c>
       <c r="J190" t="n">
-        <v>0.05619846096684411</v>
+        <v>0.06361986708095273</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09678850474737784</v>
+        <v>0.2029188553340938</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1019466575840746</v>
+        <v>0.1240622641804401</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09585840899910289</v>
+        <v>0.2027691149603569</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1477418255151903</v>
+        <v>0.1855429796811922</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09581925400389461</v>
+        <v>0.2005718377370438</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04355695701396734</v>
+        <v>0.08900713932278001</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0610169592627218</v>
+        <v>0.2072170385491455</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05567687122658192</v>
+        <v>0.06396867068187505</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09756281278535685</v>
+        <v>0.2045422061767666</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1002994511529653</v>
+        <v>0.1240520477182274</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09662527627109571</v>
+        <v>0.2043912678800398</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1478990617911236</v>
+        <v>0.1851607698337834</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09658580803592577</v>
+        <v>0.2021764124389402</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04291410987780651</v>
+        <v>0.09423123909649644</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06101669073425777</v>
+        <v>0.2088616182201704</v>
       </c>
       <c r="J192" t="n">
-        <v>0.05574793770317814</v>
+        <v>0.06351369927739581</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09833712082333587</v>
+        <v>0.2061655570194393</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1000567834083162</v>
+        <v>0.1246344692251957</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09739214354308853</v>
+        <v>0.2060134207997226</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1477277182910851</v>
+        <v>0.1861677189965978</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09735236206795693</v>
+        <v>0.2037809871408365</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04227979352219011</v>
+        <v>0.0924495667879284</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06101642220579376</v>
+        <v>0.2105061978911954</v>
       </c>
       <c r="J193" t="n">
-        <v>0.05540230850537729</v>
+        <v>0.06385489691801266</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0991114288613149</v>
+        <v>0.2077889078621121</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0998972116919804</v>
+        <v>0.1243094197558988</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09815901081508135</v>
+        <v>0.2076355737194055</v>
       </c>
       <c r="N193" t="n">
-        <v>0.145299324540297</v>
+        <v>0.1859636703161739</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09811891609998809</v>
+        <v>0.2053855618427328</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.04165454183513467</v>
+        <v>0.09066203580509641</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06101615367732974</v>
+        <v>0.2121507775622204</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05512934895582562</v>
+        <v>0.06409220765422326</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09988573689929392</v>
+        <v>0.2094122587047848</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09859562910977032</v>
+        <v>0.1245767903648899</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09892587808707419</v>
+        <v>0.2092577266390883</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1457839626616402</v>
+        <v>0.1859484669390503</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09888547013201925</v>
+        <v>0.2069901365446292</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04103888870468476</v>
+        <v>0.09586855955602117</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06101588514886573</v>
+        <v>0.2137953572332454</v>
       </c>
       <c r="J195" t="n">
-        <v>0.05503054139832937</v>
+        <v>0.06412557553652527</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1006600449372729</v>
+        <v>0.2110356095474576</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09835524227614684</v>
+        <v>0.1257364721067226</v>
       </c>
       <c r="M195" t="n">
-        <v>0.099692745359067</v>
+        <v>0.2108798795587712</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1450866324021427</v>
+        <v>0.1876219520117656</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0996520241640504</v>
+        <v>0.2085947112465256</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04043336801885889</v>
+        <v>0.09306905144872324</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0610156166204017</v>
+        <v>0.2154399369042703</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05410740903742603</v>
+        <v>0.06415494461541631</v>
       </c>
       <c r="K196" t="n">
-        <v>0.101434352975252</v>
+        <v>0.2126589603901303</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09787933508688412</v>
+        <v>0.1258883560359504</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1004596126310598</v>
+        <v>0.2125020324784541</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1424124074838464</v>
+        <v>0.1862839686808583</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1004185781960816</v>
+        <v>0.2101992859484219</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03983851366575441</v>
+        <v>0.08926342489122321</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06101534809193769</v>
+        <v>0.2170845165752953</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05396147507765305</v>
+        <v>0.06428025894139407</v>
       </c>
       <c r="K197" t="n">
-        <v>0.102208661013231</v>
+        <v>0.2142823112328031</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09637119143775669</v>
+        <v>0.1262323332071268</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1012264799030527</v>
+        <v>0.2141241853981369</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1416663616287936</v>
+        <v>0.1883343600928669</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1011851322281127</v>
+        <v>0.2118038606503183</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03925485953338934</v>
+        <v>0.09145159329154171</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06101507956347368</v>
+        <v>0.2187290962463203</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05369426272354785</v>
+        <v>0.06480146256495616</v>
       </c>
       <c r="K198" t="n">
-        <v>0.10298296905121</v>
+        <v>0.2159056620754758</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09603409522453854</v>
+        <v>0.1259682946748054</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1019933471750455</v>
+        <v>0.2157463383178198</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1400535685590264</v>
+        <v>0.1877729693943301</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1019516862601439</v>
+        <v>0.2134084353522146</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03868293950980831</v>
+        <v>0.08863347005769928</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06101481103500966</v>
+        <v>0.2203736759173452</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05360729517964793</v>
+        <v>0.0648184995366002</v>
       </c>
       <c r="K199" t="n">
-        <v>0.103757277089189</v>
+        <v>0.2175290129181486</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09457133034300413</v>
+        <v>0.1258961314935393</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1027602144470383</v>
+        <v>0.2173684912375026</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1396791019965873</v>
+        <v>0.1888996397317864</v>
       </c>
       <c r="O199" t="n">
-        <v>0.102718240292175</v>
+        <v>0.215013010054111</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03812328748303186</v>
+        <v>0.08880896859771661</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06101454250654564</v>
+        <v>0.2220182555883702</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05320209565049068</v>
+        <v>0.06453131390682391</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1045315851271681</v>
+        <v>0.2191523637608213</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09378618068892763</v>
+        <v>0.1265157347178824</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1035270817190311</v>
+        <v>0.2189906441571855</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1384480356635183</v>
+        <v>0.1893142142517742</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1034847943242062</v>
+        <v>0.2166175847560073</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03757643734115334</v>
+        <v>0.09197800231961428</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06101427397808162</v>
+        <v>0.2236628352593951</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0523801873406136</v>
+        <v>0.06483984972612493</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1053058931651471</v>
+        <v>0.2207757146034941</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0925819301580833</v>
+        <v>0.1264269954023879</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1042939489910239</v>
+        <v>0.2206127970768683</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1362654432818619</v>
+        <v>0.1892165361008323</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1042513483562373</v>
+        <v>0.2182221594579037</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03704292297219271</v>
+        <v>0.09614048463141286</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0610140054496176</v>
+        <v>0.2253074149304201</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05204309345455412</v>
+        <v>0.06534405104500086</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1060802012031261</v>
+        <v>0.2223990654461668</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09186186264624552</v>
+        <v>0.1269298046016094</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1050608162630168</v>
+        <v>0.2222349499965512</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1343363985736601</v>
+        <v>0.1884064484254991</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1050179023882685</v>
+        <v>0.2198267341598</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03652327826419461</v>
+        <v>0.09129632894113296</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06101373692115359</v>
+        <v>0.2269519946014451</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05129233719684967</v>
+        <v>0.06534386191394943</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1068545092411051</v>
+        <v>0.2240224162888396</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09112926204918848</v>
+        <v>0.1271240533701005</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1058276835350096</v>
+        <v>0.223857102916234</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1346659752609553</v>
+        <v>0.1882837943723132</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1057844564202997</v>
+        <v>0.2214313088616964</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03601803710518201</v>
+        <v>0.09144544865679521</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06101346839268956</v>
+        <v>0.22859657427247</v>
       </c>
       <c r="J204" t="n">
-        <v>0.05132944177203771</v>
+        <v>0.0654392263834682</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1076288172790842</v>
+        <v>0.2256457671315123</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09018741226268656</v>
+        <v>0.1269096327624145</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1065945508070024</v>
+        <v>0.2254792558359169</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1326592470657896</v>
+        <v>0.1895484170878132</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1065510104523308</v>
+        <v>0.2230358835635927</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03552773338324346</v>
+        <v>0.0895877571864202</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06101319986422555</v>
+        <v>0.230241153943495</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05045593038465573</v>
+        <v>0.0652300885040548</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1084031253170632</v>
+        <v>0.2272691179741851</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08983959718251383</v>
+        <v>0.127686433833105</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1073614180789952</v>
+        <v>0.2271014087555997</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1311212877102053</v>
+        <v>0.1889001597185376</v>
       </c>
       <c r="O205" t="n">
-        <v>0.107317564484362</v>
+        <v>0.2246404582654891</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03505290098640135</v>
+        <v>0.09772316793802854</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06101293133576154</v>
+        <v>0.2318857336145199</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05007332623924113</v>
+        <v>0.06571639232620703</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1091774333550422</v>
+        <v>0.2288924688168578</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08808910070444473</v>
+        <v>0.1281543476367254</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1081282853509881</v>
+        <v>0.2287235616752826</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1293571709162447</v>
+        <v>0.189238865411025</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1080841185163931</v>
+        <v>0.2262450329673854</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03459407380270025</v>
+        <v>0.09185159431964082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06101266280729752</v>
+        <v>0.2335303132855449</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04978315254033136</v>
+        <v>0.0654980819004224</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1099517413930212</v>
+        <v>0.2305158196595306</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08743920672425348</v>
+        <v>0.1271132652278292</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1088951526229809</v>
+        <v>0.2303457145949654</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1277719704059499</v>
+        <v>0.1906643773118138</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1088506725484243</v>
+        <v>0.2278496076692818</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0341517857201659</v>
+        <v>0.09797294973927767</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0610123942788335</v>
+        <v>0.2351748929565699</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04928693249246389</v>
+        <v>0.06567510127719862</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1107260494310002</v>
+        <v>0.2321391705022033</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08599319913771439</v>
+        <v>0.12786307766097</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1096620198949737</v>
+        <v>0.2319678675146483</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1260707599013634</v>
+        <v>0.1911765385674428</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1096172265804554</v>
+        <v>0.2294541823711781</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03372657062688143</v>
+        <v>0.09008714760495962</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06101212575036948</v>
+        <v>0.2368194726275948</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04888618930017617</v>
+        <v>0.06534739450703332</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1115003574689793</v>
+        <v>0.2337625213448761</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08495436184060162</v>
+        <v>0.1277036759907011</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1104288871669665</v>
+        <v>0.2335900204343312</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1236586131245271</v>
+        <v>0.1914751923244503</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1103837806124866</v>
+        <v>0.2310587570730745</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03331896241087186</v>
+        <v>0.09719410132470735</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06101185722190547</v>
+        <v>0.2384640522986198</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04838244616800565</v>
+        <v>0.06541490564042414</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1122746655069583</v>
+        <v>0.2353858721875488</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08382597872868963</v>
+        <v>0.1277349512715763</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1111957544389593</v>
+        <v>0.235212173354014</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1220406037974835</v>
+        <v>0.190160181729375</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1111503346445178</v>
+        <v>0.2326633317749708</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03292949496018179</v>
+        <v>0.09529372430654146</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06101158869344146</v>
+        <v>0.2401086319696448</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04797722630048976</v>
+        <v>0.06607757872786872</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1130489735449373</v>
+        <v>0.2370092230302216</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08321133369775252</v>
+        <v>0.1283567945581487</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1119626217109522</v>
+        <v>0.2368343262736969</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1205218056422747</v>
+        <v>0.1903313499287555</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1119168886765489</v>
+        <v>0.2342679064768672</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03255870216284015</v>
+        <v>0.09038592995848249</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06101132016497743</v>
+        <v>0.2417532116406697</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04697205290216594</v>
+        <v>0.0656353578198647</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1138232815829163</v>
+        <v>0.2386325738728943</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08261371064356463</v>
+        <v>0.128869096904972</v>
       </c>
       <c r="M212" t="n">
-        <v>0.112729488982945</v>
+        <v>0.2384564791933798</v>
       </c>
       <c r="N212" t="n">
-        <v>0.119707292380943</v>
+        <v>0.1914885400691303</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1126834427085801</v>
+        <v>0.2358724811787635</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03220711790692379</v>
+        <v>0.09147063168855113</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06101105163651342</v>
+        <v>0.2433977913116947</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04656844917757168</v>
+        <v>0.06618818696690983</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1145975896208954</v>
+        <v>0.2402559247155671</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08123639346190026</v>
+        <v>0.1285717493665997</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1134963562549378</v>
+        <v>0.2400786321130626</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1173021377355306</v>
+        <v>0.1922315952970379</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1134499967406112</v>
+        <v>0.2374770558806599</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03187527608046083</v>
+        <v>0.09354774290476792</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06101078310804939</v>
+        <v>0.2450423709827197</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04646793833124441</v>
+        <v>0.06583601021950163</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1153718976588744</v>
+        <v>0.2418792755582398</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08138266604853364</v>
+        <v>0.1286646429975851</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1142632235269306</v>
+        <v>0.2417007850327455</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1171114154280798</v>
+        <v>0.1920603587590168</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1142165507726424</v>
+        <v>0.2390816305825562</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03187527608046083</v>
+        <v>0.09061717701515348</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06101078310804939</v>
+        <v>0.2466869506537446</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04597204356772157</v>
+        <v>0.06597877162813783</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1161462056968534</v>
+        <v>0.2435026264009126</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07995581229923909</v>
+        <v>0.1280476688524819</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1150300907989235</v>
+        <v>0.2433229379524283</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1147401991806328</v>
+        <v>0.1922746736016059</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1149831048046735</v>
+        <v>0.2406862052844526</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03106701812625009</v>
+        <v>0.09367884742772842</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06097616351115247</v>
+        <v>0.2483315303247696</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04528228809154063</v>
+        <v>0.06631641524331607</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1169205137348324</v>
+        <v>0.2451259772435853</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07955911610979077</v>
+        <v>0.1281207179858435</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1157969580709163</v>
+        <v>0.2449450908721111</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1126935627152318</v>
+        <v>0.1922743829713434</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1157496588367047</v>
+        <v>0.2422907799863489</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03026725817648484</v>
+        <v>0.09573266755051335</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06094154391425553</v>
+        <v>0.2499761099957946</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04460019510723903</v>
+        <v>0.06624888511553394</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1176948217728114</v>
+        <v>0.2467493280862581</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07829586137596312</v>
+        <v>0.1294836814522234</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1165638253429091</v>
+        <v>0.246567243791794</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1111765797539191</v>
+        <v>0.1925593300147679</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1165162128687359</v>
+        <v>0.2438953546882453</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02947631360203439</v>
+        <v>0.09377855079152883</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06090692431735859</v>
+        <v>0.2516206896668195</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0441272878193542</v>
+        <v>0.06637612529528918</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1184691298107905</v>
+        <v>0.2483726789289308</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07766933199353029</v>
+        <v>0.1291364503061751</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1173306926149019</v>
+        <v>0.2481893967114769</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1105943240187369</v>
+        <v>0.1927293578784181</v>
       </c>
       <c r="O218" t="n">
-        <v>0.117282766900767</v>
+        <v>0.2454999293901416</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02869450177376878</v>
+        <v>0.09081641055879552</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06087230472046166</v>
+        <v>0.2532652693378445</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04386508943242359</v>
+        <v>0.06609807983307935</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1192434378487695</v>
+        <v>0.2499960297716036</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07718281185826659</v>
+        <v>0.1288789156022521</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1180975598868948</v>
+        <v>0.2498115496311597</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1086518692317275</v>
+        <v>0.1925843097088325</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1180493209327982</v>
+        <v>0.247104504092038</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02792214006255734</v>
+        <v>0.09684616026033396</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06083768512356473</v>
+        <v>0.2549098490088695</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04311512315098469</v>
+        <v>0.06631469277940212</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1200177458867485</v>
+        <v>0.2516193806142764</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07703958486594631</v>
+        <v>0.1284109683950078</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1188644271588876</v>
+        <v>0.2514337025508426</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1064542891149331</v>
+        <v>0.1915240286525495</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1188158749648293</v>
+        <v>0.2487090787939343</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0271595458392696</v>
+        <v>0.09786771330416483</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0608030655266678</v>
+        <v>0.2565544286798944</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0429789121795749</v>
+        <v>0.06622590818475517</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1207920539247275</v>
+        <v>0.2532427314569491</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07654293491234368</v>
+        <v>0.1285324997389958</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1196312944308804</v>
+        <v>0.2530558554705254</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1070066573903959</v>
+        <v>0.191348357856108</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1195824289968605</v>
+        <v>0.2503136534958307</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02640703647477483</v>
+        <v>0.09388098309830867</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06076844592977085</v>
+        <v>0.2581990083509194</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04245797972273171</v>
+        <v>0.06613167009963618</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1215663619627066</v>
+        <v>0.2548660822996218</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07489614589323301</v>
+        <v>0.1290434006887694</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1203981617028732</v>
+        <v>0.2546780083902083</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1048140477801582</v>
+        <v>0.1911571404660462</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1203489830288916</v>
+        <v>0.251918228197727</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02566492933994315</v>
+        <v>0.09888588305078616</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06073382633287392</v>
+        <v>0.2598435880219443</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04205384898499256</v>
+        <v>0.06581469952145612</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1223406700006856</v>
+        <v>0.2564894331422946</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07510250170438851</v>
+        <v>0.1288053622909486</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1211650289748661</v>
+        <v>0.2563001613098911</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1034815340062622</v>
+        <v>0.1922446730989001</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1211155370609228</v>
+        <v>0.2535228028996234</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02493354180564384</v>
+        <v>0.09177633140775615</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06069920673597699</v>
+        <v>0.2614881676929693</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04176804317089487</v>
+        <v>0.06585611699673806</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1231149780386646</v>
+        <v>0.2581127839849673</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07506528624158459</v>
+        <v>0.1283868780958859</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1219318962468589</v>
+        <v>0.257922314229574</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1020141897907501</v>
+        <v>0.1907817865199974</v>
       </c>
       <c r="O224" t="n">
-        <v>0.121882091092954</v>
+        <v>0.2551273776015197</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02421319124274641</v>
+        <v>0.09842461653575349</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06066458713908006</v>
+        <v>0.2631327473639942</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04130208548497612</v>
+        <v>0.06584758348873838</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1238892860766436</v>
+        <v>0.2597361348276401</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07378778340059533</v>
+        <v>0.1284771954153254</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1226987635188517</v>
+        <v>0.2595444671492569</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1011170888556643</v>
+        <v>0.1903164832321113</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1226486451249851</v>
+        <v>0.2567319523034161</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02350419502212044</v>
+        <v>0.0948568774052008</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06062996754218313</v>
+        <v>0.2647773270350193</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04065749913177376</v>
+        <v>0.06530654088456959</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1246635941146227</v>
+        <v>0.2613594856703128</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07427327707719522</v>
+        <v>0.127810277271272</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1234656307908445</v>
+        <v>0.2611666200689397</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1005953049230469</v>
+        <v>0.1890976612638706</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1234151991570163</v>
+        <v>0.2583365270053124</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02280687051463528</v>
+        <v>0.08910010849265326</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06059534794528618</v>
+        <v>0.2664219067060442</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04093580731582522</v>
+        <v>0.06435043107134426</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1254379021526017</v>
+        <v>0.2629828365129856</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07322505116715836</v>
+        <v>0.1263200866857308</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1242324980628373</v>
+        <v>0.2627887729886226</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09845391171494011</v>
+        <v>0.1877742186439041</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1241817531890474</v>
+        <v>0.2599411017072088</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0221215350911609</v>
+        <v>0.09618130427466604</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06056072834838926</v>
+        <v>0.2680664863770691</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04053853324166794</v>
+        <v>0.06379669593617494</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1262122101905807</v>
+        <v>0.2646061873556583</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07274638956625909</v>
+        <v>0.1243405866807069</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1249993653348302</v>
+        <v>0.2644109259083054</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09939798295338625</v>
+        <v>0.1841950534008409</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1249483072210786</v>
+        <v>0.2615456764091051</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02144850612256665</v>
+        <v>0.09512745922779423</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06052610875149232</v>
+        <v>0.2697110660480941</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0397672001138394</v>
+        <v>0.06316277736617415</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1269865182285597</v>
+        <v>0.2662295381983311</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07334057617027168</v>
+        <v>0.1228057402782052</v>
       </c>
       <c r="M229" t="n">
-        <v>0.125766232606823</v>
+        <v>0.2660330788279883</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09673259236042764</v>
+        <v>0.1828090635633093</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1257148612531097</v>
+        <v>0.2631502511110015</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02078810097972208</v>
+        <v>0.08996556782859297</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06049148915459539</v>
+        <v>0.2713556457191191</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03992318462477462</v>
+        <v>0.06246611724845451</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1277608262665387</v>
+        <v>0.2678528890410038</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07261032819337232</v>
+        <v>0.1217495105002308</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1265330998788158</v>
+        <v>0.2676552317476711</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0966622934637219</v>
+        <v>0.1796651471599388</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1264814152851409</v>
+        <v>0.2647548258128978</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02014063703349649</v>
+        <v>0.08572262455361743</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06045686955769845</v>
+        <v>0.273000225390144</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03979132774772205</v>
+        <v>0.06162415747012849</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1285351343045178</v>
+        <v>0.2694762398836766</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07321032819337234</v>
+        <v>0.1198058603687887</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1272999671508087</v>
+        <v>0.269277384667354</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09693209633150957</v>
+        <v>0.1769122022193576</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1272479693171721</v>
+        <v>0.2663594005147942</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0195064316547599</v>
+        <v>0.08442562387942265</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06042224996080152</v>
+        <v>0.274644805061169</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03956089301355152</v>
+        <v>0.06055433991830869</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1293094423424968</v>
+        <v>0.2710995907263493</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07281032819337233</v>
+        <v>0.119008752905884</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1280668344228015</v>
+        <v>0.2708995375870368</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0958032170709911</v>
+        <v>0.1752991267701949</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1280145233492032</v>
+        <v>0.2679639752166905</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01888580221438165</v>
+        <v>0.09010156028256391</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06038763036390458</v>
+        <v>0.276289384732194</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03913213759980243</v>
+        <v>0.05977410648010763</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1300837503804758</v>
+        <v>0.2727229415690221</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07291032819337231</v>
+        <v>0.1171921511335217</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1288337016947943</v>
+        <v>0.2725216905067197</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09587673231737254</v>
+        <v>0.1721748188410794</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1287810773812344</v>
+        <v>0.2695685499185869</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01827906608323126</v>
+        <v>0.07977742823959622</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06035301076700766</v>
+        <v>0.2779339644032189</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03880531868401403</v>
+        <v>0.05890089904263791</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1308580584184548</v>
+        <v>0.2743462924116948</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07301032819337233</v>
+        <v>0.1152900180737069</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1296005689667871</v>
+        <v>0.2741438434264025</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09545371870585989</v>
+        <v>0.1701881764606399</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1295476314132655</v>
+        <v>0.2711731246204832</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01768654063217832</v>
+        <v>0.07848022222707471</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06031839117011072</v>
+        <v>0.2795785440742439</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03888069344372568</v>
+        <v>0.05795215949301204</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1316323664564339</v>
+        <v>0.2759696432543676</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07311032819337232</v>
+        <v>0.1132363167484446</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1303674362387799</v>
+        <v>0.2757659963460854</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0939352528716591</v>
+        <v>0.1687880976575052</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1303141854452967</v>
+        <v>0.2727776993223796</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01710854323209216</v>
+        <v>0.07923693672155463</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06028377157321378</v>
+        <v>0.2812231237452689</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03835851905647669</v>
+        <v>0.05704532971834256</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1324066744944129</v>
+        <v>0.2775929940970404</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07371032819337234</v>
+        <v>0.1111650101797398</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1311343035107727</v>
+        <v>0.2773881492657683</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09392241144997621</v>
+        <v>0.1654234804603044</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1310807394773278</v>
+        <v>0.274382274024276</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01654539125384272</v>
+        <v>0.07707456619959105</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06024915197631685</v>
+        <v>0.2828677034162938</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03803905269980638</v>
+        <v>0.05629785160574204</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1331809825323919</v>
+        <v>0.2792163449397131</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07271032819337234</v>
+        <v>0.1110100613895977</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1319011707827656</v>
+        <v>0.2790103021854511</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09321627107601727</v>
+        <v>0.1631431155966506</v>
       </c>
       <c r="O237" t="n">
-        <v>0.131847293509359</v>
+        <v>0.2759868487261723</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01599740206829938</v>
+        <v>0.07701094372700251</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06021453237941992</v>
+        <v>0.2845122830873188</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03812255155125409</v>
+        <v>0.05620441116302428</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1339552905703709</v>
+        <v>0.2808396957823858</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07301032819337233</v>
+        <v>0.108758558041183</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1326680380547584</v>
+        <v>0.280632455105134</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09211790838498829</v>
+        <v>0.1612605216236471</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1326138475413901</v>
+        <v>0.2775914234280686</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01546489304633167</v>
+        <v>0.07896763957655065</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06017991278252299</v>
+        <v>0.2861568627583438</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03790927278835912</v>
+        <v>0.05531169189274084</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1347295986083499</v>
+        <v>0.2824630466250586</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07351032819337233</v>
+        <v>0.1075075995304917</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1334349053267512</v>
+        <v>0.2822546080248168</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09092840001209512</v>
+        <v>0.1594705728419099</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1333804015734213</v>
+        <v>0.279195998129965</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01494688562775832</v>
+        <v>0.07592035041872208</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06014529318562604</v>
+        <v>0.2878014424293687</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03749947358866078</v>
+        <v>0.0547163506173361</v>
       </c>
       <c r="K240" t="n">
-        <v>0.135503906646329</v>
+        <v>0.2840863974677313</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07271032819337234</v>
+        <v>0.1062515301686499</v>
       </c>
       <c r="M240" t="n">
-        <v>0.134201772598744</v>
+        <v>0.2838767609444997</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09054882259254393</v>
+        <v>0.1573731534101956</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1341469556054525</v>
+        <v>0.2808005728318614</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01443592159714518</v>
+        <v>0.0728690123026009</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06011067358872911</v>
+        <v>0.2894460221003937</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03729341112969842</v>
+        <v>0.05381834601633272</v>
       </c>
       <c r="K241" t="n">
-        <v>0.136278214684308</v>
+        <v>0.2857097483104041</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07291032819337231</v>
+        <v>0.1054902694959989</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1349686398707369</v>
+        <v>0.2854989138641826</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09088025276154066</v>
+        <v>0.1547681474872614</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1349135096374836</v>
+        <v>0.2824051475337577</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01393102239431097</v>
+        <v>0.07281356127727104</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06007605399183218</v>
+        <v>0.2910906017714187</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03749134258901135</v>
+        <v>0.05331763676925327</v>
       </c>
       <c r="K242" t="n">
-        <v>0.137052522722287</v>
+        <v>0.2873330991530768</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07281032819337233</v>
+        <v>0.1033237370528804</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1357355071427297</v>
+        <v>0.2871210667838654</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08962376715429127</v>
+        <v>0.1545554392318639</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1356800636695148</v>
+        <v>0.2840097222356541</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01343250539012525</v>
+        <v>0.07775393339181649</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06004143439493525</v>
+        <v>0.2927351814424436</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03689352514413889</v>
+        <v>0.05271418155562044</v>
       </c>
       <c r="K243" t="n">
-        <v>0.137826830760266</v>
+        <v>0.2889564499957496</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07271032819337234</v>
+        <v>0.1028518523796356</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1365023744147225</v>
+        <v>0.2887432197035482</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09018044240600176</v>
+        <v>0.1516349128027601</v>
       </c>
       <c r="O243" t="n">
-        <v>0.136446617701546</v>
+        <v>0.2856142969375504</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01294068795545739</v>
+        <v>0.07669006469532125</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06000681479803831</v>
+        <v>0.2943797611134686</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03710021597262034</v>
+        <v>0.05180793905495679</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1386011387982451</v>
+        <v>0.2905798008384223</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07341032819337232</v>
+        <v>0.1011745350166058</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1372692416867153</v>
+        <v>0.2903653726232311</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08915135515187816</v>
+        <v>0.149306452358707</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1372131717335771</v>
+        <v>0.2872188716394468</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01245588746117728</v>
+        <v>0.07362189123686935</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05997219520114137</v>
+        <v>0.2960243407844936</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03681167225199507</v>
+        <v>0.05089886794678498</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1393754468362241</v>
+        <v>0.2922031516810951</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07311032819337232</v>
+        <v>0.1000917045041326</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1380361089587082</v>
+        <v>0.291987525542914</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08903758202712658</v>
+        <v>0.1475699420584611</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1379797257656082</v>
+        <v>0.2888234463413431</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01197842127815432</v>
+        <v>0.06854934906554477</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05993757560424445</v>
+        <v>0.2976689204555185</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03662815115980235</v>
+        <v>0.05038692691062766</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1401497548742031</v>
+        <v>0.2938265025237678</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07351032819337233</v>
+        <v>0.09760328038255733</v>
       </c>
       <c r="M246" t="n">
-        <v>0.138802976230701</v>
+        <v>0.2936096784625968</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08784019966695283</v>
+        <v>0.1455252660607796</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1387462797976394</v>
+        <v>0.2904280210432394</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01150860677725803</v>
+        <v>0.07447237423043143</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05990295600734751</v>
+        <v>0.2993135001265435</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03604990987358155</v>
+        <v>0.04957207462600739</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1409240629121821</v>
+        <v>0.2954498533664406</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07331032819337233</v>
+        <v>0.09670918219222135</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1395698435026938</v>
+        <v>0.2952318313822797</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08666028470656306</v>
+        <v>0.1428723085244193</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1395128338296706</v>
+        <v>0.2920325957451358</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01104676132935799</v>
+        <v>0.07239090278061341</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05986833641045058</v>
+        <v>0.3009580797975684</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03577720557087194</v>
+        <v>0.04915426977244683</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1416983709501612</v>
+        <v>0.2970732042091133</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07331032819337233</v>
+        <v>0.0949093294734662</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1403367107746866</v>
+        <v>0.2968539843019625</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0868989137811631</v>
+        <v>0.141710953608137</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1402793878617017</v>
+        <v>0.2936371704470321</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01059320230532359</v>
+        <v>0.06330487076517469</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05983371681355364</v>
+        <v>0.3026026594685934</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03601029542921287</v>
+        <v>0.04813347102946859</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1424726789881402</v>
+        <v>0.2986965550517861</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07351032819337233</v>
+        <v>0.09390364176663313</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1411035780466794</v>
+        <v>0.2984761372216454</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08615716352595915</v>
+        <v>0.1394410854706895</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1410459418937329</v>
+        <v>0.2952417451489285</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01014824707602468</v>
+        <v>0.06821421423319918</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05979909721665671</v>
+        <v>0.3042472391396184</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03604943662614367</v>
+        <v>0.04710963707659534</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1432469870261192</v>
+        <v>0.3003199058944588</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07251032819337233</v>
+        <v>0.09309203861206361</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1418704453186723</v>
+        <v>0.3000982901413282</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0852361105761571</v>
+        <v>0.1365625882708338</v>
       </c>
       <c r="O250" t="n">
-        <v>0.141812495925764</v>
+        <v>0.2968463198508249</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.009712213012330669</v>
+        <v>0.06911886923377097</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05976447761975977</v>
+        <v>0.3058918188106434</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03569488633920363</v>
+        <v>0.04698272659334966</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1440212950640982</v>
+        <v>0.3019432567371316</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07341032819337232</v>
+        <v>0.09127443955009901</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1426373125906651</v>
+        <v>0.3017204430610111</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08623683156696305</v>
+        <v>0.1360753461673268</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1425790499577952</v>
+        <v>0.2984508945527212</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.009285417485111108</v>
+        <v>0.06201877181597402</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05972985802286285</v>
+        <v>0.3075363984816683</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03574690174593209</v>
+        <v>0.04625269825925417</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1447956031020772</v>
+        <v>0.3035666075798044</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07371032819337234</v>
+        <v>0.08935076412108078</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1434041798626579</v>
+        <v>0.303342595980694</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08416040313358281</v>
+        <v>0.1334792433189252</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1433456039898263</v>
+        <v>0.3000554692546176</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008868177865235409</v>
+        <v>0.06191385802889226</v>
       </c>
       <c r="G253" t="n">
-        <v>0.0596952384259659</v>
+        <v>0.3091809781526933</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03500574002386839</v>
+        <v>0.04511951075383151</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1455699111400563</v>
+        <v>0.3051899584224771</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07351032819337233</v>
+        <v>0.08752093186535037</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1441710471346507</v>
+        <v>0.3049647489003768</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08500790191122259</v>
+        <v>0.131474163884386</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1441121580218575</v>
+        <v>0.3016600439565139</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008460811523573405</v>
+        <v>0.0598040639216098</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05966061882906897</v>
+        <v>0.3108255578237182</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03507165835055182</v>
+        <v>0.04438312275660435</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1463442191780353</v>
+        <v>0.3068133092651498</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07321032819337234</v>
+        <v>0.08728486232324903</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1449379144066436</v>
+        <v>0.3065869018200597</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08368040453508824</v>
+        <v>0.1290599920224662</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1448787120538887</v>
+        <v>0.3032646186584103</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.008063635830994509</v>
+        <v>0.05868932554321054</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05962599923217204</v>
+        <v>0.3124701374947432</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03484491390352172</v>
+        <v>0.04364349294709521</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1471185272160143</v>
+        <v>0.3084366601078226</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07331032819337233</v>
+        <v>0.08554247503511825</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1457047816786364</v>
+        <v>0.3082090547397425</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08377898764038577</v>
+        <v>0.1276366118919223</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1456452660859198</v>
+        <v>0.3048691933603066</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007676968158368262</v>
+        <v>0.05956957894277847</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05959137963527511</v>
+        <v>0.3141147171657682</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03512576386031738</v>
+        <v>0.04310058000482678</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1478928352539933</v>
+        <v>0.3100600109504953</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07291032819337231</v>
+        <v>0.08359368954129945</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1464716489506292</v>
+        <v>0.3098312076594254</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08320472786232136</v>
+        <v>0.1254039076515115</v>
       </c>
       <c r="O256" t="n">
-        <v>0.146411820117951</v>
+        <v>0.3064737680622029</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00730112587656423</v>
+        <v>0.05644476016939765</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05955676003837818</v>
+        <v>0.3157592968367931</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03491446539847816</v>
+        <v>0.04235434260932169</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1486671432919724</v>
+        <v>0.3116833617931681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07371032819337234</v>
+        <v>0.08293842538213406</v>
       </c>
       <c r="M257" t="n">
-        <v>0.147238516222622</v>
+        <v>0.3114533605791082</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08435870183610084</v>
+        <v>0.1214617634599905</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1471783741499821</v>
+        <v>0.3080783427640993</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006936426356451829</v>
+        <v>0.05331480527215204</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05952214044148123</v>
+        <v>0.3174038765078181</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03471127569554336</v>
+        <v>0.04170473944010256</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1494414513299514</v>
+        <v>0.3133067126358409</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07331032819337233</v>
+        <v>0.08067660209796337</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1480053834946149</v>
+        <v>0.313075513498791</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08434198619693023</v>
+        <v>0.1193100634761162</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1479449281820133</v>
+        <v>0.3096829174659956</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006583186968900874</v>
+        <v>0.0591796503001256</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0594875208445843</v>
+        <v>0.3190484561788431</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03491645192905229</v>
+        <v>0.04095172917669203</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1502157593679304</v>
+        <v>0.3149300634785136</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07351032819337233</v>
+        <v>0.07930813922912891</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1487722507666077</v>
+        <v>0.3146976664184739</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08345565758001555</v>
+        <v>0.1171486918586455</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1487114822140445</v>
+        <v>0.311287492167892</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006241725084780783</v>
+        <v>0.06003923130240236</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05945290124768737</v>
+        <v>0.320693035849868</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03463025127654432</v>
+        <v>0.03979527049861264</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1509900674059094</v>
+        <v>0.3165534143211863</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07291032819337231</v>
+        <v>0.07733295631597195</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1495391180386005</v>
+        <v>0.3163198193381568</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08400079262056281</v>
+        <v>0.1150775327663353</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1494780362460756</v>
+        <v>0.3128920668697884</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005912358074961106</v>
+        <v>0.05089348432806628</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05941828165079044</v>
+        <v>0.322337615520893</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03445293091555875</v>
+        <v>0.03923532208538712</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1517643754438884</v>
+        <v>0.3181767651638591</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07381032819337233</v>
+        <v>0.07675097289883398</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1503059853105933</v>
+        <v>0.3179419722578397</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08387846795377801</v>
+        <v>0.1144964703579424</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1502445902781067</v>
+        <v>0.3144966415716847</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005595403310311289</v>
+        <v>0.05274234542620137</v>
       </c>
       <c r="G262" t="n">
-        <v>0.0593836620538935</v>
+        <v>0.323982195191918</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03458474802363483</v>
+        <v>0.03867184261653803</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1525386834818675</v>
+        <v>0.3198001160065319</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07331032819337233</v>
+        <v>0.07446210851805643</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1510728525825862</v>
+        <v>0.3195641251775225</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08318976021486718</v>
+        <v>0.1106053887922237</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1510111443101379</v>
+        <v>0.3161012162735811</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005291178161701111</v>
+        <v>0.05458575064589163</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05934904245699656</v>
+        <v>0.3256267748629429</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03422595977831198</v>
+        <v>0.03790479077158804</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1533129915198465</v>
+        <v>0.3214234668492046</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07301032819337233</v>
+        <v>0.07356628271398064</v>
       </c>
       <c r="M263" t="n">
-        <v>0.151839719854579</v>
+        <v>0.3211862780972053</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08363574603903623</v>
+        <v>0.109804172227936</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1517776983421691</v>
+        <v>0.3177057909754774</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.04842363603622104</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05931442286009964</v>
+        <v>0.3272713545339679</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03407682335712946</v>
+        <v>0.03713412523005974</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1540872995578255</v>
+        <v>0.3230468176918773</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07251032819337233</v>
+        <v>0.07186341502694804</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1526065871265718</v>
+        <v>0.3228084310168882</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08291750206149123</v>
+        <v>0.1075927048238363</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1525442523742002</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05930126496536279</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005821726433010224</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0593015334938268</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.00663919352115467</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05930180202229082</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007452357142281631</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05930207055075484</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008261173174133295</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05930233907921886</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.009065597494558146</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05930260760768287</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009865585981369163</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05930287613614688</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01066109451241388</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05930314466461091</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01145207896543601</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05930341319307492</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01223849521828327</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05930368172153894</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01302029914876867</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05930395025000296</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01379744663473888</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05930421877846698</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01456989355393928</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.059304487306931</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01533759578421676</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05930475583539501</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01610050920338432</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05930502436385902</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01685858968928781</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05930529289232305</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01761179311967426</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05930556142078706</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01836007537238974</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05930582994925108</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01910339232524724</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05930609847771509</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01984169985609178</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05930636700617912</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.02057495384267206</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05930663553464313</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02130311016283335</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05930690406310715</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.0220261246943886</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05930717259157117</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02274395331518193</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05930744112003519</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02345655190296387</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05930770964849921</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02416405650117572</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05930797817696322</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02486750398121227</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05930824670542723</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02556703038651385</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05930851523389126</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02626259159483251</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05930878376235527</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02695414348401181</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05930905229081929</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02764164193186471</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.0593093208192833</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02832504281623387</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05930958934774733</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02900430201487279</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05930985787621134</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02967937540562426</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05931012640467535</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.03035021886630133</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05931039493313937</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.03101678827474582</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05931066346160339</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.03167903950871279</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05931093199006741</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03233692844604424</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05931120051853143</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03299041096455325</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05931146904699544</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03363944294208087</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05931173757545947</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03428398025638365</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05931200610392348</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03492397878530291</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05931227463238749</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03555939440665163</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05931254316085151</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03619018299827016</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05931281168931554</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03681630043791654</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05931308021777955</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03743770260343138</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05931334874624356</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03805434537262763</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05931361727470758</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03866618462334481</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0593138858031716</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03927317623334264</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05931415433163562</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03987527608046084</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05931442286009964</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03987527608046084</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05930126496536279</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.04056222101848791</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05933642161918776</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.04124345291750025</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05937157827301272</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.04191884805333223</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05940673492683769</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.04258828270181744</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05944189158066266</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04325163313878971</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05947704823448764</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04390877564008271</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.0595122048883126</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04455958648153072</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05954736154213756</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04520394193896738</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05958251819596254</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04584171828822631</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.0596176748497875</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04647279180514181</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05965283150361247</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04709703876554752</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05968798815743744</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04771433544527728</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05972314481126242</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04832455812016472</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05975830146508737</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04892758306604416</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05979345811891235</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04952328655874919</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05982861477273732</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.05011154487411348</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05986377142656227</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.05069223428797131</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05989892808038725</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.05126523107615629</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05993408473421222</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.05183041151450232</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05996924138803719</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.05238765187884303</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06000439804186215</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.05293682844501265</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06003955469568713</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.05347781748884486</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.0600747113495121</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.05401049528617331</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06010986800333706</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.05453473811283224</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06014502465716203</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.05505092745166706</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.060180181310987</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.05556197082058228</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06021533796481197</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.05606824970242328</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06025049461863694</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.05656964037302433</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.0602856512724619</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.05706601910821905</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06032080792628688</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05755726218384116</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06035596458011184</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05804324587572483</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06039112123393681</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05852384645970374</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06042627788776178</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05899894021161178</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06046143454158676</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05946840340728261</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06049659119541171</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05993211232255041</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06053174784923668</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.06038994323324887</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06056690450306166</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.06084177241521169</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06060206115688662</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.06128747614427304</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06063721781071159</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.06172693069626659</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06067237446453656</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.06216001234702625</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06070753111836153</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.06258659737238567</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06074268777218649</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.063006562048179</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06077784442601147</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.06341978265024001</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06081300107983643</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.06382613545440233</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.0608481577336614</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.06422549673650013</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06088331438748637</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.06461774277236715</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06091847104131134</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.06500274983783719</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06095362769513631</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.065380394208744</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06098878434896127</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.06575055216092165</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06102394100278624</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.06575055216092168</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06102394100278624</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.06744574780102083</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06270662499791742</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.06907945630505666</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06438930899304859</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.07065135217655399</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06607199298817977</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.07216110991903768</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06775467698331095</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.07360840403603258</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06943736097844211</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.07499290903106362</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07112004497357328</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.07631429940765561</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07280272896870446</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.0775722496693334</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07448541296383564</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.07876643431962188</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07616809695896681</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.07989652786204593</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07785078095409799</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.08096220480013039</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07953346494922915</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.08196313963740007</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08121614894436033</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.08289900687737994</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.0828988329394915</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.08376948102359477</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08458151693462268</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.08457423657956947</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08626420092975386</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.08531294804882888</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08794688492488503</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0859852899348979</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08962956892001621</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.08659093674130131</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09131225291514737</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.08712956297156407</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09299493691027855</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.08760084312921099</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09467762090540972</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.08800445171776691</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0963603049005409</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.08834006324075677</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09804298889567208</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.0886073522017054</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09972567289080325</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.08880599310413759</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1014083568859344</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.08900073621456225</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1030910408810656</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.0889960287475523</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1047737248761968</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.08897453312986428</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1064564088713279</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.08883022020057507</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1081390928664591</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.08856785713133472</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1098217768615903</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.08819655612496033</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1115044608567215</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.08772542938426925</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1131871448518526</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.08716358911207861</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1148698288469838</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.08652014751120579</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.116552512842115</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.08580421678446792</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1182351968372462</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.08502490913468233</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1199178808323773</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.08419133676466617</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1216005648275085</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.08331261187723676</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1232832488226397</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.08239784667521133</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1249659328177709</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.08145615336140713</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.126648616812902</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.08049664413864135</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1283313008080332</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.07952843120973133</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1300139848031644</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.0785606267774942</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1316966687982956</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.07760234304474731</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1333793527934267</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.07666269221430783</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1350620367885579</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.07575078648899303</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1367447207836891</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.07487573807162015</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1384274047788203</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.07404665916500647</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1401100887739514</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.07327266197196916</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1417927727690826</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.07256285869532555</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1434754567642138</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.07192636153789284</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.145158140759345</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.07132809738008514</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1468408247544761</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.07070975883212505</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1485235087496073</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.07007445843049473</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.06942583231796406</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1518888767398697</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.06876751663730288</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1535715607350008</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.06810314753128097</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.155254244730132</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.06743636114266818</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1569369287252632</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.06677079361423435</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1586196127203943</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.06611008108874936</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1603022967155255</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.06545785970898296</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1619849807106567</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.06481776561770503</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1636676647057879</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.06419343495768537</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1653503487009191</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.06358850387169382</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1670330326960502</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.06300660850250023</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1687157166911814</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.06245138499287444</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1703984006863126</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.06192646948558626</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1720810846814438</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.06143549812340552</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1737637686765749</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.06098210704910207</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1754464526717061</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.06056993240544572</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1771291366668373</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.06020261033520632</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1788118206619684</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.05988377698115369</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1804945046570996</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.05961706848605764</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1821771886522308</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.05940612099268807</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.183859872647362</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.05925457064381475</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1855425566424931</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.05916605358220755</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1872252406376243</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.05914305694553147</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1889079246327555</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.05914346899289082</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1905906086278867</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.05914565859473177</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1922732926230178</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.05915113026698231</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.193955976618149</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.05916138852557042</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1956386606132802</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.05917793788642411</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1973213446084114</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.05920228286547135</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1990040286035425</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.05923592797864016</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2006867125986737</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.05928037774185849</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2023693965938049</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.05933713667105437</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2040520805889361</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.05940770928215577</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2057347645840672</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.05949360009109069</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2074174485791984</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.05959631361378711</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2091001325743296</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.05971735436617304</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2107828165694608</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.05985822686417646</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2124655005645919</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.06002043562372535</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2141481845597231</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.06020548516074773</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2158308685548543</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.06041487999117157</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2175135525499855</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.06065012463092486</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2191962365451166</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.06091272359593559</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2208789205402478</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.06120418140213178</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.222561604535379</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.06152600256544139</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2242442885305102</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.06187969160179242</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2259269725256414</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.06226675302711285</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2276096565207725</v>
-      </c>
-    </row>
+        <v>0.3193103656773738</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1063.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.01188372335650858</v>
+        <v>0.004245406272779841</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001644579671024964</v>
+        <v>0.0005290822829971455</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.01193761183640102</v>
+        <v>0.01829268000000001</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001623350842672751</v>
+        <v>0.002728203058208956</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02618029725344911</v>
+        <v>0.03665241615482875</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.00143592822682141</v>
+        <v>0.001953404248185352</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.03914633999999995</v>
+        <v>0.05647069789031262</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00148271905337443</v>
+        <v>0.00200794869163968</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.02367571797016289</v>
+        <v>0.008421164286034288</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003289159342049929</v>
+        <v>0.001058164565994291</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01829268000000001</v>
+        <v>0.02293077112577284</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.002728203058208956</v>
+        <v>0.004037246964853951</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.04050004002727536</v>
+        <v>0.05661299576095566</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00324430583936571</v>
+        <v>0.004011891396361619</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.07905512744703602</v>
+        <v>0.08400097990073041</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003209149403792701</v>
+        <v>0.004011451842443151</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.02773456035760375</v>
+        <v>0.01245762578023792</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00413638200557247</v>
+        <v>0.001587246848991436</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0257087507015298</v>
+        <v>0.0293974002669372</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004870052528018251</v>
+        <v>0.006055870447280925</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0513823618298074</v>
+        <v>0.06545074313362279</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004866458759048566</v>
+        <v>0.005813703119599262</v>
       </c>
       <c r="N68" s="171" t="n">
         <v>0.09736327222467689</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004448157160123291</v>
+        <v>0.005769967504711722</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.03012635257643927</v>
+        <v>0.01628514249586537</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006578318684099857</v>
+        <v>0.002116329131988582</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02954311783337076</v>
+        <v>0.03353821404256867</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006493403370691002</v>
+        <v>0.008336582184586253</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.05940010914363442</v>
+        <v>0.06786997711821563</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006488611678731421</v>
+        <v>0.008023782792723238</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1090983642569743</v>
+        <v>0.1019890050424268</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006418298807585402</v>
+        <v>0.008022903684886302</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02773456035760375</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.04053163432766049</v>
+        <v>0.01983406617339122</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008222898355124819</v>
+        <v>0.002645411414985728</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.03353821404256867</v>
+        <v>0.03455447931271051</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008184609174626867</v>
+        <v>0.01009311741213488</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.06545074313362279</v>
+        <v>0.07119284133208442</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007946222499637737</v>
+        <v>0.01002972849090405</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1197556774937798</v>
+        <v>0.1071194361099708</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008022873509481753</v>
+        <v>0.01002862960610788</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.04434883661601754</v>
+        <v>0.02303474855329005</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009867478026149784</v>
+        <v>0.003174493697982873</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03588779511485024</v>
+        <v>0.03628581034905042</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009740105056036502</v>
+        <v>0.01211174089456185</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.07098437964450174</v>
+        <v>0.07518516450218959</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009732917518097132</v>
+        <v>0.01203567418908486</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1283984670755505</v>
+        <v>0.1106087567191817</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009627448211378103</v>
+        <v>0.01203435552732945</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04593530601628546</v>
+        <v>0.0258175413760365</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01151205769717475</v>
+        <v>0.003703575980980019</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03903678305136787</v>
+        <v>0.03741755287980701</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01136345589870925</v>
+        <v>0.01413036437698883</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.07700266445912266</v>
+        <v>0.07675667604050654</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01135507043777999</v>
+        <v>0.01404161988726567</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.1370153886207519</v>
+        <v>0.1141713251445519</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01123202291327445</v>
+        <v>0.01404008144855103</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.04992220864368676</v>
+        <v>0.02773456035760375</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01240914601671741</v>
+        <v>0.00413638200557247</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.04165024329008343</v>
+        <v>0.03865320360150459</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.012986806741382</v>
+        <v>0.0161489878594158</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.08241279509783372</v>
+        <v>0.07901710535901069</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01297722335746284</v>
+        <v>0.01604756558544648</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1418950977478502</v>
+        <v>0.1178214996605731</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0128365976151708</v>
+        <v>0.0160458073697726</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.04739067297961593</v>
+        <v>0.03019433990749117</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01480121703922468</v>
+        <v>0.00476174054697431</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.043920101322746</v>
+        <v>0.04029625921066751</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01461015758405476</v>
+        <v>0.01816761134184278</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.08670544274739111</v>
+        <v>0.08207618186967736</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.0145993762771457</v>
+        <v>0.01805351128362728</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1492262500753112</v>
+        <v>0.1221736385417377</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01444117231706716</v>
+        <v>0.01805153329099418</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.05918570179763535</v>
+        <v>0.03218615674272859</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01644579671024964</v>
+        <v>0.005290822829971456</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04633828264110468</v>
+        <v>0.04115021640382013</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.0162335084267275</v>
+        <v>0.02018623482426975</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.09187127859455096</v>
+        <v>0.08464363498448202</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01622152919682856</v>
+        <v>0.02005945698180809</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1542975012216007</v>
+        <v>0.1242421000625375</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01604574701896351</v>
+        <v>0.02005725921221575</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.06295882415636767</v>
+        <v>0.03409383340519671</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01809037638127461</v>
+        <v>0.005819905112968601</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04889671273690861</v>
+        <v>0.04241857187748675</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01785685926940025</v>
+        <v>0.02220485830669673</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.09580097382606934</v>
+        <v>0.08652919411539997</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01784368211651141</v>
+        <v>0.0220654026799889</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1589975068051847</v>
+        <v>0.1281412424974648</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01765032172085985</v>
+        <v>0.02206298513343733</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.05766597400515069</v>
+        <v>0.03591518779547179</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01973495605229957</v>
+        <v>0.006348987395965746</v>
       </c>
       <c r="J77" t="n">
-        <v>0.05098731710190683</v>
+        <v>0.04310482232819171</v>
       </c>
       <c r="K77" t="n">
-        <v>0.019480210112073</v>
+        <v>0.0242234817891237</v>
       </c>
       <c r="L77" t="n">
-        <v>0.09988519962870235</v>
+        <v>0.08824258867440662</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01946583503619426</v>
+        <v>0.02407134837816971</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1620149224445289</v>
+        <v>0.1300854241210116</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01925489642275621</v>
+        <v>0.02406871105465891</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0662630852933222</v>
+        <v>0.0376480378141301</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02137953572332453</v>
+        <v>0.006878069678962892</v>
       </c>
       <c r="J78" t="n">
-        <v>0.05310202122784845</v>
+        <v>0.04451246445245935</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02110356095474576</v>
+        <v>0.02624210527155068</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1033146271892061</v>
+        <v>0.08849354807347745</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02108798795587712</v>
+        <v>0.02607729407635052</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1652384037580995</v>
+        <v>0.13248900320767</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02085947112465256</v>
+        <v>0.02607443697588048</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.06970609197022001</v>
+        <v>0.03929020136174789</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0230241153943495</v>
+        <v>0.007407151961960038</v>
       </c>
       <c r="J79" t="n">
-        <v>0.05453275060648259</v>
+        <v>0.04514499494681402</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02272691179741851</v>
+        <v>0.02826072875397765</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1076799276943367</v>
+        <v>0.09119180172458774</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02271014087555998</v>
+        <v>0.02808323977453133</v>
       </c>
       <c r="N79" t="n">
-        <v>0.168056606364362</v>
+        <v>0.1347663380319321</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02246404582654891</v>
+        <v>0.02808016289710206</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.06795092798518196</v>
+        <v>0.04083949633890136</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02466869506537446</v>
+        <v>0.007936234244957183</v>
       </c>
       <c r="J80" t="n">
-        <v>0.05597143072955833</v>
+        <v>0.04620591050778004</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02435026264009126</v>
+        <v>0.03027935223640463</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1099717723308504</v>
+        <v>0.09244707903971289</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02433229379524283</v>
+        <v>0.03008918547271214</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1713581858817825</v>
+        <v>0.1357317868682899</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02406862052844526</v>
+        <v>0.03008588881832363</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.07495352728754584</v>
+        <v>0.04229374064616685</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02631327473639943</v>
+        <v>0.008465316527954328</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0577099870888248</v>
+        <v>0.04689870783188174</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02597361348276401</v>
+        <v>0.0322979757188316</v>
       </c>
       <c r="L81" t="n">
-        <v>0.112580832285503</v>
+        <v>0.09346910943082826</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02595444671492568</v>
+        <v>0.03209513117089295</v>
       </c>
       <c r="N81" t="n">
-        <v>0.173332500038259</v>
+        <v>0.1375997079912356</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02567319523034161</v>
+        <v>0.03209161473954521</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.07766982382664941</v>
+        <v>0.04365075218412055</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02795785440742439</v>
+        <v>0.008994398810951473</v>
       </c>
       <c r="J82" t="n">
-        <v>0.05854034517603106</v>
+        <v>0.04742688361564347</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02759696432543676</v>
+        <v>0.03431659920125858</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1151977787450509</v>
+        <v>0.09366762230990933</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02757659963460854</v>
+        <v>0.03410107686907377</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1753050842496543</v>
+        <v>0.1403844596752612</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02727776993223796</v>
+        <v>0.03409734066076679</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.07705575155183053</v>
+        <v>0.04490834885333871</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02960243407844936</v>
+        <v>0.00952348109394862</v>
       </c>
       <c r="J83" t="n">
-        <v>0.05925443121230482</v>
+        <v>0.04749393455558956</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02922031516810951</v>
+        <v>0.03633522268368555</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1158167719281519</v>
+        <v>0.09425234708893138</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0291987525542914</v>
+        <v>0.03610702256725457</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1783121419954679</v>
+        <v>0.1415004001948588</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02888234463413431</v>
+        <v>0.03610306658198836</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.08006724441242696</v>
+        <v>0.0460643485543976</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03124701374947432</v>
+        <v>0.01005256337694577</v>
       </c>
       <c r="J84" t="n">
-        <v>0.06014866091535431</v>
+        <v>0.04800335734824436</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03084366601078226</v>
+        <v>0.03835384616611253</v>
       </c>
       <c r="L84" t="n">
-        <v>0.118060304565024</v>
+        <v>0.0959330131798698</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03082090547397425</v>
+        <v>0.03811296826543538</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1799393286526113</v>
+        <v>0.1428618878245205</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03048691933603066</v>
+        <v>0.03810879250320993</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.08166023635777653</v>
+        <v>0.04711656918787348</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03289159342049928</v>
+        <v>0.01058164565994291</v>
       </c>
       <c r="J85" t="n">
-        <v>0.06082032530611227</v>
+        <v>0.04845864869013219</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03246701685345501</v>
+        <v>0.04037246964853951</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1187585409620237</v>
+        <v>0.09601934999470013</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03244305839365711</v>
+        <v>0.04011891396361619</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1820722995979964</v>
+        <v>0.1424832808387384</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03209149403792701</v>
+        <v>0.04011451842443151</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0878924471482283</v>
+        <v>0.04806282865434259</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03453617309152425</v>
+        <v>0.01111072794294006</v>
       </c>
       <c r="J86" t="n">
-        <v>0.06176430766916921</v>
+        <v>0.04926330527777739</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03409036769612776</v>
+        <v>0.04239109313096648</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1206015177982714</v>
+        <v>0.09652108694539757</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03406521131333996</v>
+        <v>0.042124859661797</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1834967102085347</v>
+        <v>0.1446789375120045</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03369606873982336</v>
+        <v>0.04212024434565308</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.08206786617896239</v>
+        <v>0.04890094485438119</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03618075276254921</v>
+        <v>0.0116398102259372</v>
       </c>
       <c r="J87" t="n">
-        <v>0.06287549128911564</v>
+        <v>0.04952082380770431</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03571371853880051</v>
+        <v>0.04440971661339346</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1221792717528876</v>
+        <v>0.09784795344393765</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03568736423302282</v>
+        <v>0.04413080535997781</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1850982158611379</v>
+        <v>0.144463216118811</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03530064344171971</v>
+        <v>0.04412597026687466</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.08520345492299303</v>
+        <v>0.04992220864368676</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03782533243357417</v>
+        <v>0.01240914601671741</v>
       </c>
       <c r="J88" t="n">
-        <v>0.06304875945054209</v>
+        <v>0.05003470097643725</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03733706938147326</v>
+        <v>0.04642834009582043</v>
       </c>
       <c r="L88" t="n">
-        <v>0.124081839504993</v>
+        <v>0.09790967890229563</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03730951715270567</v>
+        <v>0.04613675105815861</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1867624719327178</v>
+        <v>0.1455504749336499</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03690521814361606</v>
+        <v>0.04613169618809623</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.08529129433731353</v>
+        <v>0.05026000306301453</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03946991210459914</v>
+        <v>0.01269797479193149</v>
       </c>
       <c r="J89" t="n">
-        <v>0.06367899543803905</v>
+        <v>0.05020843348050055</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03896042022414601</v>
+        <v>0.0484469635782474</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1252992577337079</v>
+        <v>0.09851599273244688</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03893167007238853</v>
+        <v>0.04814269675633943</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1883751338001862</v>
+        <v>0.1470550722310133</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03850979284551241</v>
+        <v>0.04813742210931781</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.09132346537891736</v>
+        <v>0.05087364414874655</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04111449177562411</v>
+        <v>0.01322705707492864</v>
       </c>
       <c r="J90" t="n">
-        <v>0.06426108253619704</v>
+        <v>0.05054551801641861</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04058377106681876</v>
+        <v>0.05046558706067438</v>
       </c>
       <c r="L90" t="n">
-        <v>0.125521563118153</v>
+        <v>0.09867662434636698</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04055382299207139</v>
+        <v>0.05014864245452024</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1906218568404544</v>
+        <v>0.1458913662853933</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04011436754740876</v>
+        <v>0.05014314803053939</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.09029204900479784</v>
+        <v>0.05148060283136218</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04275907144664907</v>
+        <v>0.01375613935792578</v>
       </c>
       <c r="J91" t="n">
-        <v>0.06528990402960662</v>
+        <v>0.05034945128071569</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04220712190949152</v>
+        <v>0.05248421054310135</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1263387923374489</v>
+        <v>0.09900144034164271</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04217597591175424</v>
+        <v>0.05215458815270104</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1905882964304344</v>
+        <v>0.1471739959084816</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04171894224930511</v>
+        <v>0.05214887395176096</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.09518912617194841</v>
+        <v>0.05208083681389174</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04440365111767403</v>
+        <v>0.01428522164092293</v>
       </c>
       <c r="J92" t="n">
-        <v>0.06526034320285824</v>
+        <v>0.05102374232035123</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04383047275216426</v>
+        <v>0.05450283402552833</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1274409820707159</v>
+        <v>0.09880949657148624</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0437981288314371</v>
+        <v>0.05416053385088185</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1917601079470378</v>
+        <v>0.1486319708189031</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04332351695120146</v>
+        <v>0.05415459987298254</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.08900677783736247</v>
+        <v>0.0526743037993655</v>
       </c>
       <c r="G93" t="n">
-        <v>0.046048230788699</v>
+        <v>0.01481430392392008</v>
       </c>
       <c r="J93" t="n">
-        <v>0.06616728334054249</v>
+        <v>0.05078295269634936</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04545382359483702</v>
+        <v>0.05652145750795531</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1283181689970746</v>
+        <v>0.09960916432802436</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04542028175111995</v>
+        <v>0.05616647954906267</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1936229467671762</v>
+        <v>0.1490774650931798</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04492809165309782</v>
+        <v>0.05616032579420412</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0977370849580334</v>
+        <v>0.05326096149081379</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04769281045972396</v>
+        <v>0.01534338620691722</v>
       </c>
       <c r="J94" t="n">
-        <v>0.06590560772724983</v>
+        <v>0.05103781738567811</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04707717443750976</v>
+        <v>0.05854008099038228</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1294603897956457</v>
+        <v>0.1001002709887103</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0470424346708028</v>
+        <v>0.05817242524724348</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1932624682677613</v>
+        <v>0.1494102220257112</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04653266635499417</v>
+        <v>0.05816605171542569</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.08937212849095461</v>
+        <v>0.05384076759126687</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04933739013074893</v>
+        <v>0.01587246848991437</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06627019964757076</v>
+        <v>0.05088824624548106</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04870052528018252</v>
+        <v>0.06055870447280926</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1294576811455494</v>
+        <v>0.1002826439309974</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04866458759048566</v>
+        <v>0.06017837094542428</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1947265444493538</v>
+        <v>0.1494299849108968</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04813724105689052</v>
+        <v>0.06017177763664726</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.09090398939311947</v>
+        <v>0.05441367980375506</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05098196980177389</v>
+        <v>0.01640155077291151</v>
       </c>
       <c r="J96" t="n">
-        <v>0.06665594238609589</v>
+        <v>0.05103414913290166</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05032387612285526</v>
+        <v>0.06257732795523623</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1301000797259066</v>
+        <v>0.1006561105323388</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05028674051016851</v>
+        <v>0.0621843166436051</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1940205545726232</v>
+        <v>0.1489364970431359</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04974181575878687</v>
+        <v>0.06217750355786884</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0923247486215214</v>
+        <v>0.05497965583130861</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05262654947279886</v>
+        <v>0.01693063305590866</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06707642808513732</v>
+        <v>0.05157543590508348</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05194722696552802</v>
+        <v>0.06459595143766321</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1309014862672456</v>
+        <v>0.1012204981701877</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05190889342985137</v>
+        <v>0.0641902623417859</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1932197936039681</v>
+        <v>0.1499295017168281</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05134639046068321</v>
+        <v>0.06418322947909041</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.09062648713315383</v>
+        <v>0.05553865337695785</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05427112914382382</v>
+        <v>0.0174597153389058</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06687352049106395</v>
+        <v>0.05141201641917002</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05357057780820077</v>
+        <v>0.06661457492009019</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1297913141874387</v>
+        <v>0.1011756342219973</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05353104634953423</v>
+        <v>0.0661962080399667</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1929005156947295</v>
+        <v>0.1510087422263726</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05295096516257957</v>
+        <v>0.066188955400312</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.09984441728737353</v>
+        <v>0.05609063014373308</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05591570881484879</v>
+        <v>0.01798879762190295</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06693571236278777</v>
+        <v>0.05194380053230477</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05519392865087352</v>
+        <v>0.06863319840251715</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1298073950300206</v>
+        <v>0.1011213460652209</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05515319926921708</v>
+        <v>0.06820215373814753</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1930702808749506</v>
+        <v>0.150673961866169</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05455553986447592</v>
+        <v>0.06819468132153357</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.09584286589350585</v>
+        <v>0.05663554383466455</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05756028848587375</v>
+        <v>0.01851787990490009</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06695630283425801</v>
+        <v>0.05157069810163126</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05681727949354627</v>
+        <v>0.07065182188494414</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1306430491990628</v>
+        <v>0.1018574610773117</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05677535218889993</v>
+        <v>0.07020809943632833</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1920366491746752</v>
+        <v>0.1512249039306167</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05616011456637227</v>
+        <v>0.07020040724275514</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09279484059622981</v>
+        <v>0.05717335215278258</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05920486815689871</v>
+        <v>0.01904696218789724</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06643798856205331</v>
+        <v>0.052192618984293</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05844063033621903</v>
+        <v>0.07267044536737111</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1296035276519949</v>
+        <v>0.1011838066357229</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05839750510858279</v>
+        <v>0.07221404513450913</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1929071806239466</v>
+        <v>0.1510613117141151</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05776468926826862</v>
+        <v>0.07220613316397671</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.09268271865696834</v>
+        <v>0.0577040128011175</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06084944782792368</v>
+        <v>0.01957604447089438</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06648346620275243</v>
+        <v>0.05200947303743352</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06006398117889177</v>
+        <v>0.07468906884979809</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1287940813462466</v>
+        <v>0.1021002101179075</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06001965802826565</v>
+        <v>0.07421999083268996</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1915894352528085</v>
+        <v>0.1511829285110635</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05936926397016497</v>
+        <v>0.0742118590851983</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09651067363975852</v>
+        <v>0.05822748348269952</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06249402749894864</v>
+        <v>0.02010512675389153</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06609543241293404</v>
+        <v>0.05252117011819629</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06168733202156453</v>
+        <v>0.07670769233222506</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1289199612392476</v>
+        <v>0.102606498901319</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0616418109479485</v>
+        <v>0.07622593653087076</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1906909730913045</v>
+        <v>0.1524894976158614</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06097383867206132</v>
+        <v>0.07621758500641987</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.09628287910863731</v>
+        <v>0.05874372190055901</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0641386071699736</v>
+        <v>0.02063420903688868</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0659765838491768</v>
+        <v>0.05262762008372487</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06331068286423727</v>
+        <v>0.07872631581465203</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1287864182884277</v>
+        <v>0.1025025003634105</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06326396386763136</v>
+        <v>0.07823188222905157</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1907193541694779</v>
+        <v>0.1526807623229084</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06257841337395767</v>
+        <v>0.07822331092764145</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.09200350862764173</v>
+        <v>0.05925268575772621</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06578318684099856</v>
+        <v>0.02116329131988582</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06582961716805942</v>
+        <v>0.05212873279116276</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06493403370691002</v>
+        <v>0.08074493929707902</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1279987034512166</v>
+        <v>0.1019880418816353</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06488611678731422</v>
+        <v>0.08023782792723237</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1899821385173726</v>
+        <v>0.1529564659266038</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06418298807585403</v>
+        <v>0.08022903684886301</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.08967673576080881</v>
+        <v>0.05975433275723144</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06742776651202353</v>
+        <v>0.02169237360288297</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06515722902616057</v>
+        <v>0.05232441809765345</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06655738454958278</v>
+        <v>0.08276356277950599</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1274620676850439</v>
+        <v>0.1032629508334466</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06650826970699707</v>
+        <v>0.08224377362541319</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1875868861650317</v>
+        <v>0.152116351721347</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06578756277775037</v>
+        <v>0.0822347627700846</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.09430673407217557</v>
+        <v>0.06024862060210501</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0690723461830485</v>
+        <v>0.02222145588588011</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06506211608005895</v>
+        <v>0.05291458586034049</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06818073539225553</v>
+        <v>0.08478218626193296</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1275817619473395</v>
+        <v>0.1021270545962974</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06813042262667993</v>
+        <v>0.084249719323594</v>
       </c>
       <c r="N107" t="n">
-        <v>0.186641157142499</v>
+        <v>0.1522601630015374</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06739213747964672</v>
+        <v>0.08424048869130617</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.08989767712577906</v>
+        <v>0.06073550699537716</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07071692585407345</v>
+        <v>0.02275053816887726</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06514697498633328</v>
+        <v>0.05239914593636738</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06980408623492827</v>
+        <v>0.08680080974435994</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1262630371955331</v>
+        <v>0.1029801805476411</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06975257554636279</v>
+        <v>0.0862556650217748</v>
       </c>
       <c r="N108" t="n">
-        <v>0.187252511479818</v>
+        <v>0.1533876430615744</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06899671218154307</v>
+        <v>0.08624621461252775</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.08945373848565621</v>
+        <v>0.06121494964007824</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07236150552509843</v>
+        <v>0.0232796204518744</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06471450240156222</v>
+        <v>0.05247800818287762</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07142743707760102</v>
+        <v>0.08881943322678691</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1251111443870543</v>
+        <v>0.1024221560649309</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07137472846604564</v>
+        <v>0.08826161071995561</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1856285092070322</v>
+        <v>0.1525985351958576</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07060128688343942</v>
+        <v>0.08825194053374932</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.08797909171584414</v>
+        <v>0.06168690623923851</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07400608519612339</v>
+        <v>0.02380870273487155</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0640673949823244</v>
+        <v>0.05285108245701474</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07305078792027378</v>
+        <v>0.09083805670921388</v>
       </c>
       <c r="L110" t="n">
-        <v>0.124531334479333</v>
+        <v>0.1026528085256202</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07299688138572849</v>
+        <v>0.09026755641813643</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1852767103541852</v>
+        <v>0.1530925826987862</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07220586158533578</v>
+        <v>0.09025766645497091</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.09347791038037984</v>
+        <v>0.06215133449588827</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07565066486714835</v>
+        <v>0.0243377850178687</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06380834938519862</v>
+        <v>0.05311827861592223</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07467413876294653</v>
+        <v>0.09285668019164087</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1248288584297987</v>
+        <v>0.1031719653071618</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07461903430541135</v>
+        <v>0.09227350211631723</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1829046749513205</v>
+        <v>0.1533695288647598</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07381043628723212</v>
+        <v>0.09226339237619247</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.08695436804330026</v>
+        <v>0.06260819211305779</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07729524453817332</v>
+        <v>0.02486686730086584</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06334006226676353</v>
+        <v>0.05317950651674365</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07629748960561927</v>
+        <v>0.09487530367406784</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1236089671958814</v>
+        <v>0.1029794537870092</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07624118722509421</v>
+        <v>0.09427944781449804</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1812199630284815</v>
+        <v>0.1545291169881777</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07541501098912846</v>
+        <v>0.09426911829741405</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.09041263826864251</v>
+        <v>0.06305743679377743</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07893982420919828</v>
+        <v>0.02539594958386298</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06286523028359779</v>
+        <v>0.05273467601662246</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07792084044829202</v>
+        <v>0.09689392715649481</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1225769117350106</v>
+        <v>0.1038751013426156</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07786334014477705</v>
+        <v>0.09628539351267885</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1814301346157121</v>
+        <v>0.1538710903634395</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07701958569102482</v>
+        <v>0.09627484421863562</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.08985689462044355</v>
+        <v>0.06349902624107745</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08058440388022324</v>
+        <v>0.02592503186686013</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0625865500922801</v>
+        <v>0.05318369697270223</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07954419129096478</v>
+        <v>0.09891255063892179</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1217379430046161</v>
+        <v>0.1038587353514341</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07948549306445991</v>
+        <v>0.09829133921085965</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1797427497430555</v>
+        <v>0.1544951922849445</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07862416039292117</v>
+        <v>0.09828057013985721</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.08829131066274043</v>
+        <v>0.0639329181579881</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08222898355124822</v>
+        <v>0.02645411414985728</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06250671834938916</v>
+        <v>0.05292647924212641</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08116754213363753</v>
+        <v>0.1009311741213488</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1219973119621276</v>
+        <v>0.1038301831909181</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08110764598414277</v>
+        <v>0.1002972849090405</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1798653684405553</v>
+        <v>0.154301166047092</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08022873509481752</v>
+        <v>0.1002862960610788</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09272005995957014</v>
+        <v>0.0643590702475397</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08387356322227317</v>
+        <v>0.02698319643285442</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06212843171150367</v>
+        <v>0.05326293268203858</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08279089297631027</v>
+        <v>0.1029497976037757</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1209602695649749</v>
+        <v>0.1041892722385206</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08272979890382563</v>
+        <v>0.1023032306072213</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1787588857246581</v>
+        <v>0.1540887549442817</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08183330979671387</v>
+        <v>0.1022920219823003</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0881473160749697</v>
+        <v>0.06477744021276258</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08551814289329814</v>
+        <v>0.02751227871585157</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06165438683520227</v>
+        <v>0.0534929671495822</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08441424381898303</v>
+        <v>0.1049684210862027</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1201316122773569</v>
+        <v>0.1043358298716949</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08435195182350848</v>
+        <v>0.1043091763054021</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1775005432671689</v>
+        <v>0.1552577022709128</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08343788449861023</v>
+        <v>0.1042977479035219</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.08557725257297619</v>
+        <v>0.06518798575668697</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08716272256432311</v>
+        <v>0.02804136099884871</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06145511412890192</v>
+        <v>0.05331649250190079</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08603759466165578</v>
+        <v>0.1069870445686297</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1197407634999208</v>
+        <v>0.1037696834678943</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08597410474319134</v>
+        <v>0.1063151220035829</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1755055536512141</v>
+        <v>0.1548077513213849</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08504245920050657</v>
+        <v>0.1063034738247435</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08801373475761182</v>
+        <v>0.06559066458234322</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08880730223534807</v>
+        <v>0.02857044328184586</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06040153590389388</v>
+        <v>0.0534334185961379</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08766094550432853</v>
+        <v>0.1090056680510567</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1184458881961029</v>
+        <v>0.1042906604045719</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0875962576628742</v>
+        <v>0.1083210677017637</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1730985483583655</v>
+        <v>0.1543386453900972</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08664703390240293</v>
+        <v>0.1083091997459651</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.08940199940602603</v>
+        <v>0.06598543439276161</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09045188190637303</v>
+        <v>0.02909952556484301</v>
       </c>
       <c r="J120" t="n">
-        <v>0.06010241317569501</v>
+        <v>0.05304365528943701</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08928429634700127</v>
+        <v>0.1110242915334836</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1167640946128837</v>
+        <v>0.1042985880591809</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08921841058255704</v>
+        <v>0.1103270133999445</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1729041588701948</v>
+        <v>0.1540501277714493</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08825160860429929</v>
+        <v>0.1103149256671867</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08670883206423666</v>
+        <v>0.0663722528909724</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09209646157739799</v>
+        <v>0.02962860784784015</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05956653197378411</v>
+        <v>0.05354711243894167</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09090764718967403</v>
+        <v>0.1130429150159106</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1162124909972436</v>
+        <v>0.1035658714283194</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0908405635022399</v>
+        <v>0.1123329590981253</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1696470166682738</v>
+        <v>0.1541459495343983</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08985618330619563</v>
+        <v>0.1123206515884082</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08394783070276413</v>
+        <v>0.06675107778000591</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09374104124842296</v>
+        <v>0.0301576901308373</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05930267832764002</v>
+        <v>0.05346326606222269</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09253099803234678</v>
+        <v>0.1150615384983376</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1151081855961629</v>
+        <v>0.1037478753618754</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09246271642192276</v>
+        <v>0.1143389047963061</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1684517532341742</v>
+        <v>0.1530183764637172</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09146075800809199</v>
+        <v>0.1143263775096298</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.08713259329212902</v>
+        <v>0.06712186676289245</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09538562091944792</v>
+        <v>0.03068677241383444</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05861963826674157</v>
+        <v>0.0531342135607251</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09415434887501953</v>
+        <v>0.1170801619807646</v>
       </c>
       <c r="L123" t="n">
-        <v>0.114468286656622</v>
+        <v>0.1032130907001205</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09408486934160561</v>
+        <v>0.116344850494487</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1662430000494676</v>
+        <v>0.1529700088660176</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09306533270998833</v>
+        <v>0.1163321034308514</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.08427671780285187</v>
+        <v>0.06748457754266229</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09703020059047289</v>
+        <v>0.03121585469683159</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05782619782056755</v>
+        <v>0.0524966341342244</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09577769971769227</v>
+        <v>0.1190987854631916</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1127099024256015</v>
+        <v>0.1017317626385229</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09570702226128847</v>
+        <v>0.1183507961926678</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1644453885957259</v>
+        <v>0.1506053078063573</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09466990741188468</v>
+        <v>0.1183378293520729</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.08639380220545315</v>
+        <v>0.06783916782234573</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09867478026149785</v>
+        <v>0.03174493697982873</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0576311430185968</v>
+        <v>0.05198720956439891</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09740105056036504</v>
+        <v>0.1211174089456185</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1110501411500816</v>
+        <v>0.1013741363725509</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09732917518097133</v>
+        <v>0.1203567418908486</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1643835503545209</v>
+        <v>0.1502287343497944</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09627448211378103</v>
+        <v>0.1203435552732945</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08149744447045337</v>
+        <v>0.06818559530497303</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1003193599325228</v>
+        <v>0.03227401926282588</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05664325989030812</v>
+        <v>0.05164262163292703</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09902440140303778</v>
+        <v>0.1231360324280455</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1102061110770429</v>
+        <v>0.1006104570976726</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09895132810065417</v>
+        <v>0.1223626875890294</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1614821168074242</v>
+        <v>0.1481447495613865</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09787905681567738</v>
+        <v>0.1223492811945161</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.08360124256837315</v>
+        <v>0.06852381769357452</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1019639396035478</v>
+        <v>0.03280310154582302</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05617133446518034</v>
+        <v>0.05109955212148708</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1006477522457105</v>
+        <v>0.1251546559104725</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1093949204534658</v>
+        <v>0.09961097000935609</v>
       </c>
       <c r="M127" t="n">
-        <v>0.100573481020337</v>
+        <v>0.1243686332872102</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1603428788666018</v>
+        <v>0.1486578145061916</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09948363151757374</v>
+        <v>0.1243550071157377</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.07671879446973284</v>
+        <v>0.0688537926911805</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1036085192745727</v>
+        <v>0.03333218382882017</v>
       </c>
       <c r="J128" t="n">
-        <v>0.05562415277269228</v>
+        <v>0.05109468281175743</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1022711030883833</v>
+        <v>0.1271732793928994</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1084336775263305</v>
+        <v>0.09894592030306965</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1021956339400199</v>
+        <v>0.126374578985391</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1586894365251281</v>
+        <v>0.1472723902492676</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1010882062194701</v>
+        <v>0.1263607330369592</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.08386369814505309</v>
+        <v>0.06917547800082124</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1052530989455977</v>
+        <v>0.03386126611181731</v>
       </c>
       <c r="J129" t="n">
-        <v>0.05487816191859006</v>
+        <v>0.05046469548541645</v>
       </c>
       <c r="K129" t="n">
-        <v>0.103894453931056</v>
+        <v>0.1291919028753264</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1066601675064335</v>
+        <v>0.09878156299337515</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1038177868597027</v>
+        <v>0.1283805246835718</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1573078993866708</v>
+        <v>0.1451859503539612</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1026927809213664</v>
+        <v>0.1283664589581808</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.07704924175602557</v>
+        <v>0.06948883132552705</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1068976786166227</v>
+        <v>0.03439034839481445</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05448143155650646</v>
+        <v>0.0506390078059772</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1055178047737288</v>
+        <v>0.1312105263577534</v>
       </c>
       <c r="L130" t="n">
-        <v>0.105887691508803</v>
+        <v>0.09840563720002998</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1054399397793856</v>
+        <v>0.1303864703817526</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1555335274243155</v>
+        <v>0.1451270021736014</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1042973556232628</v>
+        <v>0.1303721848794024</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07720650358561343</v>
+        <v>0.06979381036832821</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1085422582876476</v>
+        <v>0.03491943067781161</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05374490864108922</v>
+        <v>0.0500459532300641</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1071411556164015</v>
+        <v>0.1332291498401804</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1051400972982236</v>
+        <v>0.09754098529698019</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1070620926990685</v>
+        <v>0.1323924160799334</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1536015806111479</v>
+        <v>0.145884894956727</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1059019303251591</v>
+        <v>0.132377910800624</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07828876984328059</v>
+        <v>0.07009037283225503</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1101868379586726</v>
+        <v>0.03544851296080875</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05298117037611115</v>
+        <v>0.04995902853555099</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1087645064590743</v>
+        <v>0.1352477733226073</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1032418753352595</v>
+        <v>0.09729098785993284</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1086842456187513</v>
+        <v>0.1343983617781142</v>
       </c>
       <c r="N132" t="n">
-        <v>0.151647318920254</v>
+        <v>0.1454646559302754</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1075065050270555</v>
+        <v>0.1343836367218456</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07231550602781062</v>
+        <v>0.07037847642033779</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1118314176296976</v>
+        <v>0.03597759524380589</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05260279396534502</v>
+        <v>0.04967999904658874</v>
       </c>
       <c r="K133" t="n">
-        <v>0.110387857301747</v>
+        <v>0.1372663968050343</v>
       </c>
       <c r="L133" t="n">
-        <v>0.102717516080475</v>
+        <v>0.09695902546459562</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1103063985384342</v>
+        <v>0.1364043074762951</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1502060023247194</v>
+        <v>0.1439713123211844</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1091110797289518</v>
+        <v>0.1363893626430671</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0763061776379873</v>
+        <v>0.07065807883560676</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1134759973007225</v>
+        <v>0.03650667752680304</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05192235661256368</v>
+        <v>0.0499106300873282</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1120112081444198</v>
+        <v>0.1392850202874613</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1004915099944347</v>
+        <v>0.09604847868667549</v>
       </c>
       <c r="M134" t="n">
-        <v>0.111928551458117</v>
+        <v>0.1384102531744759</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1484128907976298</v>
+        <v>0.1441098913563914</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1107156544308482</v>
+        <v>0.1383950885642887</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07528025017259421</v>
+        <v>0.07092913778109228</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1151205769717475</v>
+        <v>0.03703575980980019</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05095243552153991</v>
+        <v>0.04935268698192027</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1136345589870925</v>
+        <v>0.1413036437698883</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09968834753770267</v>
+        <v>0.09636272810188001</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1135507043777999</v>
+        <v>0.1404161988726567</v>
       </c>
       <c r="N135" t="n">
-        <v>0.145503244312071</v>
+        <v>0.1437854202628342</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1123202291327445</v>
+        <v>0.1404008144855103</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06825718913041501</v>
+        <v>0.07119161095982462</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1167651566427725</v>
+        <v>0.03756484209279733</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05070560789604654</v>
+        <v>0.04910793505451583</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1152579098297653</v>
+        <v>0.1433222672523153</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09813251917084342</v>
+        <v>0.09550515428591638</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1151728572974827</v>
+        <v>0.1424221445708375</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1441123228411287</v>
+        <v>0.1425029262674503</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1139248038346409</v>
+        <v>0.1424065404067318</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07525646001023339</v>
+        <v>0.0714454560748341</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1184097363137974</v>
+        <v>0.03809392437579448</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04969445093985637</v>
+        <v>0.04927813962926571</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1168812606724381</v>
+        <v>0.1453408907347422</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09664851535442132</v>
+        <v>0.0959791378144918</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1167950102171656</v>
+        <v>0.1444280902690183</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1424753863578888</v>
+        <v>0.1429674365971772</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1155293785365372</v>
+        <v>0.1444122663279534</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07429752831083303</v>
+        <v>0.07169063082915095</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1200543159848224</v>
+        <v>0.03862300665879162</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04953154185674218</v>
+        <v>0.04926506603032083</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1185046115151108</v>
+        <v>0.1473595142171692</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09636082654900063</v>
+        <v>0.09508805926331387</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1184171631368484</v>
+        <v>0.1464340359671991</v>
       </c>
       <c r="N138" t="n">
-        <v>0.141227694835437</v>
+        <v>0.1417839784789526</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1171339532384336</v>
+        <v>0.146417992249175</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06539985953099756</v>
+        <v>0.07192709292580551</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1216988956558474</v>
+        <v>0.03915208894178877</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0486294578504768</v>
+        <v>0.04927047958183203</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1201279623577835</v>
+        <v>0.1493781376995962</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09499394321514565</v>
+        <v>0.09513529920808961</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1200393160565313</v>
+        <v>0.1484399816653799</v>
       </c>
       <c r="N139" t="n">
-        <v>0.139604508246859</v>
+        <v>0.1426575791397142</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1187385279403299</v>
+        <v>0.1484237181703966</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06458291916951067</v>
+        <v>0.0721548000678281</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1233434753268723</v>
+        <v>0.03968117122478591</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04860077612483304</v>
+        <v>0.04889614560795019</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1217513132004563</v>
+        <v>0.1513967611820231</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09417235581342082</v>
+        <v>0.09592423822452656</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1216614689762141</v>
+        <v>0.1504459273635607</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1387410865652406</v>
+        <v>0.1426932658063994</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1203431026422263</v>
+        <v>0.1504294440916182</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06886617272515602</v>
+        <v>0.07237370995824893</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1249880549978973</v>
+        <v>0.04021025350778306</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04785807388358372</v>
+        <v>0.0486438294328262</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1233746640431291</v>
+        <v>0.1534153846644501</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09402055480439053</v>
+        <v>0.09525096291914376</v>
       </c>
       <c r="M141" t="n">
-        <v>0.123283621895897</v>
+        <v>0.1524518730617415</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1380726897636676</v>
+        <v>0.1406847739704576</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1219476773441226</v>
+        <v>0.1524351700128397</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06826908569671727</v>
+        <v>0.07258378030009835</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1266326346689222</v>
+        <v>0.04073933579078021</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0476139283305016</v>
+        <v>0.04910854029346541</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1249980148858018</v>
+        <v>0.1554340081468771</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09366303064861908</v>
+        <v>0.09569363024733102</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1249057748155799</v>
+        <v>0.1544578187599223</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1389345778152256</v>
+        <v>0.1407997566430276</v>
       </c>
       <c r="O142" t="n">
-        <v>0.123552252046019</v>
+        <v>0.1544408959340613</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06781112358297811</v>
+        <v>0.07278496879640664</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1282772143399472</v>
+        <v>0.04126841807377735</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04788091666935951</v>
+        <v>0.04898049805563358</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1266213657284745</v>
+        <v>0.1574526316293041</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09342427380667073</v>
+        <v>0.09474790802657579</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1265279277352627</v>
+        <v>0.1564637644581031</v>
       </c>
       <c r="N143" t="n">
-        <v>0.137548057703087</v>
+        <v>0.1408319495007181</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1251568267479153</v>
+        <v>0.1564466218552829</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06351175188272218</v>
+        <v>0.0729772331502041</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1299217940109722</v>
+        <v>0.04179750035677449</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04776135632860581</v>
+        <v>0.04875812746433662</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1282447165711473</v>
+        <v>0.159471255111731</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09329943017048786</v>
+        <v>0.09551090308697846</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1281500806549456</v>
+        <v>0.1584697101562839</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1391178840270504</v>
+        <v>0.1421770501338469</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1267614014498117</v>
+        <v>0.1584523477765045</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.07039043609473314</v>
+        <v>0.07316053106452106</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1315663736819971</v>
+        <v>0.04232658263977165</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04797857946872529</v>
+        <v>0.04883991771693662</v>
       </c>
       <c r="K145" t="n">
-        <v>0.12986806741382</v>
+        <v>0.161489878594158</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09293614653115556</v>
+        <v>0.09437972225863916</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1297722335746284</v>
+        <v>0.1604756558544647</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1394371167379218</v>
+        <v>0.1407307561327316</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1283659761517081</v>
+        <v>0.160458073697726</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06239964642071483</v>
+        <v>0.07333482024238774</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1332109533530221</v>
+        <v>0.04285566492276879</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04761358052690387</v>
+        <v>0.04902435801079558</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1314914182564928</v>
+        <v>0.163508502076585</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0926073476585777</v>
+        <v>0.09485147237165847</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1313943864943113</v>
+        <v>0.1624816015526456</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1379031649457229</v>
+        <v>0.1422887650876901</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1299705508536044</v>
+        <v>0.1624637996189476</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0674382144430988</v>
+        <v>0.07350005838683446</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1348555330240471</v>
+        <v>0.04338474720576593</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04766543533478987</v>
+        <v>0.04860993754327553</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1331147690991656</v>
+        <v>0.165527125559012</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09321123400263331</v>
+        <v>0.09562326025613643</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1330165394139941</v>
+        <v>0.1644875472508264</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1379134377604753</v>
+        <v>0.1418467745890402</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1315751255555007</v>
+        <v>0.1644695255401692</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06250327831145633</v>
+        <v>0.07365620320089153</v>
       </c>
       <c r="G148" t="n">
-        <v>0.136500112695072</v>
+        <v>0.04391382948876308</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04813321972403149</v>
+        <v>0.04899514551173847</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1347381199418383</v>
+        <v>0.1675457490414389</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09394600601320113</v>
+        <v>0.09549219274217358</v>
       </c>
       <c r="M148" t="n">
-        <v>0.134638692333677</v>
+        <v>0.1664934929490072</v>
       </c>
       <c r="N148" t="n">
-        <v>0.139365344292201</v>
+        <v>0.1418004822270995</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1331797002573971</v>
+        <v>0.1664752514613907</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06959340770802738</v>
+        <v>0.07380321238758922</v>
       </c>
       <c r="G149" t="n">
-        <v>0.138144692366097</v>
+        <v>0.04444291177176023</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04801600952627699</v>
+        <v>0.04897847111354647</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1363614707845111</v>
+        <v>0.1695643725238659</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09330986414015996</v>
+        <v>0.09505537665987013</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1362608452533599</v>
+        <v>0.168499438647188</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1386562936509216</v>
+        <v>0.1411455855921858</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1347842749592934</v>
+        <v>0.1684809773826123</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07170717231505208</v>
+        <v>0.07394104364995788</v>
       </c>
       <c r="G150" t="n">
-        <v>0.139789272037122</v>
+        <v>0.04497199405475737</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04791288057317465</v>
+        <v>0.04885840354606151</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1379848216271838</v>
+        <v>0.1715829960062929</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09310100883338868</v>
+        <v>0.09460991883932646</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1378829981730427</v>
+        <v>0.1705053843453688</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1388836949466588</v>
+        <v>0.1409777822746169</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1363888496611898</v>
+        <v>0.1704867033038339</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06284314181477044</v>
+        <v>0.07406965469102769</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1414338517081469</v>
+        <v>0.04550107633775452</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04782290869637268</v>
+        <v>0.04893343200664566</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1396081724698565</v>
+        <v>0.1736016194887199</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09321764054276604</v>
+        <v>0.09425292611064284</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1395051510927256</v>
+        <v>0.1725113300435496</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1401449572894344</v>
+        <v>0.1402927698647105</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1379934243630861</v>
+        <v>0.1724924292250555</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06599988588942246</v>
+        <v>0.07418900321382904</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1430784313791719</v>
+        <v>0.04603015862075166</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04824516972751934</v>
+        <v>0.0486020456926609</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1412315233125293</v>
+        <v>0.1756202429711469</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09395795971817095</v>
+        <v>0.09517803106944012</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1411273040124084</v>
+        <v>0.1745172757417304</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1396374897892702</v>
+        <v>0.1415805646221422</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1395979990649825</v>
+        <v>0.1744981551462771</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06917597422124819</v>
+        <v>0.07429904692139225</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1447230110501969</v>
+        <v>0.04655924090374881</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04807873949826288</v>
+        <v>0.04885433838385696</v>
       </c>
       <c r="K153" t="n">
-        <v>0.142854874155202</v>
+        <v>0.1776388664535738</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09442016680948218</v>
+        <v>0.0950105405762835</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1427494569320913</v>
+        <v>0.1765232214399112</v>
       </c>
       <c r="N153" t="n">
-        <v>0.141258701556188</v>
+        <v>0.1397292747212229</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1412025737668788</v>
+        <v>0.1765038810674986</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06636997649248769</v>
+        <v>0.0743997435167475</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1463675907212218</v>
+        <v>0.04708832318674595</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04822269384025155</v>
+        <v>0.04834972374338381</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1444782249978748</v>
+        <v>0.1796574899360008</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09530246226657862</v>
+        <v>0.09362961223985583</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1443716098517741</v>
+        <v>0.1785291671380921</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1408060017002092</v>
+        <v>0.1410094756893373</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1428071484687752</v>
+        <v>0.1785096069887202</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.07058046238538099</v>
+        <v>0.07449105070292514</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1480121703922468</v>
+        <v>0.0476174054697431</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04867610858513359</v>
+        <v>0.04838800941490916</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1461015758405476</v>
+        <v>0.1816761134184278</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09520304653933892</v>
+        <v>0.0933464063050099</v>
       </c>
       <c r="M155" t="n">
-        <v>0.145993762771457</v>
+        <v>0.1805351128362729</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1424537143603313</v>
+        <v>0.1401377638368219</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1444117231706716</v>
+        <v>0.1805153329099418</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0728060015821681</v>
+        <v>0.07457292618295552</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1496567500632718</v>
+        <v>0.04814648775274024</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04914605670034755</v>
+        <v>0.04827502323708358</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1477249266832203</v>
+        <v>0.1836947369008547</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09554458285198925</v>
+        <v>0.09327208301659834</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1476159156911398</v>
+        <v>0.1825410585344537</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1438074404349466</v>
+        <v>0.1393307354740133</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1460162978725679</v>
+        <v>0.1825210588311633</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07104516376508907</v>
+        <v>0.07464532765986881</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1513013297342967</v>
+        <v>0.04867557003573739</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04944069680095325</v>
+        <v>0.04771659304855767</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1493482775258931</v>
+        <v>0.1857133603832817</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09654241648638223</v>
+        <v>0.0933178026194742</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1492380686108227</v>
+        <v>0.1845470042326345</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1435314218306682</v>
+        <v>0.1381049869112477</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1476208725744642</v>
+        <v>0.1845267847523849</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06839742723810102</v>
+        <v>0.0747082128366954</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1529459094053217</v>
+        <v>0.04920465231873453</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04987283025569697</v>
+        <v>0.04731854668798204</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1509716283685658</v>
+        <v>0.1877319838657087</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09740388377683085</v>
+        <v>0.09199472535849001</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1508602215305055</v>
+        <v>0.1865529499308153</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1467474458323885</v>
+        <v>0.1367771144588615</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1492254472763606</v>
+        <v>0.1865325106736065</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06997527111463792</v>
+        <v>0.0747615394164656</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1545904890763466</v>
+        <v>0.04973373460173168</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05011455865259916</v>
+        <v>0.04748671199400727</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1525949792112385</v>
+        <v>0.1897506073481357</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09737466064854583</v>
+        <v>0.09101401147849891</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1524823744501884</v>
+        <v>0.1885588956289961</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1477772997249998</v>
+        <v>0.1365637144271914</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1508300219782569</v>
+        <v>0.1885382365948281</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06773644531234063</v>
+        <v>0.07480526510220961</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1562350687473716</v>
+        <v>0.05026281688472883</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05073798357968025</v>
+        <v>0.04652691680528395</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1542183300539113</v>
+        <v>0.1917692308305627</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09950042302673795</v>
+        <v>0.09108682122435346</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1541045273698713</v>
+        <v>0.1905648413271769</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1489427707933942</v>
+        <v>0.1342813831265735</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1524345966801533</v>
+        <v>0.1905439625160497</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.07463777199023083</v>
+        <v>0.07483934759695779</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1578796484183966</v>
+        <v>0.05079189916772597</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05171520662496075</v>
+        <v>0.0467449889604627</v>
       </c>
       <c r="K161" t="n">
-        <v>0.155841680896584</v>
+        <v>0.1937878543129896</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1001268468366181</v>
+        <v>0.09032431484090658</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1557266802895541</v>
+        <v>0.1925707870253577</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1515656463224642</v>
+        <v>0.1341467168673443</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1540391713820496</v>
+        <v>0.1925496884372712</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06763607330733024</v>
+        <v>0.0748637446037404</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1595242280894215</v>
+        <v>0.05132098145072311</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05181832937646105</v>
+        <v>0.04624675629819407</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1574650317392568</v>
+        <v>0.1958064777954166</v>
       </c>
       <c r="L162" t="n">
-        <v>0.101499608003397</v>
+        <v>0.08983765257301113</v>
       </c>
       <c r="M162" t="n">
-        <v>0.157348833209237</v>
+        <v>0.1945767327235385</v>
       </c>
       <c r="N162" t="n">
-        <v>0.154567713597102</v>
+        <v>0.1336763119598402</v>
       </c>
       <c r="O162" t="n">
-        <v>0.155643746083946</v>
+        <v>0.1945554143584928</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06868817142266045</v>
+        <v>0.07487841382558774</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1611688077604465</v>
+        <v>0.05185006373372026</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05301945342220166</v>
+        <v>0.0455380466571287</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1590883825819296</v>
+        <v>0.1978251012778436</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1034643824522856</v>
+        <v>0.0883379946655197</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1589709861289198</v>
+        <v>0.1965826784217193</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1554707599021999</v>
+        <v>0.1324867647143977</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1572483207858423</v>
+        <v>0.1965611402797144</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.07075088849524327</v>
+        <v>0.07488331296553014</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1628133874314714</v>
+        <v>0.05237914601671741</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05319068035020298</v>
+        <v>0.04492468787591715</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1607117334246023</v>
+        <v>0.1998437247602705</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1041668461084945</v>
+        <v>0.08793650136328535</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1605931390486027</v>
+        <v>0.1985886241199001</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1565965725226502</v>
+        <v>0.129894671441353</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1588528954877387</v>
+        <v>0.198566866200936</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07278104668410032</v>
+        <v>0.07488331296553014</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1644579671024964</v>
+        <v>0.05237914601671741</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05380411174848548</v>
+        <v>0.04471250779321001</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1623350842672751</v>
+        <v>0.2018623482426975</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1051526748972345</v>
+        <v>0.08634433291116081</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1622152919682855</v>
+        <v>0.200594569818081</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1579864638772113</v>
+        <v>0.1288166284510426</v>
       </c>
       <c r="O165" t="n">
-        <v>0.160457470189635</v>
+        <v>0.2005725921221576</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07373546814825327</v>
+        <v>0.07368008813087454</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1661025467735214</v>
+        <v>0.05237887748825339</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05493430784228266</v>
+        <v>0.0445073342476579</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1639584351099478</v>
+        <v>0.2038809717251245</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1061759666747314</v>
+        <v>0.08547264955399886</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1638374448879684</v>
+        <v>0.2026005155162618</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1601912727622848</v>
+        <v>0.1273692320538031</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1620620448915314</v>
+        <v>0.2025783180433791</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.08057097504672389</v>
+        <v>0.07248991752523729</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1677471264445463</v>
+        <v>0.05237860895978937</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05542560548640277</v>
+        <v>0.0438149950779114</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1655817859526205</v>
+        <v>0.2058995952075515</v>
       </c>
       <c r="L167" t="n">
-        <v>0.107332295781569</v>
+        <v>0.08483261153665234</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1654595978076513</v>
+        <v>0.2046064612144426</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1612623248766767</v>
+        <v>0.1267690785599708</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1636666195934277</v>
+        <v>0.2045840439646007</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.07831694000032538</v>
+        <v>0.07131334228929134</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1693917061155713</v>
+        <v>0.05237834043132536</v>
       </c>
       <c r="J168" t="n">
-        <v>0.055604883240726</v>
+        <v>0.04364131812262111</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1672051367952933</v>
+        <v>0.2079182186899785</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1083653257966886</v>
+        <v>0.08533537910397399</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1670817507273341</v>
+        <v>0.2066124069126234</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1627021013631135</v>
+        <v>0.1268327642798818</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1652711942953241</v>
+        <v>0.2065897698858223</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.07604407028270621</v>
+        <v>0.07015090356360676</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1710362857865963</v>
+        <v>0.05237807190286134</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05597302612684853</v>
+        <v>0.0430921312204376</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1688284876379661</v>
+        <v>0.2099368421724054</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1098767800432461</v>
+        <v>0.08359211250081677</v>
       </c>
       <c r="M169" t="n">
-        <v>0.168703903647017</v>
+        <v>0.2086183526108042</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1638130833643219</v>
+        <v>0.1241768855238728</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1668757689972205</v>
+        <v>0.2085954958070438</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.07875386215094446</v>
+        <v>0.06900314248885536</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1726808654576212</v>
+        <v>0.05237780337439733</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05673091916636654</v>
+        <v>0.04317326221001151</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1704518384806388</v>
+        <v>0.2119554656548324</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1103683818443978</v>
+        <v>0.08411397197203338</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1703260565666998</v>
+        <v>0.210624298308985</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1651977520230283</v>
+        <v>0.1237180386022803</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1684803436991168</v>
+        <v>0.2106012217282654</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.08044768533611191</v>
+        <v>0.06787060020560831</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1743254451286462</v>
+        <v>0.05237753484593331</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05687944738087621</v>
+        <v>0.04279053892999336</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1720751893233116</v>
+        <v>0.2139740891372594</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1106418545232994</v>
+        <v>0.08321211776247664</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1719482094863827</v>
+        <v>0.2126302440071658</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1658585884819593</v>
+        <v>0.1233728198254405</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1700849184010131</v>
+        <v>0.212606947649487</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.08412690956928029</v>
+        <v>0.06675381785453624</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1759700247996712</v>
+        <v>0.05237726631746929</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05711949579197369</v>
+        <v>0.04224978921903381</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1736985401659843</v>
+        <v>0.2159927126196864</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1125989214031072</v>
+        <v>0.08278927164962563</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1735703624060655</v>
+        <v>0.2146361897053466</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1675980738838417</v>
+        <v>0.1237446002987024</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1716894931029095</v>
+        <v>0.2146126735707086</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.07979290458152147</v>
+        <v>0.06565333657621164</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1776146044706961</v>
+        <v>0.05237699778900527</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05755194942125516</v>
+        <v>0.04243748233620372</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1753218910086571</v>
+        <v>0.2180113361021133</v>
       </c>
       <c r="L173" t="n">
-        <v>0.113541305806977</v>
+        <v>0.08157056472359633</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1751925153257484</v>
+        <v>0.2166421354035274</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1695186893714017</v>
+        <v>0.1212216059650716</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1732940678048059</v>
+        <v>0.2166183994919302</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.08344704010390719</v>
+        <v>0.0645696975113037</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1792591841417211</v>
+        <v>0.05237672926054125</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05817769329031686</v>
+        <v>0.04201896980227489</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1769452418513298</v>
+        <v>0.2200299595845403</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1134707310580649</v>
+        <v>0.08124244344257225</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1768146682454312</v>
+        <v>0.2186480811017082</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1702229160873662</v>
+        <v>0.1209847339924676</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1748986425067022</v>
+        <v>0.2186241254131517</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.08409068586750928</v>
+        <v>0.06350344180038645</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1809037638127461</v>
+        <v>0.05237646073207723</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05869761242075487</v>
+        <v>0.04149744170197722</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1785685926940025</v>
+        <v>0.2220485830669673</v>
       </c>
       <c r="L175" t="n">
-        <v>0.113988920479527</v>
+        <v>0.08111326392952581</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1784368211651141</v>
+        <v>0.220654026799889</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1723132351744615</v>
+        <v>0.1202464107041378</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1765032172085986</v>
+        <v>0.2206298513343733</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.08772521160339949</v>
+        <v>0.06245511058412747</v>
       </c>
       <c r="G176" t="n">
-        <v>0.182548343483771</v>
+        <v>0.05237619220361322</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05881259183416541</v>
+        <v>0.04127726157187017</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1801919435366753</v>
+        <v>0.2240672065493943</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1149975973945192</v>
+        <v>0.08139138230742937</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1800589740847969</v>
+        <v>0.2226599724980698</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1731921277754144</v>
+        <v>0.1206190624233291</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1781077919104949</v>
+        <v>0.2226355772555949</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.08735198704264965</v>
+        <v>0.06142524500310242</v>
       </c>
       <c r="G177" t="n">
-        <v>0.184192923154796</v>
+        <v>0.0523759236751492</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05952351655214468</v>
+        <v>0.0414627929485132</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1818152943793481</v>
+        <v>0.2260858300318212</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1158984851261977</v>
+        <v>0.08028515469925537</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1816811270044798</v>
+        <v>0.2246659181962507</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1734007699707848</v>
+        <v>0.1197151154732889</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1797123666123913</v>
+        <v>0.2246413031768165</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.08597238191633153</v>
+        <v>0.06041438619797725</v>
       </c>
       <c r="G178" t="n">
-        <v>0.185837502825821</v>
+        <v>0.05237565514668518</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0600444219107366</v>
+        <v>0.04105839936846575</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1834386452220208</v>
+        <v>0.2281044535142482</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1169225928720478</v>
+        <v>0.07990293722797623</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1833032799241626</v>
+        <v>0.2266718638944314</v>
       </c>
       <c r="N178" t="n">
-        <v>0.174575480077353</v>
+        <v>0.1184469961772646</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1813169413142876</v>
+        <v>0.226647029098038</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.08560286411999252</v>
+        <v>0.05942307530932926</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1874820824968459</v>
+        <v>0.05237538661822116</v>
       </c>
       <c r="J179" t="n">
-        <v>0.06018863034925918</v>
+        <v>0.04086844436828727</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1850619960646936</v>
+        <v>0.2301230769966752</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1174907589586944</v>
+        <v>0.07955308601656433</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1849254328438455</v>
+        <v>0.2286778095926123</v>
       </c>
       <c r="N179" t="n">
-        <v>0.17597445689029</v>
+        <v>0.118927130858503</v>
       </c>
       <c r="O179" t="n">
-        <v>0.182921516016184</v>
+        <v>0.2286527550192596</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.09027002515814114</v>
+        <v>0.05845185347782274</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1891266621678709</v>
+        <v>0.05237511808975715</v>
       </c>
       <c r="J180" t="n">
-        <v>0.06104131401855867</v>
+        <v>0.04109729148453722</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1866853469073663</v>
+        <v>0.2321417004791021</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1181735820510604</v>
+        <v>0.07914395718799203</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1865475857635284</v>
+        <v>0.2306837552907931</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1776550787536151</v>
+        <v>0.1180679458402517</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1845260907180803</v>
+        <v>0.2306584809404812</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.08595242115656213</v>
+        <v>0.05750126184403666</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1907712418388958</v>
+        <v>0.05237484956129313</v>
       </c>
       <c r="J181" t="n">
-        <v>0.06148726980855036</v>
+        <v>0.04054930425377505</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1883086977500391</v>
+        <v>0.2341603239615291</v>
       </c>
       <c r="L181" t="n">
-        <v>0.119041458496799</v>
+        <v>0.07888390686523178</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1881697386832112</v>
+        <v>0.2326897009889739</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1798747240113475</v>
+        <v>0.1176818674457577</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1861306654199767</v>
+        <v>0.2326642068617028</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.09062652255127551</v>
+        <v>0.05657184154863363</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1924158215099208</v>
+        <v>0.05237458103282912</v>
       </c>
       <c r="J182" t="n">
-        <v>0.06201129460914963</v>
+        <v>0.04062884621256019</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1899320485927118</v>
+        <v>0.2361789474439561</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1200647846435637</v>
+        <v>0.07898129117125602</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1897918916028941</v>
+        <v>0.2346956466871547</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1800907710075063</v>
+        <v>0.1172813219982684</v>
       </c>
       <c r="O182" t="n">
-        <v>0.187735240121873</v>
+        <v>0.2346699327829244</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.08726879977830143</v>
+        <v>0.0556641337322139</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1940604011809458</v>
+        <v>0.0523743125043651</v>
       </c>
       <c r="J183" t="n">
-        <v>0.06199818531027179</v>
+        <v>0.04014028089745213</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1915553994353845</v>
+        <v>0.2381975709263831</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1211139568390076</v>
+        <v>0.07914446622903706</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1914140445225769</v>
+        <v>0.2367015923853355</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1819605980861108</v>
+        <v>0.1180787358210309</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1893398148237694</v>
+        <v>0.2366756587041459</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.08785572327365992</v>
+        <v>0.05477867953537963</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1957049808519707</v>
+        <v>0.05237404397590108</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06243273880183221</v>
+        <v>0.04018797184501029</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1931787502780573</v>
+        <v>0.2402161944088101</v>
       </c>
       <c r="L184" t="n">
-        <v>0.122159371430784</v>
+        <v>0.07888178816154739</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1930361974422598</v>
+        <v>0.2387075380835163</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1820415835911801</v>
+        <v>0.1169865352372924</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1909443895256657</v>
+        <v>0.2386813846253675</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.08736376347337102</v>
+        <v>0.05391602009879057</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1973495605229957</v>
+        <v>0.05237377544743706</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06239975197374621</v>
+        <v>0.04067566085765691</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1948021011207301</v>
+        <v>0.242234817891237</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1222714247665463</v>
+        <v>0.0789887929268441</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1946583503619427</v>
+        <v>0.2407134837816971</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1817969039427348</v>
+        <v>0.1163976065264426</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1925489642275621</v>
+        <v>0.240687110546589</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.08876939081345481</v>
+        <v>0.05307669656303044</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1989941401940206</v>
+        <v>0.05237350691897304</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06268802161329504</v>
+        <v>0.04058995353619341</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1964254519634028</v>
+        <v>0.244253441373664</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1231316886300328</v>
+        <v>0.07903470332114523</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1962805032816255</v>
+        <v>0.2427194294798779</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1822665462422883</v>
+        <v>0.1177663563387517</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1941535389294584</v>
+        <v>0.2426928364678106</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0940547512446572</v>
+        <v>0.05226125006875692</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2006387198650456</v>
+        <v>0.05237323839050903</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06275136574080002</v>
+        <v>0.04012297677706346</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1980488028060756</v>
+        <v>0.246272064856091</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1234498308366304</v>
+        <v>0.07861560364910136</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1979026562013083</v>
+        <v>0.2447253751780588</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1826261318193723</v>
+        <v>0.1182871165969977</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1957581136313548</v>
+        <v>0.2446985623890322</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.08530107342771764</v>
+        <v>0.05147022175655577</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2022832995360706</v>
+        <v>0.05237296986204501</v>
       </c>
       <c r="J188" t="n">
-        <v>0.06321115866091288</v>
+        <v>0.0406735594551632</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1996721536487483</v>
+        <v>0.248290688338518</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1233610467941951</v>
+        <v>0.07842925121943431</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1995248091209912</v>
+        <v>0.2467313208762396</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1840755038205253</v>
+        <v>0.1165565522130231</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1973626883332511</v>
+        <v>0.2467042883102538</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.09054196989641122</v>
+        <v>0.0507041527670826</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2039278792070955</v>
+        <v>0.052372701333581</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06316734442413123</v>
+        <v>0.04064053044538869</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2012955044914211</v>
+        <v>0.2503093118209449</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1239652275572805</v>
+        <v>0.0797734033408658</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2011469620406741</v>
+        <v>0.2487372665744204</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1845145053922858</v>
+        <v>0.1169713280986706</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1989672630351475</v>
+        <v>0.2487100142314753</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.08577735405875847</v>
+        <v>0.04996137458338856</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2055724588781205</v>
+        <v>0.05237243280511698</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06361986708095273</v>
+        <v>0.04052271862263609</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2029188553340938</v>
+        <v>0.2523279353033719</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1240622641804401</v>
+        <v>0.07934581732211765</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2027691149603569</v>
+        <v>0.2507432122726012</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1855429796811922</v>
+        <v>0.1178281091657827</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2005718377370438</v>
+        <v>0.2507157401526969</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.08900713932278001</v>
+        <v>0.04922917040090764</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2072170385491455</v>
+        <v>0.05237216427665296</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06396867068187505</v>
+        <v>0.04061895286180152</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2045422061767666</v>
+        <v>0.2543465587857989</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1240520477182274</v>
+        <v>0.07894425047191156</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2043912678800398</v>
+        <v>0.252749157970782</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1851607698337834</v>
+        <v>0.1183235603262021</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2021764124389402</v>
+        <v>0.2527214660739185</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.09423123909649644</v>
+        <v>0.04850587170269264</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2088616182201704</v>
+        <v>0.05237189574818894</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06351369927739581</v>
+        <v>0.04102806203778105</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2061655570194393</v>
+        <v>0.2563651822682259</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1246344692251957</v>
+        <v>0.08016646009896936</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2060134207997226</v>
+        <v>0.2547551036689628</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1861677189965978</v>
+        <v>0.1179543464917713</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2037809871408365</v>
+        <v>0.2547271919951401</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0924495667879284</v>
+        <v>0.04779201962939628</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2105061978911954</v>
+        <v>0.05237162721972493</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06385489691801266</v>
+        <v>0.04064887502547082</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2077889078621121</v>
+        <v>0.2583838057506528</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1243094197558988</v>
+        <v>0.08011020351201278</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2076355737194055</v>
+        <v>0.2567610493671436</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1859636703161739</v>
+        <v>0.1199171325743331</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2053855618427328</v>
+        <v>0.2567329179163617</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.09066203580509641</v>
+        <v>0.04708815532160867</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2121507775622204</v>
+        <v>0.05237135869126091</v>
       </c>
       <c r="J194" t="n">
-        <v>0.06409220765422326</v>
+        <v>0.04138022069976696</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2094122587047848</v>
+        <v>0.2604024292330798</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1245767903648899</v>
+        <v>0.07977323801976363</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2092577266390883</v>
+        <v>0.2587669950653244</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1859484669390503</v>
+        <v>0.1191085834857298</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2069901365446292</v>
+        <v>0.2587386438375832</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.09586855955602117</v>
+        <v>0.04639481991998166</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2137953572332454</v>
+        <v>0.0523710901627969</v>
       </c>
       <c r="J195" t="n">
-        <v>0.06412557553652527</v>
+        <v>0.04122092793556557</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2110356095474576</v>
+        <v>0.2624210527155068</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1257364721067226</v>
+        <v>0.08045332093094359</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2108798795587712</v>
+        <v>0.2607729407635052</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1876219520117656</v>
+        <v>0.1201253641378042</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2085947112465256</v>
+        <v>0.2607443697588048</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.09306905144872324</v>
+        <v>0.04571255456510628</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2154399369042703</v>
+        <v>0.05237082163433288</v>
       </c>
       <c r="J196" t="n">
-        <v>0.06415494461541631</v>
+        <v>0.04116982560776276</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2126589603901303</v>
+        <v>0.2644396761979337</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1258883560359504</v>
+        <v>0.08104820955427455</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2125020324784541</v>
+        <v>0.2627788864616861</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1862839686808583</v>
+        <v>0.1195641394423989</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2101992859484219</v>
+        <v>0.2627500956800264</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.08926342489122321</v>
+        <v>0.04504190039763346</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2170845165752953</v>
+        <v>0.05237055310586886</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06428025894139407</v>
+        <v>0.04152574259125466</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2142823112328031</v>
+        <v>0.2664582996803608</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1262323332071268</v>
+        <v>0.08165566119847822</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2141241853981369</v>
+        <v>0.2647848321598668</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1883343600928669</v>
+        <v>0.1213215743113563</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2118038606503183</v>
+        <v>0.264755821601248</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.09145159329154171</v>
+        <v>0.04438339855816941</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2187290962463203</v>
+        <v>0.05237028457740484</v>
       </c>
       <c r="J198" t="n">
-        <v>0.06480146256495616</v>
+        <v>0.04198750776093736</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2159056620754758</v>
+        <v>0.2684769231627877</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1259682946748054</v>
+        <v>0.08087343317227633</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2157463383178198</v>
+        <v>0.2667907778580477</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1877729693943301</v>
+        <v>0.1214943336565193</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2134084353522146</v>
+        <v>0.2667615475224696</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.08863347005769928</v>
+        <v>0.04373759018732139</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2203736759173452</v>
+        <v>0.05237001604894082</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0648184995366002</v>
+        <v>0.042153949991707</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2175290129181486</v>
+        <v>0.2704955466452147</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1258961314935393</v>
+        <v>0.08109937287570368</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2173684912375026</v>
+        <v>0.2687967235562285</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1888996397317864</v>
+        <v>0.12147928743478</v>
       </c>
       <c r="O199" t="n">
-        <v>0.215013010054111</v>
+        <v>0.2687672734436911</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.08880896859771661</v>
+        <v>0.04310501642573874</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2220182555883702</v>
+        <v>0.05236974752047681</v>
       </c>
       <c r="J200" t="n">
-        <v>0.06453131390682391</v>
+        <v>0.04224367869893413</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2191523637608213</v>
+        <v>0.2725141701276417</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1265157347178824</v>
+        <v>0.08223480869136815</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2189906441571855</v>
+        <v>0.2708026692544093</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1893142142517742</v>
+        <v>0.122229046668211</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2166175847560073</v>
+        <v>0.2707729993649127</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.09197800231961428</v>
+        <v>0.04248621841401514</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2236628352593951</v>
+        <v>0.05236947899201279</v>
       </c>
       <c r="J201" t="n">
-        <v>0.06483984972612493</v>
+        <v>0.04262816554368322</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2207757146034941</v>
+        <v>0.2745327936100686</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1264269954023879</v>
+        <v>0.0828617031657102</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2206127970768683</v>
+        <v>0.2728086149525901</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1892165361008323</v>
+        <v>0.1240634107279093</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2182221594579037</v>
+        <v>0.2727787252861343</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.09614048463141286</v>
+        <v>0.04188173729279874</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2253074149304201</v>
+        <v>0.05236921046354878</v>
       </c>
       <c r="J202" t="n">
-        <v>0.06534405104500086</v>
+        <v>0.04240772106304642</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2223990654461668</v>
+        <v>0.2765514170924956</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1269298046016094</v>
+        <v>0.08396634383981436</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2222349499965512</v>
+        <v>0.2748145606507709</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1884064484254991</v>
+        <v>0.125361987926538</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2198267341598</v>
+        <v>0.2747844512073558</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.09129632894113296</v>
+        <v>0.04129211420268441</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2269519946014451</v>
+        <v>0.05236894193508475</v>
       </c>
       <c r="J203" t="n">
-        <v>0.06534386191394943</v>
+        <v>0.04287518466161425</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2240224162888396</v>
+        <v>0.2785700405749226</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1271240533701005</v>
+        <v>0.08513501825476508</v>
       </c>
       <c r="M203" t="n">
-        <v>0.223857102916234</v>
+        <v>0.2768205063489517</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1882837943723132</v>
+        <v>0.1262043865767609</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2214313088616964</v>
+        <v>0.2767901771285775</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09144544865679521</v>
+        <v>0.04071789028431904</v>
       </c>
       <c r="G204" t="n">
-        <v>0.22859657427247</v>
+        <v>0.05236867340662074</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0654392263834682</v>
+        <v>0.04382339574397712</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2256457671315123</v>
+        <v>0.2805886640573496</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1269096327624145</v>
+        <v>0.08555401395164691</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2254792558359169</v>
+        <v>0.2788264520471325</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1895484170878132</v>
+        <v>0.1272702149912414</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2230358835635927</v>
+        <v>0.278795903049799</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0895877571864202</v>
+        <v>0.04015960667829888</v>
       </c>
       <c r="G205" t="n">
-        <v>0.230241153943495</v>
+        <v>0.05236840487815672</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0652300885040548</v>
+        <v>0.0446451937147255</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2272691179741851</v>
+        <v>0.2826072875397765</v>
       </c>
       <c r="L205" t="n">
-        <v>0.127686433833105</v>
+        <v>0.0866096184715443</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2271014087555997</v>
+        <v>0.2808323977453133</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1889001597185376</v>
+        <v>0.128739081482643</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2246404582654891</v>
+        <v>0.2808016289710206</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.09772316793802854</v>
+        <v>0.0396178045252694</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2318857336145199</v>
+        <v>0.05236813634969271</v>
       </c>
       <c r="J206" t="n">
-        <v>0.06571639232620703</v>
+        <v>0.04503341797844983</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2288924688168578</v>
+        <v>0.2846259110222035</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1281543476367254</v>
+        <v>0.08878811935554179</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2287235616752826</v>
+        <v>0.2828383434434942</v>
       </c>
       <c r="N206" t="n">
-        <v>0.189238865411025</v>
+        <v>0.1317905943636294</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2262450329673854</v>
+        <v>0.2828073548922421</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09185159431964082</v>
+        <v>0.03909302496582826</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2335303132855449</v>
+        <v>0.05236786782122869</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0654980819004224</v>
+        <v>0.04558090793974055</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2305158196595306</v>
+        <v>0.2866445345046305</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1271132652278292</v>
+        <v>0.08967580414472376</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2303457145949654</v>
+        <v>0.2848442891416749</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1906643773118138</v>
+        <v>0.134604361946864</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2278496076692818</v>
+        <v>0.2848130808134637</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.09797294973927767</v>
+        <v>0.03858580914061948</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2351748929565699</v>
+        <v>0.05236759929276467</v>
       </c>
       <c r="J208" t="n">
-        <v>0.06567510127719862</v>
+        <v>0.04658050300318815</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2321391705022033</v>
+        <v>0.2886631579870574</v>
       </c>
       <c r="L208" t="n">
-        <v>0.12786307766097</v>
+        <v>0.09105896038017491</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2319678675146483</v>
+        <v>0.2868502348398558</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1911765385674428</v>
+        <v>0.1353599925450104</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2294541823711781</v>
+        <v>0.2868188067346853</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.09008714760495962</v>
+        <v>0.03809669819024223</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2368194726275948</v>
+        <v>0.05236733076430065</v>
       </c>
       <c r="J209" t="n">
-        <v>0.06534739450703332</v>
+        <v>0.0471250425733831</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2337625213448761</v>
+        <v>0.2906817814694844</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1277036759907011</v>
+        <v>0.09242387560297943</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2335900204343312</v>
+        <v>0.2888561805380365</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1914751923244503</v>
+        <v>0.1392370944707321</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2310587570730745</v>
+        <v>0.2888245326559069</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.09719410132470735</v>
+        <v>0.037626233255339</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2384640522986198</v>
+        <v>0.05236706223583663</v>
       </c>
       <c r="J210" t="n">
-        <v>0.06541490564042414</v>
+        <v>0.04840736605491575</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2353858721875488</v>
+        <v>0.2927004049519114</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1277349512715763</v>
+        <v>0.09545683735422217</v>
       </c>
       <c r="M210" t="n">
-        <v>0.235212173354014</v>
+        <v>0.2908621262362174</v>
       </c>
       <c r="N210" t="n">
-        <v>0.190160181729375</v>
+        <v>0.1420152760366925</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2326633317749708</v>
+        <v>0.2908302585771285</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.09529372430654146</v>
+        <v>0.0371749554765105</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2401086319696448</v>
+        <v>0.05236679370737261</v>
       </c>
       <c r="J211" t="n">
-        <v>0.06607757872786872</v>
+        <v>0.04942031285237668</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2370092230302216</v>
+        <v>0.2947190284343384</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1283567945581487</v>
+        <v>0.09684413317498736</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2368343262736969</v>
+        <v>0.2928680719343982</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1903313499287555</v>
+        <v>0.1440741455555554</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2342679064768672</v>
+        <v>0.29283598449835</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.09038592995848249</v>
+        <v>0.03674340599439762</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2417532116406697</v>
+        <v>0.0523665251789086</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0656353578198647</v>
+        <v>0.05045672237035624</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2386325738728943</v>
+        <v>0.2967376519167654</v>
       </c>
       <c r="L212" t="n">
-        <v>0.128869096904972</v>
+        <v>0.09777205060635957</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2384564791933798</v>
+        <v>0.294874017632579</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1914885400691303</v>
+        <v>0.1473933113399841</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2358724811787635</v>
+        <v>0.2948417104195716</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.09147063168855113</v>
+        <v>0.03633212594960276</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2433977913116947</v>
+        <v>0.05236625665044458</v>
       </c>
       <c r="J213" t="n">
-        <v>0.06618818696690983</v>
+        <v>0.05120943401344497</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2402559247155671</v>
+        <v>0.2987562753991924</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1285717493665997</v>
+        <v>0.1004268771894233</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2400786321130626</v>
+        <v>0.2968799633307598</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1922315952970379</v>
+        <v>0.1496523817026423</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2374770558806599</v>
+        <v>0.2968474363407932</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09354774290476792</v>
+        <v>0.03594165648276506</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2450423709827197</v>
+        <v>0.05236598812198057</v>
       </c>
       <c r="J214" t="n">
-        <v>0.06583601021950163</v>
+        <v>0.05197128718623324</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2418792755582398</v>
+        <v>0.3007748988816193</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1286646429975851</v>
+        <v>0.1024949004652631</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2417007850327455</v>
+        <v>0.2988859090289406</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1920603587590168</v>
+        <v>0.1523309649561933</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2390816305825562</v>
+        <v>0.2988531622620147</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.09061717701515348</v>
+        <v>0.03594165648276506</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2466869506537446</v>
+        <v>0.05236598812198057</v>
       </c>
       <c r="J215" t="n">
-        <v>0.06597877162813783</v>
+        <v>0.05333512129331155</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2435026264009126</v>
+        <v>0.3027935223640463</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1280476688524819</v>
+        <v>0.1036624079749633</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2433229379524283</v>
+        <v>0.3008918547271214</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1922746736016059</v>
+        <v>0.1555086694133009</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2406862052844526</v>
+        <v>0.3008588881832363</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.09367884742772842</v>
+        <v>0.03504237619597052</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2483315303247696</v>
+        <v>0.05232432448444958</v>
       </c>
       <c r="J216" t="n">
-        <v>0.06631641524331607</v>
+        <v>0.05409377573927038</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2451259772435853</v>
+        <v>0.3048121458464733</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1281207179858435</v>
+        <v>0.1062156872596086</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2449450908721111</v>
+        <v>0.3028978004253022</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1922743829713434</v>
+        <v>0.1582651033866285</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2422907799863489</v>
+        <v>0.3028646141044579</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09573266755051335</v>
+        <v>0.03415210536235547</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2499761099957946</v>
+        <v>0.05228266084691859</v>
       </c>
       <c r="J217" t="n">
-        <v>0.06624888511553394</v>
+        <v>0.05504008992870012</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2467493280862581</v>
+        <v>0.3068307693289002</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1294836814522234</v>
+        <v>0.1072410258602834</v>
       </c>
       <c r="M217" t="n">
-        <v>0.246567243791794</v>
+        <v>0.304903746123483</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1925593300147679</v>
+        <v>0.1606798751888396</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2438953546882453</v>
+        <v>0.3048703400256795</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.09377855079152883</v>
+        <v>0.03327113725164962</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2516206896668195</v>
+        <v>0.05224099720938759</v>
       </c>
       <c r="J218" t="n">
-        <v>0.06637612529528918</v>
+        <v>0.05586690326619126</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2483726789289308</v>
+        <v>0.3088493928113272</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1291364503061751</v>
+        <v>0.109324711318072</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2481893967114769</v>
+        <v>0.3069096918216638</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1927293578784181</v>
+        <v>0.1630325931325978</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2454999293901416</v>
+        <v>0.306876065946901</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.09081641055879552</v>
+        <v>0.0323997651335828</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2532652693378445</v>
+        <v>0.0521993335718566</v>
       </c>
       <c r="J219" t="n">
-        <v>0.06609807983307935</v>
+        <v>0.05706705515633423</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2499960297716036</v>
+        <v>0.3108680162937542</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1288789156022521</v>
+        <v>0.1116530311740593</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2498115496311597</v>
+        <v>0.3089156375198446</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1925843097088325</v>
+        <v>0.1660028655305666</v>
       </c>
       <c r="O219" t="n">
-        <v>0.247104504092038</v>
+        <v>0.3088817918681226</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.09684616026033396</v>
+        <v>0.03153828227788454</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2549098490088695</v>
+        <v>0.05215766993432561</v>
       </c>
       <c r="J220" t="n">
-        <v>0.06631469277940212</v>
+        <v>0.05733338500371954</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2516193806142764</v>
+        <v>0.3128866397761812</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1284109683950078</v>
+        <v>0.1132122729693294</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2514337025508426</v>
+        <v>0.3109215832180255</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1915240286525495</v>
+        <v>0.1688703006954095</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2487090787939343</v>
+        <v>0.3108875177893442</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.09786771330416483</v>
+        <v>0.03068698195428465</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2565544286798944</v>
+        <v>0.05211600629679462</v>
       </c>
       <c r="J221" t="n">
-        <v>0.06622590818475517</v>
+        <v>0.05845873221293757</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2532427314569491</v>
+        <v>0.3149052632586081</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1285324997389958</v>
+        <v>0.114288724244967</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2530558554705254</v>
+        <v>0.3129275289162063</v>
       </c>
       <c r="N221" t="n">
-        <v>0.191348357856108</v>
+        <v>0.17041450693979</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2503136534958307</v>
+        <v>0.3128932437105658</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.09388098309830867</v>
+        <v>0.02984615743251286</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2581990083509194</v>
+        <v>0.05207434265926363</v>
       </c>
       <c r="J222" t="n">
-        <v>0.06613167009963618</v>
+        <v>0.05893593618857879</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2548660822996218</v>
+        <v>0.3169238867410351</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1290434006887694</v>
+        <v>0.1154686725420566</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2546780083902083</v>
+        <v>0.3149334746143871</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1911571404660462</v>
+        <v>0.1723150925763719</v>
       </c>
       <c r="O222" t="n">
-        <v>0.251918228197727</v>
+        <v>0.3148989696317874</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.09888588305078616</v>
+        <v>0.02901610198229893</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2598435880219443</v>
+        <v>0.05203267902173264</v>
       </c>
       <c r="J223" t="n">
-        <v>0.06581469952145612</v>
+        <v>0.06025783633523371</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2564894331422946</v>
+        <v>0.3189425102234621</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1288053622909486</v>
+        <v>0.1167384054016827</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2563001613098911</v>
+        <v>0.3169394203125679</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1922446730989001</v>
+        <v>0.1746516659178183</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2535228028996234</v>
+        <v>0.3169046955530089</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.09177633140775615</v>
+        <v>0.02819710887337255</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2614881676929693</v>
+        <v>0.05199101538420164</v>
       </c>
       <c r="J224" t="n">
-        <v>0.06585611699673806</v>
+        <v>0.06031727205749271</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2581127839849673</v>
+        <v>0.3209611337058891</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1283868780958859</v>
+        <v>0.1188842103649296</v>
       </c>
       <c r="M224" t="n">
-        <v>0.257922314229574</v>
+        <v>0.3189453660107487</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1907817865199974</v>
+        <v>0.1757038352767932</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2551273776015197</v>
+        <v>0.3189104214742305</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.09842461653575349</v>
+        <v>0.02738947137546346</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2631327473639942</v>
+        <v>0.05194935174667065</v>
       </c>
       <c r="J225" t="n">
-        <v>0.06584758348873838</v>
+        <v>0.06140708275994633</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2597361348276401</v>
+        <v>0.3229797571883161</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1284771954153254</v>
+        <v>0.119192374972882</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2595444671492569</v>
+        <v>0.3209513117089295</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1903164832321113</v>
+        <v>0.1782512089659596</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2567319523034161</v>
+        <v>0.320916147395452</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0948568774052008</v>
+        <v>0.02659348275830139</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2647773270350193</v>
+        <v>0.05190768810913966</v>
       </c>
       <c r="J226" t="n">
-        <v>0.06530654088456959</v>
+        <v>0.0620201078471849</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2613594856703128</v>
+        <v>0.324998380670743</v>
       </c>
       <c r="L226" t="n">
-        <v>0.127810277271272</v>
+        <v>0.1209491867666243</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2611666200689397</v>
+        <v>0.3229572574071103</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1890976612638706</v>
+        <v>0.1797733952979814</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2583365270053124</v>
+        <v>0.3229218733166737</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.08910010849265326</v>
+        <v>0.02580943629161608</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2664219067060442</v>
+        <v>0.05186602447160867</v>
       </c>
       <c r="J227" t="n">
-        <v>0.06435043107134426</v>
+        <v>0.06244918672379897</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2629828365129856</v>
+        <v>0.32701700415317</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1263200866857308</v>
+        <v>0.1213409332872411</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2627887729886226</v>
+        <v>0.3249632031052911</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1877742186439041</v>
+        <v>0.1798500025855223</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2599411017072088</v>
+        <v>0.3249275992378952</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09618130427466604</v>
+        <v>0.02503762524513733</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2680664863770691</v>
+        <v>0.05182436083407769</v>
       </c>
       <c r="J228" t="n">
-        <v>0.06379669593617494</v>
+        <v>0.06218715879437897</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2646061873556583</v>
+        <v>0.329035627635597</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1243405866807069</v>
+        <v>0.1214539020758167</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2644109259083054</v>
+        <v>0.3269691488034719</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1841950534008409</v>
+        <v>0.1805606391412453</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2615456764091051</v>
+        <v>0.3269333251591168</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09512745922779423</v>
+        <v>0.02427834288859471</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2697110660480941</v>
+        <v>0.05178269719654669</v>
       </c>
       <c r="J229" t="n">
-        <v>0.06316277736617415</v>
+        <v>0.06302795018450955</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2662295381983311</v>
+        <v>0.3310542511180239</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1228057402782052</v>
+        <v>0.1230877151359248</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2660330788279883</v>
+        <v>0.3289750945016527</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1828090635633093</v>
+        <v>0.1821051660616713</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2631502511110015</v>
+        <v>0.3289390510803384</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.08996556782859297</v>
+        <v>0.023531882491718</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2713556457191191</v>
+        <v>0.0517410335590157</v>
       </c>
       <c r="J230" t="n">
-        <v>0.06246611724845451</v>
+        <v>0.06262929088504253</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2678528890410038</v>
+        <v>0.3330728746004509</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1217495105002308</v>
+        <v>0.1222767151912677</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2676552317476711</v>
+        <v>0.3309810401998335</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1796651471599388</v>
+        <v>0.1826837340343081</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2647548258128978</v>
+        <v>0.3309447770015599</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.08572262455361743</v>
+        <v>0.02279853732423693</v>
       </c>
       <c r="G231" t="n">
-        <v>0.273000225390144</v>
+        <v>0.05169936992148471</v>
       </c>
       <c r="J231" t="n">
-        <v>0.06162415747012849</v>
+        <v>0.06332711634637661</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2694762398836766</v>
+        <v>0.3350914980828779</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1198058603687887</v>
+        <v>0.123758884041145</v>
       </c>
       <c r="M231" t="n">
-        <v>0.269277384667354</v>
+        <v>0.3329869858980143</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1769122022193576</v>
+        <v>0.1838521407930701</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2663594005147942</v>
+        <v>0.3329505029227815</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.08442562387942265</v>
+        <v>0.02207860065588125</v>
       </c>
       <c r="G232" t="n">
-        <v>0.274644805061169</v>
+        <v>0.05165770628395372</v>
       </c>
       <c r="J232" t="n">
-        <v>0.06055433991830869</v>
+        <v>0.0634212880078862</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2710995907263493</v>
+        <v>0.3371101215653049</v>
       </c>
       <c r="L232" t="n">
-        <v>0.119008752905884</v>
+        <v>0.1236339563435316</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2708995375870368</v>
+        <v>0.3349929315961952</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1752991267701949</v>
+        <v>0.1846099917499665</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2679639752166905</v>
+        <v>0.3349562288440031</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09010156028256391</v>
+        <v>0.02137236575638069</v>
       </c>
       <c r="G233" t="n">
-        <v>0.276289384732194</v>
+        <v>0.05161604264642273</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05977410648010763</v>
+        <v>0.06351166730894567</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2727229415690221</v>
+        <v>0.3391287450477318</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1171921511335217</v>
+        <v>0.1240016667564026</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2725216905067197</v>
+        <v>0.336998877294376</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1721748188410794</v>
+        <v>0.1850568923170066</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2695685499185869</v>
+        <v>0.3369619547652247</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.07977742823959622</v>
+        <v>0.02068012589546497</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2779339644032189</v>
+        <v>0.05157437900889174</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05890089904263791</v>
+        <v>0.06359811568892938</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2743462924116948</v>
+        <v>0.3411473685301589</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1152900180737069</v>
+        <v>0.1244617499377328</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2741438434264025</v>
+        <v>0.3390048229925568</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1701881764606399</v>
+        <v>0.1853924479062</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2711731246204832</v>
+        <v>0.3389676806864463</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.07848022222707471</v>
+        <v>0.02000217434286381</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2795785440742439</v>
+        <v>0.05153271537136075</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05795215949301204</v>
+        <v>0.06358049458721177</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2759696432543676</v>
+        <v>0.3431659920125858</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1132363167484446</v>
+        <v>0.1248139405454973</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2757659963460854</v>
+        <v>0.3410107686907376</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1687880976575052</v>
+        <v>0.1860162639295557</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2727776993223796</v>
+        <v>0.3409734066076678</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.07923693672155463</v>
+        <v>0.01933880436830705</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2812231237452689</v>
+        <v>0.05149105173382976</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05704532971834256</v>
+        <v>0.06415866544316713</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2775929940970404</v>
+        <v>0.3451846154950127</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1111650101797398</v>
+        <v>0.1251579732376711</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2773881492657683</v>
+        <v>0.3430167143889184</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1654234804603044</v>
+        <v>0.1860279457990832</v>
       </c>
       <c r="O236" t="n">
-        <v>0.274382274024276</v>
+        <v>0.3429791325288894</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.07707456619959105</v>
+        <v>0.01869030924152418</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2828677034162938</v>
+        <v>0.05144938809629877</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05629785160574204</v>
+        <v>0.06433248969616988</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2792163449397131</v>
+        <v>0.3472032389774398</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1110100613895977</v>
+        <v>0.1247935826722294</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2790103021854511</v>
+        <v>0.3450226600870992</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1631431155966506</v>
+        <v>0.1869270989267917</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2759868487261723</v>
+        <v>0.344984858450111</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.07701094372700251</v>
+        <v>0.0180569822322451</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2845122830873188</v>
+        <v>0.05140772445876778</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05620441116302428</v>
+        <v>0.06430182878559439</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2808396957823858</v>
+        <v>0.3492218624598667</v>
       </c>
       <c r="L238" t="n">
-        <v>0.108758558041183</v>
+        <v>0.1250205035071469</v>
       </c>
       <c r="M238" t="n">
-        <v>0.280632455105134</v>
+        <v>0.3470286057852801</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1612605216236471</v>
+        <v>0.1861133287246905</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2775914234280686</v>
+        <v>0.3469905843713326</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.07896763957655065</v>
+        <v>0.01743911661019947</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2861568627583438</v>
+        <v>0.05136606082123679</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05531169189274084</v>
+        <v>0.06466654415081506</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2824630466250586</v>
+        <v>0.3512404859422937</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1075075995304917</v>
+        <v>0.1260384704003988</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2822546080248168</v>
+        <v>0.3490345514834609</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1594705728419099</v>
+        <v>0.1866862406047889</v>
       </c>
       <c r="O239" t="n">
-        <v>0.279195998129965</v>
+        <v>0.3489963102925541</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.07592035041872208</v>
+        <v>0.01683580812705401</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2878014424293687</v>
+        <v>0.05132439718370579</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0547163506173361</v>
+        <v>0.06462649723120627</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2840863974677313</v>
+        <v>0.3532591094247207</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1062515301686499</v>
+        <v>0.12564721800996</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2838767609444997</v>
+        <v>0.3510404971816417</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1573731534101956</v>
+        <v>0.1874454399790963</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2808005728318614</v>
+        <v>0.3510020362137757</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0728690123026009</v>
+        <v>0.01624016494416009</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2894460221003937</v>
+        <v>0.0512827335461748</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05381834601633272</v>
+        <v>0.06518154946614242</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2857097483104041</v>
+        <v>0.3552777329071476</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1054902694959989</v>
+        <v>0.1260464809938057</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2854989138641826</v>
+        <v>0.3530464428798225</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1547681474872614</v>
+        <v>0.1873905322596219</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2824051475337577</v>
+        <v>0.3530077621349973</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.07281356127727104</v>
+        <v>0.0156512828131844</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2910906017714187</v>
+        <v>0.05124106990864381</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05331763676925327</v>
+        <v>0.06473156229499781</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2873330991530768</v>
+        <v>0.3572963563895746</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1033237370528804</v>
+        <v>0.1271359940099106</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2871210667838654</v>
+        <v>0.3550523885780033</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1545554392318639</v>
+        <v>0.1881211228583751</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2840097222356541</v>
+        <v>0.3550134880562189</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.07775393339181649</v>
+        <v>0.01506945500385667</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2927351814424436</v>
+        <v>0.05119940627111282</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05271418155562044</v>
+        <v>0.06537639715714687</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2889564499957496</v>
+        <v>0.3593149798720016</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1028518523796356</v>
+        <v>0.1268154917162499</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2887432197035482</v>
+        <v>0.3570583342761841</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1516349128027601</v>
+        <v>0.188236817187365</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2856142969375504</v>
+        <v>0.3570192139774405</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.07669006469532125</v>
+        <v>0.01449497478590671</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2943797611134686</v>
+        <v>0.05115774263358183</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05180793905495679</v>
+        <v>0.06561591549196395</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2905798008384223</v>
+        <v>0.3613336033544286</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1011745350166058</v>
+        <v>0.1277847087707985</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2903653726232311</v>
+        <v>0.3590642799743649</v>
       </c>
       <c r="N244" t="n">
-        <v>0.149306452358707</v>
+        <v>0.1898372206586014</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2872188716394468</v>
+        <v>0.359024939898662</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.07362189123686935</v>
+        <v>0.01392813542906407</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2960243407844936</v>
+        <v>0.05111607899605084</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05089886794678498</v>
+        <v>0.06534997873882344</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2922031516810951</v>
+        <v>0.3633522268368555</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1000917045041326</v>
+        <v>0.1275433798315316</v>
       </c>
       <c r="M245" t="n">
-        <v>0.291987525542914</v>
+        <v>0.3610702256725457</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1475699420584611</v>
+        <v>0.190321938684093</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2888234463413431</v>
+        <v>0.3610306658198836</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.06854934906554477</v>
+        <v>0.01336923020305859</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2976689204555185</v>
+        <v>0.05107441535851984</v>
       </c>
       <c r="J246" t="n">
-        <v>0.05038692691062766</v>
+        <v>0.06547844833709975</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2938265025237678</v>
+        <v>0.3653708503192825</v>
       </c>
       <c r="L246" t="n">
-        <v>0.09760328038255733</v>
+        <v>0.127691239556424</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2936096784625968</v>
+        <v>0.3630761713707265</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1455252660607796</v>
+        <v>0.1905905766758494</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2904280210432394</v>
+        <v>0.3630363917411052</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.07447237423043143</v>
+        <v>0.01281855237761997</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2993135001265435</v>
+        <v>0.05103275172098885</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04957207462600739</v>
+        <v>0.06550118572616727</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2954498533664406</v>
+        <v>0.3673894738017095</v>
       </c>
       <c r="L247" t="n">
-        <v>0.09670918219222135</v>
+        <v>0.1277280226034508</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2952318313822797</v>
+        <v>0.3650821170689073</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1428723085244193</v>
+        <v>0.19044274004588</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2920325957451358</v>
+        <v>0.3650421176623267</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.07239090278061341</v>
+        <v>0.01227639522247794</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3009580797975684</v>
+        <v>0.05099108808345786</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04915426977244683</v>
+        <v>0.06591805234540028</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2970732042091133</v>
+        <v>0.3694080972841365</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0949093294734662</v>
+        <v>0.128053463630587</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2968539843019625</v>
+        <v>0.3670880627670881</v>
       </c>
       <c r="N248" t="n">
-        <v>0.141710953608137</v>
+        <v>0.1917780342061939</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2936371704470321</v>
+        <v>0.3670478435835483</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.06330487076517469</v>
+        <v>0.01174305200736223</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3026026594685934</v>
+        <v>0.05094942444592687</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04813347102946859</v>
+        <v>0.06582890963417325</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2986965550517861</v>
+        <v>0.3714267207665635</v>
       </c>
       <c r="L249" t="n">
-        <v>0.09390364176663313</v>
+        <v>0.1291672972958076</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2984761372216454</v>
+        <v>0.3690940084652689</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1394410854706895</v>
+        <v>0.1910960645688006</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2952417451489285</v>
+        <v>0.3690535695047699</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.06821421423319918</v>
+        <v>0.01121881600200257</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3042472391396184</v>
+        <v>0.05090776080839588</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04710963707659534</v>
+        <v>0.06593361903186053</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3003199058944588</v>
+        <v>0.3734453442489904</v>
       </c>
       <c r="L250" t="n">
-        <v>0.09309203861206361</v>
+        <v>0.1284692582570875</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3000982901413282</v>
+        <v>0.3710999541634498</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1365625882708338</v>
+        <v>0.1911964365457093</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2968463198508249</v>
+        <v>0.3710592954259915</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.06911886923377097</v>
+        <v>0.01070398047612869</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3058918188106434</v>
+        <v>0.05086609717086489</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04698272659334966</v>
+        <v>0.06593204197783654</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3019432567371316</v>
+        <v>0.3754639677314174</v>
       </c>
       <c r="L251" t="n">
-        <v>0.09127443955009901</v>
+        <v>0.1296590811724018</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3017204430610111</v>
+        <v>0.3731058998616306</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1360753461673268</v>
+        <v>0.1909787555489293</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2984508945527212</v>
+        <v>0.373065021347213</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.06201877181597402</v>
+        <v>0.01019883869947039</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3075363984816683</v>
+        <v>0.0508244335333339</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04625269825925417</v>
+        <v>0.06602403991147558</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3035666075798044</v>
+        <v>0.3774825912138444</v>
       </c>
       <c r="L252" t="n">
-        <v>0.08935076412108078</v>
+        <v>0.1287365006997255</v>
       </c>
       <c r="M252" t="n">
-        <v>0.303342595980694</v>
+        <v>0.3751118455598114</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1334792433189252</v>
+        <v>0.1916426269904699</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3000554692546176</v>
+        <v>0.3750707472684346</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.06191385802889226</v>
+        <v>0.009703683941757239</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3091809781526933</v>
+        <v>0.05078276989580291</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04511951075383151</v>
+        <v>0.06640947427215206</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3051899584224771</v>
+        <v>0.3795012146962713</v>
       </c>
       <c r="L253" t="n">
-        <v>0.08752093186535037</v>
+        <v>0.1296012514970337</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3049647489003768</v>
+        <v>0.3771177912579922</v>
       </c>
       <c r="N253" t="n">
-        <v>0.131474163884386</v>
+        <v>0.1924876562823404</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3016600439565139</v>
+        <v>0.3770764731896562</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0598040639216098</v>
+        <v>0.00921880947271906</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3108255578237182</v>
+        <v>0.05074110625827192</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04438312275660435</v>
+        <v>0.06608820649924042</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3068133092651498</v>
+        <v>0.3815198381786983</v>
       </c>
       <c r="L254" t="n">
-        <v>0.08728486232324903</v>
+        <v>0.1301530682223013</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3065869018200597</v>
+        <v>0.379123736956173</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1290599920224662</v>
+        <v>0.1930134488365502</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3032646186584103</v>
+        <v>0.3790821991108778</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.05868932554321054</v>
+        <v>0.008744508562085564</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3124701374947432</v>
+        <v>0.05069944262074093</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04364349294709521</v>
+        <v>0.06666009803211491</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3084366601078226</v>
+        <v>0.3835384616611253</v>
       </c>
       <c r="L255" t="n">
-        <v>0.08554247503511825</v>
+        <v>0.1293916855335032</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3082090547397425</v>
+        <v>0.3811296826543538</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1276366118919223</v>
+        <v>0.1934196100651085</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3048691933603066</v>
+        <v>0.3810879250320993</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.05956957894277847</v>
+        <v>0.008281074479586467</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3141147171657682</v>
+        <v>0.05065777898320994</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04310058000482678</v>
+        <v>0.06672501031015003</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3100600109504953</v>
+        <v>0.3855570851435523</v>
       </c>
       <c r="L256" t="n">
-        <v>0.08359368954129945</v>
+        <v>0.1297168380886147</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3098312076594254</v>
+        <v>0.3831356283525346</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1254039076515115</v>
+        <v>0.1936057453800247</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3064737680622029</v>
+        <v>0.3830936509533209</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05644476016939765</v>
+        <v>0.007828800494951528</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3157592968367931</v>
+        <v>0.05061611534567895</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04235434260932169</v>
+        <v>0.0664828047727201</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3116833617931681</v>
+        <v>0.3875757086259792</v>
       </c>
       <c r="L257" t="n">
-        <v>0.08293842538213406</v>
+        <v>0.1305282605456105</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3114533605791082</v>
+        <v>0.3851415740507154</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1214617634599905</v>
+        <v>0.1933714601933081</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3080783427640993</v>
+        <v>0.3850993768745425</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05331480527215204</v>
+        <v>0.007387979877910449</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3174038765078181</v>
+        <v>0.05057445170814795</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04170473944010256</v>
+        <v>0.06643334285919951</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3133067126358409</v>
+        <v>0.3895943321084062</v>
       </c>
       <c r="L258" t="n">
-        <v>0.08067660209796337</v>
+        <v>0.1302256875624657</v>
       </c>
       <c r="M258" t="n">
-        <v>0.313075513498791</v>
+        <v>0.3871475197488962</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1193100634761162</v>
+        <v>0.1943163599169679</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3096829174659956</v>
+        <v>0.3871051027957641</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0591796503001256</v>
+        <v>0.006958905898192966</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3190484561788431</v>
+        <v>0.05053278807061696</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04095172917669203</v>
+        <v>0.06657648600896264</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3149300634785136</v>
+        <v>0.3916129555908332</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07930813922912891</v>
+        <v>0.1306088537971555</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3146976664184739</v>
+        <v>0.389153465447077</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1171486918586455</v>
+        <v>0.1931400499630134</v>
       </c>
       <c r="O259" t="n">
-        <v>0.311287492167892</v>
+        <v>0.3891108287169857</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.06003923130240236</v>
+        <v>0.006541871825528865</v>
       </c>
       <c r="G260" t="n">
-        <v>0.320693035849868</v>
+        <v>0.05049112443308598</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03979527049861264</v>
+        <v>0.06681209566138387</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3165534143211863</v>
+        <v>0.3936315790732602</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07733295631597195</v>
+        <v>0.1305774939076546</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3163198193381568</v>
+        <v>0.3911594111452579</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1150775327663353</v>
+        <v>0.1934421357434542</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3128920668697884</v>
+        <v>0.3911165546382072</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05089348432806628</v>
+        <v>0.006137170929647752</v>
       </c>
       <c r="G261" t="n">
-        <v>0.322337615520893</v>
+        <v>0.05044946079555498</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03923532208538712</v>
+        <v>0.06704003325583759</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3181767651638591</v>
+        <v>0.3956502025556872</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07675097289883398</v>
+        <v>0.1295313425519381</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3179419722578397</v>
+        <v>0.3931653568434386</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1144964703579424</v>
+        <v>0.1945222226702992</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3144966415716847</v>
+        <v>0.3931222805594288</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05274234542620137</v>
+        <v>0.005745096480279425</v>
       </c>
       <c r="G262" t="n">
-        <v>0.323982195191918</v>
+        <v>0.05040779715802399</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03867184261653803</v>
+        <v>0.06706016023169813</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3198001160065319</v>
+        <v>0.3976688260381142</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07446210851805643</v>
+        <v>0.1304701343879811</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3195641251775225</v>
+        <v>0.3951713025416195</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1106053887922237</v>
+        <v>0.193679916155558</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3161012162735811</v>
+        <v>0.3951280064806504</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05458575064589163</v>
+        <v>0.005365941747153595</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3256267748629429</v>
+        <v>0.050366133520493</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03790479077158804</v>
+        <v>0.06707642808513732</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3214234668492046</v>
+        <v>0.3996874495205411</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07356628271398064</v>
+        <v>0.1309014862672456</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3211862780972053</v>
+        <v>0.3971772482398002</v>
       </c>
       <c r="N263" t="n">
-        <v>0.109804172227936</v>
+        <v>0.1947265444493538</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3177057909754774</v>
+        <v>0.3971337324018719</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04842363603622104</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3272713545339679</v>
+        <v>0.05032446988296201</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03713412523005974</v>
+        <v>0.06667642808513734</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3230468176918773</v>
+        <v>0.4017060730029681</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07186341502694804</v>
+        <v>0.1302014862672456</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3228084310168882</v>
+        <v>0.3991831939379811</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1075927048238363</v>
+        <v>0.1939265444493538</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3193103656773738</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.3991394583230936</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05031131198822517</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005907956793633116</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05031158051668918</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006811502753290094</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0503118490451532</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007710595989242813</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05031211757361722</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008605194611841616</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05031238610208124</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.009495256731358752</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05031265463054525</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01038074045814419</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05031292315900927</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01126160390247059</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05031319168747329</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01213780517468749</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05031346021593731</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01300930238506796</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05031372874440132</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01387605364396113</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05031399727286534</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01473801706164051</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05031426580132935</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01559515074845479</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05031453432979337</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0164474128146779</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05031480285825739</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.0172947613706581</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05031507138672141</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01813715452666976</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05031533991518542</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01897455039306072</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05031560844364944</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01980690708010576</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05031587697211346</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02063418269813434</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05031614550057747</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02145633535747552</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0503164140290415</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02227332316840474</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05031668255750551</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0230851042412687</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05031695108596953</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02389163668634336</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05031721961443354</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02469287861397498</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05031748814289756</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02548878813443988</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05031775667136158</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02627949440764654</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0503180251998256</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02706598184124715</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05031829372828961</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02784837959514973</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05031856225675363</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02862664577963144</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05031883078521765</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02940073850503738</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05031909931368167</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.030170615881645</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05031936784214568</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.03093623601979908</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0503196363706097</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.03169755702977747</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05031990489907372</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.03245453702190809</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05032017342753773</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.03320713410651848</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05032044195600175</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.03395530639388709</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05032071048446576</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03469901199435767</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05032097901292978</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03543820901820911</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0503212475413938</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03617285557578474</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05032151606985782</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03690290977736379</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05032178459832184</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03762832973328929</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05032205312678586</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03834907355384084</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05032232165524987</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03906509934936097</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05032259018371389</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03977636523012981</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05032285871217791</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.04048282930648948</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05032312724064193</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.04118444968872041</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05032339576910594</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0418811844871644</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05032366429756996</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.04257299181210227</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05032393282603397</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.04325982977387541</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05032420135449799</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.04394165648276507</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05032446988296201</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.04394165648276507</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05031131198822517</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.04472133138452779</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0503535126826842</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04549486365065056</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05039571337714322</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04626213278412252</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05043791407160224</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04702301828793317</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05048011476606127</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04777739966507168</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05052231546052029</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04852515641852732</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05056451615497932</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0492661680512894</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05060671684943835</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.05000031406634715</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05064891754389737</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0507274739666898</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05069111823835639</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.05144752725530679</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05073331893281542</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.05216035343518733</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05077551962727445</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.05286583200932068</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05081772032173347</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.05356384248069613</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0508599210161925</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.05425426435230286</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05090212171065152</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.05493697712713033</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05094432240511054</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05561186030816773</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05098652309956957</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05627879339840432</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0510287237940286</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05693765590082945</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05107092448848762</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05758832731843231</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05111312518294665</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05823068715420216</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05115532587740567</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0588646149111284</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05119752657186469</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05948999009220025</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05123972726632373</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.06010669220040701</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05128192796078275</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0607146007387379</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05132412865524177</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.06131408723964261</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0513663293497008</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.06190798338287324</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05140853004415982</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.06249666070087941</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05145073073861885</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.06307999869665043</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05149293143307788</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06365787687317553</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0515351321275369</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06423017473344395</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05157733282199593</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0647967717804451</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05161953351645495</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06535754751716824</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05166173421091397</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06591238144660255</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05170393490537301</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06646115307173739</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05174613559983203</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06700374189556202</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05178833629429105</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06754002742106563</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05183053698875008</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06806988915123766</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0518727376832091</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06859320658906731</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05191493837766813</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06910985923754387</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05195713907212716</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0696197265996566</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05199933976658618</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.07012268817839479</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05204154046104521</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.07061862347674763</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05208374115550423</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07110741199770457</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05212594184996325</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0715889332442548</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05216814254442228</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07206306671938761</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05221034323888131</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07252969192609229</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05225254393334033</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07298868836735803</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05229474462779935</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07343993554617423</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05233694532225838</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07388331296553013</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05237914601671741</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07388331296553013</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05237914601671741</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0745212730229807</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05635257521690309</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07511084326950759</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06032600441708876</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07565393224290073</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06429943361727443</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07615244848095004</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0682728628174601</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0766083005214454</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07224629201764578</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07702339690217672</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07621972121783145</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07739964616093392</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08019315041801714</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.07773895683550686</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08416657961820281</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07804323746368549</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08814000881838849</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07831439658325967</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09211343801857415</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.07855434273201933</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09608686721875984</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.07876498444775437</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1000602964189455</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.07894823026825468</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1040337256191312</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.07910598873131017</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1080071548193168</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.07924016837471076</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1119805840195025</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.07935267773624632</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1159540132196882</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0794454253537068</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1199274424198739</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.07952031976488205</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1239008716200596</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.07957926950756203</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1278743008202452</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.07962418311953656</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1318477300204309</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.07965696913859563</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1358211592206166</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.07967953610252909</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1397945884208023</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.07969379254912687</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.143768017620988</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.07970164701617888</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1477414468211736</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.07970500804147496</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.07970578416280508</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1556883052215449</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.07950609177341597</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1596617344217306</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.07859625205917636</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1636351636219163</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.07732381098664576</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.167608592822102</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.07610519159993945</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1715820220222877</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.07533351339148311</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1755554512224733</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.07477927407139906</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.179528880422659</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0742717720656518</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1835023096228447</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.07383104788544673</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1874757388230304</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.07347714204198913</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.191449168023216</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.07323009504648431</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1954225972234017</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.07310077956967359</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1993960264235874</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.07302601590722929</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.203369455623773</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.07297587230684091</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.2073428848239587</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.07293319766502396</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.2113163140241444</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07288084087829383</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.2152897432243301</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.07280165084316598</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.2192631724245157</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.07260838538222017</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2232366016247014</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0720967431651546</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2272100308248871</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.07131423143099191</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2311834600250728</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.07032700962456967</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2351568892252585</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.06920123719072543</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2391303184254442</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.06800307357429675</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2431037476256298</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.06679867822012114</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2470771768258155</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.06565421057303625</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2510506060260012</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.06463583007787957</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2550240352261868</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.06380969617948867</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2589974644263725</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.06317099088095404</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2629708936265582</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.06252362478518286</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2669443228267438</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.06189466930151271</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2709177520269295</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0613336606600299</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2748911812271151</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.06089013509082074</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2788646104273009</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.06061362882397154</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2828380396274865</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.06054923935024297</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2868114688276722</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.06063212101788088</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2907848980278579</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.06081470010094592</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2947583272280436</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.06108368162142765</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2987317564282292</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.06142577060131554</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.3027051856284149</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.06182767206259911</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.3066786148286006</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.06227609102726785</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.3106520440287863</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.06275773251731129</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.3146254732289719</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.06345855270873788</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.3185989024291576</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.06469846771352245</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.3225723316293433</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.06640490334124716</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.326545760829529</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.06849657027602579</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.3305191900297146</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.07089217920197211</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.3344926192299003</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.07351044080319993</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.338466048430086</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.07627006576382303</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.3424394776302717</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.07908976476795521</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.3464129068304573</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.08188824849971016</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.350386336030643</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.08458422764320175</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3543597652308287</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.08709641288254374</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3583331944310144</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.08934351490184989</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3623066236312</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09124424438523401</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3662800528313857</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.09271731201680986</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3702534820315714</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.09368142848069125</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3742269112317571</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09427681093132595</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3782003404319427</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09484544440702375</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3821737696321284</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.09539180189781435</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3861471988323141</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.09591431042019266</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3901206280324998</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.09641139699065365</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3940940572326854</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09688148862569226</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3980674864328711</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09732301234180346</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.4020409156330568</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09773439515548218</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.4060143448332424</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0981140640832234</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.4099877740334281</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09846044614152202</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.4139612032336138</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0987719683468731</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.4179346324337995</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09904705771577152</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.4219080616339852</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.09928414126471219</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.4258814908341709</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09948164601019016</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.4298549200343565</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.09963799896870032</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.4338283492345422</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0997516271567376</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.4378017784347279</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.09984441728737353</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.4417752076349135</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.09984441728737353</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.4457486368350992</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
